--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D402A38C-3206-4B64-9BB5-8888790C9B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -22,39 +31,34 @@
     <t>wiseUSD</t>
   </si>
   <si>
-    <t>wiseTax</t>
-  </si>
-  <si>
     <t>c6EUR</t>
   </si>
   <si>
     <t>c6USD</t>
   </si>
   <si>
-    <t>c6Tax</t>
-  </si>
-  <si>
     <t>nomadEUR</t>
   </si>
   <si>
     <t>nomadUSD</t>
-  </si>
-  <si>
-    <t>nomadTax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -65,36 +69,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -284,20 +297,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -319,17 +337,31 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B2" s="3">
+        <v>6.00265</v>
+      </c>
+      <c r="C2">
+        <v>5.4898899999999999</v>
+      </c>
+      <c r="D2">
+        <v>6.0790199999999999</v>
+      </c>
+      <c r="E2">
+        <v>5.6022400000000001</v>
+      </c>
+      <c r="F2">
+        <v>5.93</v>
+      </c>
+      <c r="G2">
+        <v>5.49</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D402A38C-3206-4B64-9BB5-8888790C9B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C87264E-6E4A-4C7C-9B19-2461F0AC7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,10 +307,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -361,6 +361,52 @@
         <v>5.49</v>
       </c>
     </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6.00265</v>
+      </c>
+      <c r="C3">
+        <v>5.4898899999999999</v>
+      </c>
+      <c r="D3">
+        <v>6.0790199999999999</v>
+      </c>
+      <c r="E3">
+        <v>5.6022400000000001</v>
+      </c>
+      <c r="F3">
+        <v>5.93</v>
+      </c>
+      <c r="G3">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45490</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6.00265</v>
+      </c>
+      <c r="C4">
+        <v>5.4898899999999999</v>
+      </c>
+      <c r="D4">
+        <v>6.0790199999999999</v>
+      </c>
+      <c r="E4">
+        <v>5.6022400000000001</v>
+      </c>
+      <c r="F4">
+        <v>5.93</v>
+      </c>
+      <c r="G4">
+        <v>5.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C87264E-6E4A-4C7C-9B19-2461F0AC7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBFBC8D-B8EE-454E-899F-DA59ADECCC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet name="2024" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -47,10 +47,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -61,6 +62,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -84,11 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -307,16 +318,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -338,15 +352,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>45490</v>
       </c>
-      <c r="B2" s="3">
-        <v>6.00265</v>
+      <c r="B2" s="2">
+        <v>5.9731800000000002</v>
       </c>
       <c r="C2">
-        <v>5.4898899999999999</v>
+        <v>5.4586899999999998</v>
       </c>
       <c r="D2">
         <v>6.0790199999999999</v>
@@ -361,15 +375,15 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>45490</v>
       </c>
-      <c r="B3" s="3">
-        <v>6.00265</v>
+      <c r="B3" s="2">
+        <v>5.9967499999999996</v>
       </c>
       <c r="C3">
-        <v>5.4898899999999999</v>
+        <v>5.4864600000000001</v>
       </c>
       <c r="D3">
         <v>6.0790199999999999</v>
@@ -384,12 +398,12 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>45490</v>
       </c>
-      <c r="B4" s="3">
-        <v>6.00265</v>
+      <c r="B4" s="2">
+        <v>6.0023600000000004</v>
       </c>
       <c r="C4">
         <v>5.4898899999999999</v>
@@ -405,6 +419,1212 @@
       </c>
       <c r="G4">
         <v>5.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45583</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.00298</v>
+      </c>
+      <c r="C5">
+        <v>5.4920900000000001</v>
+      </c>
+      <c r="D5">
+        <v>6.1162000000000001</v>
+      </c>
+      <c r="E5">
+        <v>5.6785899999999998</v>
+      </c>
+      <c r="F5">
+        <v>6.09</v>
+      </c>
+      <c r="G5">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45583</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.0900600000000003</v>
+      </c>
+      <c r="C6">
+        <v>5.5887500000000001</v>
+      </c>
+      <c r="D6">
+        <v>6.1162000000000001</v>
+      </c>
+      <c r="E6">
+        <v>5.6785899999999998</v>
+      </c>
+      <c r="F6">
+        <v>6.09</v>
+      </c>
+      <c r="G6">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45583</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.0370799999999996</v>
+      </c>
+      <c r="C7">
+        <v>5.5447100000000002</v>
+      </c>
+      <c r="D7">
+        <v>6.1162000000000001</v>
+      </c>
+      <c r="E7">
+        <v>5.6785899999999998</v>
+      </c>
+      <c r="F7">
+        <v>6.09</v>
+      </c>
+      <c r="G7">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45584</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.0396299999999998</v>
+      </c>
+      <c r="C8">
+        <v>5.5445000000000002</v>
+      </c>
+      <c r="D8">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E8">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F8">
+        <v>6.1</v>
+      </c>
+      <c r="G8">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45584</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.0720099999999997</v>
+      </c>
+      <c r="C9">
+        <v>5.5788599999999997</v>
+      </c>
+      <c r="D9">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E9">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F9">
+        <v>6.1</v>
+      </c>
+      <c r="G9">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45584</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C10">
+        <v>5.59816</v>
+      </c>
+      <c r="D10">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E10">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F10">
+        <v>6.1</v>
+      </c>
+      <c r="G10">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B11">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C11">
+        <v>5.59816</v>
+      </c>
+      <c r="D11">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E11">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F11">
+        <v>6.03</v>
+      </c>
+      <c r="G11">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B12">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C12">
+        <v>5.59816</v>
+      </c>
+      <c r="D12">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E12">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F12">
+        <v>6.03</v>
+      </c>
+      <c r="G12">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B13">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C13">
+        <v>5.59816</v>
+      </c>
+      <c r="D13">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E13">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F13">
+        <v>6.03</v>
+      </c>
+      <c r="G13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B14">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C14">
+        <v>5.59816</v>
+      </c>
+      <c r="D14">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E14">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F14">
+        <v>6.03</v>
+      </c>
+      <c r="G14">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B15">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C15">
+        <v>5.59816</v>
+      </c>
+      <c r="D15">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E15">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F15">
+        <v>6.03</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B16">
+        <v>6.0363499999999997</v>
+      </c>
+      <c r="C16">
+        <v>5.5453000000000001</v>
+      </c>
+      <c r="D16">
+        <v>6.2227699999999997</v>
+      </c>
+      <c r="E16">
+        <v>5.7110200000000004</v>
+      </c>
+      <c r="F16">
+        <v>6.06</v>
+      </c>
+      <c r="G16">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B17">
+        <v>6.0609000000000002</v>
+      </c>
+      <c r="C17">
+        <v>5.5717100000000004</v>
+      </c>
+      <c r="D17">
+        <v>6.1690300000000002</v>
+      </c>
+      <c r="E17">
+        <v>5.6625100000000002</v>
+      </c>
+      <c r="F17">
+        <v>6.05</v>
+      </c>
+      <c r="G17">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B18">
+        <v>6.06351</v>
+      </c>
+      <c r="C18">
+        <v>5.5692599999999999</v>
+      </c>
+      <c r="D18">
+        <v>6.0240900000000002</v>
+      </c>
+      <c r="E18">
+        <v>5.6818099999999996</v>
+      </c>
+      <c r="F18">
+        <v>6.06</v>
+      </c>
+      <c r="G18">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B19">
+        <v>6.0671900000000001</v>
+      </c>
+      <c r="C19">
+        <v>5.5720900000000002</v>
+      </c>
+      <c r="D19">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E19">
+        <v>5.6818099999999996</v>
+      </c>
+      <c r="F19">
+        <v>6.11</v>
+      </c>
+      <c r="G19">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>45496</v>
+      </c>
+      <c r="B20">
+        <v>6.0692899999999996</v>
+      </c>
+      <c r="C20">
+        <v>5.5933099999999998</v>
+      </c>
+      <c r="D20">
+        <v>6.1804600000000001</v>
+      </c>
+      <c r="E20">
+        <v>5.6980000000000004</v>
+      </c>
+      <c r="F20">
+        <v>6.07</v>
+      </c>
+      <c r="G20">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>45496</v>
+      </c>
+      <c r="B21">
+        <v>6.0613000000000001</v>
+      </c>
+      <c r="C21">
+        <v>5.5861900000000002</v>
+      </c>
+      <c r="D21">
+        <v>6.18811</v>
+      </c>
+      <c r="E21">
+        <v>5.7012499999999999</v>
+      </c>
+      <c r="F21">
+        <v>6.06</v>
+      </c>
+      <c r="G21">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>45496</v>
+      </c>
+      <c r="B22">
+        <v>6.0602799999999997</v>
+      </c>
+      <c r="C22">
+        <v>5.5865600000000004</v>
+      </c>
+      <c r="D22">
+        <v>6.1996200000000004</v>
+      </c>
+      <c r="E22">
+        <v>5.6980000000000004</v>
+      </c>
+      <c r="F22">
+        <v>6.07</v>
+      </c>
+      <c r="G22">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>45497</v>
+      </c>
+      <c r="B23">
+        <v>6.1232899999999999</v>
+      </c>
+      <c r="C23">
+        <v>5.6412399999999998</v>
+      </c>
+      <c r="D23">
+        <v>6.2382999999999997</v>
+      </c>
+      <c r="E23">
+        <v>5.7471199999999998</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="G23">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>45497</v>
+      </c>
+      <c r="B24">
+        <v>6.1300400000000002</v>
+      </c>
+      <c r="C24">
+        <v>5.6542899999999996</v>
+      </c>
+      <c r="D24">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E24">
+        <v>5.77034</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="G24">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>45497</v>
+      </c>
+      <c r="B25">
+        <v>6.1289499999999997</v>
+      </c>
+      <c r="C25">
+        <v>5.6550500000000001</v>
+      </c>
+      <c r="D25">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E25">
+        <v>5.77034</v>
+      </c>
+      <c r="F25" s="3">
+        <v>6.08</v>
+      </c>
+      <c r="G25">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>45498</v>
+      </c>
+      <c r="B26">
+        <v>6.1245200000000004</v>
+      </c>
+      <c r="C26">
+        <v>5.6501999999999999</v>
+      </c>
+      <c r="D26">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E26">
+        <v>5.76701</v>
+      </c>
+      <c r="F26" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="G26">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>45498</v>
+      </c>
+      <c r="B27">
+        <v>6.1251600000000002</v>
+      </c>
+      <c r="C27">
+        <v>5.64764</v>
+      </c>
+      <c r="D27">
+        <v>6.2538999999999998</v>
+      </c>
+      <c r="E27">
+        <v>5.7570499999999996</v>
+      </c>
+      <c r="F27" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>45498</v>
+      </c>
+      <c r="B28">
+        <v>6.1287700000000003</v>
+      </c>
+      <c r="C28">
+        <v>5.6452499999999999</v>
+      </c>
+      <c r="D28">
+        <v>6.2892999999999999</v>
+      </c>
+      <c r="E28">
+        <v>5.7570499999999996</v>
+      </c>
+      <c r="F28" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B29">
+        <v>6.1281999999999996</v>
+      </c>
+      <c r="C29">
+        <v>5.6402900000000002</v>
+      </c>
+      <c r="D29">
+        <v>6.2735200000000004</v>
+      </c>
+      <c r="E29">
+        <v>5.7570499999999996</v>
+      </c>
+      <c r="F29" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B30">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="C30">
+        <v>5.6578400000000002</v>
+      </c>
+      <c r="D30">
+        <v>6.2813999999999997</v>
+      </c>
+      <c r="E30">
+        <v>5.7570499999999996</v>
+      </c>
+      <c r="F30" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="G30" s="3">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B31">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="C31">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="D31">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E31">
+        <v>5.77034</v>
+      </c>
+      <c r="F31">
+        <v>6.13</v>
+      </c>
+      <c r="G31">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>45500</v>
+      </c>
+      <c r="B32">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="C32">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="D32">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E32">
+        <v>5.77034</v>
+      </c>
+      <c r="F32">
+        <v>6.13</v>
+      </c>
+      <c r="G32">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>45500</v>
+      </c>
+      <c r="B33">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="C33">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="D33">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E33">
+        <v>5.77034</v>
+      </c>
+      <c r="F33">
+        <v>6.13</v>
+      </c>
+      <c r="G33">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>45500</v>
+      </c>
+      <c r="B34">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="C34">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="D34">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E34">
+        <v>5.77034</v>
+      </c>
+      <c r="F34">
+        <v>6.13</v>
+      </c>
+      <c r="G34">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B35">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="C35">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="D35">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E35">
+        <v>5.77034</v>
+      </c>
+      <c r="F35">
+        <v>6.13</v>
+      </c>
+      <c r="G35">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B36">
+        <v>6.1428500000000001</v>
+      </c>
+      <c r="C36">
+        <v>5.65665</v>
+      </c>
+      <c r="D36">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E36">
+        <v>5.7803399999999998</v>
+      </c>
+      <c r="F36">
+        <v>6.15</v>
+      </c>
+      <c r="G36">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B37">
+        <v>6.1418600000000003</v>
+      </c>
+      <c r="C37">
+        <v>5.6568100000000001</v>
+      </c>
+      <c r="D37">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E37">
+        <v>5.7803399999999998</v>
+      </c>
+      <c r="F37">
+        <v>6.13</v>
+      </c>
+      <c r="G37">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>45502</v>
+      </c>
+      <c r="B38">
+        <v>6.1089200000000003</v>
+      </c>
+      <c r="C38">
+        <v>5.6509</v>
+      </c>
+      <c r="D38">
+        <v>6.2344099999999996</v>
+      </c>
+      <c r="E38">
+        <v>5.7636799999999999</v>
+      </c>
+      <c r="F38">
+        <v>6.11</v>
+      </c>
+      <c r="G38">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>45502</v>
+      </c>
+      <c r="B39">
+        <v>6.08887</v>
+      </c>
+      <c r="C39">
+        <v>5.6242999999999999</v>
+      </c>
+      <c r="D39">
+        <v>6.2188999999999997</v>
+      </c>
+      <c r="E39">
+        <v>5.7405200000000001</v>
+      </c>
+      <c r="F39">
+        <v>6.09</v>
+      </c>
+      <c r="G39">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>45502</v>
+      </c>
+      <c r="B40">
+        <v>6.0749300000000002</v>
+      </c>
+      <c r="C40">
+        <v>5.6160800000000002</v>
+      </c>
+      <c r="D40">
+        <v>6.2892999999999999</v>
+      </c>
+      <c r="E40">
+        <v>5.7306499999999998</v>
+      </c>
+      <c r="F40">
+        <v>6.14</v>
+      </c>
+      <c r="G40">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>45503</v>
+      </c>
+      <c r="B41">
+        <v>6.1143400000000003</v>
+      </c>
+      <c r="C41">
+        <v>5.6556600000000001</v>
+      </c>
+      <c r="D41">
+        <v>6.2344099999999996</v>
+      </c>
+      <c r="E41">
+        <v>5.7636799999999999</v>
+      </c>
+      <c r="F41">
+        <v>6.11</v>
+      </c>
+      <c r="G41">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>45503</v>
+      </c>
+      <c r="B42">
+        <v>6.0705400000000003</v>
+      </c>
+      <c r="C42">
+        <v>5.6123000000000003</v>
+      </c>
+      <c r="D42">
+        <v>6.1996200000000004</v>
+      </c>
+      <c r="E42">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F42">
+        <v>6.07</v>
+      </c>
+      <c r="G42">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>45503</v>
+      </c>
+      <c r="B43">
+        <v>6.0747400000000003</v>
+      </c>
+      <c r="C43">
+        <v>5.6125499999999997</v>
+      </c>
+      <c r="D43">
+        <v>6.2305200000000003</v>
+      </c>
+      <c r="E43">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F43">
+        <v>6.08</v>
+      </c>
+      <c r="G43">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>45504</v>
+      </c>
+      <c r="B44">
+        <v>6.15245</v>
+      </c>
+      <c r="C44">
+        <v>5.6746600000000003</v>
+      </c>
+      <c r="D44">
+        <v>6.2421899999999999</v>
+      </c>
+      <c r="E44">
+        <v>5.76701</v>
+      </c>
+      <c r="F44">
+        <v>6.12</v>
+      </c>
+      <c r="G44">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>45504</v>
+      </c>
+      <c r="B45">
+        <v>6.1144100000000003</v>
+      </c>
+      <c r="C45">
+        <v>5.6479900000000001</v>
+      </c>
+      <c r="D45">
+        <v>6.2460899999999997</v>
+      </c>
+      <c r="E45">
+        <v>5.77034</v>
+      </c>
+      <c r="F45">
+        <v>6.12</v>
+      </c>
+      <c r="G45">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45504</v>
+      </c>
+      <c r="B46">
+        <v>6.1261000000000001</v>
+      </c>
+      <c r="C46">
+        <v>5.6578999999999997</v>
+      </c>
+      <c r="D46">
+        <v>6.2266500000000002</v>
+      </c>
+      <c r="E46">
+        <v>5.7736700000000001</v>
+      </c>
+      <c r="F46">
+        <v>6.08</v>
+      </c>
+      <c r="G46">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B47">
+        <v>6.0955500000000002</v>
+      </c>
+      <c r="C47">
+        <v>5.6421900000000003</v>
+      </c>
+      <c r="D47">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="E47">
+        <v>5.8139500000000002</v>
+      </c>
+      <c r="F47">
+        <v>6.15</v>
+      </c>
+      <c r="G47">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B48">
+        <v>6.1876199999999999</v>
+      </c>
+      <c r="C48">
+        <v>5.7348699999999999</v>
+      </c>
+      <c r="D48">
+        <v>6.3171099999999996</v>
+      </c>
+      <c r="E48">
+        <v>5.8685400000000003</v>
+      </c>
+      <c r="F48">
+        <v>6.19</v>
+      </c>
+      <c r="G48">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B49">
+        <v>6.2071300000000003</v>
+      </c>
+      <c r="C49">
+        <v>5.7524199999999999</v>
+      </c>
+      <c r="D49">
+        <v>6.25</v>
+      </c>
+      <c r="E49">
+        <v>5.8685400000000003</v>
+      </c>
+      <c r="F49">
+        <v>6.1</v>
+      </c>
+      <c r="G49">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>45506</v>
+      </c>
+      <c r="B50">
+        <v>6.2333999999999996</v>
+      </c>
+      <c r="C50">
+        <v>5.7158499999999997</v>
+      </c>
+      <c r="D50">
+        <v>6.3734799999999998</v>
+      </c>
+      <c r="E50">
+        <v>5.8377100000000004</v>
+      </c>
+      <c r="F50">
+        <v>6.24</v>
+      </c>
+      <c r="G50">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>45506</v>
+      </c>
+      <c r="B51">
+        <v>6.23088</v>
+      </c>
+      <c r="C51">
+        <v>5.7095900000000004</v>
+      </c>
+      <c r="D51">
+        <v>6.25</v>
+      </c>
+      <c r="E51">
+        <v>5.8685400000000003</v>
+      </c>
+      <c r="F51">
+        <v>6.23</v>
+      </c>
+      <c r="G51">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>45506</v>
+      </c>
+      <c r="B52">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="C52">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="D52">
+        <v>6.3613200000000001</v>
+      </c>
+      <c r="E52">
+        <v>5.8445299999999998</v>
+      </c>
+      <c r="F52">
+        <v>6.23</v>
+      </c>
+      <c r="G52">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>45507</v>
+      </c>
+      <c r="B53">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="C53">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="D53">
+        <v>6.3613200000000001</v>
+      </c>
+      <c r="E53">
+        <v>5.8445299999999998</v>
+      </c>
+      <c r="F53">
+        <v>6.23</v>
+      </c>
+      <c r="G53">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>45507</v>
+      </c>
+      <c r="B54">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="C54">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="D54">
+        <v>6.3613200000000001</v>
+      </c>
+      <c r="E54">
+        <v>5.8445299999999998</v>
+      </c>
+      <c r="F54">
+        <v>6.25</v>
+      </c>
+      <c r="G54">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>45507</v>
+      </c>
+      <c r="B55">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="C55">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="D55">
+        <v>6.3613200000000001</v>
+      </c>
+      <c r="E55">
+        <v>5.8445299999999998</v>
+      </c>
+      <c r="F55">
+        <v>6.25</v>
+      </c>
+      <c r="G55">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>45508</v>
+      </c>
+      <c r="B56">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="C56">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="D56">
+        <v>6.3613200000000001</v>
+      </c>
+      <c r="E56">
+        <v>5.8445299999999998</v>
+      </c>
+      <c r="F56">
+        <v>6.25</v>
+      </c>
+      <c r="G56">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>45508</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>45508</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBFBC8D-B8EE-454E-899F-DA59ADECCC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F5AE0A-5891-4818-8021-9BE02F468D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,10 +318,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1621,10 +1621,184 @@
       <c r="A57" s="5">
         <v>45508</v>
       </c>
+      <c r="B57">
+        <v>6.2564099999999998</v>
+      </c>
+      <c r="C57">
+        <v>5.7272100000000004</v>
+      </c>
+      <c r="D57">
+        <v>6.3613200000000001</v>
+      </c>
+      <c r="E57">
+        <v>5.8445299999999998</v>
+      </c>
+      <c r="F57">
+        <v>6.25</v>
+      </c>
+      <c r="G57">
+        <v>5.73</v>
+      </c>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>45508</v>
+      </c>
+      <c r="B58">
+        <v>6.25481</v>
+      </c>
+      <c r="C58">
+        <v>5.7281000000000004</v>
+      </c>
+      <c r="D58">
+        <v>6.3775500000000003</v>
+      </c>
+      <c r="E58">
+        <v>5.8445299999999998</v>
+      </c>
+      <c r="F58">
+        <v>6.25</v>
+      </c>
+      <c r="G58">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>45509</v>
+      </c>
+      <c r="B59">
+        <v>6.3701999999999996</v>
+      </c>
+      <c r="C59">
+        <v>5.8010999999999999</v>
+      </c>
+      <c r="D59">
+        <v>6.3775500000000003</v>
+      </c>
+      <c r="E59">
+        <v>5.8377100000000004</v>
+      </c>
+      <c r="F59">
+        <v>6.27</v>
+      </c>
+      <c r="G59">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>45509</v>
+      </c>
+      <c r="B60">
+        <v>6.2915599999999996</v>
+      </c>
+      <c r="C60">
+        <v>5.7407599999999999</v>
+      </c>
+      <c r="D60">
+        <v>6.4226000000000001</v>
+      </c>
+      <c r="E60">
+        <v>5.8513700000000002</v>
+      </c>
+      <c r="F60">
+        <v>6.29</v>
+      </c>
+      <c r="G60">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>45509</v>
+      </c>
+      <c r="B61">
+        <v>6.2695499999999997</v>
+      </c>
+      <c r="C61">
+        <v>5.7229799999999997</v>
+      </c>
+      <c r="D61">
+        <v>6.4226000000000001</v>
+      </c>
+      <c r="E61">
+        <v>5.8377100000000004</v>
+      </c>
+      <c r="F61">
+        <v>6.27</v>
+      </c>
+      <c r="G61">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>45510</v>
+      </c>
+      <c r="B62">
+        <v>6.1828000000000003</v>
+      </c>
+      <c r="C62">
+        <v>5.6627099999999997</v>
+      </c>
+      <c r="D62">
+        <v>6.32111</v>
+      </c>
+      <c r="E62">
+        <v>5.7836800000000004</v>
+      </c>
+      <c r="F62">
+        <v>6.19</v>
+      </c>
+      <c r="G62">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>45510</v>
+      </c>
+      <c r="B63">
+        <v>6.1848700000000001</v>
+      </c>
+      <c r="C63">
+        <v>5.6586100000000004</v>
+      </c>
+      <c r="D63">
+        <v>6.3131300000000001</v>
+      </c>
+      <c r="E63">
+        <v>5.77034</v>
+      </c>
+      <c r="F63">
+        <v>6.19</v>
+      </c>
+      <c r="G63">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>45510</v>
+      </c>
+      <c r="B64">
+        <v>6.1767700000000003</v>
+      </c>
+      <c r="C64">
+        <v>5.6571600000000002</v>
+      </c>
+      <c r="D64">
+        <v>6.3938600000000001</v>
+      </c>
+      <c r="E64">
+        <v>5.77034</v>
+      </c>
+      <c r="F64">
+        <v>6.24</v>
+      </c>
+      <c r="G64">
+        <v>5.66</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F5AE0A-5891-4818-8021-9BE02F468D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C76141-7D05-4ADF-8386-76070E29F1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>nomadUSD</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -318,10 +321,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1801,6 +1804,351 @@
         <v>5.66</v>
       </c>
     </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>45511</v>
+      </c>
+      <c r="B65">
+        <v>6.1179699999999997</v>
+      </c>
+      <c r="C65">
+        <v>5.6033099999999996</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>6.12</v>
+      </c>
+      <c r="G65">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>45511</v>
+      </c>
+      <c r="B66">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="C66">
+        <v>5.6236600000000001</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>6.15</v>
+      </c>
+      <c r="G66">
+        <v>5.63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>45511</v>
+      </c>
+      <c r="B67">
+        <v>6.1602499999999996</v>
+      </c>
+      <c r="C67">
+        <v>5.6373899999999999</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>6.17</v>
+      </c>
+      <c r="G67">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>45512</v>
+      </c>
+      <c r="B68">
+        <v>6.1177400000000004</v>
+      </c>
+      <c r="C68">
+        <v>5.617</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>6.12</v>
+      </c>
+      <c r="G68">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>45512</v>
+      </c>
+      <c r="B69">
+        <v>6.0851300000000004</v>
+      </c>
+      <c r="C69">
+        <v>5.5742599999999998</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>6.09</v>
+      </c>
+      <c r="G69">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5">
+        <v>45512</v>
+      </c>
+      <c r="B70">
+        <v>6.0570500000000003</v>
+      </c>
+      <c r="C70">
+        <v>5.5475099999999999</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>6.06</v>
+      </c>
+      <c r="G70">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5">
+        <v>45513</v>
+      </c>
+      <c r="B71">
+        <v>6.0171000000000001</v>
+      </c>
+      <c r="C71">
+        <v>5.5172400000000001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71">
+        <v>6.02</v>
+      </c>
+      <c r="G71">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5">
+        <v>45513</v>
+      </c>
+      <c r="B72">
+        <v>6.0211600000000001</v>
+      </c>
+      <c r="C72">
+        <v>5.5146600000000001</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72">
+        <v>6.03</v>
+      </c>
+      <c r="G72">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5">
+        <v>45513</v>
+      </c>
+      <c r="B73">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="C73">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="D73">
+        <v>6.14628</v>
+      </c>
+      <c r="E73">
+        <v>5.6179699999999997</v>
+      </c>
+      <c r="F73">
+        <v>6.03</v>
+      </c>
+      <c r="G73">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5">
+        <v>45514</v>
+      </c>
+      <c r="B74">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="C74">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="D74">
+        <v>6.14628</v>
+      </c>
+      <c r="E74">
+        <v>5.6179699999999997</v>
+      </c>
+      <c r="F74">
+        <v>6.03</v>
+      </c>
+      <c r="G74">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
+        <v>45514</v>
+      </c>
+      <c r="B75">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="C75">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="D75">
+        <v>6.14628</v>
+      </c>
+      <c r="E75">
+        <v>5.6179699999999997</v>
+      </c>
+      <c r="F75">
+        <v>6.02</v>
+      </c>
+      <c r="G75">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5">
+        <v>45514</v>
+      </c>
+      <c r="B76">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="C76">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="D76">
+        <v>6.14628</v>
+      </c>
+      <c r="E76">
+        <v>5.6179699999999997</v>
+      </c>
+      <c r="F76">
+        <v>6.02</v>
+      </c>
+      <c r="G76">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5">
+        <v>45515</v>
+      </c>
+      <c r="B77">
+        <v>6.0078100000000001</v>
+      </c>
+      <c r="C77">
+        <v>5.4993999999999996</v>
+      </c>
+      <c r="D77">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="E77">
+        <v>5.62113</v>
+      </c>
+      <c r="F77">
+        <v>6.02</v>
+      </c>
+      <c r="G77">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5">
+        <v>45515</v>
+      </c>
+      <c r="B78">
+        <v>6.0093300000000003</v>
+      </c>
+      <c r="C78">
+        <v>5.4977400000000003</v>
+      </c>
+      <c r="D78">
+        <v>6.1349600000000004</v>
+      </c>
+      <c r="E78">
+        <v>5.6053800000000003</v>
+      </c>
+      <c r="F78">
+        <v>6.01</v>
+      </c>
+      <c r="G78">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5">
+        <v>45515</v>
+      </c>
+      <c r="B79">
+        <v>6.0075200000000004</v>
+      </c>
+      <c r="C79">
+        <v>5.4938399999999996</v>
+      </c>
+      <c r="D79">
+        <v>6.1652199999999997</v>
+      </c>
+      <c r="E79">
+        <v>5.6053800000000003</v>
+      </c>
+      <c r="F79">
+        <v>6.02</v>
+      </c>
+      <c r="G79">
+        <v>5.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C76141-7D05-4ADF-8386-76070E29F1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCA53E-F0F8-4CF1-BB58-7D68C7BA1C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t>date</t>
   </si>
@@ -321,10 +321,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2149,6 +2149,420 @@
         <v>5.49</v>
       </c>
     </row>
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5">
+        <v>45516</v>
+      </c>
+      <c r="B80">
+        <v>6.0078100000000001</v>
+      </c>
+      <c r="C80">
+        <v>5.4993999999999996</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5">
+        <v>45516</v>
+      </c>
+      <c r="B81">
+        <v>6.0093300000000003</v>
+      </c>
+      <c r="C81">
+        <v>5.4877399999999996</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5">
+        <v>45516</v>
+      </c>
+      <c r="B82">
+        <v>6.0075200000000004</v>
+      </c>
+      <c r="C82">
+        <v>5.4938399999999996</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5">
+        <v>45517</v>
+      </c>
+      <c r="B83">
+        <v>6.0146800000000002</v>
+      </c>
+      <c r="C83">
+        <v>5.4891100000000002</v>
+      </c>
+      <c r="D83">
+        <v>6.1349600000000004</v>
+      </c>
+      <c r="E83">
+        <v>5.5991</v>
+      </c>
+      <c r="F83">
+        <v>6.01</v>
+      </c>
+      <c r="G83">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
+        <v>45517</v>
+      </c>
+      <c r="B84">
+        <v>5.9917600000000002</v>
+      </c>
+      <c r="C84">
+        <v>5.4487899999999998</v>
+      </c>
+      <c r="D84">
+        <v>6.1162000000000001</v>
+      </c>
+      <c r="E84">
+        <v>5.56792</v>
+      </c>
+      <c r="F84">
+        <v>5.99</v>
+      </c>
+      <c r="G84">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
+        <v>45517</v>
+      </c>
+      <c r="B85">
+        <v>5.9986600000000001</v>
+      </c>
+      <c r="C85">
+        <v>5.4572900000000004</v>
+      </c>
+      <c r="D85">
+        <v>6.1236899999999999</v>
+      </c>
+      <c r="E85">
+        <v>5.5632799999999998</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5">
+        <v>45518</v>
+      </c>
+      <c r="B86">
+        <v>6.0144599999999997</v>
+      </c>
+      <c r="C86">
+        <v>5.44909</v>
+      </c>
+      <c r="D86">
+        <v>6.1311999999999998</v>
+      </c>
+      <c r="E86">
+        <v>5.5586399999999996</v>
+      </c>
+      <c r="F86">
+        <v>6.01</v>
+      </c>
+      <c r="G86">
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5">
+        <v>45518</v>
+      </c>
+      <c r="B87">
+        <v>6.0229699999999999</v>
+      </c>
+      <c r="C87">
+        <v>5.46896</v>
+      </c>
+      <c r="D87">
+        <v>6.14628</v>
+      </c>
+      <c r="E87">
+        <v>5.5834700000000002</v>
+      </c>
+      <c r="F87">
+        <v>6.02</v>
+      </c>
+      <c r="G87">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5">
+        <v>45518</v>
+      </c>
+      <c r="B88">
+        <v>6.0214800000000004</v>
+      </c>
+      <c r="C88">
+        <v>5.4706099999999998</v>
+      </c>
+      <c r="D88">
+        <v>6.1614199999999997</v>
+      </c>
+      <c r="E88">
+        <v>5.5803500000000001</v>
+      </c>
+      <c r="F88" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="G88">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5">
+        <v>45519</v>
+      </c>
+      <c r="B89">
+        <v>5.9838699999999996</v>
+      </c>
+      <c r="C89">
+        <v>5.4555100000000003</v>
+      </c>
+      <c r="D89">
+        <v>6.1236899999999999</v>
+      </c>
+      <c r="E89">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F89">
+        <v>6</v>
+      </c>
+      <c r="G89">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5">
+        <v>45519</v>
+      </c>
+      <c r="B90">
+        <v>6.0173199999999998</v>
+      </c>
+      <c r="C90">
+        <v>5.4836900000000002</v>
+      </c>
+      <c r="D90">
+        <v>6.1690300000000002</v>
+      </c>
+      <c r="E90">
+        <v>5.5959700000000003</v>
+      </c>
+      <c r="F90">
+        <v>6.02</v>
+      </c>
+      <c r="G90">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5">
+        <v>45519</v>
+      </c>
+      <c r="B91">
+        <v>6.0248200000000001</v>
+      </c>
+      <c r="C91">
+        <v>5.4863400000000002</v>
+      </c>
+      <c r="D91">
+        <v>6.1557599999999999</v>
+      </c>
+      <c r="E91">
+        <v>5.5865999999999998</v>
+      </c>
+      <c r="F91">
+        <v>6.02</v>
+      </c>
+      <c r="G91">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5">
+        <v>45520</v>
+      </c>
+      <c r="B92">
+        <v>6.0010300000000001</v>
+      </c>
+      <c r="C92">
+        <v>5.4542599999999997</v>
+      </c>
+      <c r="D92">
+        <v>6.1425000000000001</v>
+      </c>
+      <c r="E92">
+        <v>5.5772399999999998</v>
+      </c>
+      <c r="F92">
+        <v>6.02</v>
+      </c>
+      <c r="G92">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>45520</v>
+      </c>
+      <c r="B93">
+        <v>6.0262700000000002</v>
+      </c>
+      <c r="C93">
+        <v>5.46624</v>
+      </c>
+      <c r="D93">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E93">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F93">
+        <v>6.03</v>
+      </c>
+      <c r="G93">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5">
+        <v>45520</v>
+      </c>
+      <c r="B94">
+        <v>6.03376</v>
+      </c>
+      <c r="C94">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D94">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E94">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F94">
+        <v>6.03</v>
+      </c>
+      <c r="G94">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5">
+        <v>45521</v>
+      </c>
+      <c r="B95">
+        <v>6.03376</v>
+      </c>
+      <c r="C95">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D95">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E95">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F95">
+        <v>6.03</v>
+      </c>
+      <c r="G95">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5">
+        <v>45521</v>
+      </c>
+      <c r="B96">
+        <v>6.03376</v>
+      </c>
+      <c r="C96">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D96">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E96">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F96">
+        <v>6.03</v>
+      </c>
+      <c r="G96">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5">
+        <v>45521</v>
+      </c>
+      <c r="B97">
+        <v>6.03376</v>
+      </c>
+      <c r="C97">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D97">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E97">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F97">
+        <v>6.03</v>
+      </c>
+      <c r="G97">
+        <v>5.48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCA53E-F0F8-4CF1-BB58-7D68C7BA1C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2412F500-5590-463C-B4D5-13CB3EF00CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>opening</t>
+  </si>
+  <si>
+    <t>intermediary</t>
+  </si>
+  <si>
+    <t>closing</t>
   </si>
 </sst>
 </file>
@@ -321,10 +333,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -332,7 +344,7 @@
     <col min="1" max="1" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -354,8 +366,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>45490</v>
       </c>
@@ -377,8 +392,11 @@
       <c r="G2">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>45490</v>
       </c>
@@ -400,8 +418,11 @@
       <c r="G3">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>45490</v>
       </c>
@@ -423,8 +444,11 @@
       <c r="G4">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>45583</v>
       </c>
@@ -446,8 +470,11 @@
       <c r="G5">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45583</v>
       </c>
@@ -469,8 +496,11 @@
       <c r="G6">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>45583</v>
       </c>
@@ -492,8 +522,11 @@
       <c r="G7">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>45584</v>
       </c>
@@ -515,8 +548,11 @@
       <c r="G8">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>45584</v>
       </c>
@@ -538,8 +574,11 @@
       <c r="G9">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>45584</v>
       </c>
@@ -561,8 +600,11 @@
       <c r="G10">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>45493</v>
       </c>
@@ -584,8 +626,11 @@
       <c r="G11">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>45493</v>
       </c>
@@ -607,8 +652,11 @@
       <c r="G12">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>45493</v>
       </c>
@@ -630,8 +678,11 @@
       <c r="G13">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>45494</v>
       </c>
@@ -653,8 +704,11 @@
       <c r="G14">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>45494</v>
       </c>
@@ -676,8 +730,11 @@
       <c r="G15" s="3">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>45494</v>
       </c>
@@ -699,8 +756,11 @@
       <c r="G16">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>45495</v>
       </c>
@@ -722,8 +782,11 @@
       <c r="G17">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>45495</v>
       </c>
@@ -745,8 +808,11 @@
       <c r="G18">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>45495</v>
       </c>
@@ -768,8 +834,11 @@
       <c r="G19">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>45496</v>
       </c>
@@ -791,8 +860,11 @@
       <c r="G20">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>45496</v>
       </c>
@@ -814,8 +886,11 @@
       <c r="G21">
         <v>5.59</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>45496</v>
       </c>
@@ -837,8 +912,11 @@
       <c r="G22">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>45497</v>
       </c>
@@ -860,8 +938,11 @@
       <c r="G23">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>45497</v>
       </c>
@@ -883,8 +964,11 @@
       <c r="G24">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>45497</v>
       </c>
@@ -906,8 +990,11 @@
       <c r="G25">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>45498</v>
       </c>
@@ -929,8 +1016,11 @@
       <c r="G26">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>45498</v>
       </c>
@@ -952,8 +1042,11 @@
       <c r="G27" s="3">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>45498</v>
       </c>
@@ -975,8 +1068,11 @@
       <c r="G28" s="3">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>45499</v>
       </c>
@@ -998,8 +1094,11 @@
       <c r="G29" s="3">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>45499</v>
       </c>
@@ -1021,8 +1120,11 @@
       <c r="G30" s="3">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>45499</v>
       </c>
@@ -1044,8 +1146,11 @@
       <c r="G31">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>45500</v>
       </c>
@@ -1067,8 +1172,11 @@
       <c r="G32">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>45500</v>
       </c>
@@ -1090,8 +1198,11 @@
       <c r="G33">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>45500</v>
       </c>
@@ -1113,8 +1224,11 @@
       <c r="G34">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>45501</v>
       </c>
@@ -1136,8 +1250,11 @@
       <c r="G35">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>45501</v>
       </c>
@@ -1159,8 +1276,11 @@
       <c r="G36">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>45501</v>
       </c>
@@ -1182,8 +1302,11 @@
       <c r="G37">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H37" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>45502</v>
       </c>
@@ -1205,8 +1328,11 @@
       <c r="G38">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>45502</v>
       </c>
@@ -1228,8 +1354,11 @@
       <c r="G39">
         <v>5.63</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H39" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>45502</v>
       </c>
@@ -1251,8 +1380,11 @@
       <c r="G40">
         <v>5.62</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>45503</v>
       </c>
@@ -1274,8 +1406,11 @@
       <c r="G41">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H41" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>45503</v>
       </c>
@@ -1297,8 +1432,11 @@
       <c r="G42">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>45503</v>
       </c>
@@ -1320,8 +1458,11 @@
       <c r="G43">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>45504</v>
       </c>
@@ -1343,8 +1484,11 @@
       <c r="G44">
         <v>5.65</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>45504</v>
       </c>
@@ -1366,8 +1510,11 @@
       <c r="G45">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>45504</v>
       </c>
@@ -1389,8 +1536,11 @@
       <c r="G46">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45505</v>
       </c>
@@ -1412,8 +1562,11 @@
       <c r="G47">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>45505</v>
       </c>
@@ -1435,8 +1588,11 @@
       <c r="G48">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>45505</v>
       </c>
@@ -1458,8 +1614,11 @@
       <c r="G49">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H49" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>45506</v>
       </c>
@@ -1481,8 +1640,11 @@
       <c r="G50">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H50" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>45506</v>
       </c>
@@ -1504,8 +1666,11 @@
       <c r="G51">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>45506</v>
       </c>
@@ -1527,8 +1692,11 @@
       <c r="G52">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>45507</v>
       </c>
@@ -1550,8 +1718,11 @@
       <c r="G53">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H53" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>45507</v>
       </c>
@@ -1573,8 +1744,11 @@
       <c r="G54">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>45507</v>
       </c>
@@ -1596,8 +1770,11 @@
       <c r="G55">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H55" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>45508</v>
       </c>
@@ -1619,8 +1796,11 @@
       <c r="G56">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H56" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>45508</v>
       </c>
@@ -1642,8 +1822,11 @@
       <c r="G57">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H57" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>45508</v>
       </c>
@@ -1665,8 +1848,11 @@
       <c r="G58">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H58" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>45509</v>
       </c>
@@ -1688,8 +1874,11 @@
       <c r="G59">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H59" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>45509</v>
       </c>
@@ -1711,8 +1900,11 @@
       <c r="G60">
         <v>5.74</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H60" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>45509</v>
       </c>
@@ -1734,8 +1926,11 @@
       <c r="G61">
         <v>5.72</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H61" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>45510</v>
       </c>
@@ -1757,8 +1952,11 @@
       <c r="G62">
         <v>5.67</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>45510</v>
       </c>
@@ -1780,8 +1978,11 @@
       <c r="G63">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>45510</v>
       </c>
@@ -1803,8 +2004,11 @@
       <c r="G64">
         <v>5.66</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>45511</v>
       </c>
@@ -1826,8 +2030,11 @@
       <c r="G65">
         <v>5.61</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H65" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>45511</v>
       </c>
@@ -1849,8 +2056,11 @@
       <c r="G66">
         <v>5.63</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H66" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>45511</v>
       </c>
@@ -1872,8 +2082,11 @@
       <c r="G67">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H67" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>45512</v>
       </c>
@@ -1895,8 +2108,11 @@
       <c r="G68">
         <v>5.62</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H68" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>45512</v>
       </c>
@@ -1918,8 +2134,11 @@
       <c r="G69">
         <v>5.58</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H69" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>45512</v>
       </c>
@@ -1941,8 +2160,11 @@
       <c r="G70">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>45513</v>
       </c>
@@ -1964,8 +2186,11 @@
       <c r="G71">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>45513</v>
       </c>
@@ -1987,8 +2212,11 @@
       <c r="G72">
         <v>5.52</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H72" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>45513</v>
       </c>
@@ -2010,8 +2238,11 @@
       <c r="G73">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H73" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>45514</v>
       </c>
@@ -2033,8 +2264,11 @@
       <c r="G74">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H74" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>45514</v>
       </c>
@@ -2056,8 +2290,11 @@
       <c r="G75">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H75" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>45514</v>
       </c>
@@ -2079,8 +2316,11 @@
       <c r="G76">
         <v>5.51</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H76" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>45515</v>
       </c>
@@ -2102,8 +2342,11 @@
       <c r="G77">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H77" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>45515</v>
       </c>
@@ -2125,8 +2368,11 @@
       <c r="G78">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H78" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>45515</v>
       </c>
@@ -2148,8 +2394,11 @@
       <c r="G79">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>45516</v>
       </c>
@@ -2165,14 +2414,17 @@
       <c r="E80" t="s">
         <v>7</v>
       </c>
-      <c r="F80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F80">
+        <v>6.02</v>
+      </c>
+      <c r="G80">
+        <v>5.51</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>45516</v>
       </c>
@@ -2188,14 +2440,17 @@
       <c r="E81" t="s">
         <v>7</v>
       </c>
-      <c r="F81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F81">
+        <v>6.01</v>
+      </c>
+      <c r="G81">
+        <v>5.49</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>45516</v>
       </c>
@@ -2211,14 +2466,17 @@
       <c r="E82" t="s">
         <v>7</v>
       </c>
-      <c r="F82" t="s">
-        <v>7</v>
-      </c>
-      <c r="G82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F82">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>5.5</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>45517</v>
       </c>
@@ -2240,8 +2498,11 @@
       <c r="G83">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>45517</v>
       </c>
@@ -2263,8 +2524,11 @@
       <c r="G84">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>45517</v>
       </c>
@@ -2286,8 +2550,11 @@
       <c r="G85">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>45518</v>
       </c>
@@ -2309,8 +2576,11 @@
       <c r="G86">
         <v>5.45</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H86" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>45518</v>
       </c>
@@ -2332,8 +2602,11 @@
       <c r="G87">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H87" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>45518</v>
       </c>
@@ -2355,8 +2628,11 @@
       <c r="G88">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H88" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>45519</v>
       </c>
@@ -2378,8 +2654,11 @@
       <c r="G89">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H89" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>45519</v>
       </c>
@@ -2401,8 +2680,11 @@
       <c r="G90">
         <v>5.49</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H90" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>45519</v>
       </c>
@@ -2424,8 +2706,11 @@
       <c r="G91">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H91" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>45520</v>
       </c>
@@ -2447,8 +2732,11 @@
       <c r="G92">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H92" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>45520</v>
       </c>
@@ -2470,8 +2758,11 @@
       <c r="G93">
         <v>5.47</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H93" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>45520</v>
       </c>
@@ -2493,8 +2784,11 @@
       <c r="G94">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H94" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>45521</v>
       </c>
@@ -2516,8 +2810,11 @@
       <c r="G95">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H95" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>45521</v>
       </c>
@@ -2539,8 +2836,11 @@
       <c r="G96">
         <v>5.48</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H96" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>45521</v>
       </c>
@@ -2561,6 +2861,537 @@
       </c>
       <c r="G97">
         <v>5.48</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5">
+        <v>45522</v>
+      </c>
+      <c r="B98">
+        <v>6.03376</v>
+      </c>
+      <c r="C98">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D98">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E98">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F98">
+        <v>6.03</v>
+      </c>
+      <c r="G98">
+        <v>5.48</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5">
+        <v>45522</v>
+      </c>
+      <c r="B99">
+        <v>6.03376</v>
+      </c>
+      <c r="C99">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D99">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E99">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F99">
+        <v>6.03</v>
+      </c>
+      <c r="G99">
+        <v>5.48</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5">
+        <v>45522</v>
+      </c>
+      <c r="B100">
+        <v>6.0332999999999997</v>
+      </c>
+      <c r="C100">
+        <v>5.4694000000000003</v>
+      </c>
+      <c r="D100">
+        <v>6.1538399999999998</v>
+      </c>
+      <c r="E100">
+        <v>5.5865900000000002</v>
+      </c>
+      <c r="F100">
+        <v>6.03</v>
+      </c>
+      <c r="G100">
+        <v>5.48</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5">
+        <v>45523</v>
+      </c>
+      <c r="B101">
+        <v>5.9958999999999998</v>
+      </c>
+      <c r="C101">
+        <v>5.4292999999999996</v>
+      </c>
+      <c r="D101">
+        <v>6.1162000000000001</v>
+      </c>
+      <c r="E101">
+        <v>5.5248600000000003</v>
+      </c>
+      <c r="F101">
+        <v>5.99</v>
+      </c>
+      <c r="G101">
+        <v>5.41</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5">
+        <v>45523</v>
+      </c>
+      <c r="B102">
+        <v>5.9989999999999997</v>
+      </c>
+      <c r="C102">
+        <v>5.4124999999999996</v>
+      </c>
+      <c r="D102">
+        <v>6.1236899999999999</v>
+      </c>
+      <c r="E102">
+        <v>5.5187600000000003</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+      <c r="G102">
+        <v>5.41</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5">
+        <v>45523</v>
+      </c>
+      <c r="B103">
+        <v>5.9932999999999996</v>
+      </c>
+      <c r="C103">
+        <v>5.4063999999999997</v>
+      </c>
+      <c r="D103">
+        <v>6.1274499999999996</v>
+      </c>
+      <c r="E103">
+        <v>5.5218100000000003</v>
+      </c>
+      <c r="F103">
+        <v>6.01</v>
+      </c>
+      <c r="G103">
+        <v>5.4</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
+        <v>45524</v>
+      </c>
+      <c r="B104">
+        <v>6.0391000000000004</v>
+      </c>
+      <c r="C104">
+        <v>5.4397000000000002</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="3">
+        <v>6.04</v>
+      </c>
+      <c r="G104" s="3">
+        <v>5.45</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5">
+        <v>45524</v>
+      </c>
+      <c r="B105">
+        <v>6.1021000000000001</v>
+      </c>
+      <c r="C105">
+        <v>5.4852999999999996</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" s="3">
+        <v>6.11</v>
+      </c>
+      <c r="G105" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5">
+        <v>45524</v>
+      </c>
+      <c r="B106">
+        <v>6.0941000000000001</v>
+      </c>
+      <c r="C106">
+        <v>5.4795999999999996</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5">
+        <v>45525</v>
+      </c>
+      <c r="B107">
+        <v>6.0796000000000001</v>
+      </c>
+      <c r="C107">
+        <v>5.47</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="3">
+        <v>6.08</v>
+      </c>
+      <c r="G107" s="3">
+        <v>5.48</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5">
+        <v>45525</v>
+      </c>
+      <c r="B108">
+        <v>6.1125999999999996</v>
+      </c>
+      <c r="C108">
+        <v>5.4812000000000003</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="G108" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5">
+        <v>45525</v>
+      </c>
+      <c r="B109">
+        <v>6.1108000000000002</v>
+      </c>
+      <c r="C109">
+        <v>5.4836999999999998</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" s="3">
+        <v>6.11</v>
+      </c>
+      <c r="G109" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5">
+        <v>45526</v>
+      </c>
+      <c r="B110">
+        <v>6.1086999999999998</v>
+      </c>
+      <c r="C110">
+        <v>5.5452000000000004</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" s="3">
+        <v>6.11</v>
+      </c>
+      <c r="G110" s="3">
+        <v>5.55</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>45526</v>
+      </c>
+      <c r="B111">
+        <v>6.2092999999999998</v>
+      </c>
+      <c r="C111">
+        <v>5.5896999999999997</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" s="3">
+        <v>6.21</v>
+      </c>
+      <c r="G111" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>45526</v>
+      </c>
+      <c r="B112">
+        <v>6.2225999999999999</v>
+      </c>
+      <c r="C112">
+        <v>5.5921000000000003</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" s="3">
+        <v>6.23</v>
+      </c>
+      <c r="G112" s="3">
+        <v>5.59</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5">
+        <v>45527</v>
+      </c>
+      <c r="B113">
+        <v>6.1725000000000003</v>
+      </c>
+      <c r="C113">
+        <v>5.5518000000000001</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" s="3">
+        <v>6.18</v>
+      </c>
+      <c r="G113" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5">
+        <v>45527</v>
+      </c>
+      <c r="B114">
+        <v>6.1323999999999996</v>
+      </c>
+      <c r="C114">
+        <v>5.4794999999999998</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="3">
+        <v>6.14</v>
+      </c>
+      <c r="G114" s="3">
+        <v>5.49</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5">
+        <v>45527</v>
+      </c>
+      <c r="B115">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C115">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D115">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E115">
+        <v>5.5991</v>
+      </c>
+      <c r="F115">
+        <v>6.21</v>
+      </c>
+      <c r="G115">
+        <v>5.54</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5">
+        <v>45528</v>
+      </c>
+      <c r="B116">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C116">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D116">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E116">
+        <v>5.5991</v>
+      </c>
+      <c r="F116">
+        <v>6.21</v>
+      </c>
+      <c r="G116">
+        <v>5.54</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5">
+        <v>45528</v>
+      </c>
+      <c r="B117">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C117">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D117">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E117">
+        <v>5.5991</v>
+      </c>
+      <c r="F117">
+        <v>6.21</v>
+      </c>
+      <c r="G117">
+        <v>5.54</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5">
+        <v>45528</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,19 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2412F500-5590-463C-B4D5-13CB3EF00CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483FA8E-55F0-44A6-9E83-BE3FCAB86596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
+    <sheet name="2024_wise_usd" sheetId="2" r:id="rId2"/>
+    <sheet name="2024_wise_eur" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024_wise_eur'!$A$1:$D$48</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -57,14 +75,24 @@
   <si>
     <t>closing</t>
   </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -108,13 +136,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -333,10 +362,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3390,9 +3419,3163 @@
       <c r="A118" s="5">
         <v>45528</v>
       </c>
+      <c r="B118">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C118">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D118">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E118">
+        <v>5.5991</v>
+      </c>
+      <c r="F118">
+        <v>6.21</v>
+      </c>
+      <c r="G118">
+        <v>5.54</v>
+      </c>
       <c r="H118" s="3" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5">
+        <v>45529</v>
+      </c>
+      <c r="B119">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C119">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D119">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E119">
+        <v>5.5991</v>
+      </c>
+      <c r="F119">
+        <v>6.21</v>
+      </c>
+      <c r="G119">
+        <v>5.54</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5">
+        <v>45529</v>
+      </c>
+      <c r="B120">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C120">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D120">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E120">
+        <v>5.5991</v>
+      </c>
+      <c r="F120">
+        <v>6.21</v>
+      </c>
+      <c r="G120">
+        <v>5.54</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5">
+        <v>45529</v>
+      </c>
+      <c r="B121">
+        <v>6.1395999999999997</v>
+      </c>
+      <c r="C121">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D121">
+        <v>6.2578199999999997</v>
+      </c>
+      <c r="E121">
+        <v>5.5991</v>
+      </c>
+      <c r="F121">
+        <v>6.21</v>
+      </c>
+      <c r="G121">
+        <v>5.54</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5">
+        <v>45530</v>
+      </c>
+      <c r="B122">
+        <v>6.1208999999999998</v>
+      </c>
+      <c r="C122">
+        <v>5.4848999999999997</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5">
+        <v>45530</v>
+      </c>
+      <c r="B123">
+        <v>6.1284999999999998</v>
+      </c>
+      <c r="C123">
+        <v>5.4917999999999996</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5">
+        <v>45530</v>
+      </c>
+      <c r="B124">
+        <v>6.1401000000000003</v>
+      </c>
+      <c r="C124">
+        <v>5.4972000000000003</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G124">
+        <v>5.52</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5">
+        <v>45531</v>
+      </c>
+      <c r="B125">
+        <v>6.1345000000000001</v>
+      </c>
+      <c r="C125">
+        <v>5.4927000000000001</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5">
+        <v>45531</v>
+      </c>
+      <c r="B126">
+        <v>6.1538000000000004</v>
+      </c>
+      <c r="C126">
+        <v>5.5025000000000004</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5">
+        <v>45531</v>
+      </c>
+      <c r="B127">
+        <v>6.1562000000000001</v>
+      </c>
+      <c r="C127">
+        <v>5.5094000000000003</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>5.51</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5">
+        <v>45532</v>
+      </c>
+      <c r="B128">
+        <v>6.1444999999999999</v>
+      </c>
+      <c r="C128">
+        <v>5.5304000000000002</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5">
+        <v>45532</v>
+      </c>
+      <c r="B129">
+        <v>6.1733000000000002</v>
+      </c>
+      <c r="C129">
+        <v>5.5549799999999996</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5">
+        <v>45532</v>
+      </c>
+      <c r="B130">
+        <v>6.1912000000000003</v>
+      </c>
+      <c r="C130">
+        <v>5.5633999999999997</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G130">
+        <v>5.57</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5">
+        <v>45533</v>
+      </c>
+      <c r="B131">
+        <v>6.2511999999999999</v>
+      </c>
+      <c r="C131">
+        <v>5.6406000000000001</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5">
+        <v>45533</v>
+      </c>
+      <c r="B132">
+        <v>6.2274000000000003</v>
+      </c>
+      <c r="C132">
+        <v>5.6227</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5">
+        <v>45533</v>
+      </c>
+      <c r="B133">
+        <v>6.2314999999999996</v>
+      </c>
+      <c r="C133">
+        <v>5.6288999999999998</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133">
+        <v>5.63</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5">
+        <v>45534</v>
+      </c>
+      <c r="B134">
+        <v>6.2614000000000001</v>
+      </c>
+      <c r="C134">
+        <v>5.6656000000000004</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5">
+        <v>45534</v>
+      </c>
+      <c r="B135">
+        <v>6.2282000000000002</v>
+      </c>
+      <c r="C135">
+        <v>5.6341000000000001</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5">
+        <v>45534</v>
+      </c>
+      <c r="B136">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C136">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D136">
+        <v>6.3816199999999998</v>
+      </c>
+      <c r="E136">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F136">
+        <v>6.26</v>
+      </c>
+      <c r="G136">
+        <v>5.61</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5">
+        <v>45535</v>
+      </c>
+      <c r="B137">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C137">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D137">
+        <v>6.3816199999999998</v>
+      </c>
+      <c r="E137">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F137">
+        <v>6.26</v>
+      </c>
+      <c r="G137">
+        <v>5.61</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5">
+        <v>45535</v>
+      </c>
+      <c r="B138">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C138">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D138">
+        <v>6.3816199999999998</v>
+      </c>
+      <c r="E138">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F138">
+        <v>6.26</v>
+      </c>
+      <c r="G138">
+        <v>5.61</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5">
+        <v>45535</v>
+      </c>
+      <c r="B139">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C139">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D139">
+        <v>6.3816199999999998</v>
+      </c>
+      <c r="E139">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F139">
+        <v>6.26</v>
+      </c>
+      <c r="G139">
+        <v>5.61</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B140">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C140">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D140">
+        <v>6.3816199999999998</v>
+      </c>
+      <c r="E140">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F140">
+        <v>6.26</v>
+      </c>
+      <c r="G140">
+        <v>5.61</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B141">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C141">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D141">
+        <v>6.3816199999999998</v>
+      </c>
+      <c r="E141">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F141">
+        <v>6.26</v>
+      </c>
+      <c r="G141">
+        <v>5.61</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B142">
+        <v>6.2034399999999996</v>
+      </c>
+      <c r="C142">
+        <v>5.6116900000000003</v>
+      </c>
+      <c r="D142">
+        <v>6.3856900000000003</v>
+      </c>
+      <c r="E142">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="F142">
+        <v>6.26</v>
+      </c>
+      <c r="G142">
+        <v>5.61</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45490</v>
+      </c>
+      <c r="B2">
+        <v>5.4586899999999998</v>
+      </c>
+      <c r="C2">
+        <v>5.4864600000000001</v>
+      </c>
+      <c r="D2">
+        <v>5.4898899999999999</v>
+      </c>
+      <c r="E2">
+        <f>LARGE(B2:D2,1)</f>
+        <v>5.4898899999999999</v>
+      </c>
+      <c r="F2">
+        <f>SMALL(B2:D2,1)</f>
+        <v>5.4586899999999998</v>
+      </c>
+      <c r="G2" s="6">
+        <f>AVERAGE(B2:D2)</f>
+        <v>5.4783466666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45583</v>
+      </c>
+      <c r="B3">
+        <v>5.4920900000000001</v>
+      </c>
+      <c r="C3">
+        <v>5.5887500000000001</v>
+      </c>
+      <c r="D3">
+        <v>5.5447100000000002</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E48" si="0">LARGE(B3:D3,1)</f>
+        <v>5.5887500000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F48" si="1">SMALL(B3:D3,1)</f>
+        <v>5.4920900000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G48" si="2">AVERAGE(B3:D3)</f>
+        <v>5.5418500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45584</v>
+      </c>
+      <c r="B4">
+        <v>5.5445000000000002</v>
+      </c>
+      <c r="C4">
+        <v>5.5788599999999997</v>
+      </c>
+      <c r="D4">
+        <v>5.59816</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>5.59816</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>5.5445000000000002</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5738399999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B5">
+        <v>5.59816</v>
+      </c>
+      <c r="C5">
+        <v>5.59816</v>
+      </c>
+      <c r="D5">
+        <v>5.59816</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.59816</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5.59816</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="2"/>
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B6">
+        <v>5.59816</v>
+      </c>
+      <c r="C6">
+        <v>5.59816</v>
+      </c>
+      <c r="D6">
+        <v>5.5453000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.59816</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.5453000000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5805400000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B7">
+        <v>5.5717100000000004</v>
+      </c>
+      <c r="C7">
+        <v>5.5692599999999999</v>
+      </c>
+      <c r="D7">
+        <v>5.5720900000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.5720900000000002</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5.5692599999999999</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5710199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45496</v>
+      </c>
+      <c r="B8">
+        <v>5.5933099999999998</v>
+      </c>
+      <c r="C8">
+        <v>5.5861900000000002</v>
+      </c>
+      <c r="D8">
+        <v>5.5865600000000004</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.5933099999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>5.5861900000000002</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5886866666666677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45497</v>
+      </c>
+      <c r="B9">
+        <v>5.6412399999999998</v>
+      </c>
+      <c r="C9">
+        <v>5.6542899999999996</v>
+      </c>
+      <c r="D9">
+        <v>5.6550500000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.6550500000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.6412399999999998</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6501933333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45498</v>
+      </c>
+      <c r="B10">
+        <v>5.6501999999999999</v>
+      </c>
+      <c r="C10">
+        <v>5.64764</v>
+      </c>
+      <c r="D10">
+        <v>5.6452499999999999</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.6501999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.6452499999999999</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6476966666666675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B11">
+        <v>5.6402900000000002</v>
+      </c>
+      <c r="C11">
+        <v>5.6578400000000002</v>
+      </c>
+      <c r="D11">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.6578400000000002</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>5.6402900000000002</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6514766666666674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45500</v>
+      </c>
+      <c r="B12">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="C12">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="D12">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>5.656299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B13">
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="C13">
+        <v>5.65665</v>
+      </c>
+      <c r="D13">
+        <v>5.6568100000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.6568100000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6565866666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45502</v>
+      </c>
+      <c r="B14">
+        <v>5.6509</v>
+      </c>
+      <c r="C14">
+        <v>5.6242999999999999</v>
+      </c>
+      <c r="D14">
+        <v>5.6160800000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.6509</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>5.6160800000000002</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6304266666666676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45503</v>
+      </c>
+      <c r="B15">
+        <v>5.6556600000000001</v>
+      </c>
+      <c r="C15">
+        <v>5.6123000000000003</v>
+      </c>
+      <c r="D15">
+        <v>5.6125499999999997</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>5.6556600000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>5.6123000000000003</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6268366666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45504</v>
+      </c>
+      <c r="B16">
+        <v>5.6746600000000003</v>
+      </c>
+      <c r="C16">
+        <v>5.6479900000000001</v>
+      </c>
+      <c r="D16">
+        <v>5.6578999999999997</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.6746600000000003</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>5.6479900000000001</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6601833333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B17">
+        <v>5.6421900000000003</v>
+      </c>
+      <c r="C17">
+        <v>5.7348699999999999</v>
+      </c>
+      <c r="D17">
+        <v>5.7524199999999999</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>5.7524199999999999</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.6421900000000003</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7098266666666673</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45506</v>
+      </c>
+      <c r="B18">
+        <v>5.7158499999999997</v>
+      </c>
+      <c r="C18">
+        <v>5.7095900000000004</v>
+      </c>
+      <c r="D18">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>5.7095900000000004</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7178366666666669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45507</v>
+      </c>
+      <c r="B19">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="C19">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="D19">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7280699999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>45508</v>
+      </c>
+      <c r="B20">
+        <v>5.7280699999999998</v>
+      </c>
+      <c r="C20">
+        <v>5.7272100000000004</v>
+      </c>
+      <c r="D20">
+        <v>5.7281000000000004</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5.7281000000000004</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.7272100000000004</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7277933333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>45509</v>
+      </c>
+      <c r="B21">
+        <v>5.8010999999999999</v>
+      </c>
+      <c r="C21">
+        <v>5.7407599999999999</v>
+      </c>
+      <c r="D21">
+        <v>5.7229799999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5.8010999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.7229799999999997</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7549466666666662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>45510</v>
+      </c>
+      <c r="B22">
+        <v>5.6627099999999997</v>
+      </c>
+      <c r="C22">
+        <v>5.6586100000000004</v>
+      </c>
+      <c r="D22">
+        <v>5.6571600000000002</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5.6627099999999997</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.6571600000000002</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6594933333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>45511</v>
+      </c>
+      <c r="B23">
+        <v>5.6033099999999996</v>
+      </c>
+      <c r="C23">
+        <v>5.6236600000000001</v>
+      </c>
+      <c r="D23">
+        <v>5.6373899999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5.6373899999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5.6033099999999996</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6214533333333323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>45512</v>
+      </c>
+      <c r="B24">
+        <v>5.617</v>
+      </c>
+      <c r="C24">
+        <v>5.5742599999999998</v>
+      </c>
+      <c r="D24">
+        <v>5.5475099999999999</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5.617</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>5.5475099999999999</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5795899999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>45513</v>
+      </c>
+      <c r="B25">
+        <v>5.5172400000000001</v>
+      </c>
+      <c r="C25">
+        <v>5.5146600000000001</v>
+      </c>
+      <c r="D25">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5.5172400000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5135333333333341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>45514</v>
+      </c>
+      <c r="B26">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="C26">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="D26">
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>5.5087000000000002</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5087000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>45515</v>
+      </c>
+      <c r="B27">
+        <v>5.4993999999999996</v>
+      </c>
+      <c r="C27">
+        <v>5.4977400000000003</v>
+      </c>
+      <c r="D27">
+        <v>5.4938399999999996</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>5.4993999999999996</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>5.4938399999999996</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4969933333333332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>45516</v>
+      </c>
+      <c r="B28">
+        <v>5.4993999999999996</v>
+      </c>
+      <c r="C28">
+        <v>5.4877399999999996</v>
+      </c>
+      <c r="D28">
+        <v>5.4938399999999996</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>5.4993999999999996</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>5.4877399999999996</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4936599999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>45517</v>
+      </c>
+      <c r="B29">
+        <v>5.4891100000000002</v>
+      </c>
+      <c r="C29">
+        <v>5.4487899999999998</v>
+      </c>
+      <c r="D29">
+        <v>5.4572900000000004</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>5.4891100000000002</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>5.4487899999999998</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4650633333333332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>45518</v>
+      </c>
+      <c r="B30">
+        <v>5.44909</v>
+      </c>
+      <c r="C30">
+        <v>5.46896</v>
+      </c>
+      <c r="D30">
+        <v>5.4706099999999998</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>5.4706099999999998</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>5.44909</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4628866666666669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>45519</v>
+      </c>
+      <c r="B31">
+        <v>5.4555100000000003</v>
+      </c>
+      <c r="C31">
+        <v>5.4836900000000002</v>
+      </c>
+      <c r="D31">
+        <v>5.4863400000000002</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>5.4863400000000002</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>5.4555100000000003</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="2"/>
+        <v>5.475179999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>45520</v>
+      </c>
+      <c r="B32">
+        <v>5.4542599999999997</v>
+      </c>
+      <c r="C32">
+        <v>5.46624</v>
+      </c>
+      <c r="D32">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>5.4542599999999997</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4640133333333338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>45521</v>
+      </c>
+      <c r="B33">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="C33">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D33">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="G33" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>45522</v>
+      </c>
+      <c r="B34">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="C34">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="D34">
+        <v>5.4694000000000003</v>
+      </c>
+      <c r="E34">
+        <f>LARGE(B34:D34,1)</f>
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>5.4694000000000003</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4708266666666674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>45523</v>
+      </c>
+      <c r="B35">
+        <v>5.4292999999999996</v>
+      </c>
+      <c r="C35">
+        <v>5.4124999999999996</v>
+      </c>
+      <c r="D35">
+        <v>5.4063999999999997</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5.4292999999999996</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>5.4063999999999997</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4160666666666657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>45524</v>
+      </c>
+      <c r="B36">
+        <v>5.4397000000000002</v>
+      </c>
+      <c r="C36">
+        <v>5.4852999999999996</v>
+      </c>
+      <c r="D36">
+        <v>5.4795999999999996</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>5.4852999999999996</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>5.4397000000000002</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4682000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>45525</v>
+      </c>
+      <c r="B37">
+        <v>5.47</v>
+      </c>
+      <c r="C37">
+        <v>5.4812000000000003</v>
+      </c>
+      <c r="D37">
+        <v>5.4836999999999998</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>5.4836999999999998</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>5.47</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4782999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>45526</v>
+      </c>
+      <c r="B38">
+        <v>5.5452000000000004</v>
+      </c>
+      <c r="C38">
+        <v>5.5896999999999997</v>
+      </c>
+      <c r="D38">
+        <v>5.5921000000000003</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>5.5921000000000003</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>5.5452000000000004</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5756666666666668</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>45527</v>
+      </c>
+      <c r="B39">
+        <v>5.5518000000000001</v>
+      </c>
+      <c r="C39">
+        <v>5.4794999999999998</v>
+      </c>
+      <c r="D39">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>5.5518000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>5.4794999999999998</v>
+      </c>
+      <c r="G39" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5057499999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>45528</v>
+      </c>
+      <c r="B40">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="C40">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D40">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>45529</v>
+      </c>
+      <c r="B41">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="C41">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="D41">
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>5.4859499999999999</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>45530</v>
+      </c>
+      <c r="B42">
+        <v>5.4848999999999997</v>
+      </c>
+      <c r="C42">
+        <v>5.4917999999999996</v>
+      </c>
+      <c r="D42">
+        <v>5.4972000000000003</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>5.4972000000000003</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>5.4848999999999997</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4912999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>45531</v>
+      </c>
+      <c r="B43">
+        <v>5.4927000000000001</v>
+      </c>
+      <c r="C43">
+        <v>5.5025000000000004</v>
+      </c>
+      <c r="D43">
+        <v>5.5094000000000003</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>5.5094000000000003</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>5.4927000000000001</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5015333333333336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>45532</v>
+      </c>
+      <c r="B44">
+        <v>5.5304000000000002</v>
+      </c>
+      <c r="C44">
+        <v>5.5549799999999996</v>
+      </c>
+      <c r="D44">
+        <v>5.5633999999999997</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>5.5633999999999997</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>5.5304000000000002</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="2"/>
+        <v>5.549593333333334</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>45533</v>
+      </c>
+      <c r="B45">
+        <v>5.6406000000000001</v>
+      </c>
+      <c r="C45">
+        <v>5.6227</v>
+      </c>
+      <c r="D45">
+        <v>5.6288999999999998</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>5.6406000000000001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>5.6227</v>
+      </c>
+      <c r="G45" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6307333333333345</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45534</v>
+      </c>
+      <c r="B46">
+        <v>5.6656000000000004</v>
+      </c>
+      <c r="C46">
+        <v>5.6341000000000001</v>
+      </c>
+      <c r="D46">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>5.6656000000000004</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6353600000000013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>45535</v>
+      </c>
+      <c r="B47">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="C47">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D47">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6063799999999988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B48">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="C48">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="D48">
+        <v>5.6116900000000003</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>5.6116900000000003</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6081499999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2 G2" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
+  <dimension ref="A1:G50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>45490</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.9731800000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.9967499999999996</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6.0023600000000004</v>
+      </c>
+      <c r="E2">
+        <f>LARGE(B2:D2,1)</f>
+        <v>6.0023600000000004</v>
+      </c>
+      <c r="F2">
+        <f>SMALL(B2:D2,1)</f>
+        <v>5.9731800000000002</v>
+      </c>
+      <c r="G2" s="2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>5.9907633333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>45583</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6.00298</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6.0900600000000003</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6.0370799999999996</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E48" si="0">LARGE(B3:D3,1)</f>
+        <v>6.0900600000000003</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F48" si="1">SMALL(B3:D3,1)</f>
+        <v>6.00298</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G48" si="2">AVERAGE(B3:D3)</f>
+        <v>6.0433733333333324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>45584</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.0396299999999998</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.0720099999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>6.0396299999999998</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="2"/>
+        <v>6.068036666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B5">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C5">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="D5">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B6">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="C6">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="D6">
+        <v>6.0363499999999997</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>6.0363499999999997</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>6.073763333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B7">
+        <v>6.0609000000000002</v>
+      </c>
+      <c r="C7">
+        <v>6.06351</v>
+      </c>
+      <c r="D7">
+        <v>6.0671900000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>6.0671900000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>6.0609000000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0638666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>45496</v>
+      </c>
+      <c r="B8">
+        <v>6.0692899999999996</v>
+      </c>
+      <c r="C8">
+        <v>6.0613000000000001</v>
+      </c>
+      <c r="D8">
+        <v>6.0602799999999997</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.0692899999999996</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6.0602799999999997</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0636233333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>45497</v>
+      </c>
+      <c r="B9">
+        <v>6.1232899999999999</v>
+      </c>
+      <c r="C9">
+        <v>6.1300400000000002</v>
+      </c>
+      <c r="D9">
+        <v>6.1289499999999997</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6.1300400000000002</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>6.1232899999999999</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1274266666666675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>45498</v>
+      </c>
+      <c r="B10">
+        <v>6.1245200000000004</v>
+      </c>
+      <c r="C10">
+        <v>6.1251600000000002</v>
+      </c>
+      <c r="D10">
+        <v>6.1287700000000003</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>6.1287700000000003</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6.1245200000000004</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>6.12615</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>45499</v>
+      </c>
+      <c r="B11">
+        <v>6.1281999999999996</v>
+      </c>
+      <c r="C11">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="D11">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>6.1281999999999996</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1372233333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>45500</v>
+      </c>
+      <c r="B12">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="C12">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="D12">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1404699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>45501</v>
+      </c>
+      <c r="B13">
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="C13">
+        <v>6.1428500000000001</v>
+      </c>
+      <c r="D13">
+        <v>6.1418600000000003</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6.1428500000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6.1404699999999997</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>6.141726666666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>45502</v>
+      </c>
+      <c r="B14">
+        <v>6.1089200000000003</v>
+      </c>
+      <c r="C14">
+        <v>6.08887</v>
+      </c>
+      <c r="D14">
+        <v>6.0749300000000002</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6.1089200000000003</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>6.0749300000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0909066666666662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>45503</v>
+      </c>
+      <c r="B15">
+        <v>6.1143400000000003</v>
+      </c>
+      <c r="C15">
+        <v>6.0705400000000003</v>
+      </c>
+      <c r="D15">
+        <v>6.0747400000000003</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.1143400000000003</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6.0705400000000003</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0865399999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>45504</v>
+      </c>
+      <c r="B16">
+        <v>6.15245</v>
+      </c>
+      <c r="C16">
+        <v>6.1144100000000003</v>
+      </c>
+      <c r="D16">
+        <v>6.1261000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>6.15245</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6.1144100000000003</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1309866666666677</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B17">
+        <v>6.0955500000000002</v>
+      </c>
+      <c r="C17">
+        <v>6.1876199999999999</v>
+      </c>
+      <c r="D17">
+        <v>6.2071300000000003</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>6.2071300000000003</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>6.0955500000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1634333333333338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>45506</v>
+      </c>
+      <c r="B18">
+        <v>6.2333999999999996</v>
+      </c>
+      <c r="C18">
+        <v>6.23088</v>
+      </c>
+      <c r="D18">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>6.23088</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2379500000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>45507</v>
+      </c>
+      <c r="B19">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="C19">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="D19">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2495700000000012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>45508</v>
+      </c>
+      <c r="B20">
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="C20">
+        <v>6.2564099999999998</v>
+      </c>
+      <c r="D20">
+        <v>6.25481</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>6.2564099999999998</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2535966666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>45509</v>
+      </c>
+      <c r="B21">
+        <v>6.3701999999999996</v>
+      </c>
+      <c r="C21">
+        <v>6.2915599999999996</v>
+      </c>
+      <c r="D21">
+        <v>6.2695499999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>6.3701999999999996</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>6.2695499999999997</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>6.3104366666666669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>45510</v>
+      </c>
+      <c r="B22">
+        <v>6.1828000000000003</v>
+      </c>
+      <c r="C22">
+        <v>6.1848700000000001</v>
+      </c>
+      <c r="D22">
+        <v>6.1767700000000003</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>6.1848700000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>6.1767700000000003</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1814800000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>45511</v>
+      </c>
+      <c r="B23">
+        <v>6.1179699999999997</v>
+      </c>
+      <c r="C23">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="D23">
+        <v>6.1602499999999996</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>6.1602499999999996</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>6.1179699999999997</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1404066666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>45512</v>
+      </c>
+      <c r="B24">
+        <v>6.1177400000000004</v>
+      </c>
+      <c r="C24">
+        <v>6.0851300000000004</v>
+      </c>
+      <c r="D24">
+        <v>6.0570500000000003</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6.1177400000000004</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>6.0570500000000003</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0866400000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>45513</v>
+      </c>
+      <c r="B25">
+        <v>6.0171000000000001</v>
+      </c>
+      <c r="C25">
+        <v>6.0211600000000001</v>
+      </c>
+      <c r="D25">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>6.0211600000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0172700000000008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>45514</v>
+      </c>
+      <c r="B26">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="C26">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="D26">
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0135499999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>45515</v>
+      </c>
+      <c r="B27">
+        <v>6.0078100000000001</v>
+      </c>
+      <c r="C27">
+        <v>6.0093300000000003</v>
+      </c>
+      <c r="D27">
+        <v>6.0075200000000004</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6.0093300000000003</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>6.0075200000000004</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0082200000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>45516</v>
+      </c>
+      <c r="B28">
+        <v>6.0078100000000001</v>
+      </c>
+      <c r="C28">
+        <v>6.0093300000000003</v>
+      </c>
+      <c r="D28">
+        <v>6.0075200000000004</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>6.0093300000000003</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>6.0075200000000004</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0082200000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>45517</v>
+      </c>
+      <c r="B29">
+        <v>6.0146800000000002</v>
+      </c>
+      <c r="C29">
+        <v>5.9917600000000002</v>
+      </c>
+      <c r="D29">
+        <v>5.9986600000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>6.0146800000000002</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>5.9917600000000002</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0017000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>45518</v>
+      </c>
+      <c r="B30">
+        <v>6.0144599999999997</v>
+      </c>
+      <c r="C30">
+        <v>6.0229699999999999</v>
+      </c>
+      <c r="D30">
+        <v>6.0214800000000004</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>6.0229699999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>6.0144599999999997</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>6.019636666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>45519</v>
+      </c>
+      <c r="B31">
+        <v>5.9838699999999996</v>
+      </c>
+      <c r="C31">
+        <v>6.0173199999999998</v>
+      </c>
+      <c r="D31">
+        <v>6.0248200000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>6.0248200000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>5.9838699999999996</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0086699999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>45520</v>
+      </c>
+      <c r="B32">
+        <v>6.0010300000000001</v>
+      </c>
+      <c r="C32">
+        <v>6.0262700000000002</v>
+      </c>
+      <c r="D32">
+        <v>6.03376</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>6.03376</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>6.0010300000000001</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0203533333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>45521</v>
+      </c>
+      <c r="B33">
+        <v>6.03376</v>
+      </c>
+      <c r="C33">
+        <v>6.03376</v>
+      </c>
+      <c r="D33">
+        <v>6.03376</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>6.03376</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>6.03376</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>45522</v>
+      </c>
+      <c r="B34">
+        <v>6.03376</v>
+      </c>
+      <c r="C34">
+        <v>6.03376</v>
+      </c>
+      <c r="D34">
+        <v>6.0332999999999997</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>6.03376</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>6.0332999999999997</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0336066666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>45523</v>
+      </c>
+      <c r="B35">
+        <v>5.9958999999999998</v>
+      </c>
+      <c r="C35">
+        <v>5.9989999999999997</v>
+      </c>
+      <c r="D35">
+        <v>5.9932999999999996</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>5.9989999999999997</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>5.9932999999999996</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9960666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>45524</v>
+      </c>
+      <c r="B36">
+        <v>6.0391000000000004</v>
+      </c>
+      <c r="C36">
+        <v>6.1021000000000001</v>
+      </c>
+      <c r="D36">
+        <v>6.0941000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>6.1021000000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>6.0391000000000004</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0784333333333338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>45525</v>
+      </c>
+      <c r="B37">
+        <v>6.0796000000000001</v>
+      </c>
+      <c r="C37">
+        <v>6.1125999999999996</v>
+      </c>
+      <c r="D37">
+        <v>6.1108000000000002</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>6.1125999999999996</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>6.0796000000000001</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>6.101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>45526</v>
+      </c>
+      <c r="B38">
+        <v>6.1086999999999998</v>
+      </c>
+      <c r="C38">
+        <v>6.2092999999999998</v>
+      </c>
+      <c r="D38">
+        <v>6.2225999999999999</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>6.2225999999999999</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>6.1086999999999998</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1801999999999992</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>45527</v>
+      </c>
+      <c r="B39">
+        <v>6.1725000000000003</v>
+      </c>
+      <c r="C39">
+        <v>6.1323999999999996</v>
+      </c>
+      <c r="D39">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>6.1725000000000003</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>6.1323999999999996</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1483566666666674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>45528</v>
+      </c>
+      <c r="B40">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C40">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="D40">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>45529</v>
+      </c>
+      <c r="B41">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="C41">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="D41">
+        <v>6.1395999999999997</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>6.1395999999999997</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1399800000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>45530</v>
+      </c>
+      <c r="B42">
+        <v>6.1208999999999998</v>
+      </c>
+      <c r="C42">
+        <v>6.1284999999999998</v>
+      </c>
+      <c r="D42">
+        <v>6.1401000000000003</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>6.1401000000000003</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>6.1208999999999998</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="2"/>
+        <v>6.129833333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>45531</v>
+      </c>
+      <c r="B43">
+        <v>6.1345000000000001</v>
+      </c>
+      <c r="C43">
+        <v>6.1538000000000004</v>
+      </c>
+      <c r="D43">
+        <v>6.1562000000000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>6.1562000000000001</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>6.1345000000000001</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1481666666666657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>45532</v>
+      </c>
+      <c r="B44">
+        <v>6.1444999999999999</v>
+      </c>
+      <c r="C44">
+        <v>6.1733000000000002</v>
+      </c>
+      <c r="D44">
+        <v>6.1912000000000003</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>6.1912000000000003</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>6.1444999999999999</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1696666666666671</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>45533</v>
+      </c>
+      <c r="B45">
+        <v>6.2511999999999999</v>
+      </c>
+      <c r="C45">
+        <v>6.2274000000000003</v>
+      </c>
+      <c r="D45">
+        <v>6.2314999999999996</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>6.2511999999999999</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>6.2274000000000003</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2366999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>45534</v>
+      </c>
+      <c r="B46">
+        <v>6.2614000000000001</v>
+      </c>
+      <c r="C46">
+        <v>6.2282000000000002</v>
+      </c>
+      <c r="D46">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>6.2614000000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="2"/>
+        <v>6.2276566666666655</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>45535</v>
+      </c>
+      <c r="B47">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C47">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="D47">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1933699999999989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B48">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="C48">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="D48">
+        <v>6.2034399999999996</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>6.2034399999999996</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1967266666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0483FA8E-55F0-44A6-9E83-BE3FCAB86596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8B1E1-06AD-49B7-A03A-544A83B7F47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="2024_wise_eur" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024_wise_eur'!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024_wise_eur'!$B$1:$E$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="18">
   <si>
     <t>date</t>
   </si>
@@ -82,7 +82,16 @@
     <t>low</t>
   </si>
   <si>
-    <t>average</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>dailyAvg</t>
   </si>
 </sst>
 </file>
@@ -4042,125 +4051,138 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>45490</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5.4586899999999998</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5.4864600000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5.4898899999999999</v>
       </c>
-      <c r="E2">
-        <f>LARGE(B2:D2,1)</f>
+      <c r="F2">
+        <f>LARGE(C2:E2,1)</f>
         <v>5.4898899999999999</v>
       </c>
-      <c r="F2">
-        <f>SMALL(B2:D2,1)</f>
+      <c r="G2">
+        <f>SMALL(C2:E2,1)</f>
         <v>5.4586899999999998</v>
       </c>
-      <c r="G2" s="6">
-        <f>AVERAGE(B2:D2)</f>
+      <c r="H2" s="6">
+        <f>AVERAGE(C2:E2)</f>
         <v>5.4783466666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>45583</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5.4920900000000001</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.5887500000000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5.5447100000000002</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E48" si="0">LARGE(B3:D3,1)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F48" si="0">LARGE(C3:E3,1)</f>
         <v>5.5887500000000001</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F48" si="1">SMALL(B3:D3,1)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G48" si="1">SMALL(C3:E3,1)</f>
         <v>5.4920900000000001</v>
       </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G48" si="2">AVERAGE(B3:D3)</f>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H48" si="2">AVERAGE(C3:E3)</f>
         <v>5.5418500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>45584</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>5.5445000000000002</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5.5788599999999997</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>5.59816</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>5.5445000000000002</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>5.5738399999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>45493</v>
-      </c>
-      <c r="B5">
-        <v>5.59816</v>
       </c>
       <c r="C5">
         <v>5.59816</v>
@@ -4169,180 +4191,201 @@
         <v>5.59816</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
-      <c r="G5" s="6">
-        <f t="shared" si="2"/>
+      <c r="G5">
+        <f t="shared" si="1"/>
         <v>5.59816</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
         <v>45494</v>
-      </c>
-      <c r="B6">
-        <v>5.59816</v>
       </c>
       <c r="C6">
         <v>5.59816</v>
       </c>
       <c r="D6">
+        <v>5.59816</v>
+      </c>
+      <c r="E6">
         <v>5.5453000000000001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>5.5453000000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>5.5805400000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
         <v>45495</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5.5717100000000004</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5.5692599999999999</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5.5720900000000002</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>5.5720900000000002</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>5.5692599999999999</v>
       </c>
-      <c r="G7" s="6">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>5.5710199999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
         <v>45496</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>5.5933099999999998</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5.5861900000000002</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5.5865600000000004</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>5.5933099999999998</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>5.5861900000000002</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>5.5886866666666677</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
         <v>45497</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>5.6412399999999998</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5.6542899999999996</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5.6550500000000001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>5.6550500000000001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>5.6412399999999998</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>5.6501933333333332</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
         <v>45498</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>5.6501999999999999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>5.64764</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5.6452499999999999</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>5.6501999999999999</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>5.6452499999999999</v>
       </c>
-      <c r="G10" s="6">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>5.6476966666666675</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>45499</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>5.6402900000000002</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>5.6578400000000002</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>5.6562999999999999</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>5.6578400000000002</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>5.6402900000000002</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>5.6514766666666674</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
         <v>45500</v>
-      </c>
-      <c r="B12">
-        <v>5.6562999999999999</v>
       </c>
       <c r="C12">
         <v>5.6562999999999999</v>
@@ -4351,180 +4394,201 @@
         <v>5.6562999999999999</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>5.6562999999999999</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6562999999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5.6562999999999999</v>
+      </c>
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>5.656299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
         <v>45501</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>5.6562999999999999</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>5.65665</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>5.6568100000000001</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>5.6568100000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>5.6562999999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>5.6565866666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
         <v>45502</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>5.6509</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>5.6242999999999999</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5.6160800000000002</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>5.6509</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>5.6160800000000002</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>5.6304266666666676</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <v>45503</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>5.6556600000000001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>5.6123000000000003</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5.6125499999999997</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>5.6556600000000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>5.6123000000000003</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>5.6268366666666667</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
         <v>45504</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>5.6746600000000003</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>5.6479900000000001</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>5.6578999999999997</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>5.6746600000000003</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>5.6479900000000001</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>5.6601833333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
         <v>45505</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>5.6421900000000003</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5.7348699999999999</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5.7524199999999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>5.7524199999999999</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>5.6421900000000003</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>5.7098266666666673</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
         <v>45506</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>5.7158499999999997</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5.7095900000000004</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>5.7280699999999998</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>5.7280699999999998</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>5.7095900000000004</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>5.7178366666666669</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
         <v>45507</v>
-      </c>
-      <c r="B19">
-        <v>5.7280699999999998</v>
       </c>
       <c r="C19">
         <v>5.7280699999999998</v>
@@ -4533,180 +4597,201 @@
         <v>5.7280699999999998</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>5.7280699999999998</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7280699999999998</v>
       </c>
-      <c r="G19" s="6">
-        <f t="shared" si="2"/>
+      <c r="G19">
+        <f t="shared" si="1"/>
         <v>5.7280699999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7280699999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
         <v>45508</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>5.7280699999999998</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>5.7272100000000004</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5.7281000000000004</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>5.7281000000000004</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>5.7272100000000004</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>5.7277933333333335</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
         <v>45509</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>5.8010999999999999</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>5.7407599999999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5.7229799999999997</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>5.8010999999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>5.7229799999999997</v>
       </c>
-      <c r="G21" s="6">
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
         <v>5.7549466666666662</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
         <v>45510</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>5.6627099999999997</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>5.6586100000000004</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>5.6571600000000002</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>5.6627099999999997</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>5.6571600000000002</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>5.6594933333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
         <v>45511</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>5.6033099999999996</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>5.6236600000000001</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5.6373899999999999</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>5.6373899999999999</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>5.6033099999999996</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>5.6214533333333323</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
         <v>45512</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>5.617</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>5.5742599999999998</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>5.5475099999999999</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>5.617</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>5.5475099999999999</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <f t="shared" si="2"/>
         <v>5.5795899999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
         <v>45513</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>5.5172400000000001</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5.5146600000000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5.5087000000000002</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>5.5172400000000001</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>5.5087000000000002</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>5.5135333333333341</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
         <v>45514</v>
-      </c>
-      <c r="B26">
-        <v>5.5087000000000002</v>
       </c>
       <c r="C26">
         <v>5.5087000000000002</v>
@@ -4715,180 +4800,201 @@
         <v>5.5087000000000002</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>5.5087000000000002</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5087000000000002</v>
       </c>
-      <c r="G26" s="6">
-        <f t="shared" si="2"/>
+      <c r="G26">
+        <f t="shared" si="1"/>
         <v>5.5087000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>5.5087000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
         <v>45515</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>5.4993999999999996</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>5.4977400000000003</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5.4938399999999996</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>5.4993999999999996</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>5.4938399999999996</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <f t="shared" si="2"/>
         <v>5.4969933333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
         <v>45516</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>5.4993999999999996</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>5.4877399999999996</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>5.4938399999999996</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>5.4993999999999996</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>5.4877399999999996</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <f t="shared" si="2"/>
         <v>5.4936599999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
         <v>45517</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>5.4891100000000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5.4487899999999998</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5.4572900000000004</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>5.4891100000000002</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>5.4487899999999998</v>
       </c>
-      <c r="G29" s="6">
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
         <v>5.4650633333333332</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
         <v>45518</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>5.44909</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>5.46896</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>5.4706099999999998</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>5.4706099999999998</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>5.44909</v>
       </c>
-      <c r="G30" s="6">
+      <c r="H30" s="6">
         <f t="shared" si="2"/>
         <v>5.4628866666666669</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
         <v>45519</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>5.4555100000000003</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>5.4836900000000002</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>5.4863400000000002</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>5.4863400000000002</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>5.4555100000000003</v>
       </c>
-      <c r="G31" s="6">
+      <c r="H31" s="6">
         <f t="shared" si="2"/>
         <v>5.475179999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
         <v>45520</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>5.4542599999999997</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>5.46624</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>5.4715400000000001</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>5.4715400000000001</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>5.4542599999999997</v>
       </c>
-      <c r="G32" s="6">
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>5.4640133333333338</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
         <v>45521</v>
-      </c>
-      <c r="B33">
-        <v>5.4715400000000001</v>
       </c>
       <c r="C33">
         <v>5.4715400000000001</v>
@@ -4897,180 +5003,201 @@
         <v>5.4715400000000001</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>5.4715400000000001</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4715400000000001</v>
       </c>
-      <c r="G33" s="6">
-        <f t="shared" si="2"/>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>5.4715400000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="H33" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
         <v>45522</v>
-      </c>
-      <c r="B34">
-        <v>5.4715400000000001</v>
       </c>
       <c r="C34">
         <v>5.4715400000000001</v>
       </c>
       <c r="D34">
+        <v>5.4715400000000001</v>
+      </c>
+      <c r="E34">
         <v>5.4694000000000003</v>
       </c>
-      <c r="E34">
-        <f>LARGE(B34:D34,1)</f>
+      <c r="F34">
+        <f>LARGE(C34:E34,1)</f>
         <v>5.4715400000000001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>5.4694000000000003</v>
       </c>
-      <c r="G34" s="6">
+      <c r="H34" s="6">
         <f t="shared" si="2"/>
         <v>5.4708266666666674</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
         <v>45523</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>5.4292999999999996</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>5.4124999999999996</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>5.4063999999999997</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>5.4292999999999996</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>5.4063999999999997</v>
       </c>
-      <c r="G35" s="6">
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>5.4160666666666657</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
         <v>45524</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>5.4397000000000002</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>5.4852999999999996</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>5.4795999999999996</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>5.4852999999999996</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>5.4397000000000002</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
         <v>5.4682000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
         <v>45525</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>5.47</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>5.4812000000000003</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>5.4836999999999998</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>5.4836999999999998</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>5.47</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <f t="shared" si="2"/>
         <v>5.4782999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
         <v>45526</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>5.5452000000000004</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>5.5896999999999997</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>5.5921000000000003</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>5.5921000000000003</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>5.5452000000000004</v>
       </c>
-      <c r="G38" s="6">
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>5.5756666666666668</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
         <v>45527</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>5.5518000000000001</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>5.4794999999999998</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>5.4859499999999999</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>5.5518000000000001</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>5.4794999999999998</v>
       </c>
-      <c r="G39" s="6">
+      <c r="H39" s="6">
         <f t="shared" si="2"/>
         <v>5.5057499999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
         <v>45528</v>
-      </c>
-      <c r="B40">
-        <v>5.4859499999999999</v>
       </c>
       <c r="C40">
         <v>5.4859499999999999</v>
@@ -5079,24 +5206,27 @@
         <v>5.4859499999999999</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
-      <c r="G40" s="6">
-        <f t="shared" si="2"/>
+      <c r="G40">
+        <f t="shared" si="1"/>
         <v>5.4859499999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="H40" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
         <v>45529</v>
-      </c>
-      <c r="B41">
-        <v>5.4859499999999999</v>
       </c>
       <c r="C41">
         <v>5.4859499999999999</v>
@@ -5105,154 +5235,172 @@
         <v>5.4859499999999999</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="2"/>
+      <c r="G41">
+        <f t="shared" si="1"/>
         <v>5.4859499999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+      <c r="H41" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
         <v>45530</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>5.4848999999999997</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>5.4917999999999996</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>5.4972000000000003</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>5.4972000000000003</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <f t="shared" si="1"/>
         <v>5.4848999999999997</v>
       </c>
-      <c r="G42" s="6">
+      <c r="H42" s="6">
         <f t="shared" si="2"/>
         <v>5.4912999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
         <v>45531</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>5.4927000000000001</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>5.5025000000000004</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>5.5094000000000003</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>5.5094000000000003</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <f t="shared" si="1"/>
         <v>5.4927000000000001</v>
       </c>
-      <c r="G43" s="6">
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
         <v>5.5015333333333336</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
         <v>45532</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>5.5304000000000002</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>5.5549799999999996</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>5.5633999999999997</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>5.5633999999999997</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <f t="shared" si="1"/>
         <v>5.5304000000000002</v>
       </c>
-      <c r="G44" s="6">
+      <c r="H44" s="6">
         <f t="shared" si="2"/>
         <v>5.549593333333334</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
         <v>45533</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>5.6406000000000001</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>5.6227</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>5.6288999999999998</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>5.6406000000000001</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>5.6227</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <f t="shared" si="2"/>
         <v>5.6307333333333345</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
         <v>45534</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>5.6656000000000004</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>5.6341000000000001</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>5.6063799999999997</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>5.6656000000000004</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <f t="shared" si="2"/>
         <v>5.6353600000000013</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
         <v>45535</v>
-      </c>
-      <c r="B47">
-        <v>5.6063799999999997</v>
       </c>
       <c r="C47">
         <v>5.6063799999999997</v>
@@ -5261,40 +5409,46 @@
         <v>5.6063799999999997</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>5.6063799999999997</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6063799999999997</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="H47" s="6">
         <f t="shared" si="2"/>
         <v>5.6063799999999988</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
         <v>45536</v>
-      </c>
-      <c r="B48">
-        <v>5.6063799999999997</v>
       </c>
       <c r="C48">
         <v>5.6063799999999997</v>
       </c>
       <c r="D48">
+        <v>5.6063799999999997</v>
+      </c>
+      <c r="E48">
         <v>5.6116900000000003</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>5.6116900000000003</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
-      <c r="G48" s="6">
+      <c r="H48" s="6">
         <f t="shared" si="2"/>
         <v>5.6081499999999993</v>
       </c>
@@ -5308,131 +5462,145 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="E2 G2" formulaRange="1"/>
+    <ignoredError sqref="F2 H2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>45490</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>5.9731800000000002</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>5.9967499999999996</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>6.0023600000000004</v>
       </c>
-      <c r="E2">
-        <f>LARGE(B2:D2,1)</f>
+      <c r="F2">
+        <f>LARGE(C2:E2,1)</f>
         <v>6.0023600000000004</v>
       </c>
-      <c r="F2">
-        <f>SMALL(B2:D2,1)</f>
+      <c r="G2">
+        <f>SMALL(C2:E2,1)</f>
         <v>5.9731800000000002</v>
       </c>
-      <c r="G2" s="2">
-        <f>AVERAGE(B2:D2)</f>
+      <c r="H2" s="2">
+        <f>AVERAGE(C2:E2)</f>
         <v>5.9907633333333337</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
         <v>45583</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>6.00298</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>6.0900600000000003</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>6.0370799999999996</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E48" si="0">LARGE(B3:D3,1)</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F48" si="0">LARGE(C3:E3,1)</f>
         <v>6.0900600000000003</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F48" si="1">SMALL(B3:D3,1)</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G48" si="1">SMALL(C3:E3,1)</f>
         <v>6.00298</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G48" si="2">AVERAGE(B3:D3)</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H48" si="2">AVERAGE(C3:E3)</f>
         <v>6.0433733333333324</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>45584</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>6.0396299999999998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>6.0720099999999997</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>6.0924699999999996</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <f t="shared" si="1"/>
         <v>6.0396299999999998</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <f t="shared" si="2"/>
         <v>6.068036666666667</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
         <v>45493</v>
-      </c>
-      <c r="B5">
-        <v>6.0924699999999996</v>
       </c>
       <c r="C5">
         <v>6.0924699999999996</v>
@@ -5441,180 +5609,201 @@
         <v>6.0924699999999996</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
+      <c r="G5">
+        <f t="shared" si="1"/>
         <v>6.0924699999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
         <v>45494</v>
-      </c>
-      <c r="B6">
-        <v>6.0924699999999996</v>
       </c>
       <c r="C6">
         <v>6.0924699999999996</v>
       </c>
       <c r="D6">
+        <v>6.0924699999999996</v>
+      </c>
+      <c r="E6">
         <v>6.0363499999999997</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>6.0363499999999997</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>6.073763333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
         <v>45495</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6.0609000000000002</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6.06351</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6.0671900000000001</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>6.0671900000000001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" si="1"/>
         <v>6.0609000000000002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>6.0638666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
         <v>45496</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>6.0692899999999996</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6.0613000000000001</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6.0602799999999997</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>6.0692899999999996</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <f t="shared" si="1"/>
         <v>6.0602799999999997</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>6.0636233333333331</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
         <v>45497</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>6.1232899999999999</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>6.1300400000000002</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6.1289499999999997</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>6.1300400000000002</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>6.1232899999999999</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>6.1274266666666675</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
         <v>45498</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>6.1245200000000004</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6.1251600000000002</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6.1287700000000003</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>6.1287700000000003</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <f t="shared" si="1"/>
         <v>6.1245200000000004</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>6.12615</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
         <v>45499</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>6.1281999999999996</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6.1429999999999998</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6.1404699999999997</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>6.1429999999999998</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <f t="shared" si="1"/>
         <v>6.1281999999999996</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>6.1372233333333339</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
         <v>45500</v>
-      </c>
-      <c r="B12">
-        <v>6.1404699999999997</v>
       </c>
       <c r="C12">
         <v>6.1404699999999997</v>
@@ -5623,180 +5812,201 @@
         <v>6.1404699999999997</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
         <v>6.1404699999999997</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1404699999999997</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
+      <c r="G12">
+        <f t="shared" si="1"/>
         <v>6.1404699999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1404699999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
         <v>45501</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>6.1404699999999997</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>6.1428500000000001</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>6.1418600000000003</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>6.1428500000000001</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <f t="shared" si="1"/>
         <v>6.1404699999999997</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>6.141726666666667</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
         <v>45502</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>6.1089200000000003</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>6.08887</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>6.0749300000000002</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>6.1089200000000003</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>6.0749300000000002</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>6.0909066666666662</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
         <v>45503</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>6.1143400000000003</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>6.0705400000000003</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>6.0747400000000003</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>6.1143400000000003</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <f t="shared" si="1"/>
         <v>6.0705400000000003</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>6.0865399999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
         <v>45504</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>6.15245</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>6.1144100000000003</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>6.1261000000000001</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>6.15245</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>6.1144100000000003</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>6.1309866666666677</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
         <v>45505</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>6.0955500000000002</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6.1876199999999999</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>6.2071300000000003</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>6.2071300000000003</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <f t="shared" si="1"/>
         <v>6.0955500000000002</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6.1634333333333338</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
         <v>45506</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>6.2333999999999996</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>6.23088</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>6.2495700000000003</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>6.2495700000000003</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <f t="shared" si="1"/>
         <v>6.23088</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>6.2379500000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
         <v>45507</v>
-      </c>
-      <c r="B19">
-        <v>6.2495700000000003</v>
       </c>
       <c r="C19">
         <v>6.2495700000000003</v>
@@ -5805,180 +6015,201 @@
         <v>6.2495700000000003</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
         <v>6.2495700000000003</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2495700000000003</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>6.2495700000000003</v>
+      </c>
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>6.2495700000000012</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
         <v>45508</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>6.2495700000000003</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>6.2564099999999998</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6.25481</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>6.2564099999999998</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <f t="shared" si="1"/>
         <v>6.2495700000000003</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>6.2535966666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
         <v>45509</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>6.3701999999999996</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>6.2915599999999996</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>6.2695499999999997</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>6.3701999999999996</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="1"/>
         <v>6.2695499999999997</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
         <v>6.3104366666666669</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
         <v>45510</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>6.1828000000000003</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>6.1848700000000001</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>6.1767700000000003</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>6.1848700000000001</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <f t="shared" si="1"/>
         <v>6.1767700000000003</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>6.1814800000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
         <v>45511</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>6.1179699999999997</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>6.1429999999999998</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>6.1602499999999996</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>6.1602499999999996</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>6.1179699999999997</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>6.1404066666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
         <v>45512</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>6.1177400000000004</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>6.0851300000000004</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>6.0570500000000003</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>6.1177400000000004</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <f t="shared" si="1"/>
         <v>6.0570500000000003</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>6.0866400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
         <v>45513</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>6.0171000000000001</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>6.0211600000000001</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>6.0135500000000004</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>6.0211600000000001</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="1"/>
         <v>6.0135500000000004</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>6.0172700000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
         <v>45514</v>
-      </c>
-      <c r="B26">
-        <v>6.0135500000000004</v>
       </c>
       <c r="C26">
         <v>6.0135500000000004</v>
@@ -5987,180 +6218,201 @@
         <v>6.0135500000000004</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
         <v>6.0135500000000004</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0135500000000004</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>6.0135500000000004</v>
+      </c>
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>6.0135499999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
         <v>45515</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>6.0078100000000001</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>6.0093300000000003</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>6.0075200000000004</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>6.0093300000000003</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <f t="shared" si="1"/>
         <v>6.0075200000000004</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
         <v>45516</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>6.0078100000000001</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>6.0093300000000003</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>6.0075200000000004</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>6.0093300000000003</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <f t="shared" si="1"/>
         <v>6.0075200000000004</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
         <v>45517</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>6.0146800000000002</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>5.9917600000000002</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>5.9986600000000001</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>6.0146800000000002</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <f t="shared" si="1"/>
         <v>5.9917600000000002</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>6.0017000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
         <v>45518</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>6.0144599999999997</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>6.0229699999999999</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>6.0214800000000004</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>6.0229699999999999</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <f t="shared" si="1"/>
         <v>6.0144599999999997</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>6.019636666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
         <v>45519</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>5.9838699999999996</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>6.0173199999999998</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>6.0248200000000001</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <f t="shared" si="0"/>
         <v>6.0248200000000001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>5.9838699999999996</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>6.0086699999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
         <v>45520</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>6.0010300000000001</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>6.0262700000000002</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>6.03376</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <f t="shared" si="1"/>
         <v>6.0010300000000001</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>6.0203533333333334</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
         <v>45521</v>
-      </c>
-      <c r="B33">
-        <v>6.03376</v>
       </c>
       <c r="C33">
         <v>6.03376</v>
@@ -6169,180 +6421,201 @@
         <v>6.03376</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
-      <c r="G33" s="2">
-        <f t="shared" si="2"/>
+      <c r="G33">
+        <f t="shared" si="1"/>
         <v>6.03376</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="H33" s="2">
+        <f t="shared" si="2"/>
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
         <v>45522</v>
-      </c>
-      <c r="B34">
-        <v>6.03376</v>
       </c>
       <c r="C34">
         <v>6.03376</v>
       </c>
       <c r="D34">
+        <v>6.03376</v>
+      </c>
+      <c r="E34">
         <v>6.0332999999999997</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <f t="shared" si="1"/>
         <v>6.0332999999999997</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>6.0336066666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
         <v>45523</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>5.9958999999999998</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>5.9989999999999997</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>5.9932999999999996</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <f t="shared" si="0"/>
         <v>5.9989999999999997</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <f t="shared" si="1"/>
         <v>5.9932999999999996</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>5.9960666666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
         <v>45524</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>6.0391000000000004</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>6.1021000000000001</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>6.0941000000000001</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="0"/>
         <v>6.1021000000000001</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="1"/>
         <v>6.0391000000000004</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>6.0784333333333338</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
         <v>45525</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>6.0796000000000001</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>6.1125999999999996</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>6.1108000000000002</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f t="shared" si="0"/>
         <v>6.1125999999999996</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <f t="shared" si="1"/>
         <v>6.0796000000000001</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>6.101</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
         <v>45526</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>6.1086999999999998</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>6.2092999999999998</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>6.2225999999999999</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <f t="shared" si="0"/>
         <v>6.2225999999999999</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <f t="shared" si="1"/>
         <v>6.1086999999999998</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>6.1801999999999992</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
         <v>45527</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>6.1725000000000003</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>6.1323999999999996</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>6.1401700000000003</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <f t="shared" si="0"/>
         <v>6.1725000000000003</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <f t="shared" si="1"/>
         <v>6.1323999999999996</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <f t="shared" si="2"/>
         <v>6.1483566666666674</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
         <v>45528</v>
-      </c>
-      <c r="B40">
-        <v>6.1401700000000003</v>
       </c>
       <c r="C40">
         <v>6.1401700000000003</v>
@@ -6351,180 +6624,201 @@
         <v>6.1401700000000003</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
         <v>6.1401700000000003</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1401700000000003</v>
       </c>
-      <c r="G40" s="2">
-        <f t="shared" si="2"/>
+      <c r="G40">
+        <f t="shared" si="1"/>
         <v>6.1401700000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+      <c r="H40" s="2">
+        <f t="shared" si="2"/>
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
         <v>45529</v>
-      </c>
-      <c r="B41">
-        <v>6.1401700000000003</v>
       </c>
       <c r="C41">
         <v>6.1401700000000003</v>
       </c>
       <c r="D41">
+        <v>6.1401700000000003</v>
+      </c>
+      <c r="E41">
         <v>6.1395999999999997</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <f t="shared" si="0"/>
         <v>6.1401700000000003</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <f t="shared" si="1"/>
         <v>6.1395999999999997</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <f t="shared" si="2"/>
         <v>6.1399800000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
         <v>45530</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>6.1208999999999998</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>6.1284999999999998</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>6.1401000000000003</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <f t="shared" si="0"/>
         <v>6.1401000000000003</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <f t="shared" si="1"/>
         <v>6.1208999999999998</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <f t="shared" si="2"/>
         <v>6.129833333333333</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
         <v>45531</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>6.1345000000000001</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>6.1538000000000004</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>6.1562000000000001</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f t="shared" si="0"/>
         <v>6.1562000000000001</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <f t="shared" si="1"/>
         <v>6.1345000000000001</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <f t="shared" si="2"/>
         <v>6.1481666666666657</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
         <v>45532</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>6.1444999999999999</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>6.1733000000000002</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>6.1912000000000003</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f t="shared" si="0"/>
         <v>6.1912000000000003</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <f t="shared" si="1"/>
         <v>6.1444999999999999</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <f t="shared" si="2"/>
         <v>6.1696666666666671</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
         <v>45533</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>6.2511999999999999</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>6.2274000000000003</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>6.2314999999999996</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f t="shared" si="0"/>
         <v>6.2511999999999999</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <f t="shared" si="1"/>
         <v>6.2274000000000003</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <f t="shared" si="2"/>
         <v>6.2366999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
         <v>45534</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>6.2614000000000001</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>6.2282000000000002</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>6.1933699999999998</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <f t="shared" si="0"/>
         <v>6.2614000000000001</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <f t="shared" si="2"/>
         <v>6.2276566666666655</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
         <v>45535</v>
-      </c>
-      <c r="B47">
-        <v>6.1933699999999998</v>
       </c>
       <c r="C47">
         <v>6.1933699999999998</v>
@@ -6533,49 +6827,55 @@
         <v>6.1933699999999998</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
         <v>6.1933699999999998</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1933699999999998</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="H47" s="2">
         <f t="shared" si="2"/>
         <v>6.1933699999999989</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
         <v>45536</v>
-      </c>
-      <c r="B48">
-        <v>6.1933699999999998</v>
       </c>
       <c r="C48">
         <v>6.1933699999999998</v>
       </c>
       <c r="D48">
+        <v>6.1933699999999998</v>
+      </c>
+      <c r="E48">
         <v>6.2034399999999996</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <f t="shared" si="0"/>
         <v>6.2034399999999996</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
-      <c r="G48" s="2">
+      <c r="H48" s="2">
         <f t="shared" si="2"/>
         <v>6.1967266666666667</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="5"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D8B1E1-06AD-49B7-A03A-544A83B7F47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4796C26-B19C-4701-BCBE-DF4127F1899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -153,6 +153,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4051,66 +4054,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>45490</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>5.4586899999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>5.4864600000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>5.4898899999999999</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <f>LARGE(C2:E2,1)</f>
         <v>5.4898899999999999</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <f>SMALL(C2:E2,1)</f>
         <v>5.4586899999999998</v>
       </c>
@@ -4120,26 +4125,26 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>45583</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>5.4920900000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>5.5887500000000001</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>5.5447100000000002</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F48" si="0">LARGE(C3:E3,1)</f>
         <v>5.5887500000000001</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G48" si="1">SMALL(C3:E3,1)</f>
         <v>5.4920900000000001</v>
       </c>
@@ -4149,26 +4154,26 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>45584</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>5.5445000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>5.5788599999999997</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>5.59816</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>5.5445000000000002</v>
       </c>
@@ -4178,26 +4183,26 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>45493</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>5.59816</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>5.59816</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>5.59816</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>5.59816</v>
       </c>
@@ -4207,26 +4212,26 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>45494</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>5.59816</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>5.59816</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>5.5453000000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>5.5453000000000001</v>
       </c>
@@ -4236,26 +4241,26 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>45495</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>5.5717100000000004</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>5.5692599999999999</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>5.5720900000000002</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>5.5720900000000002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>5.5692599999999999</v>
       </c>
@@ -4265,26 +4270,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>45496</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>5.5933099999999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>5.5861900000000002</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>5.5865600000000004</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>5.5933099999999998</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>5.5861900000000002</v>
       </c>
@@ -4294,26 +4299,26 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>45497</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>5.6412399999999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>5.6542899999999996</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>5.6550500000000001</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>5.6550500000000001</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>5.6412399999999998</v>
       </c>
@@ -4323,26 +4328,26 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>45498</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>5.6501999999999999</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>5.64764</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>5.6452499999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>5.6501999999999999</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>5.6452499999999999</v>
       </c>
@@ -4352,26 +4357,26 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>45499</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>5.6402900000000002</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>5.6578400000000002</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>5.6562999999999999</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>5.6578400000000002</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>5.6402900000000002</v>
       </c>
@@ -4381,26 +4386,26 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>45500</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>5.6562999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>5.6562999999999999</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>5.6562999999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>5.6562999999999999</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>5.6562999999999999</v>
       </c>
@@ -4410,26 +4415,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>45501</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>5.6562999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>5.65665</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>5.6568100000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>5.6568100000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>5.6562999999999999</v>
       </c>
@@ -4439,26 +4444,26 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>45502</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>5.6509</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>5.6242999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>5.6160800000000002</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>5.6509</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>5.6160800000000002</v>
       </c>
@@ -4468,26 +4473,26 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>45503</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>5.6556600000000001</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>5.6123000000000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>5.6125499999999997</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>5.6556600000000001</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>5.6123000000000003</v>
       </c>
@@ -4497,26 +4502,26 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>45504</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>5.6746600000000003</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>5.6479900000000001</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>5.6578999999999997</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>5.6746600000000003</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>5.6479900000000001</v>
       </c>
@@ -4526,26 +4531,26 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>45505</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>5.6421900000000003</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>5.7348699999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>5.7524199999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>5.7524199999999999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>5.6421900000000003</v>
       </c>
@@ -4555,26 +4560,26 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>45506</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>5.7158499999999997</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>5.7095900000000004</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>5.7280699999999998</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>5.7280699999999998</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>5.7095900000000004</v>
       </c>
@@ -4584,26 +4589,26 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>45507</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>5.7280699999999998</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>5.7280699999999998</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>5.7280699999999998</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>5.7280699999999998</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>5.7280699999999998</v>
       </c>
@@ -4613,26 +4618,26 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>45508</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>5.7280699999999998</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>5.7272100000000004</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>5.7281000000000004</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>5.7281000000000004</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>5.7272100000000004</v>
       </c>
@@ -4642,26 +4647,26 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>45509</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>5.8010999999999999</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>5.7407599999999999</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>5.7229799999999997</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>5.8010999999999999</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>5.7229799999999997</v>
       </c>
@@ -4671,26 +4676,26 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>45510</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>5.6627099999999997</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>5.6586100000000004</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>5.6571600000000002</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>5.6627099999999997</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>5.6571600000000002</v>
       </c>
@@ -4700,26 +4705,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>45511</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>5.6033099999999996</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>5.6236600000000001</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>5.6373899999999999</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>5.6373899999999999</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>5.6033099999999996</v>
       </c>
@@ -4729,26 +4734,26 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>45512</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>5.617</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>5.5742599999999998</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>5.5475099999999999</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>5.617</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>5.5475099999999999</v>
       </c>
@@ -4758,26 +4763,26 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>45513</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>5.5172400000000001</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>5.5146600000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>5.5087000000000002</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>5.5172400000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>5.5087000000000002</v>
       </c>
@@ -4787,26 +4792,26 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>45514</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>5.5087000000000002</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>5.5087000000000002</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>5.5087000000000002</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>5.5087000000000002</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>5.5087000000000002</v>
       </c>
@@ -4816,26 +4821,26 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>45515</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>5.4993999999999996</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>5.4977400000000003</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>5.4938399999999996</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>5.4993999999999996</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>5.4938399999999996</v>
       </c>
@@ -4845,26 +4850,26 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>45516</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>5.4993999999999996</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>5.4877399999999996</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>5.4938399999999996</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>5.4993999999999996</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>5.4877399999999996</v>
       </c>
@@ -4874,26 +4879,26 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>45517</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>5.4891100000000002</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>5.4487899999999998</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>5.4572900000000004</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>5.4891100000000002</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>5.4487899999999998</v>
       </c>
@@ -4903,26 +4908,26 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>45518</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>5.44909</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>5.46896</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>5.4706099999999998</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>5.4706099999999998</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>5.44909</v>
       </c>
@@ -4932,26 +4937,26 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>45519</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>5.4555100000000003</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>5.4836900000000002</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>5.4863400000000002</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>5.4863400000000002</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>5.4555100000000003</v>
       </c>
@@ -4961,26 +4966,26 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>45520</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>5.4542599999999997</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>5.46624</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>5.4715400000000001</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>5.4715400000000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>5.4542599999999997</v>
       </c>
@@ -4990,26 +4995,26 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>45521</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>5.4715400000000001</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>5.4715400000000001</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>5.4715400000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>5.4715400000000001</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="6">
         <f t="shared" si="1"/>
         <v>5.4715400000000001</v>
       </c>
@@ -5019,26 +5024,26 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="5">
         <v>45522</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>5.4715400000000001</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>5.4715400000000001</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>5.4694000000000003</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <f>LARGE(C34:E34,1)</f>
         <v>5.4715400000000001</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>5.4694000000000003</v>
       </c>
@@ -5048,26 +5053,26 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>45523</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>5.4292999999999996</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>5.4124999999999996</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>5.4063999999999997</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>5.4292999999999996</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>5.4063999999999997</v>
       </c>
@@ -5077,26 +5082,26 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="5">
         <v>45524</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>5.4397000000000002</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>5.4852999999999996</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>5.4795999999999996</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>5.4852999999999996</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>5.4397000000000002</v>
       </c>
@@ -5106,26 +5111,26 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="5">
         <v>45525</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>5.47</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>5.4812000000000003</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>5.4836999999999998</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>5.4836999999999998</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>5.47</v>
       </c>
@@ -5135,26 +5140,26 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>45526</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>5.5452000000000004</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>5.5896999999999997</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>5.5921000000000003</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>5.5921000000000003</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>5.5452000000000004</v>
       </c>
@@ -5164,26 +5169,26 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>45527</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>5.5518000000000001</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>5.4794999999999998</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>5.4859499999999999</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>5.5518000000000001</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="6">
         <f t="shared" si="1"/>
         <v>5.4794999999999998</v>
       </c>
@@ -5193,26 +5198,26 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>45528</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>5.4859499999999999</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>5.4859499999999999</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>5.4859499999999999</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>5.4859499999999999</v>
       </c>
@@ -5222,26 +5227,26 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>45529</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="6">
         <v>5.4859499999999999</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>5.4859499999999999</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
         <v>5.4859499999999999</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="6">
         <f t="shared" si="1"/>
         <v>5.4859499999999999</v>
       </c>
@@ -5251,26 +5256,26 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>45530</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>5.4848999999999997</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>5.4917999999999996</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
         <v>5.4972000000000003</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>5.4972000000000003</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>5.4848999999999997</v>
       </c>
@@ -5280,26 +5285,26 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>45531</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="6">
         <v>5.4927000000000001</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>5.5025000000000004</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
         <v>5.5094000000000003</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>5.5094000000000003</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>5.4927000000000001</v>
       </c>
@@ -5309,26 +5314,26 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>45532</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>5.5304000000000002</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>5.5549799999999996</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="6">
         <v>5.5633999999999997</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <f t="shared" si="0"/>
         <v>5.5633999999999997</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>5.5304000000000002</v>
       </c>
@@ -5338,26 +5343,26 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>45533</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>5.6406000000000001</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>5.6227</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="6">
         <v>5.6288999999999998</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>5.6406000000000001</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>5.6227</v>
       </c>
@@ -5367,26 +5372,26 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>45534</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>5.6656000000000004</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>5.6341000000000001</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="6">
         <v>5.6063799999999997</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <f t="shared" si="0"/>
         <v>5.6656000000000004</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
@@ -5396,26 +5401,26 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>45535</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="6">
         <v>5.6063799999999997</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>5.6063799999999997</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="6">
         <v>5.6063799999999997</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <f t="shared" si="0"/>
         <v>5.6063799999999997</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
@@ -5425,26 +5430,26 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>45536</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>5.6063799999999997</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>5.6063799999999997</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="6">
         <v>5.6116900000000003</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>5.6116900000000003</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
@@ -5452,12 +5457,6 @@
         <f t="shared" si="2"/>
         <v>5.6081499999999993</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -5472,1401 +5471,1403 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="11.7109375" style="6" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>45490</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>5.9731800000000002</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>5.9967499999999996</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>6.0023600000000004</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="6">
         <f>LARGE(C2:E2,1)</f>
         <v>6.0023600000000004</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="6">
         <f>SMALL(C2:E2,1)</f>
         <v>5.9731800000000002</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="6">
         <f>AVERAGE(C2:E2)</f>
         <v>5.9907633333333337</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>45583</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>6.00298</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>6.0900600000000003</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>6.0370799999999996</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F48" si="0">LARGE(C3:E3,1)</f>
         <v>6.0900600000000003</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G48" si="1">SMALL(C3:E3,1)</f>
         <v>6.00298</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H48" si="2">AVERAGE(C3:E3)</f>
         <v>6.0433733333333324</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>45584</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>6.0396299999999998</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>6.0720099999999997</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="6">
         <v>6.0924699999999996</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <f t="shared" si="1"/>
         <v>6.0396299999999998</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>6.068036666666667</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>45493</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>6.0924699999999996</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>6.0924699999999996</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>6.0924699999999996</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <f t="shared" si="1"/>
         <v>6.0924699999999996</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="6">
         <f t="shared" si="2"/>
         <v>6.0924699999999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>45494</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>6.0924699999999996</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>6.0924699999999996</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>6.0363499999999997</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <f t="shared" si="1"/>
         <v>6.0363499999999997</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="6">
         <f t="shared" si="2"/>
         <v>6.073763333333333</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>45495</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>6.0609000000000002</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>6.06351</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>6.0671900000000001</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>6.0671900000000001</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="6">
         <f t="shared" si="1"/>
         <v>6.0609000000000002</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <f t="shared" si="2"/>
         <v>6.0638666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>45496</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>6.0692899999999996</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="6">
         <v>6.0613000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>6.0602799999999997</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>6.0692899999999996</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="6">
         <f t="shared" si="1"/>
         <v>6.0602799999999997</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="6">
         <f t="shared" si="2"/>
         <v>6.0636233333333331</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>45497</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>6.1232899999999999</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>6.1300400000000002</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>6.1289499999999997</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>6.1300400000000002</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <f t="shared" si="1"/>
         <v>6.1232899999999999</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="6">
         <f t="shared" si="2"/>
         <v>6.1274266666666675</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>45498</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="6">
         <v>6.1245200000000004</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>6.1251600000000002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>6.1287700000000003</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>6.1287700000000003</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="6">
         <f t="shared" si="1"/>
         <v>6.1245200000000004</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="6">
         <f t="shared" si="2"/>
         <v>6.12615</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>45499</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>6.1281999999999996</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>6.1429999999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>6.1404699999999997</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>6.1429999999999998</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="6">
         <f t="shared" si="1"/>
         <v>6.1281999999999996</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="6">
         <f t="shared" si="2"/>
         <v>6.1372233333333339</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>45500</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>6.1404699999999997</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>6.1404699999999997</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>6.1404699999999997</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>6.1404699999999997</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="6">
         <f t="shared" si="1"/>
         <v>6.1404699999999997</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="6">
         <f t="shared" si="2"/>
         <v>6.1404699999999997</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>45501</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>6.1404699999999997</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>6.1428500000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>6.1418600000000003</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>6.1428500000000001</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="6">
         <f t="shared" si="1"/>
         <v>6.1404699999999997</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="6">
         <f t="shared" si="2"/>
         <v>6.141726666666667</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>45502</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>6.1089200000000003</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="6">
         <v>6.08887</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>6.0749300000000002</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>6.1089200000000003</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="6">
         <f t="shared" si="1"/>
         <v>6.0749300000000002</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="6">
         <f t="shared" si="2"/>
         <v>6.0909066666666662</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>45503</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>6.1143400000000003</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6">
         <v>6.0705400000000003</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>6.0747400000000003</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>6.1143400000000003</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="6">
         <f t="shared" si="1"/>
         <v>6.0705400000000003</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="6">
         <f t="shared" si="2"/>
         <v>6.0865399999999994</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>45504</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>6.15245</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>6.1144100000000003</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>6.1261000000000001</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <f t="shared" si="0"/>
         <v>6.15245</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <f t="shared" si="1"/>
         <v>6.1144100000000003</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="6">
         <f t="shared" si="2"/>
         <v>6.1309866666666677</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>45505</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>6.0955500000000002</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>6.1876199999999999</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>6.2071300000000003</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="6">
         <f t="shared" si="0"/>
         <v>6.2071300000000003</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="6">
         <f t="shared" si="1"/>
         <v>6.0955500000000002</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="6">
         <f t="shared" si="2"/>
         <v>6.1634333333333338</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>45506</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>6.2333999999999996</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="6">
         <v>6.23088</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>6.2495700000000003</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="6">
         <f t="shared" si="0"/>
         <v>6.2495700000000003</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="6">
         <f t="shared" si="1"/>
         <v>6.23088</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="6">
         <f t="shared" si="2"/>
         <v>6.2379500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>45507</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>6.2495700000000003</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="6">
         <v>6.2495700000000003</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>6.2495700000000003</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="6">
         <f t="shared" si="0"/>
         <v>6.2495700000000003</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="6">
         <f t="shared" si="1"/>
         <v>6.2495700000000003</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="6">
         <f t="shared" si="2"/>
         <v>6.2495700000000012</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>45508</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>6.2495700000000003</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="6">
         <v>6.2564099999999998</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>6.25481</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="6">
         <f t="shared" si="0"/>
         <v>6.2564099999999998</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="6">
         <f t="shared" si="1"/>
         <v>6.2495700000000003</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="6">
         <f t="shared" si="2"/>
         <v>6.2535966666666667</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>45509</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>6.3701999999999996</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="6">
         <v>6.2915599999999996</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>6.2695499999999997</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="6">
         <f t="shared" si="0"/>
         <v>6.3701999999999996</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="6">
         <f t="shared" si="1"/>
         <v>6.2695499999999997</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="6">
         <f t="shared" si="2"/>
         <v>6.3104366666666669</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>45510</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>6.1828000000000003</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="6">
         <v>6.1848700000000001</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>6.1767700000000003</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="6">
         <f t="shared" si="0"/>
         <v>6.1848700000000001</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="6">
         <f t="shared" si="1"/>
         <v>6.1767700000000003</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <f t="shared" si="2"/>
         <v>6.1814800000000005</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>45511</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>6.1179699999999997</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="6">
         <v>6.1429999999999998</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>6.1602499999999996</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f t="shared" si="0"/>
         <v>6.1602499999999996</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="6">
         <f t="shared" si="1"/>
         <v>6.1179699999999997</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="6">
         <f t="shared" si="2"/>
         <v>6.1404066666666663</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>45512</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>6.1177400000000004</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="6">
         <v>6.0851300000000004</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>6.0570500000000003</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <f t="shared" si="0"/>
         <v>6.1177400000000004</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="6">
         <f t="shared" si="1"/>
         <v>6.0570500000000003</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6">
         <f t="shared" si="2"/>
         <v>6.0866400000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>45513</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>6.0171000000000001</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="6">
         <v>6.0211600000000001</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>6.0135500000000004</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
         <v>6.0211600000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="6">
         <f t="shared" si="1"/>
         <v>6.0135500000000004</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>6.0172700000000008</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>45514</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>6.0135500000000004</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="6">
         <v>6.0135500000000004</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>6.0135500000000004</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <f t="shared" si="0"/>
         <v>6.0135500000000004</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="6">
         <f t="shared" si="1"/>
         <v>6.0135500000000004</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <f t="shared" si="2"/>
         <v>6.0135499999999995</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>45515</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>6.0078100000000001</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="6">
         <v>6.0093300000000003</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>6.0075200000000004</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <f t="shared" si="0"/>
         <v>6.0093300000000003</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="6">
         <f t="shared" si="1"/>
         <v>6.0075200000000004</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>45516</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>6.0078100000000001</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="6">
         <v>6.0093300000000003</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>6.0075200000000004</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <f t="shared" si="0"/>
         <v>6.0093300000000003</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>6.0075200000000004</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>45517</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>6.0146800000000002</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>5.9917600000000002</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>5.9986600000000001</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <f t="shared" si="0"/>
         <v>6.0146800000000002</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="6">
         <f t="shared" si="1"/>
         <v>5.9917600000000002</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <f t="shared" si="2"/>
         <v>6.0017000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>45518</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>6.0144599999999997</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>6.0229699999999999</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>6.0214800000000004</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <f t="shared" si="0"/>
         <v>6.0229699999999999</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <f t="shared" si="1"/>
         <v>6.0144599999999997</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6">
         <f t="shared" si="2"/>
         <v>6.019636666666667</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>45519</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>5.9838699999999996</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="6">
         <v>6.0173199999999998</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>6.0248200000000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <f t="shared" si="0"/>
         <v>6.0248200000000001</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="6">
         <f t="shared" si="1"/>
         <v>5.9838699999999996</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6">
         <f t="shared" si="2"/>
         <v>6.0086699999999995</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>45520</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>6.0010300000000001</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="6">
         <v>6.0262700000000002</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>6.03376</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="6">
         <f t="shared" si="1"/>
         <v>6.0010300000000001</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6">
         <f t="shared" si="2"/>
         <v>6.0203533333333334</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>45521</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>6.03376</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="6">
         <v>6.03376</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>6.03376</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="6">
         <f t="shared" si="1"/>
         <v>6.03376</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="6">
         <f t="shared" si="2"/>
         <v>6.03376</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
       <c r="B34" s="5">
         <v>45522</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>6.03376</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="6">
         <v>6.03376</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>6.0332999999999997</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="6">
         <f t="shared" si="1"/>
         <v>6.0332999999999997</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="6">
         <f t="shared" si="2"/>
         <v>6.0336066666666666</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>45523</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>5.9958999999999998</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="6">
         <v>5.9989999999999997</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>5.9932999999999996</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <f t="shared" si="0"/>
         <v>5.9989999999999997</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="6">
         <f t="shared" si="1"/>
         <v>5.9932999999999996</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="6">
         <f t="shared" si="2"/>
         <v>5.9960666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
       <c r="B36" s="5">
         <v>45524</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>6.0391000000000004</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="6">
         <v>6.1021000000000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>6.0941000000000001</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="6">
         <f t="shared" si="0"/>
         <v>6.1021000000000001</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="6">
         <f t="shared" si="1"/>
         <v>6.0391000000000004</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="6">
         <f t="shared" si="2"/>
         <v>6.0784333333333338</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
       <c r="B37" s="5">
         <v>45525</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>6.0796000000000001</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="6">
         <v>6.1125999999999996</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>6.1108000000000002</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="6">
         <f t="shared" si="0"/>
         <v>6.1125999999999996</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="6">
         <f t="shared" si="1"/>
         <v>6.0796000000000001</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="6">
         <f t="shared" si="2"/>
         <v>6.101</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>45526</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>6.1086999999999998</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="6">
         <v>6.2092999999999998</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>6.2225999999999999</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="6">
         <f t="shared" si="0"/>
         <v>6.2225999999999999</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="6">
         <f t="shared" si="1"/>
         <v>6.1086999999999998</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <f t="shared" si="2"/>
         <v>6.1801999999999992</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>45527</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>6.1725000000000003</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="6">
         <v>6.1323999999999996</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>6.1401700000000003</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="6">
         <f t="shared" si="0"/>
         <v>6.1725000000000003</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="6">
         <f t="shared" si="1"/>
         <v>6.1323999999999996</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="6">
         <f t="shared" si="2"/>
         <v>6.1483566666666674</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>45528</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>6.1401700000000003</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="6">
         <v>6.1401700000000003</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>6.1401700000000003</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="6">
         <f t="shared" si="0"/>
         <v>6.1401700000000003</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="6">
         <f t="shared" si="1"/>
         <v>6.1401700000000003</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="6">
         <f t="shared" si="2"/>
         <v>6.1401700000000003</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>45529</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="6">
         <v>6.1401700000000003</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="6">
         <v>6.1401700000000003</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
         <v>6.1395999999999997</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="6">
         <f t="shared" si="0"/>
         <v>6.1401700000000003</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="6">
         <f t="shared" si="1"/>
         <v>6.1395999999999997</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="6">
         <f t="shared" si="2"/>
         <v>6.1399800000000004</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>45530</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>6.1208999999999998</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="6">
         <v>6.1284999999999998</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
         <v>6.1401000000000003</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="6">
         <f t="shared" si="0"/>
         <v>6.1401000000000003</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="6">
         <f t="shared" si="1"/>
         <v>6.1208999999999998</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="6">
         <f t="shared" si="2"/>
         <v>6.129833333333333</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>45531</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="6">
         <v>6.1345000000000001</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="6">
         <v>6.1538000000000004</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
         <v>6.1562000000000001</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="6">
         <f t="shared" si="0"/>
         <v>6.1562000000000001</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="6">
         <f t="shared" si="1"/>
         <v>6.1345000000000001</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="6">
         <f t="shared" si="2"/>
         <v>6.1481666666666657</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>45532</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>6.1444999999999999</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="6">
         <v>6.1733000000000002</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="6">
         <v>6.1912000000000003</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="6">
         <f t="shared" si="0"/>
         <v>6.1912000000000003</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="6">
         <f t="shared" si="1"/>
         <v>6.1444999999999999</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="6">
         <f t="shared" si="2"/>
         <v>6.1696666666666671</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>45533</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>6.2511999999999999</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="6">
         <v>6.2274000000000003</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="6">
         <v>6.2314999999999996</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <f t="shared" si="0"/>
         <v>6.2511999999999999</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="6">
         <f t="shared" si="1"/>
         <v>6.2274000000000003</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="6">
         <f t="shared" si="2"/>
         <v>6.2366999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>45534</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>6.2614000000000001</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="6">
         <v>6.2282000000000002</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="6">
         <v>6.1933699999999998</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="6">
         <f t="shared" si="0"/>
         <v>6.2614000000000001</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="6">
         <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="6">
         <f t="shared" si="2"/>
         <v>6.2276566666666655</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>45535</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="6">
         <v>6.1933699999999998</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="6">
         <v>6.1933699999999998</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="6">
         <v>6.1933699999999998</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="6">
         <f t="shared" si="0"/>
         <v>6.1933699999999998</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="6">
         <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="6">
         <f t="shared" si="2"/>
         <v>6.1933699999999989</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>45536</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>6.1933699999999998</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="6">
         <v>6.1933699999999998</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="6">
         <v>6.2034399999999996</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="6">
         <f t="shared" si="0"/>
         <v>6.2034399999999996</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="6">
         <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="6">
         <f t="shared" si="2"/>
         <v>6.1967266666666667</v>
       </c>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4796C26-B19C-4701-BCBE-DF4127F1899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC08B3-2099-4F23-B484-0B41BC4F0880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="19">
   <si>
     <t>date</t>
   </si>
@@ -93,6 +93,9 @@
   <si>
     <t>dailyAvg</t>
   </si>
+  <si>
+    <t>48</t>
+  </si>
 </sst>
 </file>
 
@@ -145,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -156,6 +159,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,10 +378,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143:C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4047,6 +4051,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="143" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B143">
+        <v>6.2514799999999999</v>
+      </c>
+      <c r="C143">
+        <v>5.6504500000000002</v>
+      </c>
+      <c r="D143">
+        <v>6.3816199999999998</v>
+      </c>
+      <c r="E143">
+        <v>5.76701</v>
+      </c>
+      <c r="F143">
+        <v>6.25</v>
+      </c>
+      <c r="G143">
+        <v>5.65</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B144">
+        <v>6.2182700000000004</v>
+      </c>
+      <c r="C144">
+        <v>5.6259499999999996</v>
+      </c>
+      <c r="D144">
+        <v>6.3653700000000004</v>
+      </c>
+      <c r="E144">
+        <v>5.7504299999999997</v>
+      </c>
+      <c r="F144">
+        <v>6.25</v>
+      </c>
+      <c r="G144">
+        <v>5.63</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5">
+        <v>45537</v>
+      </c>
+      <c r="B145">
+        <v>6.2155399999999998</v>
+      </c>
+      <c r="C145">
+        <v>5.6165599999999998</v>
+      </c>
+      <c r="D145">
+        <v>6.3613200000000001</v>
+      </c>
+      <c r="E145">
+        <v>5.7307499999999996</v>
+      </c>
+      <c r="F145">
+        <v>6.26</v>
+      </c>
+      <c r="G145">
+        <v>5.62</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4054,10 +4136,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4141,15 +4223,15 @@
         <v>5.5447100000000002</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F48" si="0">LARGE(C3:E3,1)</f>
+        <f t="shared" ref="F3:F49" si="0">LARGE(C3:E3,1)</f>
         <v>5.5887500000000001</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G48" si="1">SMALL(C3:E3,1)</f>
+        <f t="shared" ref="G3:G49" si="1">SMALL(C3:E3,1)</f>
         <v>5.4920900000000001</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H48" si="2">AVERAGE(C3:E3)</f>
+        <f t="shared" ref="H3:H49" si="2">AVERAGE(C3:E3)</f>
         <v>5.5418500000000002</v>
       </c>
     </row>
@@ -5456,6 +5538,35 @@
       <c r="H48" s="6">
         <f t="shared" si="2"/>
         <v>5.6081499999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="10">
+        <v>45537</v>
+      </c>
+      <c r="C49">
+        <v>5.6504500000000002</v>
+      </c>
+      <c r="D49">
+        <v>5.6259499999999996</v>
+      </c>
+      <c r="E49">
+        <v>5.6165599999999998</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="0"/>
+        <v>5.6504500000000002</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6165599999999998</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6309866666666659</v>
       </c>
     </row>
   </sheetData>
@@ -5470,8 +5581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5555,15 +5666,15 @@
         <v>6.0370799999999996</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F48" si="0">LARGE(C3:E3,1)</f>
+        <f t="shared" ref="F3:F49" si="0">LARGE(C3:E3,1)</f>
         <v>6.0900600000000003</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G48" si="1">SMALL(C3:E3,1)</f>
+        <f t="shared" ref="G3:G49" si="1">SMALL(C3:E3,1)</f>
         <v>6.00298</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H48" si="2">AVERAGE(C3:E3)</f>
+        <f t="shared" ref="H3:H49" si="2">AVERAGE(C3:E3)</f>
         <v>6.0433733333333324</v>
       </c>
     </row>
@@ -6872,10 +6983,36 @@
         <v>6.1967266666666667</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="5"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45537</v>
+      </c>
+      <c r="C49">
+        <v>6.2514799999999999</v>
+      </c>
+      <c r="D49">
+        <v>6.2182700000000004</v>
+      </c>
+      <c r="E49">
+        <v>6.2155399999999998</v>
+      </c>
+      <c r="F49" s="6">
+        <f t="shared" si="0"/>
+        <v>6.2514799999999999</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="1"/>
+        <v>6.2155399999999998</v>
+      </c>
+      <c r="H49" s="6">
+        <f t="shared" si="2"/>
+        <v>6.2284300000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
     </row>
   </sheetData>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC08B3-2099-4F23-B484-0B41BC4F0880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F60DA58-78FE-4A6B-AEBC-C688BC5C9EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="20">
   <si>
     <t>date</t>
   </si>
@@ -96,6 +96,9 @@
   <si>
     <t>48</t>
   </si>
+  <si>
+    <t>49</t>
+  </si>
 </sst>
 </file>
 
@@ -148,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -159,7 +162,6 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +380,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143:C145"/>
+      <selection activeCell="C146" sqref="C146:C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4129,6 +4131,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="146" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B146">
+        <v>6.2251500000000002</v>
+      </c>
+      <c r="C146">
+        <v>5.6275700000000004</v>
+      </c>
+      <c r="D146">
+        <v>6.3532400000000004</v>
+      </c>
+      <c r="E146">
+        <v>5.7504299999999997</v>
+      </c>
+      <c r="F146">
+        <v>6.22</v>
+      </c>
+      <c r="G146">
+        <v>5.63</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B147">
+        <v>6.2280600000000002</v>
+      </c>
+      <c r="C147">
+        <v>5.6402099999999997</v>
+      </c>
+      <c r="D147">
+        <v>5.6313199999999997</v>
+      </c>
+      <c r="E147">
+        <v>5.7636799999999999</v>
+      </c>
+      <c r="F147">
+        <v>6.23</v>
+      </c>
+      <c r="G147">
+        <v>5.65</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5">
+        <v>45538</v>
+      </c>
+      <c r="B148">
+        <v>6.2437500000000004</v>
+      </c>
+      <c r="C148">
+        <v>5.6492100000000001</v>
+      </c>
+      <c r="D148">
+        <v>6.3491999999999997</v>
+      </c>
+      <c r="E148">
+        <v>5.7636799999999999</v>
+      </c>
+      <c r="F148">
+        <v>6.24</v>
+      </c>
+      <c r="G148">
+        <v>5.65</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4136,16 +4216,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="6"/>
     <col min="4" max="4" width="11.5703125" style="6" customWidth="1"/>
     <col min="5" max="8" width="9.140625" style="6"/>
@@ -5544,7 +5624,7 @@
       <c r="A49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="5">
         <v>45537</v>
       </c>
       <c r="C49">
@@ -5567,6 +5647,35 @@
       <c r="H49" s="6">
         <f t="shared" si="2"/>
         <v>5.6309866666666659</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45538</v>
+      </c>
+      <c r="C50">
+        <v>5.6275700000000004</v>
+      </c>
+      <c r="D50">
+        <v>5.6402099999999997</v>
+      </c>
+      <c r="E50">
+        <v>5.6492100000000001</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" ref="F50" si="3">LARGE(C50:E50,1)</f>
+        <v>5.6492100000000001</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50" si="4">SMALL(C50:E50,1)</f>
+        <v>5.6275700000000004</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" ref="H50" si="5">AVERAGE(C50:E50)</f>
+        <v>5.6389966666666664</v>
       </c>
     </row>
   </sheetData>
@@ -5582,7 +5691,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7013,9 +7122,38 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="5"/>
+      <c r="A50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45538</v>
+      </c>
+      <c r="C50">
+        <v>6.2251500000000002</v>
+      </c>
+      <c r="D50">
+        <v>6.2280600000000002</v>
+      </c>
+      <c r="E50">
+        <v>6.2437500000000004</v>
+      </c>
+      <c r="F50" s="6">
+        <f t="shared" ref="F50" si="3">LARGE(C50:E50,1)</f>
+        <v>6.2437500000000004</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" ref="G50" si="4">SMALL(C50:E50,1)</f>
+        <v>6.2251500000000002</v>
+      </c>
+      <c r="H50" s="6">
+        <f t="shared" ref="H50" si="5">AVERAGE(C50:E50)</f>
+        <v>6.2323200000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="A49:A50" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F60DA58-78FE-4A6B-AEBC-C688BC5C9EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6172DA-0D97-46E8-9214-BA7F1297D932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="21">
   <si>
     <t>date</t>
   </si>
@@ -99,6 +99,9 @@
   <si>
     <t>49</t>
   </si>
+  <si>
+    <t>50</t>
+  </si>
 </sst>
 </file>
 
@@ -151,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,6 +165,7 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +384,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146:C148"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149:C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4209,6 +4213,84 @@
         <v>11</v>
       </c>
     </row>
+    <row r="149" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5">
+        <v>45539</v>
+      </c>
+      <c r="B149">
+        <v>6.2382799999999996</v>
+      </c>
+      <c r="C149">
+        <v>5.6345700000000001</v>
+      </c>
+      <c r="D149">
+        <v>6.3572699999999998</v>
+      </c>
+      <c r="E149">
+        <v>5.7306499999999998</v>
+      </c>
+      <c r="F149">
+        <v>6.23</v>
+      </c>
+      <c r="G149">
+        <v>5.62</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5">
+        <v>45539</v>
+      </c>
+      <c r="B150">
+        <v>6.2497699999999998</v>
+      </c>
+      <c r="C150">
+        <v>5.6393000000000004</v>
+      </c>
+      <c r="D150">
+        <v>6.3856900000000003</v>
+      </c>
+      <c r="E150">
+        <v>5.75373</v>
+      </c>
+      <c r="F150">
+        <v>6.24</v>
+      </c>
+      <c r="G150">
+        <v>5.64</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5">
+        <v>45539</v>
+      </c>
+      <c r="B151">
+        <v>6.2532800000000002</v>
+      </c>
+      <c r="C151">
+        <v>5.6435000000000004</v>
+      </c>
+      <c r="D151">
+        <v>6.3856900000000003</v>
+      </c>
+      <c r="E151">
+        <v>5.7570499999999996</v>
+      </c>
+      <c r="F151">
+        <v>6.24</v>
+      </c>
+      <c r="G151">
+        <v>5.64</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4216,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5678,6 +5760,35 @@
         <v>5.6389966666666664</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45539</v>
+      </c>
+      <c r="C51">
+        <v>5.6345700000000001</v>
+      </c>
+      <c r="D51">
+        <v>5.6393000000000004</v>
+      </c>
+      <c r="E51">
+        <v>5.6435000000000004</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" ref="F51" si="6">LARGE(C51:E51,1)</f>
+        <v>5.6435000000000004</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" ref="G51" si="7">SMALL(C51:E51,1)</f>
+        <v>5.6345700000000001</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" ref="H51" si="8">AVERAGE(C51:E51)</f>
+        <v>5.6391233333333339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
@@ -5688,10 +5799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7150,6 +7261,35 @@
         <v>6.2323200000000005</v>
       </c>
     </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="10">
+        <v>45539</v>
+      </c>
+      <c r="C51">
+        <v>6.2382799999999996</v>
+      </c>
+      <c r="D51">
+        <v>6.2497699999999998</v>
+      </c>
+      <c r="E51">
+        <v>6.2532800000000002</v>
+      </c>
+      <c r="F51" s="6">
+        <f t="shared" ref="F51" si="6">LARGE(C51:E51,1)</f>
+        <v>6.2532800000000002</v>
+      </c>
+      <c r="G51" s="6">
+        <f t="shared" ref="G51" si="7">SMALL(C51:E51,1)</f>
+        <v>6.2382799999999996</v>
+      </c>
+      <c r="H51" s="6">
+        <f t="shared" ref="H51" si="8">AVERAGE(C51:E51)</f>
+        <v>6.2471099999999993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A528E1BD-00D2-43F4-A3CE-3DF776CEF5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70497AF9-26F4-4434-945B-95E4028D5354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="46">
   <si>
     <t>date</t>
   </si>
@@ -156,6 +156,27 @@
   <si>
     <t>66</t>
   </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
 </sst>
 </file>
 
@@ -165,8 +186,8 @@
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="[$-409]dddd"/>
-    <numFmt numFmtId="172" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]dddd"/>
+    <numFmt numFmtId="168" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -216,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -227,11 +248,12 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +525,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C2" s="11">
-        <f>A2</f>
+        <f t="shared" ref="C2:C33" si="0">A2</f>
         <v>45490</v>
       </c>
       <c r="D2" s="2">
@@ -536,7 +558,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C3" s="11">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>45490</v>
       </c>
       <c r="D3" s="2">
@@ -569,7 +591,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C4" s="11">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>45490</v>
       </c>
       <c r="D4" s="2">
@@ -602,7 +624,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C5" s="11">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>45583</v>
       </c>
       <c r="D5" s="2">
@@ -635,7 +657,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" s="11">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>45583</v>
       </c>
       <c r="D6" s="2">
@@ -668,7 +690,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C7" s="11">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>45583</v>
       </c>
       <c r="D7" s="2">
@@ -701,7 +723,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C8" s="11">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>45584</v>
       </c>
       <c r="D8" s="2">
@@ -734,7 +756,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C9" s="11">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>45584</v>
       </c>
       <c r="D9" s="2">
@@ -767,7 +789,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C10" s="11">
-        <f>A10</f>
+        <f t="shared" si="0"/>
         <v>45584</v>
       </c>
       <c r="D10" s="2">
@@ -800,7 +822,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C11" s="11">
-        <f>A11</f>
+        <f t="shared" si="0"/>
         <v>45493</v>
       </c>
       <c r="D11">
@@ -833,7 +855,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C12" s="11">
-        <f>A12</f>
+        <f t="shared" si="0"/>
         <v>45493</v>
       </c>
       <c r="D12">
@@ -866,7 +888,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C13" s="11">
-        <f>A13</f>
+        <f t="shared" si="0"/>
         <v>45493</v>
       </c>
       <c r="D13">
@@ -899,7 +921,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C14" s="11">
-        <f>A14</f>
+        <f t="shared" si="0"/>
         <v>45494</v>
       </c>
       <c r="D14">
@@ -932,7 +954,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="11">
-        <f>A15</f>
+        <f t="shared" si="0"/>
         <v>45494</v>
       </c>
       <c r="D15">
@@ -965,7 +987,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C16" s="11">
-        <f>A16</f>
+        <f t="shared" si="0"/>
         <v>45494</v>
       </c>
       <c r="D16">
@@ -998,7 +1020,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C17" s="11">
-        <f>A17</f>
+        <f t="shared" si="0"/>
         <v>45495</v>
       </c>
       <c r="D17">
@@ -1031,7 +1053,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C18" s="11">
-        <f>A18</f>
+        <f t="shared" si="0"/>
         <v>45495</v>
       </c>
       <c r="D18">
@@ -1064,7 +1086,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="11">
-        <f>A19</f>
+        <f t="shared" si="0"/>
         <v>45495</v>
       </c>
       <c r="D19">
@@ -1097,7 +1119,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C20" s="11">
-        <f>A20</f>
+        <f t="shared" si="0"/>
         <v>45496</v>
       </c>
       <c r="D20">
@@ -1130,7 +1152,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C21" s="11">
-        <f>A21</f>
+        <f t="shared" si="0"/>
         <v>45496</v>
       </c>
       <c r="D21">
@@ -1163,7 +1185,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C22" s="11">
-        <f>A22</f>
+        <f t="shared" si="0"/>
         <v>45496</v>
       </c>
       <c r="D22">
@@ -1196,7 +1218,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C23" s="11">
-        <f>A23</f>
+        <f t="shared" si="0"/>
         <v>45497</v>
       </c>
       <c r="D23">
@@ -1229,7 +1251,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C24" s="11">
-        <f>A24</f>
+        <f t="shared" si="0"/>
         <v>45497</v>
       </c>
       <c r="D24">
@@ -1262,7 +1284,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C25" s="11">
-        <f>A25</f>
+        <f t="shared" si="0"/>
         <v>45497</v>
       </c>
       <c r="D25">
@@ -1295,7 +1317,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C26" s="11">
-        <f>A26</f>
+        <f t="shared" si="0"/>
         <v>45498</v>
       </c>
       <c r="D26">
@@ -1328,7 +1350,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C27" s="11">
-        <f>A27</f>
+        <f t="shared" si="0"/>
         <v>45498</v>
       </c>
       <c r="D27">
@@ -1361,7 +1383,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C28" s="11">
-        <f>A28</f>
+        <f t="shared" si="0"/>
         <v>45498</v>
       </c>
       <c r="D28">
@@ -1394,7 +1416,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C29" s="11">
-        <f>A29</f>
+        <f t="shared" si="0"/>
         <v>45499</v>
       </c>
       <c r="D29">
@@ -1427,7 +1449,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C30" s="11">
-        <f>A30</f>
+        <f t="shared" si="0"/>
         <v>45499</v>
       </c>
       <c r="D30">
@@ -1460,7 +1482,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C31" s="11">
-        <f>A31</f>
+        <f t="shared" si="0"/>
         <v>45499</v>
       </c>
       <c r="D31">
@@ -1493,7 +1515,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C32" s="11">
-        <f>A32</f>
+        <f t="shared" si="0"/>
         <v>45500</v>
       </c>
       <c r="D32">
@@ -1526,7 +1548,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C33" s="11">
-        <f>A33</f>
+        <f t="shared" si="0"/>
         <v>45500</v>
       </c>
       <c r="D33">
@@ -1559,7 +1581,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C34" s="11">
-        <f>A34</f>
+        <f t="shared" ref="C34:C65" si="1">A34</f>
         <v>45500</v>
       </c>
       <c r="D34">
@@ -1592,7 +1614,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C35" s="11">
-        <f>A35</f>
+        <f t="shared" si="1"/>
         <v>45501</v>
       </c>
       <c r="D35">
@@ -1625,7 +1647,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C36" s="11">
-        <f>A36</f>
+        <f t="shared" si="1"/>
         <v>45501</v>
       </c>
       <c r="D36">
@@ -1658,7 +1680,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C37" s="11">
-        <f>A37</f>
+        <f t="shared" si="1"/>
         <v>45501</v>
       </c>
       <c r="D37">
@@ -1691,7 +1713,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C38" s="11">
-        <f>A38</f>
+        <f t="shared" si="1"/>
         <v>45502</v>
       </c>
       <c r="D38">
@@ -1724,7 +1746,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C39" s="11">
-        <f>A39</f>
+        <f t="shared" si="1"/>
         <v>45502</v>
       </c>
       <c r="D39">
@@ -1757,7 +1779,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C40" s="11">
-        <f>A40</f>
+        <f t="shared" si="1"/>
         <v>45502</v>
       </c>
       <c r="D40">
@@ -1790,7 +1812,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C41" s="11">
-        <f>A41</f>
+        <f t="shared" si="1"/>
         <v>45503</v>
       </c>
       <c r="D41">
@@ -1823,7 +1845,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C42" s="11">
-        <f>A42</f>
+        <f t="shared" si="1"/>
         <v>45503</v>
       </c>
       <c r="D42">
@@ -1856,7 +1878,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C43" s="11">
-        <f>A43</f>
+        <f t="shared" si="1"/>
         <v>45503</v>
       </c>
       <c r="D43">
@@ -1889,7 +1911,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C44" s="11">
-        <f>A44</f>
+        <f t="shared" si="1"/>
         <v>45504</v>
       </c>
       <c r="D44">
@@ -1922,7 +1944,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C45" s="11">
-        <f>A45</f>
+        <f t="shared" si="1"/>
         <v>45504</v>
       </c>
       <c r="D45">
@@ -1955,7 +1977,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C46" s="11">
-        <f>A46</f>
+        <f t="shared" si="1"/>
         <v>45504</v>
       </c>
       <c r="D46">
@@ -1988,7 +2010,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C47" s="11">
-        <f>A47</f>
+        <f t="shared" si="1"/>
         <v>45505</v>
       </c>
       <c r="D47">
@@ -2021,7 +2043,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C48" s="11">
-        <f>A48</f>
+        <f t="shared" si="1"/>
         <v>45505</v>
       </c>
       <c r="D48">
@@ -2054,7 +2076,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C49" s="11">
-        <f>A49</f>
+        <f t="shared" si="1"/>
         <v>45505</v>
       </c>
       <c r="D49">
@@ -2087,7 +2109,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C50" s="11">
-        <f>A50</f>
+        <f t="shared" si="1"/>
         <v>45506</v>
       </c>
       <c r="D50">
@@ -2120,7 +2142,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C51" s="11">
-        <f>A51</f>
+        <f t="shared" si="1"/>
         <v>45506</v>
       </c>
       <c r="D51">
@@ -2153,7 +2175,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C52" s="11">
-        <f>A52</f>
+        <f t="shared" si="1"/>
         <v>45506</v>
       </c>
       <c r="D52">
@@ -2186,7 +2208,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C53" s="11">
-        <f>A53</f>
+        <f t="shared" si="1"/>
         <v>45507</v>
       </c>
       <c r="D53">
@@ -2219,7 +2241,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C54" s="11">
-        <f>A54</f>
+        <f t="shared" si="1"/>
         <v>45507</v>
       </c>
       <c r="D54">
@@ -2252,7 +2274,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C55" s="11">
-        <f>A55</f>
+        <f t="shared" si="1"/>
         <v>45507</v>
       </c>
       <c r="D55">
@@ -2285,7 +2307,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C56" s="11">
-        <f>A56</f>
+        <f t="shared" si="1"/>
         <v>45508</v>
       </c>
       <c r="D56">
@@ -2318,7 +2340,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C57" s="11">
-        <f>A57</f>
+        <f t="shared" si="1"/>
         <v>45508</v>
       </c>
       <c r="D57">
@@ -2351,7 +2373,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C58" s="11">
-        <f>A58</f>
+        <f t="shared" si="1"/>
         <v>45508</v>
       </c>
       <c r="D58">
@@ -2384,7 +2406,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C59" s="11">
-        <f>A59</f>
+        <f t="shared" si="1"/>
         <v>45509</v>
       </c>
       <c r="D59">
@@ -2417,7 +2439,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C60" s="11">
-        <f>A60</f>
+        <f t="shared" si="1"/>
         <v>45509</v>
       </c>
       <c r="D60">
@@ -2450,7 +2472,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C61" s="11">
-        <f>A61</f>
+        <f t="shared" si="1"/>
         <v>45509</v>
       </c>
       <c r="D61">
@@ -2483,7 +2505,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C62" s="11">
-        <f>A62</f>
+        <f t="shared" si="1"/>
         <v>45510</v>
       </c>
       <c r="D62">
@@ -2516,7 +2538,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C63" s="11">
-        <f>A63</f>
+        <f t="shared" si="1"/>
         <v>45510</v>
       </c>
       <c r="D63">
@@ -2549,7 +2571,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C64" s="11">
-        <f>A64</f>
+        <f t="shared" si="1"/>
         <v>45510</v>
       </c>
       <c r="D64">
@@ -2582,7 +2604,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C65" s="11">
-        <f>A65</f>
+        <f t="shared" si="1"/>
         <v>45511</v>
       </c>
       <c r="D65">
@@ -2615,7 +2637,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C66" s="11">
-        <f>A66</f>
+        <f t="shared" ref="C66:C97" si="2">A66</f>
         <v>45511</v>
       </c>
       <c r="D66">
@@ -2648,7 +2670,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C67" s="11">
-        <f>A67</f>
+        <f t="shared" si="2"/>
         <v>45511</v>
       </c>
       <c r="D67">
@@ -2681,7 +2703,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C68" s="11">
-        <f>A68</f>
+        <f t="shared" si="2"/>
         <v>45512</v>
       </c>
       <c r="D68">
@@ -2714,7 +2736,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C69" s="11">
-        <f>A69</f>
+        <f t="shared" si="2"/>
         <v>45512</v>
       </c>
       <c r="D69">
@@ -2747,7 +2769,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C70" s="11">
-        <f>A70</f>
+        <f t="shared" si="2"/>
         <v>45512</v>
       </c>
       <c r="D70">
@@ -2780,7 +2802,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C71" s="11">
-        <f>A71</f>
+        <f t="shared" si="2"/>
         <v>45513</v>
       </c>
       <c r="D71">
@@ -2813,7 +2835,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C72" s="11">
-        <f>A72</f>
+        <f t="shared" si="2"/>
         <v>45513</v>
       </c>
       <c r="D72">
@@ -2846,7 +2868,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C73" s="11">
-        <f>A73</f>
+        <f t="shared" si="2"/>
         <v>45513</v>
       </c>
       <c r="D73">
@@ -2879,7 +2901,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C74" s="11">
-        <f>A74</f>
+        <f t="shared" si="2"/>
         <v>45514</v>
       </c>
       <c r="D74">
@@ -2912,7 +2934,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C75" s="11">
-        <f>A75</f>
+        <f t="shared" si="2"/>
         <v>45514</v>
       </c>
       <c r="D75">
@@ -2945,7 +2967,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C76" s="11">
-        <f>A76</f>
+        <f t="shared" si="2"/>
         <v>45514</v>
       </c>
       <c r="D76">
@@ -2978,7 +3000,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C77" s="11">
-        <f>A77</f>
+        <f t="shared" si="2"/>
         <v>45515</v>
       </c>
       <c r="D77">
@@ -3011,7 +3033,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C78" s="11">
-        <f>A78</f>
+        <f t="shared" si="2"/>
         <v>45515</v>
       </c>
       <c r="D78">
@@ -3044,7 +3066,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C79" s="11">
-        <f>A79</f>
+        <f t="shared" si="2"/>
         <v>45515</v>
       </c>
       <c r="D79">
@@ -3077,7 +3099,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C80" s="11">
-        <f>A80</f>
+        <f t="shared" si="2"/>
         <v>45516</v>
       </c>
       <c r="D80">
@@ -3110,7 +3132,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C81" s="11">
-        <f>A81</f>
+        <f t="shared" si="2"/>
         <v>45516</v>
       </c>
       <c r="D81">
@@ -3143,7 +3165,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C82" s="11">
-        <f>A82</f>
+        <f t="shared" si="2"/>
         <v>45516</v>
       </c>
       <c r="D82">
@@ -3176,7 +3198,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C83" s="11">
-        <f>A83</f>
+        <f t="shared" si="2"/>
         <v>45517</v>
       </c>
       <c r="D83">
@@ -3209,7 +3231,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C84" s="11">
-        <f>A84</f>
+        <f t="shared" si="2"/>
         <v>45517</v>
       </c>
       <c r="D84">
@@ -3242,7 +3264,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C85" s="11">
-        <f>A85</f>
+        <f t="shared" si="2"/>
         <v>45517</v>
       </c>
       <c r="D85">
@@ -3275,7 +3297,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C86" s="11">
-        <f>A86</f>
+        <f t="shared" si="2"/>
         <v>45518</v>
       </c>
       <c r="D86">
@@ -3308,7 +3330,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C87" s="11">
-        <f>A87</f>
+        <f t="shared" si="2"/>
         <v>45518</v>
       </c>
       <c r="D87">
@@ -3341,7 +3363,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C88" s="11">
-        <f>A88</f>
+        <f t="shared" si="2"/>
         <v>45518</v>
       </c>
       <c r="D88">
@@ -3374,7 +3396,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C89" s="11">
-        <f>A89</f>
+        <f t="shared" si="2"/>
         <v>45519</v>
       </c>
       <c r="D89">
@@ -3407,7 +3429,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C90" s="11">
-        <f>A90</f>
+        <f t="shared" si="2"/>
         <v>45519</v>
       </c>
       <c r="D90">
@@ -3440,7 +3462,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C91" s="11">
-        <f>A91</f>
+        <f t="shared" si="2"/>
         <v>45519</v>
       </c>
       <c r="D91">
@@ -3473,7 +3495,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C92" s="11">
-        <f>A92</f>
+        <f t="shared" si="2"/>
         <v>45520</v>
       </c>
       <c r="D92">
@@ -3506,7 +3528,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C93" s="11">
-        <f>A93</f>
+        <f t="shared" si="2"/>
         <v>45520</v>
       </c>
       <c r="D93">
@@ -3539,7 +3561,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C94" s="11">
-        <f>A94</f>
+        <f t="shared" si="2"/>
         <v>45520</v>
       </c>
       <c r="D94">
@@ -3572,7 +3594,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C95" s="11">
-        <f>A95</f>
+        <f t="shared" si="2"/>
         <v>45521</v>
       </c>
       <c r="D95">
@@ -3605,7 +3627,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C96" s="11">
-        <f>A96</f>
+        <f t="shared" si="2"/>
         <v>45521</v>
       </c>
       <c r="D96">
@@ -3638,7 +3660,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C97" s="11">
-        <f>A97</f>
+        <f t="shared" si="2"/>
         <v>45521</v>
       </c>
       <c r="D97">
@@ -3671,7 +3693,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C98" s="11">
-        <f>A98</f>
+        <f t="shared" ref="C98:C129" si="3">A98</f>
         <v>45522</v>
       </c>
       <c r="D98">
@@ -3704,7 +3726,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C99" s="11">
-        <f>A99</f>
+        <f t="shared" si="3"/>
         <v>45522</v>
       </c>
       <c r="D99">
@@ -3737,7 +3759,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C100" s="11">
-        <f>A100</f>
+        <f t="shared" si="3"/>
         <v>45522</v>
       </c>
       <c r="D100">
@@ -3770,7 +3792,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C101" s="11">
-        <f>A101</f>
+        <f t="shared" si="3"/>
         <v>45523</v>
       </c>
       <c r="D101">
@@ -3803,7 +3825,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C102" s="11">
-        <f>A102</f>
+        <f t="shared" si="3"/>
         <v>45523</v>
       </c>
       <c r="D102">
@@ -3836,7 +3858,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C103" s="11">
-        <f>A103</f>
+        <f t="shared" si="3"/>
         <v>45523</v>
       </c>
       <c r="D103">
@@ -3869,7 +3891,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C104" s="11">
-        <f>A104</f>
+        <f t="shared" si="3"/>
         <v>45524</v>
       </c>
       <c r="D104">
@@ -3902,7 +3924,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C105" s="11">
-        <f>A105</f>
+        <f t="shared" si="3"/>
         <v>45524</v>
       </c>
       <c r="D105">
@@ -3935,7 +3957,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C106" s="11">
-        <f>A106</f>
+        <f t="shared" si="3"/>
         <v>45524</v>
       </c>
       <c r="D106">
@@ -3968,7 +3990,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C107" s="11">
-        <f>A107</f>
+        <f t="shared" si="3"/>
         <v>45525</v>
       </c>
       <c r="D107">
@@ -4001,7 +4023,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C108" s="11">
-        <f>A108</f>
+        <f t="shared" si="3"/>
         <v>45525</v>
       </c>
       <c r="D108">
@@ -4034,7 +4056,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C109" s="11">
-        <f>A109</f>
+        <f t="shared" si="3"/>
         <v>45525</v>
       </c>
       <c r="D109">
@@ -4067,7 +4089,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C110" s="11">
-        <f>A110</f>
+        <f t="shared" si="3"/>
         <v>45526</v>
       </c>
       <c r="D110">
@@ -4100,7 +4122,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C111" s="11">
-        <f>A111</f>
+        <f t="shared" si="3"/>
         <v>45526</v>
       </c>
       <c r="D111">
@@ -4133,7 +4155,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C112" s="11">
-        <f>A112</f>
+        <f t="shared" si="3"/>
         <v>45526</v>
       </c>
       <c r="D112">
@@ -4166,7 +4188,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C113" s="11">
-        <f>A113</f>
+        <f t="shared" si="3"/>
         <v>45527</v>
       </c>
       <c r="D113">
@@ -4199,7 +4221,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C114" s="11">
-        <f>A114</f>
+        <f t="shared" si="3"/>
         <v>45527</v>
       </c>
       <c r="D114">
@@ -4232,7 +4254,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C115" s="11">
-        <f>A115</f>
+        <f t="shared" si="3"/>
         <v>45527</v>
       </c>
       <c r="D115">
@@ -4265,7 +4287,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C116" s="11">
-        <f>A116</f>
+        <f t="shared" si="3"/>
         <v>45528</v>
       </c>
       <c r="D116">
@@ -4298,7 +4320,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C117" s="11">
-        <f>A117</f>
+        <f t="shared" si="3"/>
         <v>45528</v>
       </c>
       <c r="D117">
@@ -4331,7 +4353,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C118" s="11">
-        <f>A118</f>
+        <f t="shared" si="3"/>
         <v>45528</v>
       </c>
       <c r="D118">
@@ -4364,7 +4386,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C119" s="11">
-        <f>A119</f>
+        <f t="shared" si="3"/>
         <v>45529</v>
       </c>
       <c r="D119">
@@ -4397,7 +4419,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C120" s="11">
-        <f>A120</f>
+        <f t="shared" si="3"/>
         <v>45529</v>
       </c>
       <c r="D120">
@@ -4430,7 +4452,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C121" s="11">
-        <f>A121</f>
+        <f t="shared" si="3"/>
         <v>45529</v>
       </c>
       <c r="D121">
@@ -4463,7 +4485,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C122" s="11">
-        <f>A122</f>
+        <f t="shared" si="3"/>
         <v>45530</v>
       </c>
       <c r="D122">
@@ -4493,7 +4515,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C123" s="11">
-        <f>A123</f>
+        <f t="shared" si="3"/>
         <v>45530</v>
       </c>
       <c r="D123">
@@ -4523,7 +4545,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C124" s="11">
-        <f>A124</f>
+        <f t="shared" si="3"/>
         <v>45530</v>
       </c>
       <c r="D124">
@@ -4556,7 +4578,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C125" s="11">
-        <f>A125</f>
+        <f t="shared" si="3"/>
         <v>45531</v>
       </c>
       <c r="D125">
@@ -4586,7 +4608,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C126" s="11">
-        <f>A126</f>
+        <f t="shared" si="3"/>
         <v>45531</v>
       </c>
       <c r="D126">
@@ -4616,7 +4638,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C127" s="11">
-        <f>A127</f>
+        <f t="shared" si="3"/>
         <v>45531</v>
       </c>
       <c r="D127">
@@ -4649,7 +4671,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C128" s="11">
-        <f>A128</f>
+        <f t="shared" si="3"/>
         <v>45532</v>
       </c>
       <c r="D128">
@@ -4679,7 +4701,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C129" s="11">
-        <f>A129</f>
+        <f t="shared" si="3"/>
         <v>45532</v>
       </c>
       <c r="D129">
@@ -4709,7 +4731,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C130" s="11">
-        <f>A130</f>
+        <f t="shared" ref="C130:C163" si="4">A130</f>
         <v>45532</v>
       </c>
       <c r="D130">
@@ -4742,7 +4764,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C131" s="11">
-        <f>A131</f>
+        <f t="shared" si="4"/>
         <v>45533</v>
       </c>
       <c r="D131">
@@ -4772,7 +4794,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C132" s="11">
-        <f>A132</f>
+        <f t="shared" si="4"/>
         <v>45533</v>
       </c>
       <c r="D132">
@@ -4802,7 +4824,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C133" s="11">
-        <f>A133</f>
+        <f t="shared" si="4"/>
         <v>45533</v>
       </c>
       <c r="D133">
@@ -4835,7 +4857,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C134" s="11">
-        <f>A134</f>
+        <f t="shared" si="4"/>
         <v>45534</v>
       </c>
       <c r="D134">
@@ -4865,7 +4887,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C135" s="11">
-        <f>A135</f>
+        <f t="shared" si="4"/>
         <v>45534</v>
       </c>
       <c r="D135">
@@ -4895,7 +4917,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C136" s="11">
-        <f>A136</f>
+        <f t="shared" si="4"/>
         <v>45534</v>
       </c>
       <c r="D136">
@@ -4928,7 +4950,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C137" s="11">
-        <f>A137</f>
+        <f t="shared" si="4"/>
         <v>45535</v>
       </c>
       <c r="D137">
@@ -4961,7 +4983,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C138" s="11">
-        <f>A138</f>
+        <f t="shared" si="4"/>
         <v>45535</v>
       </c>
       <c r="D138">
@@ -4994,7 +5016,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C139" s="11">
-        <f>A139</f>
+        <f t="shared" si="4"/>
         <v>45535</v>
       </c>
       <c r="D139">
@@ -5027,7 +5049,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C140" s="11">
-        <f>A140</f>
+        <f t="shared" si="4"/>
         <v>45536</v>
       </c>
       <c r="D140">
@@ -5060,7 +5082,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C141" s="11">
-        <f>A141</f>
+        <f t="shared" si="4"/>
         <v>45536</v>
       </c>
       <c r="D141">
@@ -5093,7 +5115,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C142" s="11">
-        <f>A142</f>
+        <f t="shared" si="4"/>
         <v>45536</v>
       </c>
       <c r="D142">
@@ -5126,7 +5148,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C143" s="11">
-        <f>A143</f>
+        <f t="shared" si="4"/>
         <v>45537</v>
       </c>
       <c r="D143">
@@ -5159,7 +5181,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C144" s="11">
-        <f>A144</f>
+        <f t="shared" si="4"/>
         <v>45537</v>
       </c>
       <c r="D144">
@@ -5192,7 +5214,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C145" s="11">
-        <f>A145</f>
+        <f t="shared" si="4"/>
         <v>45537</v>
       </c>
       <c r="D145">
@@ -5225,7 +5247,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C146" s="11">
-        <f>A146</f>
+        <f t="shared" si="4"/>
         <v>45538</v>
       </c>
       <c r="D146">
@@ -5258,7 +5280,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C147" s="11">
-        <f>A147</f>
+        <f t="shared" si="4"/>
         <v>45538</v>
       </c>
       <c r="D147">
@@ -5291,7 +5313,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C148" s="11">
-        <f>A148</f>
+        <f t="shared" si="4"/>
         <v>45538</v>
       </c>
       <c r="D148">
@@ -5324,7 +5346,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C149" s="11">
-        <f>A149</f>
+        <f t="shared" si="4"/>
         <v>45539</v>
       </c>
       <c r="D149">
@@ -5357,7 +5379,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C150" s="11">
-        <f>A150</f>
+        <f t="shared" si="4"/>
         <v>45539</v>
       </c>
       <c r="D150">
@@ -5390,7 +5412,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C151" s="11">
-        <f>A151</f>
+        <f t="shared" si="4"/>
         <v>45539</v>
       </c>
       <c r="D151">
@@ -5423,7 +5445,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C152" s="11">
-        <f>A152</f>
+        <f t="shared" si="4"/>
         <v>45540</v>
       </c>
       <c r="D152">
@@ -5456,7 +5478,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C153" s="11">
-        <f>A153</f>
+        <f t="shared" si="4"/>
         <v>45540</v>
       </c>
       <c r="D153">
@@ -5489,7 +5511,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C154" s="11">
-        <f>A154</f>
+        <f t="shared" si="4"/>
         <v>45540</v>
       </c>
       <c r="D154">
@@ -5522,7 +5544,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C155" s="11">
-        <f>A155</f>
+        <f t="shared" si="4"/>
         <v>45541</v>
       </c>
       <c r="D155">
@@ -5555,7 +5577,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C156" s="11">
-        <f>A156</f>
+        <f t="shared" si="4"/>
         <v>45541</v>
       </c>
       <c r="D156">
@@ -5588,7 +5610,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C157" s="11">
-        <f>A157</f>
+        <f t="shared" si="4"/>
         <v>45541</v>
       </c>
       <c r="D157">
@@ -5621,7 +5643,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C158" s="11">
-        <f>A158</f>
+        <f t="shared" si="4"/>
         <v>45542</v>
       </c>
       <c r="D158">
@@ -5654,7 +5676,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C159" s="11">
-        <f>A159</f>
+        <f t="shared" si="4"/>
         <v>45542</v>
       </c>
       <c r="D159">
@@ -5687,7 +5709,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C160" s="11">
-        <f>A160</f>
+        <f t="shared" si="4"/>
         <v>45542</v>
       </c>
       <c r="D160">
@@ -5720,7 +5742,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="C161" s="11">
-        <f>A161</f>
+        <f t="shared" si="4"/>
         <v>45543</v>
       </c>
       <c r="D161">
@@ -5753,7 +5775,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C162" s="11">
-        <f>A162</f>
+        <f t="shared" si="4"/>
         <v>45543</v>
       </c>
       <c r="D162">
@@ -5786,7 +5808,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C163" s="11">
-        <f>A163</f>
+        <f t="shared" si="4"/>
         <v>45543</v>
       </c>
       <c r="J163" s="3" t="s">
@@ -5802,15 +5824,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="11.5703125" style="6" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="6"/>
@@ -5823,7 +5845,7 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -5852,9 +5874,8 @@
       <c r="B2" s="5">
         <v>45490</v>
       </c>
-      <c r="C2" s="12">
-        <f>B2</f>
-        <v>45490</v>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="6">
         <v>5.4586899999999998</v>
@@ -5885,9 +5906,8 @@
       <c r="B3" s="5">
         <v>45583</v>
       </c>
-      <c r="C3" s="12">
-        <f t="shared" ref="C3:C50" si="0">B3</f>
-        <v>45583</v>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="6">
         <v>5.4920900000000001</v>
@@ -5899,15 +5919,15 @@
         <v>5.5447100000000002</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G49" si="1">LARGE(D3:F3,1)</f>
+        <f t="shared" ref="G3:G49" si="0">LARGE(D3:F3,1)</f>
         <v>5.5887500000000001</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H49" si="2">SMALL(D3:F3,1)</f>
+        <f t="shared" ref="H3:H49" si="1">SMALL(D3:F3,1)</f>
         <v>5.4920900000000001</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I49" si="3">AVERAGE(D3:F3)</f>
+        <f t="shared" ref="I3:I49" si="2">AVERAGE(D3:F3)</f>
         <v>5.5418500000000002</v>
       </c>
     </row>
@@ -5918,9 +5938,8 @@
       <c r="B4" s="5">
         <v>45584</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>45584</v>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="6">
         <v>5.5445000000000002</v>
@@ -5932,15 +5951,15 @@
         <v>5.59816</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5445000000000002</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5738399999999997</v>
       </c>
     </row>
@@ -5951,9 +5970,8 @@
       <c r="B5" s="5">
         <v>45493</v>
       </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>45493</v>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <v>5.59816</v>
@@ -5965,15 +5983,15 @@
         <v>5.59816</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.59816</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.59816</v>
       </c>
     </row>
@@ -5984,9 +6002,8 @@
       <c r="B6" s="5">
         <v>45494</v>
       </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>45494</v>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="6">
         <v>5.59816</v>
@@ -5998,15 +6015,15 @@
         <v>5.5453000000000001</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.59816</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5453000000000001</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5805400000000001</v>
       </c>
     </row>
@@ -6017,9 +6034,8 @@
       <c r="B7" s="5">
         <v>45495</v>
       </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>45495</v>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>5.5717100000000004</v>
@@ -6031,15 +6047,15 @@
         <v>5.5720900000000002</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5720900000000002</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5692599999999999</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5710199999999999</v>
       </c>
     </row>
@@ -6050,9 +6066,8 @@
       <c r="B8" s="5">
         <v>45496</v>
       </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>45496</v>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="6">
         <v>5.5933099999999998</v>
@@ -6064,15 +6079,15 @@
         <v>5.5865600000000004</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5933099999999998</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5861900000000002</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5886866666666677</v>
       </c>
     </row>
@@ -6083,9 +6098,8 @@
       <c r="B9" s="5">
         <v>45497</v>
       </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>45497</v>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="6">
         <v>5.6412399999999998</v>
@@ -6097,15 +6111,15 @@
         <v>5.6550500000000001</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6550500000000001</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6412399999999998</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6501933333333332</v>
       </c>
     </row>
@@ -6116,9 +6130,8 @@
       <c r="B10" s="5">
         <v>45498</v>
       </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>45498</v>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="6">
         <v>5.6501999999999999</v>
@@ -6130,15 +6143,15 @@
         <v>5.6452499999999999</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6501999999999999</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6452499999999999</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6476966666666675</v>
       </c>
     </row>
@@ -6149,9 +6162,8 @@
       <c r="B11" s="5">
         <v>45499</v>
       </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>45499</v>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="6">
         <v>5.6402900000000002</v>
@@ -6163,15 +6175,15 @@
         <v>5.6562999999999999</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6578400000000002</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6402900000000002</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6514766666666674</v>
       </c>
     </row>
@@ -6182,9 +6194,8 @@
       <c r="B12" s="5">
         <v>45500</v>
       </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>45500</v>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>5.6562999999999999</v>
@@ -6196,15 +6207,15 @@
         <v>5.6562999999999999</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6562999999999999</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6562999999999999</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.656299999999999</v>
       </c>
     </row>
@@ -6215,9 +6226,8 @@
       <c r="B13" s="5">
         <v>45501</v>
       </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>45501</v>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="6">
         <v>5.6562999999999999</v>
@@ -6229,15 +6239,15 @@
         <v>5.6568100000000001</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6568100000000001</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6562999999999999</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6565866666666667</v>
       </c>
     </row>
@@ -6248,9 +6258,8 @@
       <c r="B14" s="5">
         <v>45502</v>
       </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>45502</v>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="6">
         <v>5.6509</v>
@@ -6262,15 +6271,15 @@
         <v>5.6160800000000002</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6509</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6160800000000002</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6304266666666676</v>
       </c>
     </row>
@@ -6281,9 +6290,8 @@
       <c r="B15" s="5">
         <v>45503</v>
       </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>45503</v>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="6">
         <v>5.6556600000000001</v>
@@ -6295,15 +6303,15 @@
         <v>5.6125499999999997</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6556600000000001</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6123000000000003</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6268366666666667</v>
       </c>
     </row>
@@ -6314,9 +6322,8 @@
       <c r="B16" s="5">
         <v>45504</v>
       </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>45504</v>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="6">
         <v>5.6746600000000003</v>
@@ -6328,15 +6335,15 @@
         <v>5.6578999999999997</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6746600000000003</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6479900000000001</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6601833333333333</v>
       </c>
     </row>
@@ -6347,9 +6354,8 @@
       <c r="B17" s="5">
         <v>45505</v>
       </c>
-      <c r="C17" s="12">
-        <f t="shared" si="0"/>
-        <v>45505</v>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="6">
         <v>5.6421900000000003</v>
@@ -6361,15 +6367,15 @@
         <v>5.7524199999999999</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7524199999999999</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6421900000000003</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.7098266666666673</v>
       </c>
     </row>
@@ -6380,9 +6386,8 @@
       <c r="B18" s="5">
         <v>45506</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="0"/>
-        <v>45506</v>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <v>5.7158499999999997</v>
@@ -6394,15 +6399,15 @@
         <v>5.7280699999999998</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7280699999999998</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7095900000000004</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.7178366666666669</v>
       </c>
     </row>
@@ -6413,9 +6418,8 @@
       <c r="B19" s="5">
         <v>45507</v>
       </c>
-      <c r="C19" s="12">
-        <f>B19</f>
-        <v>45507</v>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>5.7280699999999998</v>
@@ -6427,15 +6431,15 @@
         <v>5.7280699999999998</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7280699999999998</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7280699999999998</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.7280699999999998</v>
       </c>
     </row>
@@ -6446,9 +6450,8 @@
       <c r="B20" s="5">
         <v>45508</v>
       </c>
-      <c r="C20" s="12">
-        <f t="shared" si="0"/>
-        <v>45508</v>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <v>5.7280699999999998</v>
@@ -6460,15 +6463,15 @@
         <v>5.7281000000000004</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7281000000000004</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7272100000000004</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.7277933333333335</v>
       </c>
     </row>
@@ -6479,9 +6482,8 @@
       <c r="B21" s="5">
         <v>45509</v>
       </c>
-      <c r="C21" s="12">
-        <f t="shared" si="0"/>
-        <v>45509</v>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="6">
         <v>5.8010999999999999</v>
@@ -6493,15 +6495,15 @@
         <v>5.7229799999999997</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.8010999999999999</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7229799999999997</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.7549466666666662</v>
       </c>
     </row>
@@ -6512,9 +6514,8 @@
       <c r="B22" s="5">
         <v>45510</v>
       </c>
-      <c r="C22" s="12">
-        <f t="shared" si="0"/>
-        <v>45510</v>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="6">
         <v>5.6627099999999997</v>
@@ -6526,15 +6527,15 @@
         <v>5.6571600000000002</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6627099999999997</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6571600000000002</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6594933333333337</v>
       </c>
     </row>
@@ -6545,9 +6546,8 @@
       <c r="B23" s="5">
         <v>45511</v>
       </c>
-      <c r="C23" s="12">
-        <f t="shared" si="0"/>
-        <v>45511</v>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="6">
         <v>5.6033099999999996</v>
@@ -6559,15 +6559,15 @@
         <v>5.6373899999999999</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6373899999999999</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6033099999999996</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6214533333333323</v>
       </c>
     </row>
@@ -6578,9 +6578,8 @@
       <c r="B24" s="5">
         <v>45512</v>
       </c>
-      <c r="C24" s="12">
-        <f t="shared" si="0"/>
-        <v>45512</v>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="6">
         <v>5.617</v>
@@ -6592,15 +6591,15 @@
         <v>5.5475099999999999</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.617</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5475099999999999</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5795899999999996</v>
       </c>
     </row>
@@ -6611,9 +6610,8 @@
       <c r="B25" s="5">
         <v>45513</v>
       </c>
-      <c r="C25" s="12">
-        <f t="shared" si="0"/>
-        <v>45513</v>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="6">
         <v>5.5172400000000001</v>
@@ -6625,15 +6623,15 @@
         <v>5.5087000000000002</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5172400000000001</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5087000000000002</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5135333333333341</v>
       </c>
     </row>
@@ -6644,9 +6642,8 @@
       <c r="B26" s="5">
         <v>45514</v>
       </c>
-      <c r="C26" s="12">
-        <f t="shared" si="0"/>
-        <v>45514</v>
+      <c r="C26" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6">
         <v>5.5087000000000002</v>
@@ -6658,15 +6655,15 @@
         <v>5.5087000000000002</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5087000000000002</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5087000000000002</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5087000000000002</v>
       </c>
     </row>
@@ -6677,9 +6674,8 @@
       <c r="B27" s="5">
         <v>45515</v>
       </c>
-      <c r="C27" s="12">
-        <f t="shared" si="0"/>
-        <v>45515</v>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D27" s="6">
         <v>5.4993999999999996</v>
@@ -6691,15 +6687,15 @@
         <v>5.4938399999999996</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4993999999999996</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4938399999999996</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4969933333333332</v>
       </c>
     </row>
@@ -6710,9 +6706,8 @@
       <c r="B28" s="5">
         <v>45516</v>
       </c>
-      <c r="C28" s="12">
-        <f t="shared" si="0"/>
-        <v>45516</v>
+      <c r="C28" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D28" s="6">
         <v>5.4993999999999996</v>
@@ -6724,15 +6719,15 @@
         <v>5.4938399999999996</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4993999999999996</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4877399999999996</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4936599999999993</v>
       </c>
     </row>
@@ -6743,9 +6738,8 @@
       <c r="B29" s="5">
         <v>45517</v>
       </c>
-      <c r="C29" s="12">
-        <f t="shared" si="0"/>
-        <v>45517</v>
+      <c r="C29" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D29" s="6">
         <v>5.4891100000000002</v>
@@ -6757,15 +6751,15 @@
         <v>5.4572900000000004</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4891100000000002</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4487899999999998</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4650633333333332</v>
       </c>
     </row>
@@ -6776,9 +6770,8 @@
       <c r="B30" s="5">
         <v>45518</v>
       </c>
-      <c r="C30" s="12">
-        <f t="shared" si="0"/>
-        <v>45518</v>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="6">
         <v>5.44909</v>
@@ -6790,15 +6783,15 @@
         <v>5.4706099999999998</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4706099999999998</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.44909</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4628866666666669</v>
       </c>
     </row>
@@ -6809,9 +6802,8 @@
       <c r="B31" s="5">
         <v>45519</v>
       </c>
-      <c r="C31" s="12">
-        <f t="shared" si="0"/>
-        <v>45519</v>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="6">
         <v>5.4555100000000003</v>
@@ -6823,15 +6815,15 @@
         <v>5.4863400000000002</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4863400000000002</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4555100000000003</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.475179999999999</v>
       </c>
     </row>
@@ -6842,9 +6834,8 @@
       <c r="B32" s="5">
         <v>45520</v>
       </c>
-      <c r="C32" s="12">
-        <f t="shared" si="0"/>
-        <v>45520</v>
+      <c r="C32" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="6">
         <v>5.4542599999999997</v>
@@ -6856,15 +6847,15 @@
         <v>5.4715400000000001</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4715400000000001</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4542599999999997</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4640133333333338</v>
       </c>
     </row>
@@ -6875,9 +6866,8 @@
       <c r="B33" s="5">
         <v>45521</v>
       </c>
-      <c r="C33" s="12">
-        <f t="shared" si="0"/>
-        <v>45521</v>
+      <c r="C33" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="6">
         <v>5.4715400000000001</v>
@@ -6889,15 +6879,15 @@
         <v>5.4715400000000001</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4715400000000001</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4715400000000001</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4715400000000001</v>
       </c>
     </row>
@@ -6908,9 +6898,8 @@
       <c r="B34" s="5">
         <v>45522</v>
       </c>
-      <c r="C34" s="12">
-        <f>B34</f>
-        <v>45522</v>
+      <c r="C34" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="6">
         <v>5.4715400000000001</v>
@@ -6926,11 +6915,11 @@
         <v>5.4715400000000001</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4694000000000003</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4708266666666674</v>
       </c>
     </row>
@@ -6941,9 +6930,8 @@
       <c r="B35" s="5">
         <v>45523</v>
       </c>
-      <c r="C35" s="12">
-        <f t="shared" si="0"/>
-        <v>45523</v>
+      <c r="C35" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="6">
         <v>5.4292999999999996</v>
@@ -6955,15 +6943,15 @@
         <v>5.4063999999999997</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4292999999999996</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4063999999999997</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4160666666666657</v>
       </c>
     </row>
@@ -6974,9 +6962,8 @@
       <c r="B36" s="5">
         <v>45524</v>
       </c>
-      <c r="C36" s="12">
-        <f t="shared" si="0"/>
-        <v>45524</v>
+      <c r="C36" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="6">
         <v>5.4397000000000002</v>
@@ -6988,15 +6975,15 @@
         <v>5.4795999999999996</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4852999999999996</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4397000000000002</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4682000000000004</v>
       </c>
     </row>
@@ -7007,9 +6994,8 @@
       <c r="B37" s="5">
         <v>45525</v>
       </c>
-      <c r="C37" s="12">
-        <f t="shared" si="0"/>
-        <v>45525</v>
+      <c r="C37" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D37" s="6">
         <v>5.47</v>
@@ -7021,15 +7007,15 @@
         <v>5.4836999999999998</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4836999999999998</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.47</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4782999999999999</v>
       </c>
     </row>
@@ -7040,9 +7026,8 @@
       <c r="B38" s="5">
         <v>45526</v>
       </c>
-      <c r="C38" s="12">
-        <f t="shared" si="0"/>
-        <v>45526</v>
+      <c r="C38" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D38" s="6">
         <v>5.5452000000000004</v>
@@ -7054,15 +7039,15 @@
         <v>5.5921000000000003</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5921000000000003</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5452000000000004</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5756666666666668</v>
       </c>
     </row>
@@ -7073,9 +7058,8 @@
       <c r="B39" s="5">
         <v>45527</v>
       </c>
-      <c r="C39" s="12">
-        <f t="shared" si="0"/>
-        <v>45527</v>
+      <c r="C39" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D39" s="6">
         <v>5.5518000000000001</v>
@@ -7087,15 +7071,15 @@
         <v>5.4859499999999999</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5518000000000001</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4794999999999998</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5057499999999999</v>
       </c>
     </row>
@@ -7106,9 +7090,8 @@
       <c r="B40" s="5">
         <v>45528</v>
       </c>
-      <c r="C40" s="12">
-        <f t="shared" si="0"/>
-        <v>45528</v>
+      <c r="C40" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D40" s="6">
         <v>5.4859499999999999</v>
@@ -7120,15 +7103,15 @@
         <v>5.4859499999999999</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4859499999999999</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -7139,9 +7122,8 @@
       <c r="B41" s="5">
         <v>45529</v>
       </c>
-      <c r="C41" s="12">
-        <f t="shared" si="0"/>
-        <v>45529</v>
+      <c r="C41" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D41" s="6">
         <v>5.4859499999999999</v>
@@ -7153,15 +7135,15 @@
         <v>5.4859499999999999</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4859499999999999</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4859499999999999</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -7172,9 +7154,8 @@
       <c r="B42" s="5">
         <v>45530</v>
       </c>
-      <c r="C42" s="12">
-        <f t="shared" si="0"/>
-        <v>45530</v>
+      <c r="C42" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D42" s="6">
         <v>5.4848999999999997</v>
@@ -7186,15 +7167,15 @@
         <v>5.4972000000000003</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.4972000000000003</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4848999999999997</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.4912999999999998</v>
       </c>
     </row>
@@ -7205,9 +7186,8 @@
       <c r="B43" s="5">
         <v>45531</v>
       </c>
-      <c r="C43" s="12">
-        <f t="shared" si="0"/>
-        <v>45531</v>
+      <c r="C43" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D43" s="6">
         <v>5.4927000000000001</v>
@@ -7219,15 +7199,15 @@
         <v>5.5094000000000003</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5094000000000003</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4927000000000001</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.5015333333333336</v>
       </c>
     </row>
@@ -7238,9 +7218,8 @@
       <c r="B44" s="5">
         <v>45532</v>
       </c>
-      <c r="C44" s="12">
-        <f t="shared" si="0"/>
-        <v>45532</v>
+      <c r="C44" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D44" s="6">
         <v>5.5304000000000002</v>
@@ -7252,15 +7231,15 @@
         <v>5.5633999999999997</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.5633999999999997</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.5304000000000002</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.549593333333334</v>
       </c>
     </row>
@@ -7271,9 +7250,8 @@
       <c r="B45" s="5">
         <v>45533</v>
       </c>
-      <c r="C45" s="12">
-        <f t="shared" si="0"/>
-        <v>45533</v>
+      <c r="C45" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D45" s="6">
         <v>5.6406000000000001</v>
@@ -7285,15 +7263,15 @@
         <v>5.6288999999999998</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6406000000000001</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6227</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6307333333333345</v>
       </c>
     </row>
@@ -7304,9 +7282,8 @@
       <c r="B46" s="5">
         <v>45534</v>
       </c>
-      <c r="C46" s="12">
-        <f t="shared" si="0"/>
-        <v>45534</v>
+      <c r="C46" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D46" s="6">
         <v>5.6656000000000004</v>
@@ -7318,15 +7295,15 @@
         <v>5.6063799999999997</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6656000000000004</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6353600000000013</v>
       </c>
     </row>
@@ -7337,9 +7314,8 @@
       <c r="B47" s="5">
         <v>45535</v>
       </c>
-      <c r="C47" s="12">
-        <f t="shared" si="0"/>
-        <v>45535</v>
+      <c r="C47" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D47" s="6">
         <v>5.6063799999999997</v>
@@ -7351,15 +7327,15 @@
         <v>5.6063799999999997</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6063799999999997</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6063799999999988</v>
       </c>
     </row>
@@ -7370,9 +7346,8 @@
       <c r="B48" s="5">
         <v>45536</v>
       </c>
-      <c r="C48" s="12">
-        <f t="shared" si="0"/>
-        <v>45536</v>
+      <c r="C48" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D48" s="6">
         <v>5.6063799999999997</v>
@@ -7384,15 +7359,15 @@
         <v>5.6116900000000003</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6116900000000003</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6063799999999997</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6081499999999993</v>
       </c>
     </row>
@@ -7403,9 +7378,8 @@
       <c r="B49" s="5">
         <v>45537</v>
       </c>
-      <c r="C49" s="12">
-        <f t="shared" si="0"/>
-        <v>45537</v>
+      <c r="C49" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D49">
         <v>5.6504500000000002</v>
@@ -7417,15 +7391,15 @@
         <v>5.6165599999999998</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6504500000000002</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6165599999999998</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.6309866666666659</v>
       </c>
     </row>
@@ -7436,9 +7410,8 @@
       <c r="B50" s="5">
         <v>45538</v>
       </c>
-      <c r="C50" s="12">
-        <f t="shared" si="0"/>
-        <v>45538</v>
+      <c r="C50" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D50">
         <v>5.6275700000000004</v>
@@ -7450,15 +7423,15 @@
         <v>5.6492100000000001</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50" si="4">LARGE(D50:F50,1)</f>
+        <f t="shared" ref="G50" si="3">LARGE(D50:F50,1)</f>
         <v>5.6492100000000001</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50" si="5">SMALL(D50:F50,1)</f>
+        <f t="shared" ref="H50" si="4">SMALL(D50:F50,1)</f>
         <v>5.6275700000000004</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I50" si="6">AVERAGE(D50:F50)</f>
+        <f t="shared" ref="I50" si="5">AVERAGE(D50:F50)</f>
         <v>5.6389966666666664</v>
       </c>
     </row>
@@ -7469,9 +7442,8 @@
       <c r="B51" s="5">
         <v>45539</v>
       </c>
-      <c r="C51" s="12">
-        <f>B51</f>
-        <v>45539</v>
+      <c r="C51" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D51">
         <v>5.6345700000000001</v>
@@ -7483,15 +7455,15 @@
         <v>5.6435000000000004</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ref="G51" si="7">LARGE(D51:F51,1)</f>
+        <f t="shared" ref="G51" si="6">LARGE(D51:F51,1)</f>
         <v>5.6435000000000004</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" ref="H51" si="8">SMALL(D51:F51,1)</f>
+        <f t="shared" ref="H51" si="7">SMALL(D51:F51,1)</f>
         <v>5.6345700000000001</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" ref="I51" si="9">AVERAGE(D51:F51)</f>
+        <f t="shared" ref="I51" si="8">AVERAGE(D51:F51)</f>
         <v>5.6391233333333339</v>
       </c>
     </row>
@@ -7502,9 +7474,8 @@
       <c r="B52" s="5">
         <v>45540</v>
       </c>
-      <c r="C52" s="12">
-        <f t="shared" ref="C52:C55" si="10">B52</f>
-        <v>45540</v>
+      <c r="C52" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D52">
         <v>5.6099100000000002</v>
@@ -7516,15 +7487,15 @@
         <v>5.5689000000000002</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G55" si="11">LARGE(D52:F52,1)</f>
+        <f t="shared" ref="G52:G55" si="9">LARGE(D52:F52,1)</f>
         <v>5.6099100000000002</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H55" si="12">SMALL(D52:F52,1)</f>
+        <f t="shared" ref="H52:H55" si="10">SMALL(D52:F52,1)</f>
         <v>5.5689000000000002</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" ref="I52:I55" si="13">AVERAGE(D52:F52)</f>
+        <f t="shared" ref="I52:I55" si="11">AVERAGE(D52:F52)</f>
         <v>5.5837700000000003</v>
       </c>
     </row>
@@ -7535,9 +7506,8 @@
       <c r="B53" s="5">
         <v>45541</v>
       </c>
-      <c r="C53" s="12">
-        <f t="shared" si="10"/>
-        <v>45541</v>
+      <c r="C53" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D53">
         <v>5.5615600000000001</v>
@@ -7549,15 +7519,15 @@
         <v>5.5993899999999996</v>
       </c>
       <c r="G53" s="6">
+        <f t="shared" si="9"/>
+        <v>5.5993899999999996</v>
+      </c>
+      <c r="H53" s="6">
+        <f t="shared" si="10"/>
+        <v>5.5615600000000001</v>
+      </c>
+      <c r="I53" s="6">
         <f t="shared" si="11"/>
-        <v>5.5993899999999996</v>
-      </c>
-      <c r="H53" s="6">
-        <f t="shared" si="12"/>
-        <v>5.5615600000000001</v>
-      </c>
-      <c r="I53" s="6">
-        <f t="shared" si="13"/>
         <v>5.5836466666666666</v>
       </c>
     </row>
@@ -7568,9 +7538,8 @@
       <c r="B54" s="5">
         <v>45542</v>
       </c>
-      <c r="C54" s="12">
-        <f t="shared" si="10"/>
-        <v>45542</v>
+      <c r="C54" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D54">
         <v>5.5993899999999996</v>
@@ -7582,15 +7551,15 @@
         <v>5.5993899999999996</v>
       </c>
       <c r="G54" s="6">
+        <f t="shared" si="9"/>
+        <v>5.5993899999999996</v>
+      </c>
+      <c r="H54" s="6">
+        <f t="shared" si="10"/>
+        <v>5.5993899999999996</v>
+      </c>
+      <c r="I54" s="6">
         <f t="shared" si="11"/>
-        <v>5.5993899999999996</v>
-      </c>
-      <c r="H54" s="6">
-        <f t="shared" si="12"/>
-        <v>5.5993899999999996</v>
-      </c>
-      <c r="I54" s="6">
-        <f t="shared" si="13"/>
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -7601,9 +7570,8 @@
       <c r="B55" s="5">
         <v>45543</v>
       </c>
-      <c r="C55" s="12">
-        <f t="shared" si="10"/>
-        <v>45543</v>
+      <c r="C55" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D55">
         <v>5.5993899999999996</v>
@@ -7612,15 +7580,15 @@
         <v>5.5993899999999996</v>
       </c>
       <c r="G55" s="6">
+        <f t="shared" si="9"/>
+        <v>5.5993899999999996</v>
+      </c>
+      <c r="H55" s="6">
+        <f t="shared" si="10"/>
+        <v>5.5993899999999996</v>
+      </c>
+      <c r="I55" s="6">
         <f t="shared" si="11"/>
-        <v>5.5993899999999996</v>
-      </c>
-      <c r="H55" s="6">
-        <f t="shared" si="12"/>
-        <v>5.5993899999999996</v>
-      </c>
-      <c r="I55" s="6">
-        <f t="shared" si="13"/>
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -7663,15 +7631,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="11.7109375" style="6" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="6"/>
@@ -7684,7 +7652,7 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -7713,9 +7681,8 @@
       <c r="B2" s="5">
         <v>45490</v>
       </c>
-      <c r="C2" s="12">
-        <f>B2</f>
-        <v>45490</v>
+      <c r="C2" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="6">
         <v>5.9731800000000002</v>
@@ -7746,9 +7713,8 @@
       <c r="B3" s="5">
         <v>45583</v>
       </c>
-      <c r="C3" s="12">
-        <f t="shared" ref="C3:C55" si="0">B3</f>
-        <v>45583</v>
+      <c r="C3" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="6">
         <v>6.00298</v>
@@ -7760,15 +7726,15 @@
         <v>6.0370799999999996</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G49" si="1">LARGE(D3:F3,1)</f>
+        <f t="shared" ref="G3:G49" si="0">LARGE(D3:F3,1)</f>
         <v>6.0900600000000003</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H49" si="2">SMALL(D3:F3,1)</f>
+        <f t="shared" ref="H3:H49" si="1">SMALL(D3:F3,1)</f>
         <v>6.00298</v>
       </c>
       <c r="I3" s="6">
-        <f t="shared" ref="I3:I49" si="3">AVERAGE(D3:F3)</f>
+        <f t="shared" ref="I3:I49" si="2">AVERAGE(D3:F3)</f>
         <v>6.0433733333333324</v>
       </c>
     </row>
@@ -7779,9 +7745,8 @@
       <c r="B4" s="5">
         <v>45584</v>
       </c>
-      <c r="C4" s="12">
-        <f t="shared" si="0"/>
-        <v>45584</v>
+      <c r="C4" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D4" s="6">
         <v>6.0396299999999998</v>
@@ -7793,15 +7758,15 @@
         <v>6.0924699999999996</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0396299999999998</v>
       </c>
       <c r="I4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.068036666666667</v>
       </c>
     </row>
@@ -7812,9 +7777,8 @@
       <c r="B5" s="5">
         <v>45493</v>
       </c>
-      <c r="C5" s="12">
-        <f t="shared" si="0"/>
-        <v>45493</v>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <v>6.0924699999999996</v>
@@ -7826,15 +7790,15 @@
         <v>6.0924699999999996</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0924699999999996</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0924699999999996</v>
       </c>
     </row>
@@ -7845,9 +7809,8 @@
       <c r="B6" s="5">
         <v>45494</v>
       </c>
-      <c r="C6" s="12">
-        <f t="shared" si="0"/>
-        <v>45494</v>
+      <c r="C6" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="6">
         <v>6.0924699999999996</v>
@@ -7859,15 +7822,15 @@
         <v>6.0363499999999997</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0924699999999996</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0363499999999997</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.073763333333333</v>
       </c>
     </row>
@@ -7878,9 +7841,8 @@
       <c r="B7" s="5">
         <v>45495</v>
       </c>
-      <c r="C7" s="12">
-        <f t="shared" si="0"/>
-        <v>45495</v>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>6.0609000000000002</v>
@@ -7892,15 +7854,15 @@
         <v>6.0671900000000001</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0671900000000001</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0609000000000002</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0638666666666667</v>
       </c>
     </row>
@@ -7911,9 +7873,8 @@
       <c r="B8" s="5">
         <v>45496</v>
       </c>
-      <c r="C8" s="12">
-        <f t="shared" si="0"/>
-        <v>45496</v>
+      <c r="C8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="6">
         <v>6.0692899999999996</v>
@@ -7925,15 +7886,15 @@
         <v>6.0602799999999997</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0692899999999996</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0602799999999997</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0636233333333331</v>
       </c>
     </row>
@@ -7944,9 +7905,8 @@
       <c r="B9" s="5">
         <v>45497</v>
       </c>
-      <c r="C9" s="12">
-        <f t="shared" si="0"/>
-        <v>45497</v>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="6">
         <v>6.1232899999999999</v>
@@ -7958,15 +7918,15 @@
         <v>6.1289499999999997</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1300400000000002</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1232899999999999</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1274266666666675</v>
       </c>
     </row>
@@ -7977,9 +7937,8 @@
       <c r="B10" s="5">
         <v>45498</v>
       </c>
-      <c r="C10" s="12">
-        <f t="shared" si="0"/>
-        <v>45498</v>
+      <c r="C10" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="6">
         <v>6.1245200000000004</v>
@@ -7991,15 +7950,15 @@
         <v>6.1287700000000003</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1287700000000003</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1245200000000004</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.12615</v>
       </c>
     </row>
@@ -8010,9 +7969,8 @@
       <c r="B11" s="5">
         <v>45499</v>
       </c>
-      <c r="C11" s="12">
-        <f t="shared" si="0"/>
-        <v>45499</v>
+      <c r="C11" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D11" s="6">
         <v>6.1281999999999996</v>
@@ -8024,15 +7982,15 @@
         <v>6.1404699999999997</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1429999999999998</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1281999999999996</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1372233333333339</v>
       </c>
     </row>
@@ -8043,9 +8001,8 @@
       <c r="B12" s="5">
         <v>45500</v>
       </c>
-      <c r="C12" s="12">
-        <f t="shared" si="0"/>
-        <v>45500</v>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>6.1404699999999997</v>
@@ -8057,15 +8014,15 @@
         <v>6.1404699999999997</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1404699999999997</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1404699999999997</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1404699999999997</v>
       </c>
     </row>
@@ -8076,9 +8033,8 @@
       <c r="B13" s="5">
         <v>45501</v>
       </c>
-      <c r="C13" s="12">
-        <f t="shared" si="0"/>
-        <v>45501</v>
+      <c r="C13" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D13" s="6">
         <v>6.1404699999999997</v>
@@ -8090,15 +8046,15 @@
         <v>6.1418600000000003</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1428500000000001</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1404699999999997</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.141726666666667</v>
       </c>
     </row>
@@ -8109,9 +8065,8 @@
       <c r="B14" s="5">
         <v>45502</v>
       </c>
-      <c r="C14" s="12">
-        <f t="shared" si="0"/>
-        <v>45502</v>
+      <c r="C14" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="6">
         <v>6.1089200000000003</v>
@@ -8123,15 +8078,15 @@
         <v>6.0749300000000002</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1089200000000003</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0749300000000002</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0909066666666662</v>
       </c>
     </row>
@@ -8142,9 +8097,8 @@
       <c r="B15" s="5">
         <v>45503</v>
       </c>
-      <c r="C15" s="12">
-        <f t="shared" si="0"/>
-        <v>45503</v>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="6">
         <v>6.1143400000000003</v>
@@ -8156,15 +8110,15 @@
         <v>6.0747400000000003</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1143400000000003</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0705400000000003</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0865399999999994</v>
       </c>
     </row>
@@ -8175,9 +8129,8 @@
       <c r="B16" s="5">
         <v>45504</v>
       </c>
-      <c r="C16" s="12">
-        <f t="shared" si="0"/>
-        <v>45504</v>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D16" s="6">
         <v>6.15245</v>
@@ -8189,15 +8142,15 @@
         <v>6.1261000000000001</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.15245</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1144100000000003</v>
       </c>
       <c r="I16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1309866666666677</v>
       </c>
     </row>
@@ -8208,9 +8161,8 @@
       <c r="B17" s="5">
         <v>45505</v>
       </c>
-      <c r="C17" s="12">
-        <f t="shared" si="0"/>
-        <v>45505</v>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="6">
         <v>6.0955500000000002</v>
@@ -8222,15 +8174,15 @@
         <v>6.2071300000000003</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2071300000000003</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0955500000000002</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1634333333333338</v>
       </c>
     </row>
@@ -8241,9 +8193,8 @@
       <c r="B18" s="5">
         <v>45506</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="0"/>
-        <v>45506</v>
+      <c r="C18" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="6">
         <v>6.2333999999999996</v>
@@ -8255,15 +8206,15 @@
         <v>6.2495700000000003</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2495700000000003</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.23088</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2379500000000005</v>
       </c>
     </row>
@@ -8274,9 +8225,8 @@
       <c r="B19" s="5">
         <v>45507</v>
       </c>
-      <c r="C19" s="12">
-        <f t="shared" si="0"/>
-        <v>45507</v>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>6.2495700000000003</v>
@@ -8288,15 +8238,15 @@
         <v>6.2495700000000003</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2495700000000003</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2495700000000003</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2495700000000012</v>
       </c>
     </row>
@@ -8307,9 +8257,8 @@
       <c r="B20" s="5">
         <v>45508</v>
       </c>
-      <c r="C20" s="12">
-        <f t="shared" si="0"/>
-        <v>45508</v>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <v>6.2495700000000003</v>
@@ -8321,15 +8270,15 @@
         <v>6.25481</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2564099999999998</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2495700000000003</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2535966666666667</v>
       </c>
     </row>
@@ -8340,9 +8289,8 @@
       <c r="B21" s="5">
         <v>45509</v>
       </c>
-      <c r="C21" s="12">
-        <f t="shared" si="0"/>
-        <v>45509</v>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D21" s="6">
         <v>6.3701999999999996</v>
@@ -8354,15 +8302,15 @@
         <v>6.2695499999999997</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.3701999999999996</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2695499999999997</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.3104366666666669</v>
       </c>
     </row>
@@ -8373,9 +8321,8 @@
       <c r="B22" s="5">
         <v>45510</v>
       </c>
-      <c r="C22" s="12">
-        <f t="shared" si="0"/>
-        <v>45510</v>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="6">
         <v>6.1828000000000003</v>
@@ -8387,15 +8334,15 @@
         <v>6.1767700000000003</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1848700000000001</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1767700000000003</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1814800000000005</v>
       </c>
     </row>
@@ -8406,9 +8353,8 @@
       <c r="B23" s="5">
         <v>45511</v>
       </c>
-      <c r="C23" s="12">
-        <f t="shared" si="0"/>
-        <v>45511</v>
+      <c r="C23" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D23" s="6">
         <v>6.1179699999999997</v>
@@ -8420,15 +8366,15 @@
         <v>6.1602499999999996</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1602499999999996</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1179699999999997</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1404066666666663</v>
       </c>
     </row>
@@ -8439,9 +8385,8 @@
       <c r="B24" s="5">
         <v>45512</v>
       </c>
-      <c r="C24" s="12">
-        <f t="shared" si="0"/>
-        <v>45512</v>
+      <c r="C24" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D24" s="6">
         <v>6.1177400000000004</v>
@@ -8453,15 +8398,15 @@
         <v>6.0570500000000003</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1177400000000004</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0570500000000003</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0866400000000001</v>
       </c>
     </row>
@@ -8472,9 +8417,8 @@
       <c r="B25" s="5">
         <v>45513</v>
       </c>
-      <c r="C25" s="12">
-        <f t="shared" si="0"/>
-        <v>45513</v>
+      <c r="C25" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="6">
         <v>6.0171000000000001</v>
@@ -8486,15 +8430,15 @@
         <v>6.0135500000000004</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0211600000000001</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0135500000000004</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0172700000000008</v>
       </c>
     </row>
@@ -8505,9 +8449,8 @@
       <c r="B26" s="5">
         <v>45514</v>
       </c>
-      <c r="C26" s="12">
-        <f t="shared" si="0"/>
-        <v>45514</v>
+      <c r="C26" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D26" s="6">
         <v>6.0135500000000004</v>
@@ -8519,15 +8462,15 @@
         <v>6.0135500000000004</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0135500000000004</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0135500000000004</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0135499999999995</v>
       </c>
     </row>
@@ -8538,9 +8481,8 @@
       <c r="B27" s="5">
         <v>45515</v>
       </c>
-      <c r="C27" s="12">
-        <f t="shared" si="0"/>
-        <v>45515</v>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D27" s="6">
         <v>6.0078100000000001</v>
@@ -8552,15 +8494,15 @@
         <v>6.0075200000000004</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0093300000000003</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0075200000000004</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
     </row>
@@ -8571,9 +8513,8 @@
       <c r="B28" s="5">
         <v>45516</v>
       </c>
-      <c r="C28" s="12">
-        <f t="shared" si="0"/>
-        <v>45516</v>
+      <c r="C28" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D28" s="6">
         <v>6.0078100000000001</v>
@@ -8585,15 +8526,15 @@
         <v>6.0075200000000004</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0093300000000003</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0075200000000004</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
     </row>
@@ -8604,9 +8545,8 @@
       <c r="B29" s="5">
         <v>45517</v>
       </c>
-      <c r="C29" s="12">
-        <f t="shared" si="0"/>
-        <v>45517</v>
+      <c r="C29" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D29" s="6">
         <v>6.0146800000000002</v>
@@ -8618,15 +8558,15 @@
         <v>5.9986600000000001</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0146800000000002</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9917600000000002</v>
       </c>
       <c r="I29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0017000000000005</v>
       </c>
     </row>
@@ -8637,9 +8577,8 @@
       <c r="B30" s="5">
         <v>45518</v>
       </c>
-      <c r="C30" s="12">
-        <f t="shared" si="0"/>
-        <v>45518</v>
+      <c r="C30" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D30" s="6">
         <v>6.0144599999999997</v>
@@ -8651,15 +8590,15 @@
         <v>6.0214800000000004</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0229699999999999</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0144599999999997</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.019636666666667</v>
       </c>
     </row>
@@ -8670,9 +8609,8 @@
       <c r="B31" s="5">
         <v>45519</v>
       </c>
-      <c r="C31" s="12">
-        <f t="shared" si="0"/>
-        <v>45519</v>
+      <c r="C31" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="6">
         <v>5.9838699999999996</v>
@@ -8684,15 +8622,15 @@
         <v>6.0248200000000001</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.0248200000000001</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9838699999999996</v>
       </c>
       <c r="I31" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0086699999999995</v>
       </c>
     </row>
@@ -8703,9 +8641,8 @@
       <c r="B32" s="5">
         <v>45520</v>
       </c>
-      <c r="C32" s="12">
-        <f t="shared" si="0"/>
-        <v>45520</v>
+      <c r="C32" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="6">
         <v>6.0010300000000001</v>
@@ -8717,15 +8654,15 @@
         <v>6.03376</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0010300000000001</v>
       </c>
       <c r="I32" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0203533333333334</v>
       </c>
     </row>
@@ -8736,9 +8673,8 @@
       <c r="B33" s="5">
         <v>45521</v>
       </c>
-      <c r="C33" s="12">
-        <f t="shared" si="0"/>
-        <v>45521</v>
+      <c r="C33" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="6">
         <v>6.03376</v>
@@ -8750,15 +8686,15 @@
         <v>6.03376</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.03376</v>
       </c>
       <c r="I33" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.03376</v>
       </c>
     </row>
@@ -8769,9 +8705,8 @@
       <c r="B34" s="5">
         <v>45522</v>
       </c>
-      <c r="C34" s="12">
-        <f t="shared" si="0"/>
-        <v>45522</v>
+      <c r="C34" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D34" s="6">
         <v>6.03376</v>
@@ -8783,15 +8718,15 @@
         <v>6.0332999999999997</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.03376</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0332999999999997</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0336066666666666</v>
       </c>
     </row>
@@ -8802,9 +8737,8 @@
       <c r="B35" s="5">
         <v>45523</v>
       </c>
-      <c r="C35" s="12">
-        <f t="shared" si="0"/>
-        <v>45523</v>
+      <c r="C35" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="6">
         <v>5.9958999999999998</v>
@@ -8816,15 +8750,15 @@
         <v>5.9932999999999996</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.9989999999999997</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.9932999999999996</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5.9960666666666667</v>
       </c>
     </row>
@@ -8835,9 +8769,8 @@
       <c r="B36" s="5">
         <v>45524</v>
       </c>
-      <c r="C36" s="12">
-        <f t="shared" si="0"/>
-        <v>45524</v>
+      <c r="C36" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D36" s="6">
         <v>6.0391000000000004</v>
@@ -8849,15 +8782,15 @@
         <v>6.0941000000000001</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1021000000000001</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0391000000000004</v>
       </c>
       <c r="I36" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.0784333333333338</v>
       </c>
     </row>
@@ -8868,9 +8801,8 @@
       <c r="B37" s="5">
         <v>45525</v>
       </c>
-      <c r="C37" s="12">
-        <f t="shared" si="0"/>
-        <v>45525</v>
+      <c r="C37" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D37" s="6">
         <v>6.0796000000000001</v>
@@ -8882,15 +8814,15 @@
         <v>6.1108000000000002</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1125999999999996</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0796000000000001</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.101</v>
       </c>
     </row>
@@ -8901,9 +8833,8 @@
       <c r="B38" s="5">
         <v>45526</v>
       </c>
-      <c r="C38" s="12">
-        <f t="shared" si="0"/>
-        <v>45526</v>
+      <c r="C38" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D38" s="6">
         <v>6.1086999999999998</v>
@@ -8915,15 +8846,15 @@
         <v>6.2225999999999999</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2225999999999999</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1086999999999998</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1801999999999992</v>
       </c>
     </row>
@@ -8934,9 +8865,8 @@
       <c r="B39" s="5">
         <v>45527</v>
       </c>
-      <c r="C39" s="12">
-        <f t="shared" si="0"/>
-        <v>45527</v>
+      <c r="C39" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D39" s="6">
         <v>6.1725000000000003</v>
@@ -8948,15 +8878,15 @@
         <v>6.1401700000000003</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1725000000000003</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1323999999999996</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1483566666666674</v>
       </c>
     </row>
@@ -8967,9 +8897,8 @@
       <c r="B40" s="5">
         <v>45528</v>
       </c>
-      <c r="C40" s="12">
-        <f t="shared" si="0"/>
-        <v>45528</v>
+      <c r="C40" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D40" s="6">
         <v>6.1401700000000003</v>
@@ -8981,15 +8910,15 @@
         <v>6.1401700000000003</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1401700000000003</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1401700000000003</v>
       </c>
       <c r="I40" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1401700000000003</v>
       </c>
     </row>
@@ -9000,9 +8929,8 @@
       <c r="B41" s="5">
         <v>45529</v>
       </c>
-      <c r="C41" s="12">
-        <f t="shared" si="0"/>
-        <v>45529</v>
+      <c r="C41" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D41" s="6">
         <v>6.1401700000000003</v>
@@ -9014,15 +8942,15 @@
         <v>6.1395999999999997</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1401700000000003</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1395999999999997</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1399800000000004</v>
       </c>
     </row>
@@ -9033,9 +8961,8 @@
       <c r="B42" s="5">
         <v>45530</v>
       </c>
-      <c r="C42" s="12">
-        <f t="shared" si="0"/>
-        <v>45530</v>
+      <c r="C42" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D42" s="6">
         <v>6.1208999999999998</v>
@@ -9047,15 +8974,15 @@
         <v>6.1401000000000003</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1401000000000003</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1208999999999998</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.129833333333333</v>
       </c>
     </row>
@@ -9066,9 +8993,8 @@
       <c r="B43" s="5">
         <v>45531</v>
       </c>
-      <c r="C43" s="12">
-        <f t="shared" si="0"/>
-        <v>45531</v>
+      <c r="C43" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D43" s="6">
         <v>6.1345000000000001</v>
@@ -9080,15 +9006,15 @@
         <v>6.1562000000000001</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1562000000000001</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1345000000000001</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1481666666666657</v>
       </c>
     </row>
@@ -9099,9 +9025,8 @@
       <c r="B44" s="5">
         <v>45532</v>
       </c>
-      <c r="C44" s="12">
-        <f t="shared" si="0"/>
-        <v>45532</v>
+      <c r="C44" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D44" s="6">
         <v>6.1444999999999999</v>
@@ -9113,15 +9038,15 @@
         <v>6.1912000000000003</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1912000000000003</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1444999999999999</v>
       </c>
       <c r="I44" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1696666666666671</v>
       </c>
     </row>
@@ -9132,9 +9057,8 @@
       <c r="B45" s="5">
         <v>45533</v>
       </c>
-      <c r="C45" s="12">
-        <f t="shared" si="0"/>
-        <v>45533</v>
+      <c r="C45" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D45" s="6">
         <v>6.2511999999999999</v>
@@ -9146,15 +9070,15 @@
         <v>6.2314999999999996</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2511999999999999</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2274000000000003</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2366999999999999</v>
       </c>
     </row>
@@ -9165,9 +9089,8 @@
       <c r="B46" s="5">
         <v>45534</v>
       </c>
-      <c r="C46" s="12">
-        <f t="shared" si="0"/>
-        <v>45534</v>
+      <c r="C46" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D46" s="6">
         <v>6.2614000000000001</v>
@@ -9179,15 +9102,15 @@
         <v>6.1933699999999998</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2614000000000001</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
       <c r="I46" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2276566666666655</v>
       </c>
     </row>
@@ -9198,9 +9121,8 @@
       <c r="B47" s="5">
         <v>45535</v>
       </c>
-      <c r="C47" s="12">
-        <f t="shared" si="0"/>
-        <v>45535</v>
+      <c r="C47" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D47" s="6">
         <v>6.1933699999999998</v>
@@ -9212,15 +9134,15 @@
         <v>6.1933699999999998</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.1933699999999998</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
       <c r="I47" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1933699999999989</v>
       </c>
     </row>
@@ -9231,9 +9153,8 @@
       <c r="B48" s="5">
         <v>45536</v>
       </c>
-      <c r="C48" s="12">
-        <f t="shared" si="0"/>
-        <v>45536</v>
+      <c r="C48" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D48" s="6">
         <v>6.1933699999999998</v>
@@ -9245,15 +9166,15 @@
         <v>6.2034399999999996</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2034399999999996</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.1933699999999998</v>
       </c>
       <c r="I48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.1967266666666667</v>
       </c>
     </row>
@@ -9264,9 +9185,8 @@
       <c r="B49" s="5">
         <v>45537</v>
       </c>
-      <c r="C49" s="12">
-        <f t="shared" si="0"/>
-        <v>45537</v>
+      <c r="C49" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="D49">
         <v>6.2514799999999999</v>
@@ -9278,15 +9198,15 @@
         <v>6.2155399999999998</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.2514799999999999</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.2155399999999998</v>
       </c>
       <c r="I49" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.2284300000000004</v>
       </c>
     </row>
@@ -9297,9 +9217,8 @@
       <c r="B50" s="5">
         <v>45538</v>
       </c>
-      <c r="C50" s="12">
-        <f t="shared" si="0"/>
-        <v>45538</v>
+      <c r="C50" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="D50">
         <v>6.2251500000000002</v>
@@ -9311,15 +9230,15 @@
         <v>6.2437500000000004</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50" si="4">LARGE(D50:F50,1)</f>
+        <f t="shared" ref="G50" si="3">LARGE(D50:F50,1)</f>
         <v>6.2437500000000004</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50" si="5">SMALL(D50:F50,1)</f>
+        <f t="shared" ref="H50" si="4">SMALL(D50:F50,1)</f>
         <v>6.2251500000000002</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I50" si="6">AVERAGE(D50:F50)</f>
+        <f t="shared" ref="I50" si="5">AVERAGE(D50:F50)</f>
         <v>6.2323200000000005</v>
       </c>
     </row>
@@ -9330,9 +9249,8 @@
       <c r="B51" s="5">
         <v>45539</v>
       </c>
-      <c r="C51" s="12">
-        <f t="shared" si="0"/>
-        <v>45539</v>
+      <c r="C51" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D51">
         <v>6.2382799999999996</v>
@@ -9344,15 +9262,15 @@
         <v>6.2532800000000002</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ref="G51" si="7">LARGE(D51:F51,1)</f>
+        <f t="shared" ref="G51" si="6">LARGE(D51:F51,1)</f>
         <v>6.2532800000000002</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" ref="H51" si="8">SMALL(D51:F51,1)</f>
+        <f t="shared" ref="H51" si="7">SMALL(D51:F51,1)</f>
         <v>6.2382799999999996</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" ref="I51" si="9">AVERAGE(D51:F51)</f>
+        <f t="shared" ref="I51" si="8">AVERAGE(D51:F51)</f>
         <v>6.2471099999999993</v>
       </c>
     </row>
@@ -9363,9 +9281,8 @@
       <c r="B52" s="5">
         <v>45540</v>
       </c>
-      <c r="C52" s="12">
-        <f t="shared" si="0"/>
-        <v>45540</v>
+      <c r="C52" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D52">
         <v>6.22342</v>
@@ -9377,15 +9294,15 @@
         <v>6.1872999999999996</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G54" si="10">LARGE(D52:F52,1)</f>
+        <f t="shared" ref="G52:G54" si="9">LARGE(D52:F52,1)</f>
         <v>6.22342</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H54" si="11">SMALL(D52:F52,1)</f>
+        <f t="shared" ref="H52:H54" si="10">SMALL(D52:F52,1)</f>
         <v>6.1868999999999996</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" ref="I52:I54" si="12">AVERAGE(D52:F52)</f>
+        <f t="shared" ref="I52:I54" si="11">AVERAGE(D52:F52)</f>
         <v>6.1992066666666661</v>
       </c>
     </row>
@@ -9396,9 +9313,8 @@
       <c r="B53" s="5">
         <v>45541</v>
       </c>
-      <c r="C53" s="12">
-        <f t="shared" si="0"/>
-        <v>45541</v>
+      <c r="C53" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D53">
         <v>6.1641300000000001</v>
@@ -9410,15 +9326,15 @@
         <v>6.2072099999999999</v>
       </c>
       <c r="G53" s="6">
+        <f t="shared" si="9"/>
+        <v>6.2072099999999999</v>
+      </c>
+      <c r="H53" s="6">
         <f t="shared" si="10"/>
-        <v>6.2072099999999999</v>
-      </c>
-      <c r="H53" s="6">
+        <v>6.1641300000000001</v>
+      </c>
+      <c r="I53" s="6">
         <f t="shared" si="11"/>
-        <v>6.1641300000000001</v>
-      </c>
-      <c r="I53" s="6">
-        <f t="shared" si="12"/>
         <v>6.1897166666666665</v>
       </c>
     </row>
@@ -9429,9 +9345,8 @@
       <c r="B54" s="5">
         <v>45542</v>
       </c>
-      <c r="C54" s="12">
-        <f t="shared" si="0"/>
-        <v>45542</v>
+      <c r="C54" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D54">
         <v>6.2072099999999999</v>
@@ -9443,15 +9358,15 @@
         <v>6.2072099999999999</v>
       </c>
       <c r="G54" s="6">
+        <f t="shared" si="9"/>
+        <v>6.2072099999999999</v>
+      </c>
+      <c r="H54" s="6">
         <f t="shared" si="10"/>
         <v>6.2072099999999999</v>
       </c>
-      <c r="H54" s="6">
+      <c r="I54" s="6">
         <f t="shared" si="11"/>
-        <v>6.2072099999999999</v>
-      </c>
-      <c r="I54" s="6">
-        <f t="shared" si="12"/>
         <v>6.2072099999999999</v>
       </c>
     </row>
@@ -9462,9 +9377,8 @@
       <c r="B55" s="5">
         <v>45543</v>
       </c>
-      <c r="C55" s="12">
-        <f t="shared" si="0"/>
-        <v>45543</v>
+      <c r="C55" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="D55">
         <v>6.2072099999999999</v>
@@ -9473,15 +9387,15 @@
         <v>6.2072099999999999</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" ref="G55" si="13">LARGE(D55:F55,1)</f>
+        <f t="shared" ref="G55" si="12">LARGE(D55:F55,1)</f>
         <v>6.2072099999999999</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" ref="H55" si="14">SMALL(D55:F55,1)</f>
+        <f t="shared" ref="H55" si="13">SMALL(D55:F55,1)</f>
         <v>6.2072099999999999</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" ref="I55" si="15">AVERAGE(D55:F55)</f>
+        <f t="shared" ref="I55" si="14">AVERAGE(D55:F55)</f>
         <v>6.2072099999999999</v>
       </c>
     </row>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70497AF9-26F4-4434-945B-95E4028D5354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6CD8C6-3B97-499D-A1DB-50ECA0E9C173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
     <sheet name="2024_wise_usd" sheetId="2" r:id="rId2"/>
     <sheet name="2024_wise_eur" sheetId="3" r:id="rId3"/>
+    <sheet name="2024_wise_desc" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024_wise_eur'!$B$1:$F$48</definedName>
@@ -37,8 +38,158 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tassia Accioly</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{98131FEB-D2BC-4932-8967-91B7DF00E147}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tassia Accioly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aqui estou usando um tempo "longo" de 20 dias.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{770E5754-ACF6-4D6A-95B0-9C092203561D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tassia Accioly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aqui o tempo "curto" é de 5 dias</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tassia Accioly</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{014F4354-7268-46CB-A0BD-CC51E1D89C95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tassia Accioly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aqui estou usando um tempo "longo" de 20 dias.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{4852484F-D9F9-4EE2-BA25-94F1AE0B66C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tassia Accioly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Aqui o tempo "curto" é de 5 dias</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tassia Accioly</author>
+  </authors>
+  <commentList>
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{8702A349-BEB3-469B-B5D4-7FD2E9740970}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tassia Accioly:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+O valor de 360 também foi usado pois, ao contrário da cotação oficial do governo, a cotação da Wise e outras fintechs do mercado também pode ocorrer durante os fins de semana e fora do expediente da bolsa de valores.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="56">
   <si>
     <t>date</t>
   </si>
@@ -121,42 +272,6 @@
     <t>54</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
     <t>Wednesday</t>
   </si>
   <si>
@@ -177,19 +292,90 @@
   <si>
     <t>Tuesday</t>
   </si>
+  <si>
+    <t>shortEMA</t>
+  </si>
+  <si>
+    <t>longSMA</t>
+  </si>
+  <si>
+    <t>shortSMA</t>
+  </si>
+  <si>
+    <t>longEMA</t>
+  </si>
+  <si>
+    <t>retornoDiscreto</t>
+  </si>
+  <si>
+    <t>retornoContínuo</t>
+  </si>
+  <si>
+    <t>Retorno Contínuo Médio</t>
+  </si>
+  <si>
+    <t>Retorno Discreto Médio</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Desvio Padrão Diário (Volatilidade)</t>
+  </si>
+  <si>
+    <t>Desvio Padrão Diário (Risco)</t>
+  </si>
+  <si>
+    <t>Volatilidade Anualizada (360)</t>
+  </si>
+  <si>
+    <t>Volatilidade Anualizada (252)</t>
+  </si>
+  <si>
+    <t>Risco Anualizado (360)</t>
+  </si>
+  <si>
+    <t>Risco Anualizado (252)</t>
+  </si>
+  <si>
+    <t>EMA Values</t>
+  </si>
+  <si>
+    <t>Length long</t>
+  </si>
+  <si>
+    <t>Length short</t>
+  </si>
+  <si>
+    <t>Smoothing</t>
+  </si>
+  <si>
+    <t>Multiplier long</t>
+  </si>
+  <si>
+    <t>Multiplier short</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$-409]dddd"/>
     <numFmt numFmtId="168" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="178" formatCode="0.0000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000%"/>
+    <numFmt numFmtId="185" formatCode="0.0000"/>
+    <numFmt numFmtId="187" formatCode="0.0000000"/>
+    <numFmt numFmtId="188" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -216,6 +402,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,10 +448,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -254,9 +469,20 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -269,6 +495,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,8 +704,8 @@
   </sheetPr>
   <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161:E162"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -617,15 +847,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>45583</v>
+      <c r="A5" s="16">
+        <v>45491</v>
       </c>
       <c r="B5" s="14">
         <v>0.45833333333333331</v>
       </c>
       <c r="C5" s="11">
         <f t="shared" si="0"/>
-        <v>45583</v>
+        <v>45491</v>
       </c>
       <c r="D5" s="2">
         <v>6.00298</v>
@@ -650,15 +880,15 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>45583</v>
+      <c r="A6" s="16">
+        <v>45491</v>
       </c>
       <c r="B6" s="14">
         <v>0.70833333333333337</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" si="0"/>
-        <v>45583</v>
+        <v>45491</v>
       </c>
       <c r="D6" s="2">
         <v>6.0900600000000003</v>
@@ -683,15 +913,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>45583</v>
+      <c r="A7" s="16">
+        <v>45491</v>
       </c>
       <c r="B7" s="14">
         <v>0.95833333333333337</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" si="0"/>
-        <v>45583</v>
+        <v>45491</v>
       </c>
       <c r="D7" s="2">
         <v>6.0370799999999996</v>
@@ -717,16 +947,16 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>45584</v>
+        <v>45492</v>
       </c>
       <c r="B8" s="14">
         <v>0.45833333333333331</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="0"/>
-        <v>45584</v>
-      </c>
-      <c r="D8" s="2">
+        <v>45492</v>
+      </c>
+      <c r="D8" s="18">
         <v>6.0396299999999998</v>
       </c>
       <c r="E8">
@@ -750,14 +980,14 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>45584</v>
+        <v>45492</v>
       </c>
       <c r="B9" s="14">
         <v>0.70833333333333337</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" si="0"/>
-        <v>45584</v>
+        <v>45492</v>
       </c>
       <c r="D9" s="2">
         <v>6.0720099999999997</v>
@@ -783,14 +1013,14 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>45584</v>
+        <v>45492</v>
       </c>
       <c r="B10" s="14">
         <v>0.95833333333333337</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
-        <v>45584</v>
+        <v>45492</v>
       </c>
       <c r="D10" s="2">
         <v>6.0924699999999996</v>
@@ -5821,11 +6051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
-  <dimension ref="A1:I60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5836,9 +6066,15 @@
     <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="11.5703125" style="6" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="13.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15" style="6" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -5866,8 +6102,26 @@
       <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -5875,7 +6129,7 @@
         <v>45490</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6">
         <v>5.4586899999999998</v>
@@ -5898,16 +6152,34 @@
         <f>AVERAGE(D2:F2)</f>
         <v>5.4783466666666669</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>45583</v>
+        <v>45491</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>5.4920900000000001</v>
@@ -5930,16 +6202,36 @@
         <f t="shared" ref="I3:I49" si="2">AVERAGE(D3:F3)</f>
         <v>5.5418500000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="20">
+        <f>(F3/F2-1)</f>
+        <v>9.9856281273396075E-3</v>
+      </c>
+      <c r="K3" s="20">
+        <f>LN(F3/F2)</f>
+        <v>9.9361011750352148E-3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>45584</v>
+        <v>45492</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6">
         <v>5.5445000000000002</v>
@@ -5962,16 +6254,36 @@
         <f t="shared" si="2"/>
         <v>5.5738399999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="20">
+        <f t="shared" ref="J4:J55" si="3">(F4/F3-1)</f>
+        <v>9.6398188543673768E-3</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" ref="K4:K55" si="4">LN(F4/F3)</f>
+        <v>9.5936522552431871E-3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <v>45493</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>5.59816</v>
@@ -5994,8 +6306,28 @@
         <f t="shared" si="2"/>
         <v>5.59816</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -6003,7 +6335,7 @@
         <v>45494</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6">
         <v>5.59816</v>
@@ -6026,8 +6358,29 @@
         <f t="shared" si="2"/>
         <v>5.5805400000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="20">
+        <f t="shared" si="3"/>
+        <v>-9.4423882132700365E-3</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="4"/>
+        <v>-9.4872501869752261E-3</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="6">
+        <f>AVERAGE(F2:F6)</f>
+        <v>5.5552440000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -6035,7 +6388,7 @@
         <v>45495</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6">
         <v>5.5717100000000004</v>
@@ -6058,8 +6411,30 @@
         <f t="shared" si="2"/>
         <v>5.5710199999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="20">
+        <f t="shared" si="3"/>
+        <v>4.8311182442790646E-3</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="4"/>
+        <v>4.819485842495203E-3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="6">
+        <f>('2024_wise_usd'!F7*'2024_wise_desc'!$B$33)+'2024_wise_usd'!O6*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5608593333333332</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" ref="O7:O55" si="5">AVERAGE(F3:F7)</f>
+        <v>5.5716840000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -6067,7 +6442,7 @@
         <v>45496</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6">
         <v>5.5933099999999998</v>
@@ -6090,8 +6465,30 @@
         <f t="shared" si="2"/>
         <v>5.5886866666666677</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="20">
+        <f t="shared" si="3"/>
+        <v>2.5968711919586163E-3</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="4"/>
+        <v>2.5935051481602326E-3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="6">
+        <f>('2024_wise_usd'!F8*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M7*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5694262222222228</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5800539999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -6099,7 +6496,7 @@
         <v>45497</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6">
         <v>5.6412399999999998</v>
@@ -6122,8 +6519,30 @@
         <f t="shared" si="2"/>
         <v>5.6501933333333332</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="20">
+        <f t="shared" si="3"/>
+        <v>1.2259780616336258E-2</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="4"/>
+        <v>1.2185238137182267E-2</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="6">
+        <f>('2024_wise_usd'!F9*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M8*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5979674814814828</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5914319999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -6131,7 +6550,7 @@
         <v>45498</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6">
         <v>5.6501999999999999</v>
@@ -6154,8 +6573,30 @@
         <f t="shared" si="2"/>
         <v>5.6476966666666675</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.7329643416061913E-3</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.734467661361567E-3</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="6">
+        <f>('2024_wise_usd'!F10*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M9*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6137283209876561</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6008499999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -6163,7 +6604,7 @@
         <v>45499</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6">
         <v>5.6402900000000002</v>
@@ -6186,8 +6627,30 @@
         <f t="shared" si="2"/>
         <v>5.6514766666666674</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="20">
+        <f t="shared" si="3"/>
+        <v>1.957397812320183E-3</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9554846054201992E-3</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="6">
+        <f>('2024_wise_usd'!F11*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M10*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6279188806584379</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="5"/>
+        <v>5.623050000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -6195,7 +6658,7 @@
         <v>45500</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6">
         <v>5.6562999999999999</v>
@@ -6218,8 +6681,30 @@
         <f t="shared" si="2"/>
         <v>5.656299999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <f>('2024_wise_usd'!F12*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M11*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6373792537722922</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6398920000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -6227,7 +6712,7 @@
         <v>45501</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6">
         <v>5.6562999999999999</v>
@@ -6250,8 +6735,30 @@
         <f t="shared" si="2"/>
         <v>5.6565866666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="20">
+        <f t="shared" si="3"/>
+        <v>9.0164948818083346E-5</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="4"/>
+        <v>9.016088420340768E-5</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="6">
+        <f>('2024_wise_usd'!F13*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M12*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6438561691815288</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6539420000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -6259,7 +6766,7 @@
         <v>45502</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6">
         <v>5.6509</v>
@@ -6282,8 +6789,30 @@
         <f t="shared" si="2"/>
         <v>5.6304266666666676</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="20">
+        <f t="shared" si="3"/>
+        <v>-7.2001711211795438E-3</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="4"/>
+        <v>-7.2262174539417454E-3</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="6">
+        <f>('2024_wise_usd'!F14*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M13*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6345974461210195</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6461480000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -6291,7 +6820,7 @@
         <v>45503</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6">
         <v>5.6556600000000001</v>
@@ -6314,8 +6843,30 @@
         <f t="shared" si="2"/>
         <v>5.6268366666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.2855229982483607E-4</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="4"/>
+        <v>-6.2874992163641211E-4</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="6">
+        <f>('2024_wise_usd'!F15*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M14*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6272482974140132</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="5"/>
+        <v>5.639608</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -6323,7 +6874,7 @@
         <v>45504</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6">
         <v>5.6746600000000003</v>
@@ -6346,8 +6897,30 @@
         <f t="shared" si="2"/>
         <v>5.6601833333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="20">
+        <f t="shared" si="3"/>
+        <v>8.0801061905906302E-3</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="4"/>
+        <v>8.0476369187430109E-3</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="6">
+        <f>('2024_wise_usd'!F16*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M15*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6374655316093421</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6399279999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -6355,7 +6928,7 @@
         <v>45505</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6">
         <v>5.6421900000000003</v>
@@ -6378,8 +6951,30 @@
         <f t="shared" si="2"/>
         <v>5.7098266666666673</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="20">
+        <f t="shared" si="3"/>
+        <v>1.6705844924795432E-2</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="4"/>
+        <v>1.656783720032038E-2</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="6">
+        <f>('2024_wise_usd'!F17*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M16*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6757836877395622</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6591520000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -6387,7 +6982,7 @@
         <v>45506</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6">
         <v>5.7158499999999997</v>
@@ -6410,8 +7005,30 @@
         <f t="shared" si="2"/>
         <v>5.7178366666666669</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="20">
+        <f t="shared" si="3"/>
+        <v>-4.2330010673768959E-3</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.2419855796591351E-3</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="6">
+        <f>('2024_wise_usd'!F18*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M17*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6932124584930417</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6734039999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -6419,7 +7036,7 @@
         <v>45507</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6">
         <v>5.7280699999999998</v>
@@ -6442,8 +7059,30 @@
         <f t="shared" si="2"/>
         <v>5.7280699999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="6">
+        <f>('2024_wise_usd'!F19*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M18*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.7048316389953619</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6958019999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -6451,7 +7090,7 @@
         <v>45508</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6">
         <v>5.7280699999999998</v>
@@ -6474,8 +7113,30 @@
         <f t="shared" si="2"/>
         <v>5.7277933333333335</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="20">
+        <f t="shared" si="3"/>
+        <v>5.2373661636462288E-6</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="4"/>
+        <v>5.2373524486919492E-6</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="6">
+        <f>('2024_wise_usd'!F20*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M19*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.7125877593302423</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="5"/>
+        <v>5.7189119999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -6483,7 +7144,7 @@
         <v>45509</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D21" s="6">
         <v>5.8010999999999999</v>
@@ -6506,8 +7167,31 @@
         <f t="shared" si="2"/>
         <v>5.7549466666666662</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="20">
+        <f t="shared" si="3"/>
+        <v>-8.9383914386986785E-4</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="4"/>
+        <v>-8.9423885628090783E-4</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="6">
+        <f>('2024_wise_usd'!F21*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M20*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.7160518395534954</v>
+      </c>
+      <c r="N21" s="6">
+        <f>AVERAGE(F2:F21)</f>
+        <v>5.6375375000000005</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="5"/>
+        <v>5.7319279999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -6515,7 +7199,7 @@
         <v>45510</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6">
         <v>5.6627099999999997</v>
@@ -6538,8 +7222,32 @@
         <f t="shared" si="2"/>
         <v>5.6594933333333337</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.1501001226633556E-2</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.156764924667093E-2</v>
+      </c>
+      <c r="L22" s="6">
+        <f>('2024_wise_usd'!F22*'2024_wise_desc'!$B$32)+'2024_wise_usd'!N21*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6394063095238094</v>
+      </c>
+      <c r="M22" s="6">
+        <f>('2024_wise_usd'!F22*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M21*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6964212263689973</v>
+      </c>
+      <c r="N22" s="6">
+        <f>AVERAGE(F3:F22)</f>
+        <v>5.6459010000000003</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="5"/>
+        <v>5.7128759999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -6547,7 +7255,7 @@
         <v>45511</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D23" s="6">
         <v>5.6033099999999996</v>
@@ -6570,8 +7278,32 @@
         <f t="shared" si="2"/>
         <v>5.6214533333333323</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="20">
+        <f t="shared" si="3"/>
+        <v>-3.4946863797382655E-3</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="4"/>
+        <v>-3.5008070602510939E-3</v>
+      </c>
+      <c r="L23" s="6">
+        <f>('2024_wise_usd'!F23*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L22*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6392142800453513</v>
+      </c>
+      <c r="M23" s="6">
+        <f>('2024_wise_usd'!F23*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M22*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6767441509126648</v>
+      </c>
+      <c r="N23" s="6">
+        <f>AVERAGE(F4:F23)</f>
+        <v>5.6505349999999996</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6947400000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -6579,7 +7311,7 @@
         <v>45512</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6">
         <v>5.617</v>
@@ -6602,8 +7334,32 @@
         <f t="shared" si="2"/>
         <v>5.5795899999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.5943548344180547E-2</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.6072014006532201E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <f>('2024_wise_usd'!F24*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L23*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6304805390886514</v>
+      </c>
+      <c r="M24" s="6">
+        <f>('2024_wise_usd'!F24*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M23*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6336661006084441</v>
+      </c>
+      <c r="N24" s="6">
+        <f>AVERAGE(F5:F24)</f>
+        <v>5.6480024999999996</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6586280000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -6611,7 +7367,7 @@
         <v>45513</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6">
         <v>5.5172400000000001</v>
@@ -6634,8 +7390,32 @@
         <f t="shared" si="2"/>
         <v>5.5135333333333341</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.9959315080098117E-3</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="4"/>
+        <v>-7.0205177731622898E-3</v>
+      </c>
+      <c r="L25" s="6">
+        <f>('2024_wise_usd'!F25*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L24*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6188823925087794</v>
+      </c>
+      <c r="M25" s="6">
+        <f>('2024_wise_usd'!F25*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M24*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5920107337389631</v>
+      </c>
+      <c r="N25" s="6">
+        <f>AVERAGE(F6:F25)</f>
+        <v>5.6435295000000014</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6147480000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -6643,7 +7423,7 @@
         <v>45514</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D26" s="6">
         <v>5.5087000000000002</v>
@@ -6666,8 +7446,32 @@
         <f t="shared" si="2"/>
         <v>5.5087000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>('2024_wise_usd'!F26*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L25*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.608388831317467</v>
+      </c>
+      <c r="M26" s="6">
+        <f>('2024_wise_usd'!F26*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M25*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5642404891593094</v>
+      </c>
+      <c r="N26" s="6">
+        <f>AVERAGE(F7:F26)</f>
+        <v>5.6416995000000014</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5718920000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -6675,7 +7479,7 @@
         <v>45515</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6">
         <v>5.4993999999999996</v>
@@ -6698,8 +7502,32 @@
         <f t="shared" si="2"/>
         <v>5.4969933333333332</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.6975511463686042E-3</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.701196093892807E-3</v>
+      </c>
+      <c r="L27" s="6">
+        <f>('2024_wise_usd'!F27*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L26*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5974794188110408</v>
+      </c>
+      <c r="M27" s="6">
+        <f>('2024_wise_usd'!F27*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M26*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.54077365943954</v>
+      </c>
+      <c r="N27" s="6">
+        <f>AVERAGE(F8:F27)</f>
+        <v>5.6377870000000012</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5392279999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -6707,7 +7535,7 @@
         <v>45516</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D28" s="6">
         <v>5.4993999999999996</v>
@@ -6730,8 +7558,32 @@
         <f t="shared" si="2"/>
         <v>5.4936599999999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f>('2024_wise_usd'!F28*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L27*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5876089979718939</v>
+      </c>
+      <c r="M28" s="6">
+        <f>('2024_wise_usd'!F28*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M27*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5251291062930266</v>
+      </c>
+      <c r="N28" s="6">
+        <f>AVERAGE(F9:F28)</f>
+        <v>5.6331510000000007</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5105179999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -6739,7 +7591,7 @@
         <v>45517</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6">
         <v>5.4891100000000002</v>
@@ -6762,8 +7614,32 @@
         <f t="shared" si="2"/>
         <v>5.4650633333333332</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.6529057999503705E-3</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="4"/>
+        <v>-6.6751350252251236E-3</v>
+      </c>
+      <c r="L29" s="6">
+        <f>('2024_wise_usd'!F29*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L28*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5751976648317143</v>
+      </c>
+      <c r="M29" s="6">
+        <f>('2024_wise_usd'!F29*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M28*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5025160708620184</v>
+      </c>
+      <c r="N29" s="6">
+        <f>AVERAGE(F10:F29)</f>
+        <v>5.6232630000000015</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4924739999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -6771,7 +7647,7 @@
         <v>45518</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D30" s="6">
         <v>5.44909</v>
@@ -6794,8 +7670,32 @@
         <f t="shared" si="2"/>
         <v>5.4628866666666669</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="20">
+        <f t="shared" si="3"/>
+        <v>2.4407718849464022E-3</v>
+      </c>
+      <c r="K30" s="20">
+        <f t="shared" si="4"/>
+        <v>2.4377980392522444E-3</v>
+      </c>
+      <c r="L30" s="6">
+        <f>('2024_wise_usd'!F30*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L29*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5652369348477411</v>
+      </c>
+      <c r="M30" s="6">
+        <f>('2024_wise_usd'!F30*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M29*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4918807139080128</v>
+      </c>
+      <c r="N30" s="6">
+        <f>AVERAGE(F11:F30)</f>
+        <v>5.6145310000000013</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4848559999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -6803,7 +7703,7 @@
         <v>45519</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D31" s="6">
         <v>5.4555100000000003</v>
@@ -6826,8 +7726,32 @@
         <f t="shared" si="2"/>
         <v>5.475179999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="20">
+        <f t="shared" si="3"/>
+        <v>2.8753649044623852E-3</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="4"/>
+        <v>2.8712389499863859E-3</v>
+      </c>
+      <c r="L31" s="6">
+        <f>('2024_wise_usd'!F31*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L30*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5577229410527185</v>
+      </c>
+      <c r="M31" s="6">
+        <f>('2024_wise_usd'!F31*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M30*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4900338092720089</v>
+      </c>
+      <c r="N31" s="6">
+        <f>AVERAGE(F12:F31)</f>
+        <v>5.6060330000000009</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="5"/>
+        <v>5.480383999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -6835,7 +7759,7 @@
         <v>45520</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D32" s="6">
         <v>5.4542599999999997</v>
@@ -6858,8 +7782,32 @@
         <f t="shared" si="2"/>
         <v>5.4640133333333338</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.697608970643528E-3</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.7012540745752637E-3</v>
+      </c>
+      <c r="L32" s="6">
+        <f>('2024_wise_usd'!F32*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L31*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5495150419048409</v>
+      </c>
+      <c r="M32" s="6">
+        <f>('2024_wise_usd'!F32*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M31*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4838692061813399</v>
+      </c>
+      <c r="N32" s="6">
+        <f>AVERAGE(F13:F32)</f>
+        <v>5.5967950000000011</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="5"/>
+        <v>5.475924</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -6867,7 +7815,7 @@
         <v>45521</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D33" s="6">
         <v>5.4715400000000001</v>
@@ -6890,8 +7838,32 @@
         <f t="shared" si="2"/>
         <v>5.4715400000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="20">
+        <f>LN(F33/F32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <f>('2024_wise_usd'!F33*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L32*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5420888474377135</v>
+      </c>
+      <c r="M33" s="6">
+        <f>('2024_wise_usd'!F33*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M32*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4797594707875605</v>
+      </c>
+      <c r="N33" s="6">
+        <f>AVERAGE(F14:F33)</f>
+        <v>5.5875315000000008</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4714640000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -6899,7 +7871,7 @@
         <v>45522</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D34" s="6">
         <v>5.4715400000000001</v>
@@ -6922,8 +7894,32 @@
         <f t="shared" si="2"/>
         <v>5.4708266666666674</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="20">
+        <f t="shared" si="3"/>
+        <v>-3.9111475014341757E-4</v>
+      </c>
+      <c r="K34" s="20">
+        <f t="shared" si="4"/>
+        <v>-3.9119125546619788E-4</v>
+      </c>
+      <c r="L34" s="6">
+        <f>('2024_wise_usd'!F34*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L33*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5351661000626935</v>
+      </c>
+      <c r="M34" s="6">
+        <f>('2024_wise_usd'!F34*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M33*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4763063138583741</v>
+      </c>
+      <c r="N34" s="6">
+        <f>AVERAGE(F15:F34)</f>
+        <v>5.5801974999999997</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4738860000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -6931,7 +7927,7 @@
         <v>45523</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D35" s="6">
         <v>5.4292999999999996</v>
@@ -6954,8 +7950,32 @@
         <f t="shared" si="2"/>
         <v>5.4160666666666657</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.15186309284383E-2</v>
+      </c>
+      <c r="K35" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.1585484225805728E-2</v>
+      </c>
+      <c r="L35" s="6">
+        <f>('2024_wise_usd'!F35*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L34*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.522902661961484</v>
+      </c>
+      <c r="M35" s="6">
+        <f>('2024_wise_usd'!F35*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M34*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4530042092389159</v>
+      </c>
+      <c r="N35" s="6">
+        <f>AVERAGE(F16:F35)</f>
+        <v>5.56989</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4610439999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -6963,7 +7983,7 @@
         <v>45524</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D36" s="6">
         <v>5.4397000000000002</v>
@@ -6986,8 +8006,32 @@
         <f t="shared" si="2"/>
         <v>5.4682000000000004</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3539508730393557E-2</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="4"/>
+        <v>1.3448668617208922E-2</v>
+      </c>
+      <c r="L36" s="6">
+        <f>('2024_wise_usd'!F36*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L35*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5187785989175335</v>
+      </c>
+      <c r="M36" s="6">
+        <f>('2024_wise_usd'!F36*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M35*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4618694728259438</v>
+      </c>
+      <c r="N36" s="6">
+        <f>AVERAGE(F17:F36)</f>
+        <v>5.560975</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4596959999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -6995,7 +8039,7 @@
         <v>45525</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6">
         <v>5.47</v>
@@ -7018,8 +8062,32 @@
         <f t="shared" si="2"/>
         <v>5.4782999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="20">
+        <f t="shared" si="3"/>
+        <v>7.4822979779542997E-4</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="4"/>
+        <v>7.4795001343357461E-4</v>
+      </c>
+      <c r="L37" s="6">
+        <f>('2024_wise_usd'!F37*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L36*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5154377799730065</v>
+      </c>
+      <c r="M37" s="6">
+        <f>('2024_wise_usd'!F37*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M36*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4691463152172961</v>
+      </c>
+      <c r="N37" s="6">
+        <f>AVERAGE(F18:F37)</f>
+        <v>5.5475389999999996</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4621279999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -7027,7 +8095,7 @@
         <v>45526</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D38" s="6">
         <v>5.5452000000000004</v>
@@ -7050,8 +8118,32 @@
         <f t="shared" si="2"/>
         <v>5.5756666666666668</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="20">
+        <f t="shared" si="3"/>
+        <v>1.9767675109871208E-2</v>
+      </c>
+      <c r="K38" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9574831852641365E-2</v>
+      </c>
+      <c r="L38" s="6">
+        <f>('2024_wise_usd'!F38*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L37*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5227389437851011</v>
+      </c>
+      <c r="M38" s="6">
+        <f>('2024_wise_usd'!F38*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M37*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5101308768115311</v>
+      </c>
+      <c r="N38" s="6">
+        <f>AVERAGE(F19:F38)</f>
+        <v>5.540740500000001</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4862399999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -7059,7 +8151,7 @@
         <v>45527</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D39" s="6">
         <v>5.5518000000000001</v>
@@ -7082,8 +8174,32 @@
         <f t="shared" si="2"/>
         <v>5.5057499999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.8982135512598197E-2</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.9164609095934752E-2</v>
+      </c>
+      <c r="L39" s="6">
+        <f>('2024_wise_usd'!F39*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L38*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5192352348531868</v>
+      </c>
+      <c r="M39" s="6">
+        <f>('2024_wise_usd'!F39*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M38*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5020705845410207</v>
+      </c>
+      <c r="N39" s="6">
+        <f>AVERAGE(F20:F39)</f>
+        <v>5.5286345000000008</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4895499999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -7091,7 +8207,7 @@
         <v>45528</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6">
         <v>5.4859499999999999</v>
@@ -7114,8 +8230,32 @@
         <f t="shared" si="2"/>
         <v>5.4859499999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <f>('2024_wise_usd'!F40*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L39*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5160652124862164</v>
+      </c>
+      <c r="M40" s="6">
+        <f>('2024_wise_usd'!F40*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M39*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4966970563606807</v>
+      </c>
+      <c r="N40" s="6">
+        <f>AVERAGE(F21:F40)</f>
+        <v>5.5165270000000008</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5054599999999994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -7123,7 +8263,7 @@
         <v>45529</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D41" s="6">
         <v>5.4859499999999999</v>
@@ -7146,8 +8286,32 @@
         <f t="shared" si="2"/>
         <v>5.4859499999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <f>('2024_wise_usd'!F41*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L40*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5131970970113384</v>
+      </c>
+      <c r="M41" s="6">
+        <f>('2024_wise_usd'!F41*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M40*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4931147042404538</v>
+      </c>
+      <c r="N41" s="6">
+        <f>AVERAGE(F22:F41)</f>
+        <v>5.5046755000000003</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5067299999999992</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -7155,7 +8319,7 @@
         <v>45530</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D42" s="6">
         <v>5.4848999999999997</v>
@@ -7178,8 +8342,32 @@
         <f t="shared" si="2"/>
         <v>5.4912999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="20">
+        <f t="shared" si="3"/>
+        <v>2.0506931342794132E-3</v>
+      </c>
+      <c r="K42" s="20">
+        <f t="shared" si="4"/>
+        <v>2.0485933333221529E-3</v>
+      </c>
+      <c r="L42" s="6">
+        <f>('2024_wise_usd'!F42*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L41*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5116735639626393</v>
+      </c>
+      <c r="M42" s="6">
+        <f>('2024_wise_usd'!F42*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M41*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4944764694936366</v>
+      </c>
+      <c r="N42" s="6">
+        <f>AVERAGE(F23:F42)</f>
+        <v>5.4966775000000005</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="5"/>
+        <v>5.50943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -7187,7 +8375,7 @@
         <v>45531</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D43" s="6">
         <v>5.4927000000000001</v>
@@ -7210,8 +8398,32 @@
         <f t="shared" si="2"/>
         <v>5.5015333333333336</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2193116495670129E-3</v>
+      </c>
+      <c r="K43" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2168526150386403E-3</v>
+      </c>
+      <c r="L43" s="6">
+        <f>('2024_wise_usd'!F43*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L42*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5114570340614355</v>
+      </c>
+      <c r="M43" s="6">
+        <f>('2024_wise_usd'!F43*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M42*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4994509796624245</v>
+      </c>
+      <c r="N43" s="6">
+        <f>AVERAGE(F24:F43)</f>
+        <v>5.4902780000000009</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4928900000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -7219,7 +8431,7 @@
         <v>45532</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D44" s="6">
         <v>5.5304000000000002</v>
@@ -7242,8 +8454,32 @@
         <f t="shared" si="2"/>
         <v>5.549593333333334</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="20">
+        <f t="shared" si="3"/>
+        <v>9.8014302827893474E-3</v>
+      </c>
+      <c r="K44" s="20">
+        <f t="shared" si="4"/>
+        <v>9.7537078437244396E-3</v>
+      </c>
+      <c r="L44" s="6">
+        <f>('2024_wise_usd'!F44*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L43*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5164039831984413</v>
+      </c>
+      <c r="M44" s="6">
+        <f>('2024_wise_usd'!F44*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M43*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5207673197749498</v>
+      </c>
+      <c r="N44" s="6">
+        <f>AVERAGE(F25:F44)</f>
+        <v>5.4910725000000005</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5083799999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -7251,7 +8487,7 @@
         <v>45533</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D45" s="6">
         <v>5.6406000000000001</v>
@@ -7274,8 +8510,32 @@
         <f t="shared" si="2"/>
         <v>5.6307333333333345</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1773375993097801E-2</v>
+      </c>
+      <c r="K45" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1704609021978715E-2</v>
+      </c>
+      <c r="L45" s="6">
+        <f>('2024_wise_usd'!F45*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L44*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5271178895604942</v>
+      </c>
+      <c r="M45" s="6">
+        <f>('2024_wise_usd'!F45*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M44*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5568115465166334</v>
+      </c>
+      <c r="N45" s="6">
+        <f>AVERAGE(F26:F45)</f>
+        <v>5.4970825000000003</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5369700000000011</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -7283,7 +8543,7 @@
         <v>45534</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D46" s="6">
         <v>5.6656000000000004</v>
@@ -7306,8 +8566,32 @@
         <f t="shared" si="2"/>
         <v>5.6353600000000013</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="20">
+        <f t="shared" si="3"/>
+        <v>-4.0007816802573037E-3</v>
+      </c>
+      <c r="K46" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.0088062173822348E-3</v>
+      </c>
+      <c r="L46" s="6">
+        <f>('2024_wise_usd'!F46*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L45*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5346666619833043</v>
+      </c>
+      <c r="M46" s="6">
+        <f>('2024_wise_usd'!F46*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M45*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5733343643444222</v>
+      </c>
+      <c r="N46" s="6">
+        <f>AVERAGE(F27:F46)</f>
+        <v>5.5019665</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5610560000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -7315,7 +8599,7 @@
         <v>45535</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D47" s="6">
         <v>5.6063799999999997</v>
@@ -7338,8 +8622,32 @@
         <f t="shared" si="2"/>
         <v>5.6063799999999988</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <f>('2024_wise_usd'!F47*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L46*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5414965036991797</v>
+      </c>
+      <c r="M47" s="6">
+        <f>('2024_wise_usd'!F47*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M46*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5843495762296147</v>
+      </c>
+      <c r="N47" s="6">
+        <f>AVERAGE(F28:F47)</f>
+        <v>5.5075935000000005</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5828920000000011</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -7347,7 +8655,7 @@
         <v>45536</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D48" s="6">
         <v>5.6063799999999997</v>
@@ -7370,8 +8678,32 @@
         <f t="shared" si="2"/>
         <v>5.6081499999999993</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="20">
+        <f>(F48/F47-1)</f>
+        <v>9.4713522807965411E-4</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" si="4"/>
+        <v>9.4668697852248892E-4</v>
+      </c>
+      <c r="L48" s="6">
+        <f>('2024_wise_usd'!F48*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L47*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5481815985849723</v>
+      </c>
+      <c r="M48" s="6">
+        <f>('2024_wise_usd'!F48*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M47*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5934630508197438</v>
+      </c>
+      <c r="N48" s="6">
+        <f>AVERAGE(F29:F48)</f>
+        <v>5.5134860000000003</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6033499999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>18</v>
       </c>
@@ -7379,7 +8711,7 @@
         <v>45537</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D49">
         <v>5.6504500000000002</v>
@@ -7402,8 +8734,32 @@
         <f t="shared" si="2"/>
         <v>5.6309866666666659</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="20">
+        <f t="shared" si="3"/>
+        <v>8.6783125938882932E-4</v>
+      </c>
+      <c r="K49" s="20">
+        <f t="shared" si="4"/>
+        <v>8.674549115633087E-4</v>
+      </c>
+      <c r="L49" s="6">
+        <f>('2024_wise_usd'!F49*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L48*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5546938272911657</v>
+      </c>
+      <c r="M49" s="6">
+        <f>('2024_wise_usd'!F49*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M48*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6011620338798291</v>
+      </c>
+      <c r="N49" s="6">
+        <f>AVERAGE(F30:F49)</f>
+        <v>5.5214495000000001</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6139819999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>19</v>
       </c>
@@ -7411,7 +8767,7 @@
         <v>45538</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>5.6275700000000004</v>
@@ -7423,19 +8779,43 @@
         <v>5.6492100000000001</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50" si="3">LARGE(D50:F50,1)</f>
+        <f t="shared" ref="G50" si="6">LARGE(D50:F50,1)</f>
         <v>5.6492100000000001</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50" si="4">SMALL(D50:F50,1)</f>
+        <f t="shared" ref="H50" si="7">SMALL(D50:F50,1)</f>
         <v>5.6275700000000004</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I50" si="5">AVERAGE(D50:F50)</f>
+        <f t="shared" ref="I50" si="8">AVERAGE(D50:F50)</f>
         <v>5.6389966666666664</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="20">
+        <f t="shared" si="3"/>
+        <v>5.8131667782415075E-3</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" si="4"/>
+        <v>5.7963355213468317E-3</v>
+      </c>
+      <c r="L50" s="6">
+        <f>('2024_wise_usd'!F50*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L49*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5636953675491494</v>
+      </c>
+      <c r="M50" s="6">
+        <f>('2024_wise_usd'!F50*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M49*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6171780225865531</v>
+      </c>
+      <c r="N50" s="6">
+        <f>AVERAGE(F31:F50)</f>
+        <v>5.5303795000000004</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6180439999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
@@ -7443,7 +8823,7 @@
         <v>45539</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D51">
         <v>5.6345700000000001</v>
@@ -7455,19 +8835,43 @@
         <v>5.6435000000000004</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ref="G51" si="6">LARGE(D51:F51,1)</f>
+        <f t="shared" ref="G51" si="9">LARGE(D51:F51,1)</f>
         <v>5.6435000000000004</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" ref="H51" si="7">SMALL(D51:F51,1)</f>
+        <f t="shared" ref="H51" si="10">SMALL(D51:F51,1)</f>
         <v>5.6345700000000001</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" ref="I51" si="8">AVERAGE(D51:F51)</f>
+        <f t="shared" ref="I51" si="11">AVERAGE(D51:F51)</f>
         <v>5.6391233333333339</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.0107607966423071E-3</v>
+      </c>
+      <c r="K51" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.0112719598078085E-3</v>
+      </c>
+      <c r="L51" s="6">
+        <f>('2024_wise_usd'!F51*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L50*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5712958087349449</v>
+      </c>
+      <c r="M51" s="6">
+        <f>('2024_wise_usd'!F51*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M50*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6259520150577025</v>
+      </c>
+      <c r="N51" s="6">
+        <f>AVERAGE(F32:F51)</f>
+        <v>5.538237500000001</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6254679999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
@@ -7475,7 +8879,7 @@
         <v>45540</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>5.6099100000000002</v>
@@ -7487,19 +8891,43 @@
         <v>5.5689000000000002</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G55" si="9">LARGE(D52:F52,1)</f>
+        <f t="shared" ref="G52:G55" si="12">LARGE(D52:F52,1)</f>
         <v>5.6099100000000002</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H55" si="10">SMALL(D52:F52,1)</f>
+        <f t="shared" ref="H52:H55" si="13">SMALL(D52:F52,1)</f>
         <v>5.5689000000000002</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" ref="I52:I55" si="11">AVERAGE(D52:F52)</f>
+        <f t="shared" ref="I52:I55" si="14">AVERAGE(D52:F52)</f>
         <v>5.5837700000000003</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.3218747231328098E-2</v>
+      </c>
+      <c r="K52" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.3306892512393821E-2</v>
+      </c>
+      <c r="L52" s="6">
+        <f>('2024_wise_usd'!F52*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L51*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5710676364744742</v>
+      </c>
+      <c r="M52" s="6">
+        <f>('2024_wise_usd'!F52*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M51*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6069346767051353</v>
+      </c>
+      <c r="N52" s="6">
+        <f>AVERAGE(F33:F52)</f>
+        <v>5.5431055000000011</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="5"/>
+        <v>5.617972</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>24</v>
       </c>
@@ -7507,7 +8935,7 @@
         <v>45541</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>5.5615600000000001</v>
@@ -7519,19 +8947,43 @@
         <v>5.5993899999999996</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.5993899999999996</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.5615600000000001</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.5836466666666666</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="20">
+        <f t="shared" si="3"/>
+        <v>5.4750489324641993E-3</v>
+      </c>
+      <c r="K53" s="20">
+        <f t="shared" si="4"/>
+        <v>5.4601153353771009E-3</v>
+      </c>
+      <c r="L53" s="6">
+        <f>('2024_wise_usd'!F53*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L52*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5737650044292861</v>
+      </c>
+      <c r="M53" s="6">
+        <f>('2024_wise_usd'!F53*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M52*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6044197844700907</v>
+      </c>
+      <c r="N53" s="6">
+        <f>AVERAGE(F34:F53)</f>
+        <v>5.5494980000000007</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6155119999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>25</v>
       </c>
@@ -7539,7 +8991,7 @@
         <v>45542</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D54">
         <v>5.5993899999999996</v>
@@ -7551,19 +9003,43 @@
         <v>5.5993899999999996</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.5993899999999996</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>5.5993899999999996</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5.5993899999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <f>('2024_wise_usd'!F54*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L53*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5762054801979257</v>
+      </c>
+      <c r="M54" s="6">
+        <f>('2024_wise_usd'!F54*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M53*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.602743189646727</v>
+      </c>
+      <c r="N54" s="6">
+        <f>AVERAGE(F35:F54)</f>
+        <v>5.5559975000000001</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6120779999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>26</v>
       </c>
@@ -7571,7 +9047,7 @@
         <v>45543</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D55">
         <v>5.5993899999999996</v>
@@ -7579,60 +9055,79 @@
       <c r="E55">
         <v>5.5993899999999996</v>
       </c>
+      <c r="F55">
+        <v>5.5986700000000003</v>
+      </c>
       <c r="G55" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>5.5993899999999996</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="10"/>
-        <v>5.5993899999999996</v>
+        <f t="shared" si="13"/>
+        <v>5.5986700000000003</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="11"/>
-        <v>5.5993899999999996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>31</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>5.599149999999999</v>
+      </c>
+      <c r="J55" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.2858543519911336E-4</v>
+      </c>
+      <c r="K55" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.2859370301494076E-4</v>
+      </c>
+      <c r="L55" s="6">
+        <f>('2024_wise_usd'!F55*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L54*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5783449582743136</v>
+      </c>
+      <c r="M55" s="6">
+        <f>('2024_wise_usd'!F55*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M54*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6013854597644848</v>
+      </c>
+      <c r="N55" s="6">
+        <f>AVERAGE(F36:F55)</f>
+        <v>5.5656109999999988</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="5"/>
+        <v>5.6019699999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="G2 I2" formulaRange="1"/>
-    <ignoredError sqref="A49:A60" numberStoredAsText="1"/>
+    <ignoredError sqref="G2 I2 N21:N55 O17:O55 O6:O16" formulaRange="1"/>
+    <ignoredError sqref="A49:A55" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
-  <dimension ref="A1:I67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7643,9 +9138,14 @@
     <col min="4" max="4" width="9.140625" style="6"/>
     <col min="5" max="5" width="11.7109375" style="6" customWidth="1"/>
     <col min="6" max="9" width="9.140625" style="6"/>
+    <col min="10" max="10" width="13.85546875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>14</v>
       </c>
@@ -7673,8 +9173,26 @@
       <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -7682,7 +9200,7 @@
         <v>45490</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D2" s="6">
         <v>5.9731800000000002</v>
@@ -7705,16 +9223,34 @@
         <f>AVERAGE(D2:F2)</f>
         <v>5.9907633333333337</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>45583</v>
+        <v>45491</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D3" s="6">
         <v>6.00298</v>
@@ -7737,16 +9273,36 @@
         <f t="shared" ref="I3:I49" si="2">AVERAGE(D3:F3)</f>
         <v>6.0433733333333324</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="20">
+        <f>(F3/F2-1)</f>
+        <v>5.784391472687167E-3</v>
+      </c>
+      <c r="K3" s="20">
+        <f>LN(F3/F2)</f>
+        <v>5.7677261154164298E-3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>45584</v>
+        <v>45492</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D4" s="6">
         <v>6.0396299999999998</v>
@@ -7769,8 +9325,28 @@
         <f t="shared" si="2"/>
         <v>6.068036666666667</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="20">
+        <f t="shared" ref="J4:J55" si="3">(F4/F3-1)</f>
+        <v>9.1749653806145748E-3</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" ref="K4:K55" si="4">LN(F4/F3)</f>
+        <v>9.1331310765809699E-3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -7778,7 +9354,7 @@
         <v>45493</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D5" s="6">
         <v>6.0924699999999996</v>
@@ -7801,8 +9377,28 @@
         <f t="shared" si="2"/>
         <v>6.0924699999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -7810,7 +9406,7 @@
         <v>45494</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D6" s="6">
         <v>6.0924699999999996</v>
@@ -7833,8 +9429,29 @@
         <f t="shared" si="2"/>
         <v>6.073763333333333</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="20">
+        <f t="shared" si="3"/>
+        <v>-9.2113707576729764E-3</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="4"/>
+        <v>-9.2540577727872383E-3</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="6">
+        <f>AVERAGE(F2:F6)</f>
+        <v>6.0521459999999987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -7842,7 +9459,7 @@
         <v>45495</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D7" s="6">
         <v>6.0609000000000002</v>
@@ -7865,8 +9482,30 @@
         <f t="shared" si="2"/>
         <v>6.0638666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="20">
+        <f t="shared" si="3"/>
+        <v>5.1090476861017642E-3</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="4"/>
+        <v>5.09604078508022E-3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="6">
+        <f>('2024_wise_usd'!F7*'2024_wise_desc'!$B$33)+'2024_wise_usd'!O6*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5608593333333332</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" ref="O7:O55" si="5">AVERAGE(F3:F7)</f>
+        <v>6.0651119999999992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -7874,7 +9513,7 @@
         <v>45496</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D8" s="6">
         <v>6.0692899999999996</v>
@@ -7897,8 +9536,30 @@
         <f t="shared" si="2"/>
         <v>6.0636233333333331</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.1389127421426171E-3</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.1395617961170864E-3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="6">
+        <f>('2024_wise_usd'!F8*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M7*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5694262222222228</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0697519999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -7906,7 +9567,7 @@
         <v>45497</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6">
         <v>6.1232899999999999</v>
@@ -7929,8 +9590,30 @@
         <f t="shared" si="2"/>
         <v>6.1274266666666675</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="20">
+        <f t="shared" si="3"/>
+        <v>1.1331159616387421E-2</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="4"/>
+        <v>1.1267442898360711E-2</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="6">
+        <f>('2024_wise_usd'!F9*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M8*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5979674814814828</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0770479999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -7938,7 +9621,7 @@
         <v>45498</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6">
         <v>6.1245200000000004</v>
@@ -7961,8 +9644,30 @@
         <f t="shared" si="2"/>
         <v>6.12615</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.9368815212982291E-5</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.9369246485079786E-5</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="6">
+        <f>('2024_wise_usd'!F10*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M9*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6137283209876561</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0843079999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -7970,7 +9675,7 @@
         <v>45499</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6">
         <v>6.1281999999999996</v>
@@ -7993,8 +9698,30 @@
         <f t="shared" si="2"/>
         <v>6.1372233333333339</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="20">
+        <f t="shared" si="3"/>
+        <v>1.9090290547694178E-3</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9072091745714673E-3</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="6">
+        <f>('2024_wise_usd'!F11*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M10*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6279188806584379</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1051319999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -8002,7 +9729,7 @@
         <v>45500</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6">
         <v>6.1404699999999997</v>
@@ -8025,8 +9752,30 @@
         <f t="shared" si="2"/>
         <v>6.1404699999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="6">
+        <f>('2024_wise_usd'!F12*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M11*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6373792537722922</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1197879999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -8034,7 +9783,7 @@
         <v>45501</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D13" s="6">
         <v>6.1404699999999997</v>
@@ -8057,8 +9806,30 @@
         <f t="shared" si="2"/>
         <v>6.141726666666667</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="20">
+        <f t="shared" si="3"/>
+        <v>2.26367037051034E-4</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="4"/>
+        <v>2.2634141989914862E-4</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="6">
+        <f>('2024_wise_usd'!F13*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M12*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6438561691815288</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1361040000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -8066,7 +9837,7 @@
         <v>45502</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6">
         <v>6.1089200000000003</v>
@@ -8089,8 +9860,30 @@
         <f t="shared" si="2"/>
         <v>6.0909066666666662</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.0897350314074239E-2</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.0957161354149427E-2</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="6">
+        <f>('2024_wise_usd'!F14*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M13*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6345974461210195</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1253000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -8098,7 +9891,7 @@
         <v>45503</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D15" s="6">
         <v>6.1143400000000003</v>
@@ -8121,8 +9914,30 @@
         <f t="shared" si="2"/>
         <v>6.0865399999999994</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="20">
+        <f t="shared" si="3"/>
+        <v>-3.1276080547426588E-5</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="4"/>
+        <v>-3.1276569654232046E-5</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="6">
+        <f>('2024_wise_usd'!F15*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M14*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6272482974140132</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1144939999999988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>15</v>
       </c>
@@ -8130,7 +9945,7 @@
         <v>45504</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6">
         <v>6.15245</v>
@@ -8153,8 +9968,30 @@
         <f t="shared" si="2"/>
         <v>6.1309866666666677</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="20">
+        <f t="shared" si="3"/>
+        <v>8.454682834162508E-3</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="4"/>
+        <v>8.4191421860150602E-3</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="6">
+        <f>('2024_wise_usd'!F16*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M15*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6374655316093421</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1116200000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>16</v>
       </c>
@@ -8162,7 +9999,7 @@
         <v>45505</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D17" s="6">
         <v>6.0955500000000002</v>
@@ -8185,8 +10022,30 @@
         <f t="shared" si="2"/>
         <v>6.1634333333333338</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="20">
+        <f t="shared" si="3"/>
+        <v>1.3227012291670004E-2</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="4"/>
+        <v>1.3140299164725281E-2</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="6">
+        <f>('2024_wise_usd'!F17*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M16*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6757836877395622</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1249520000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -8194,7 +10053,7 @@
         <v>45506</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D18" s="6">
         <v>6.2333999999999996</v>
@@ -8217,8 +10076,30 @@
         <f t="shared" si="2"/>
         <v>6.2379500000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="20">
+        <f t="shared" si="3"/>
+        <v>6.8372983971658474E-3</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="4"/>
+        <v>6.8140300739142233E-3</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="6">
+        <f>('2024_wise_usd'!F18*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M17*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6932124584930417</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1464939999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>18</v>
       </c>
@@ -8226,7 +10107,7 @@
         <v>45507</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D19" s="6">
         <v>6.2495700000000003</v>
@@ -8249,8 +10130,30 @@
         <f t="shared" si="2"/>
         <v>6.2495700000000012</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="6">
+        <f>('2024_wise_usd'!F19*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M18*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.7048316389953619</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1814219999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>19</v>
       </c>
@@ -8258,7 +10161,7 @@
         <v>45508</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6">
         <v>6.2495700000000003</v>
@@ -8281,8 +10184,30 @@
         <f t="shared" si="2"/>
         <v>6.2535966666666667</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="20">
+        <f t="shared" si="3"/>
+        <v>8.3845768588863834E-4</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="4"/>
+        <v>8.3810637660139214E-4</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="6">
+        <f>('2024_wise_usd'!F20*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M19*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.7125877593302423</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2174359999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>20</v>
       </c>
@@ -8290,7 +10215,7 @@
         <v>45509</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D21" s="6">
         <v>6.3701999999999996</v>
@@ -8313,8 +10238,31 @@
         <f t="shared" si="2"/>
         <v>6.3104366666666669</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="20">
+        <f t="shared" si="3"/>
+        <v>2.3565863711287882E-3</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="4"/>
+        <v>2.3538139762042691E-3</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="6">
+        <f>('2024_wise_usd'!F21*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M20*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.7160518395534954</v>
+      </c>
+      <c r="N21" s="6">
+        <f>AVERAGE(F2:F21)</f>
+        <v>6.1287560000000001</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2461260000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>21</v>
       </c>
@@ -8322,7 +10270,7 @@
         <v>45510</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6">
         <v>6.1828000000000003</v>
@@ -8345,8 +10293,32 @@
         <f t="shared" si="2"/>
         <v>6.1814800000000005</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.4798510259906972E-2</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.4909100617436404E-2</v>
+      </c>
+      <c r="L22" s="6">
+        <f>('2024_wise_usd'!F22*'2024_wise_desc'!$B$32)+'2024_wise_usd'!N21*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6394063095238094</v>
+      </c>
+      <c r="M22" s="6">
+        <f>('2024_wise_usd'!F22*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M21*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6964212263689973</v>
+      </c>
+      <c r="N22" s="6">
+        <f>AVERAGE(F3:F22)</f>
+        <v>6.1374765</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2400539999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>22</v>
       </c>
@@ -8354,7 +10326,7 @@
         <v>45511</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D23" s="6">
         <v>6.1179699999999997</v>
@@ -8377,8 +10349,32 @@
         <f t="shared" si="2"/>
         <v>6.1404066666666663</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.6745370153009596E-3</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.6781199793633006E-3</v>
+      </c>
+      <c r="L23" s="6">
+        <f>('2024_wise_usd'!F23*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L22*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6392142800453513</v>
+      </c>
+      <c r="M23" s="6">
+        <f>('2024_wise_usd'!F23*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M22*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6767441509126648</v>
+      </c>
+      <c r="N23" s="6">
+        <f>AVERAGE(F4:F23)</f>
+        <v>6.1436350000000015</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2221900000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>23</v>
       </c>
@@ -8386,7 +10382,7 @@
         <v>45512</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D24" s="6">
         <v>6.1177400000000004</v>
@@ -8409,8 +10405,32 @@
         <f t="shared" si="2"/>
         <v>6.0866400000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.6752566860111062E-2</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.6894478261076592E-2</v>
+      </c>
+      <c r="L24" s="6">
+        <f>('2024_wise_usd'!F24*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L23*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6304805390886514</v>
+      </c>
+      <c r="M24" s="6">
+        <f>('2024_wise_usd'!F24*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M23*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6336661006084441</v>
+      </c>
+      <c r="N24" s="6">
+        <f>AVERAGE(F5:F24)</f>
+        <v>6.1418640000000018</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1836859999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>24</v>
       </c>
@@ -8418,7 +10438,7 @@
         <v>45513</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6">
         <v>6.0171000000000001</v>
@@ -8441,8 +10461,32 @@
         <f t="shared" si="2"/>
         <v>6.0172700000000008</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="20">
+        <f t="shared" si="3"/>
+        <v>-7.1817138706136152E-3</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="4"/>
+        <v>-7.2076265170169136E-3</v>
+      </c>
+      <c r="L25" s="6">
+        <f>('2024_wise_usd'!F25*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L24*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.6188823925087794</v>
+      </c>
+      <c r="M25" s="6">
+        <f>('2024_wise_usd'!F25*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M24*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5920107337389631</v>
+      </c>
+      <c r="N25" s="6">
+        <f>AVERAGE(F6:F25)</f>
+        <v>6.1379180000000009</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1354339999999992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>25</v>
       </c>
@@ -8450,7 +10494,7 @@
         <v>45514</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D26" s="6">
         <v>6.0135500000000004</v>
@@ -8473,8 +10517,32 @@
         <f t="shared" si="2"/>
         <v>6.0135499999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <f>('2024_wise_usd'!F26*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L25*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.608388831317467</v>
+      </c>
+      <c r="M26" s="6">
+        <f>('2024_wise_usd'!F26*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M25*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5642404891593094</v>
+      </c>
+      <c r="N26" s="6">
+        <f>AVERAGE(F7:F26)</f>
+        <v>6.1367780000000014</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0842340000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>26</v>
       </c>
@@ -8482,7 +10550,7 @@
         <v>45515</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6">
         <v>6.0078100000000001</v>
@@ -8505,8 +10573,32 @@
         <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.0027354890206341E-3</v>
+      </c>
+      <c r="K27" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.0032385645803667E-3</v>
+      </c>
+      <c r="L27" s="6">
+        <f>('2024_wise_usd'!F27*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L26*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5974794188110408</v>
+      </c>
+      <c r="M27" s="6">
+        <f>('2024_wise_usd'!F27*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M26*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.54077365943954</v>
+      </c>
+      <c r="N27" s="6">
+        <f>AVERAGE(F8:F27)</f>
+        <v>6.1337945000000005</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0503839999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <v>27</v>
       </c>
@@ -8514,7 +10606,7 @@
         <v>45516</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D28" s="6">
         <v>6.0078100000000001</v>
@@ -8537,8 +10629,32 @@
         <f t="shared" si="2"/>
         <v>6.0082200000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <f>('2024_wise_usd'!F28*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L27*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5876089979718939</v>
+      </c>
+      <c r="M28" s="6">
+        <f>('2024_wise_usd'!F28*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M27*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5251291062930266</v>
+      </c>
+      <c r="N28" s="6">
+        <f>AVERAGE(F9:F28)</f>
+        <v>6.1311565000000003</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="5"/>
+        <v>6.019838</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>28</v>
       </c>
@@ -8546,7 +10662,7 @@
         <v>45517</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6">
         <v>6.0146800000000002</v>
@@ -8569,8 +10685,32 @@
         <f t="shared" si="2"/>
         <v>6.0017000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.4748182278211397E-3</v>
+      </c>
+      <c r="K29" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.4759068426947188E-3</v>
+      </c>
+      <c r="L29" s="6">
+        <f>('2024_wise_usd'!F29*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L28*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5751976648317143</v>
+      </c>
+      <c r="M29" s="6">
+        <f>('2024_wise_usd'!F29*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M28*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5025160708620184</v>
+      </c>
+      <c r="N29" s="6">
+        <f>AVERAGE(F10:F29)</f>
+        <v>6.1246419999999997</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0081600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>29</v>
       </c>
@@ -8578,7 +10718,7 @@
         <v>45518</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D30" s="6">
         <v>6.0144599999999997</v>
@@ -8601,8 +10741,32 @@
         <f t="shared" si="2"/>
         <v>6.019636666666667</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="20">
+        <f t="shared" si="3"/>
+        <v>3.8041829341886046E-3</v>
+      </c>
+      <c r="K30" s="20">
+        <f t="shared" si="4"/>
+        <v>3.7969653292255034E-3</v>
+      </c>
+      <c r="L30" s="6">
+        <f>('2024_wise_usd'!F30*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L29*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5652369348477411</v>
+      </c>
+      <c r="M30" s="6">
+        <f>('2024_wise_usd'!F30*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M29*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4918807139080128</v>
+      </c>
+      <c r="N30" s="6">
+        <f>AVERAGE(F11:F30)</f>
+        <v>6.1192774999999999</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0097460000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <v>30</v>
       </c>
@@ -8610,7 +10774,7 @@
         <v>45519</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D31" s="6">
         <v>5.9838699999999996</v>
@@ -8633,8 +10797,32 @@
         <f t="shared" si="2"/>
         <v>6.0086699999999995</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="20">
+        <f t="shared" si="3"/>
+        <v>5.5468090901245048E-4</v>
+      </c>
+      <c r="K31" s="20">
+        <f t="shared" si="4"/>
+        <v>5.545271304197777E-4</v>
+      </c>
+      <c r="L31" s="6">
+        <f>('2024_wise_usd'!F31*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L30*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5577229410527185</v>
+      </c>
+      <c r="M31" s="6">
+        <f>('2024_wise_usd'!F31*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M30*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4900338092720089</v>
+      </c>
+      <c r="N31" s="6">
+        <f>AVERAGE(F12:F31)</f>
+        <v>6.1134950000000003</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0120000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <v>31</v>
       </c>
@@ -8642,7 +10830,7 @@
         <v>45520</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D32" s="6">
         <v>6.0010300000000001</v>
@@ -8665,8 +10853,32 @@
         <f t="shared" si="2"/>
         <v>6.0203533333333334</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="20">
+        <f t="shared" si="3"/>
+        <v>1.4838617585255509E-3</v>
+      </c>
+      <c r="K32" s="20">
+        <f t="shared" si="4"/>
+        <v>1.4827619235339693E-3</v>
+      </c>
+      <c r="L32" s="6">
+        <f>('2024_wise_usd'!F32*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L31*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5495150419048409</v>
+      </c>
+      <c r="M32" s="6">
+        <f>('2024_wise_usd'!F32*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M31*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4838692061813399</v>
+      </c>
+      <c r="N32" s="6">
+        <f>AVERAGE(F13:F32)</f>
+        <v>6.1081595000000002</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0172480000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <v>32</v>
       </c>
@@ -8674,7 +10886,7 @@
         <v>45521</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D33" s="6">
         <v>6.03376</v>
@@ -8697,8 +10909,32 @@
         <f t="shared" si="2"/>
         <v>6.03376</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="20">
+        <f>LN(F33/F32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="6">
+        <f>('2024_wise_usd'!F33*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L32*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5420888474377135</v>
+      </c>
+      <c r="M33" s="6">
+        <f>('2024_wise_usd'!F33*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M32*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4797594707875605</v>
+      </c>
+      <c r="N33" s="6">
+        <f>AVERAGE(F14:F33)</f>
+        <v>6.1027544999999996</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0224960000000012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
         <v>33</v>
       </c>
@@ -8706,7 +10942,7 @@
         <v>45522</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D34" s="6">
         <v>6.03376</v>
@@ -8729,8 +10965,32 @@
         <f t="shared" si="2"/>
         <v>6.0336066666666666</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="20">
+        <f t="shared" si="3"/>
+        <v>-7.6237702527182094E-5</v>
+      </c>
+      <c r="K34" s="20">
+        <f t="shared" si="4"/>
+        <v>-7.6240608768536451E-5</v>
+      </c>
+      <c r="L34" s="6">
+        <f>('2024_wise_usd'!F34*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L33*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5351661000626935</v>
+      </c>
+      <c r="M34" s="6">
+        <f>('2024_wise_usd'!F34*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M33*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4763063138583741</v>
+      </c>
+      <c r="N34" s="6">
+        <f>AVERAGE(F15:F34)</f>
+        <v>6.1006729999999987</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0294240000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
         <v>34</v>
       </c>
@@ -8738,7 +10998,7 @@
         <v>45523</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D35" s="6">
         <v>5.9958999999999998</v>
@@ -8761,8 +11021,32 @@
         <f t="shared" si="2"/>
         <v>5.9960666666666667</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.6298708832644992E-3</v>
+      </c>
+      <c r="K35" s="20">
+        <f t="shared" si="4"/>
+        <v>-6.651946101893149E-3</v>
+      </c>
+      <c r="L35" s="6">
+        <f>('2024_wise_usd'!F35*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L34*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.522902661961484</v>
+      </c>
+      <c r="M35" s="6">
+        <f>('2024_wise_usd'!F35*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M34*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4530042092389159</v>
+      </c>
+      <c r="N35" s="6">
+        <f>AVERAGE(F16:F35)</f>
+        <v>6.0966010000000006</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0237880000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
         <v>35</v>
       </c>
@@ -8770,7 +11054,7 @@
         <v>45524</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D36" s="6">
         <v>6.0391000000000004</v>
@@ -8793,8 +11077,32 @@
         <f t="shared" si="2"/>
         <v>6.0784333333333338</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="20">
+        <f t="shared" si="3"/>
+        <v>1.6818780972085667E-2</v>
+      </c>
+      <c r="K36" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6678911387441705E-2</v>
+      </c>
+      <c r="L36" s="6">
+        <f>('2024_wise_usd'!F36*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L35*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5187785989175335</v>
+      </c>
+      <c r="M36" s="6">
+        <f>('2024_wise_usd'!F36*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M35*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4618694728259438</v>
+      </c>
+      <c r="N36" s="6">
+        <f>AVERAGE(F17:F36)</f>
+        <v>6.0950010000000008</v>
+      </c>
+      <c r="O36" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0376439999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <v>36</v>
       </c>
@@ -8802,7 +11110,7 @@
         <v>45525</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6">
         <v>6.0796000000000001</v>
@@ -8825,8 +11133,32 @@
         <f t="shared" si="2"/>
         <v>6.101</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="20">
+        <f t="shared" si="3"/>
+        <v>2.7403554257396934E-3</v>
+      </c>
+      <c r="K37" s="20">
+        <f t="shared" si="4"/>
+        <v>2.7366074973525865E-3</v>
+      </c>
+      <c r="L37" s="6">
+        <f>('2024_wise_usd'!F37*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L36*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5154377799730065</v>
+      </c>
+      <c r="M37" s="6">
+        <f>('2024_wise_usd'!F37*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M36*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4691463152172961</v>
+      </c>
+      <c r="N37" s="6">
+        <f>AVERAGE(F18:F37)</f>
+        <v>6.0901845000000003</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0530520000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <v>37</v>
       </c>
@@ -8834,7 +11166,7 @@
         <v>45526</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D38" s="6">
         <v>6.1086999999999998</v>
@@ -8857,8 +11189,32 @@
         <f t="shared" si="2"/>
         <v>6.1801999999999992</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="20">
+        <f t="shared" si="3"/>
+        <v>1.8295476860640036E-2</v>
+      </c>
+      <c r="K38" s="20">
+        <f t="shared" si="4"/>
+        <v>1.8130128332175657E-2</v>
+      </c>
+      <c r="L38" s="6">
+        <f>('2024_wise_usd'!F38*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L37*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5227389437851011</v>
+      </c>
+      <c r="M38" s="6">
+        <f>('2024_wise_usd'!F38*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M37*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5101308768115311</v>
+      </c>
+      <c r="N38" s="6">
+        <f>AVERAGE(F19:F38)</f>
+        <v>6.0888360000000006</v>
+      </c>
+      <c r="O38" s="6">
+        <f t="shared" si="5"/>
+        <v>6.0908199999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <v>38</v>
       </c>
@@ -8866,7 +11222,7 @@
         <v>45527</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D39" s="6">
         <v>6.1725000000000003</v>
@@ -8889,8 +11245,32 @@
         <f t="shared" si="2"/>
         <v>6.1483566666666674</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.3246874296917621E-2</v>
+      </c>
+      <c r="K39" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.3335396769424506E-2</v>
+      </c>
+      <c r="L39" s="6">
+        <f>('2024_wise_usd'!F39*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L38*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5192352348531868</v>
+      </c>
+      <c r="M39" s="6">
+        <f>('2024_wise_usd'!F39*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M38*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5020705845410207</v>
+      </c>
+      <c r="N39" s="6">
+        <f>AVERAGE(F20:F39)</f>
+        <v>6.0833659999999998</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1121940000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <v>39</v>
       </c>
@@ -8898,7 +11278,7 @@
         <v>45528</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D40" s="6">
         <v>6.1401700000000003</v>
@@ -8921,8 +11301,32 @@
         <f t="shared" si="2"/>
         <v>6.1401700000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <f>('2024_wise_usd'!F40*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L39*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5160652124862164</v>
+      </c>
+      <c r="M40" s="6">
+        <f>('2024_wise_usd'!F40*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M39*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4966970563606807</v>
+      </c>
+      <c r="N40" s="6">
+        <f>AVERAGE(F21:F40)</f>
+        <v>6.0776339999999998</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1415680000000012</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <v>40</v>
       </c>
@@ -8930,7 +11334,7 @@
         <v>45529</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D41" s="6">
         <v>6.1401700000000003</v>
@@ -8953,8 +11357,32 @@
         <f t="shared" si="2"/>
         <v>6.1399800000000004</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="20">
+        <f t="shared" si="3"/>
+        <v>-9.2831305973706257E-5</v>
+      </c>
+      <c r="K41" s="20">
+        <f t="shared" si="4"/>
+        <v>-9.2835615066071833E-5</v>
+      </c>
+      <c r="L41" s="6">
+        <f>('2024_wise_usd'!F41*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L40*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5131970970113384</v>
+      </c>
+      <c r="M41" s="6">
+        <f>('2024_wise_usd'!F41*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M40*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4931147042404538</v>
+      </c>
+      <c r="N41" s="6">
+        <f>AVERAGE(F22:F41)</f>
+        <v>6.0711364999999997</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1506680000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <v>41</v>
       </c>
@@ -8962,7 +11390,7 @@
         <v>45530</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D42" s="6">
         <v>6.1208999999999998</v>
@@ -8985,8 +11413,32 @@
         <f t="shared" si="2"/>
         <v>6.129833333333333</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="20">
+        <f t="shared" si="3"/>
+        <v>8.1438530197486259E-5</v>
+      </c>
+      <c r="K42" s="20">
+        <f t="shared" si="4"/>
+        <v>8.1435214260414704E-5</v>
+      </c>
+      <c r="L42" s="6">
+        <f>('2024_wise_usd'!F42*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L41*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5116735639626393</v>
+      </c>
+      <c r="M42" s="6">
+        <f>('2024_wise_usd'!F42*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M41*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4944764694936366</v>
+      </c>
+      <c r="N42" s="6">
+        <f>AVERAGE(F23:F42)</f>
+        <v>6.0693029999999997</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1565280000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <v>42</v>
       </c>
@@ -8994,7 +11446,7 @@
         <v>45531</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D43" s="6">
         <v>6.1345000000000001</v>
@@ -9017,8 +11469,32 @@
         <f t="shared" si="2"/>
         <v>6.1481666666666657</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="20">
+        <f t="shared" si="3"/>
+        <v>2.6221071318055511E-3</v>
+      </c>
+      <c r="K43" s="20">
+        <f t="shared" si="4"/>
+        <v>2.6186754064921806E-3</v>
+      </c>
+      <c r="L43" s="6">
+        <f>('2024_wise_usd'!F43*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L42*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5114570340614355</v>
+      </c>
+      <c r="M43" s="6">
+        <f>('2024_wise_usd'!F43*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M42*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.4994509796624245</v>
+      </c>
+      <c r="N43" s="6">
+        <f>AVERAGE(F24:F43)</f>
+        <v>6.0691005000000002</v>
+      </c>
+      <c r="O43" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1432479999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <v>43</v>
       </c>
@@ -9026,7 +11502,7 @@
         <v>45532</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D44" s="6">
         <v>6.1444999999999999</v>
@@ -9049,8 +11525,32 @@
         <f t="shared" si="2"/>
         <v>6.1696666666666671</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="20">
+        <f t="shared" si="3"/>
+        <v>5.6853253630486655E-3</v>
+      </c>
+      <c r="K44" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6692248962437724E-3</v>
+      </c>
+      <c r="L44" s="6">
+        <f>('2024_wise_usd'!F44*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L43*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5164039831984413</v>
+      </c>
+      <c r="M44" s="6">
+        <f>('2024_wise_usd'!F44*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M43*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5207673197749498</v>
+      </c>
+      <c r="N44" s="6">
+        <f>AVERAGE(F25:F44)</f>
+        <v>6.0758079999999994</v>
+      </c>
+      <c r="O44" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1534540000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <v>44</v>
       </c>
@@ -9058,7 +11558,7 @@
         <v>45533</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D45" s="6">
         <v>6.2511999999999999</v>
@@ -9081,8 +11581,32 @@
         <f t="shared" si="2"/>
         <v>6.2366999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="20">
+        <f t="shared" si="3"/>
+        <v>6.5092389197569656E-3</v>
+      </c>
+      <c r="K45" s="20">
+        <f t="shared" si="4"/>
+        <v>6.4881453101820752E-3</v>
+      </c>
+      <c r="L45" s="6">
+        <f>('2024_wise_usd'!F45*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L44*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5271178895604942</v>
+      </c>
+      <c r="M45" s="6">
+        <f>('2024_wise_usd'!F45*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M44*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5568115465166334</v>
+      </c>
+      <c r="N45" s="6">
+        <f>AVERAGE(F26:F45)</f>
+        <v>6.086705499999999</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1717199999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <v>45</v>
       </c>
@@ -9090,7 +11614,7 @@
         <v>45534</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D46" s="6">
         <v>6.2614000000000001</v>
@@ -9113,8 +11637,32 @@
         <f t="shared" si="2"/>
         <v>6.2276566666666655</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="20">
+        <f t="shared" si="3"/>
+        <v>-6.1189119794591296E-3</v>
+      </c>
+      <c r="K46" s="20">
+        <f t="shared" si="4"/>
+        <v>-6.1377092397804254E-3</v>
+      </c>
+      <c r="L46" s="6">
+        <f>('2024_wise_usd'!F46*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L45*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5346666619833043</v>
+      </c>
+      <c r="M46" s="6">
+        <f>('2024_wise_usd'!F46*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M45*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5733343643444222</v>
+      </c>
+      <c r="N46" s="6">
+        <f>AVERAGE(F27:F46)</f>
+        <v>6.0956964999999999</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1824740000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <v>46</v>
       </c>
@@ -9122,7 +11670,7 @@
         <v>45535</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D47" s="6">
         <v>6.1933699999999998</v>
@@ -9145,8 +11693,32 @@
         <f t="shared" si="2"/>
         <v>6.1933699999999989</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <f>('2024_wise_usd'!F47*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L46*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5414965036991797</v>
+      </c>
+      <c r="M47" s="6">
+        <f>('2024_wise_usd'!F47*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M46*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5843495762296147</v>
+      </c>
+      <c r="N47" s="6">
+        <f>AVERAGE(F28:F47)</f>
+        <v>6.1049889999999989</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="5"/>
+        <v>6.1931279999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <v>47</v>
       </c>
@@ -9154,7 +11726,7 @@
         <v>45536</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D48" s="6">
         <v>6.1933699999999998</v>
@@ -9177,8 +11749,32 @@
         <f t="shared" si="2"/>
         <v>6.1967266666666667</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="20">
+        <f>(F48/F47-1)</f>
+        <v>1.6259322469027726E-3</v>
+      </c>
+      <c r="K48" s="20">
+        <f t="shared" si="4"/>
+        <v>1.6246118501237229E-3</v>
+      </c>
+      <c r="L48" s="6">
+        <f>('2024_wise_usd'!F48*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L47*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5481815985849723</v>
+      </c>
+      <c r="M48" s="6">
+        <f>('2024_wise_usd'!F48*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M47*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5934630508197438</v>
+      </c>
+      <c r="N48" s="6">
+        <f>AVERAGE(F29:F48)</f>
+        <v>6.1147849999999995</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2025760000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>18</v>
       </c>
@@ -9186,7 +11782,7 @@
         <v>45537</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D49">
         <v>6.2514799999999999</v>
@@ -9209,8 +11805,32 @@
         <f t="shared" si="2"/>
         <v>6.2284300000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="20">
+        <f t="shared" si="3"/>
+        <v>1.950530673303863E-3</v>
+      </c>
+      <c r="K49" s="20">
+        <f t="shared" si="4"/>
+        <v>1.9486308583804973E-3</v>
+      </c>
+      <c r="L49" s="6">
+        <f>('2024_wise_usd'!F49*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L48*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5546938272911657</v>
+      </c>
+      <c r="M49" s="6">
+        <f>('2024_wise_usd'!F49*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M48*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6011620338798291</v>
+      </c>
+      <c r="N49" s="6">
+        <f>AVERAGE(F30:F49)</f>
+        <v>6.125629</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2074440000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>19</v>
       </c>
@@ -9218,7 +11838,7 @@
         <v>45538</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D50">
         <v>6.2251500000000002</v>
@@ -9230,19 +11850,43 @@
         <v>6.2437500000000004</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50" si="3">LARGE(D50:F50,1)</f>
+        <f t="shared" ref="G50" si="6">LARGE(D50:F50,1)</f>
         <v>6.2437500000000004</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50" si="4">SMALL(D50:F50,1)</f>
+        <f t="shared" ref="H50" si="7">SMALL(D50:F50,1)</f>
         <v>6.2251500000000002</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I50" si="5">AVERAGE(D50:F50)</f>
+        <f t="shared" ref="I50" si="8">AVERAGE(D50:F50)</f>
         <v>6.2323200000000005</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="20">
+        <f t="shared" si="3"/>
+        <v>4.5386241581584219E-3</v>
+      </c>
+      <c r="K50" s="20">
+        <f t="shared" si="4"/>
+        <v>4.5283556617084289E-3</v>
+      </c>
+      <c r="L50" s="6">
+        <f>('2024_wise_usd'!F50*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L49*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5636953675491494</v>
+      </c>
+      <c r="M50" s="6">
+        <f>('2024_wise_usd'!F50*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M49*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6171780225865531</v>
+      </c>
+      <c r="N50" s="6">
+        <f>AVERAGE(F31:F50)</f>
+        <v>6.1367424999999995</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2098940000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>20</v>
       </c>
@@ -9250,7 +11894,7 @@
         <v>45539</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D51">
         <v>6.2382799999999996</v>
@@ -9262,19 +11906,43 @@
         <v>6.2532800000000002</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ref="G51" si="6">LARGE(D51:F51,1)</f>
+        <f t="shared" ref="G51" si="9">LARGE(D51:F51,1)</f>
         <v>6.2532800000000002</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" ref="H51" si="7">SMALL(D51:F51,1)</f>
+        <f t="shared" ref="H51" si="10">SMALL(D51:F51,1)</f>
         <v>6.2382799999999996</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" ref="I51" si="8">AVERAGE(D51:F51)</f>
+        <f t="shared" ref="I51" si="11">AVERAGE(D51:F51)</f>
         <v>6.2471099999999993</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="20">
+        <f t="shared" si="3"/>
+        <v>1.5263263263263216E-3</v>
+      </c>
+      <c r="K51" s="20">
+        <f t="shared" si="4"/>
+        <v>1.5251626742238443E-3</v>
+      </c>
+      <c r="L51" s="6">
+        <f>('2024_wise_usd'!F51*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L50*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5712958087349449</v>
+      </c>
+      <c r="M51" s="6">
+        <f>('2024_wise_usd'!F51*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M50*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6259520150577025</v>
+      </c>
+      <c r="N51" s="6">
+        <f>AVERAGE(F32:F51)</f>
+        <v>6.1481655000000002</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="5"/>
+        <v>6.221876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>23</v>
       </c>
@@ -9282,7 +11950,7 @@
         <v>45540</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D52">
         <v>6.22342</v>
@@ -9294,19 +11962,43 @@
         <v>6.1872999999999996</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G54" si="9">LARGE(D52:F52,1)</f>
+        <f t="shared" ref="G52:G54" si="12">LARGE(D52:F52,1)</f>
         <v>6.22342</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H54" si="10">SMALL(D52:F52,1)</f>
+        <f t="shared" ref="H52:H54" si="13">SMALL(D52:F52,1)</f>
         <v>6.1868999999999996</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" ref="I52:I54" si="11">AVERAGE(D52:F52)</f>
+        <f t="shared" ref="I52:I54" si="14">AVERAGE(D52:F52)</f>
         <v>6.1992066666666661</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="20">
+        <f t="shared" si="3"/>
+        <v>-1.0551262697336528E-2</v>
+      </c>
+      <c r="K52" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.0607321948872012E-2</v>
+      </c>
+      <c r="L52" s="6">
+        <f>('2024_wise_usd'!F52*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L51*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5710676364744742</v>
+      </c>
+      <c r="M52" s="6">
+        <f>('2024_wise_usd'!F52*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M51*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6069346767051353</v>
+      </c>
+      <c r="N52" s="6">
+        <f>AVERAGE(F33:F52)</f>
+        <v>6.1558425000000003</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2206619999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>24</v>
       </c>
@@ -9314,7 +12006,7 @@
         <v>45541</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>6.1641300000000001</v>
@@ -9326,19 +12018,43 @@
         <v>6.2072099999999999</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.2072099999999999</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.1641300000000001</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.1897166666666665</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="20">
+        <f t="shared" si="3"/>
+        <v>3.2178817901185042E-3</v>
+      </c>
+      <c r="K53" s="20">
+        <f t="shared" si="4"/>
+        <v>3.2127154885757867E-3</v>
+      </c>
+      <c r="L53" s="6">
+        <f>('2024_wise_usd'!F53*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L52*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5737650044292861</v>
+      </c>
+      <c r="M53" s="6">
+        <f>('2024_wise_usd'!F53*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M52*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6044197844700907</v>
+      </c>
+      <c r="N53" s="6">
+        <f>AVERAGE(F34:F53)</f>
+        <v>6.1645149999999997</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2214159999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>25</v>
       </c>
@@ -9346,7 +12062,7 @@
         <v>45542</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D54">
         <v>6.2072099999999999</v>
@@ -9358,19 +12074,43 @@
         <v>6.2072099999999999</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>6.2072099999999999</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.2072099999999999</v>
       </c>
       <c r="I54" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6.2072099999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="6">
+        <f>('2024_wise_usd'!F54*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L53*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5762054801979257</v>
+      </c>
+      <c r="M54" s="6">
+        <f>('2024_wise_usd'!F54*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M53*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.602743189646727</v>
+      </c>
+      <c r="N54" s="6">
+        <f>AVERAGE(F35:F54)</f>
+        <v>6.1732105000000015</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2197499999999994</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>26</v>
       </c>
@@ -9378,7 +12118,7 @@
         <v>45543</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D55">
         <v>6.2072099999999999</v>
@@ -9386,84 +12126,378 @@
       <c r="E55">
         <v>6.2072099999999999</v>
       </c>
+      <c r="F55">
+        <v>6.2069400000000003</v>
+      </c>
       <c r="G55" s="6">
-        <f t="shared" ref="G55" si="12">LARGE(D55:F55,1)</f>
+        <f t="shared" ref="G55" si="15">LARGE(D55:F55,1)</f>
         <v>6.2072099999999999</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" ref="H55" si="13">SMALL(D55:F55,1)</f>
-        <v>6.2072099999999999</v>
+        <f t="shared" ref="H55" si="16">SMALL(D55:F55,1)</f>
+        <v>6.2069400000000003</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" ref="I55" si="14">AVERAGE(D55:F55)</f>
-        <v>6.2072099999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>35</v>
-      </c>
+        <f t="shared" ref="I55" si="17">AVERAGE(D55:F55)</f>
+        <v>6.2071199999999997</v>
+      </c>
+      <c r="J55" s="20">
+        <f t="shared" si="3"/>
+        <v>-4.3497803360881271E-5</v>
+      </c>
+      <c r="K55" s="20">
+        <f t="shared" si="4"/>
+        <v>-4.3498749417764244E-5</v>
+      </c>
+      <c r="L55" s="6">
+        <f>('2024_wise_usd'!F55*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L54*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5783449582743136</v>
+      </c>
+      <c r="M55" s="6">
+        <f>('2024_wise_usd'!F55*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M54*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6013854597644848</v>
+      </c>
+      <c r="N55" s="6">
+        <f>AVERAGE(F36:F55)</f>
+        <v>6.1838925000000007</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="5"/>
+        <v>6.2123879999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8" t="s">
-        <v>36</v>
-      </c>
+      <c r="A65" s="8"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="A66" s="8"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="A67" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A49:A52 A53:A67" numberStoredAsText="1"/>
+    <ignoredError sqref="A49:A52 A53:A55" numberStoredAsText="1"/>
+    <ignoredError sqref="O20:O55 O6:O19 N21:N55" formulaRange="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2342F-700D-4437-99A3-C35FCA707D45}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="20">
+        <f>AVERAGE('2024_wise_usd'!$K3:$K55)</f>
+        <v>3.7020472910712803E-4</v>
+      </c>
+      <c r="C3" s="22">
+        <f>AVERAGE('2024_wise_usd'!$K3:$K55)</f>
+        <v>3.7020472910712803E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="20">
+        <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
+        <v>7.5488077308586508E-3</v>
+      </c>
+      <c r="C4" s="22">
+        <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
+        <v>7.5488077308586508E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="20">
+        <f>AVERAGE('2024_wise_usd'!$J3:$J55)</f>
+        <v>3.9823785028465759E-4</v>
+      </c>
+      <c r="C5" s="22">
+        <f>AVERAGE('2024_wise_usd'!$J3:$J55)</f>
+        <v>3.9823785028465759E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="20">
+        <f>_xlfn.STDEV.S('2024_wise_usd'!$J3:$J55)</f>
+        <v>7.5516388261568186E-3</v>
+      </c>
+      <c r="C6" s="22">
+        <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
+        <v>7.5488077308586508E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="19">
+        <f>B4*SQRT(360)</f>
+        <v>0.143228556289204</v>
+      </c>
+      <c r="C8" s="23">
+        <f>C4*SQRT(360)</f>
+        <v>0.143228556289204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="19">
+        <f>B4*SQRT(252)</f>
+        <v>0.11983360770536276</v>
+      </c>
+      <c r="C9" s="23">
+        <f>C4*SQRT(252)</f>
+        <v>0.11983360770536276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="19">
+        <f>B6*SQRT(360)</f>
+        <v>0.14328227254569523</v>
+      </c>
+      <c r="C10" s="23">
+        <f>C6*SQRT(360)</f>
+        <v>0.143228556289204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="19">
+        <f>B6*SQRT(252)</f>
+        <v>0.11987854994994401</v>
+      </c>
+      <c r="C11" s="23">
+        <f>C6*SQRT(252)</f>
+        <v>0.11983360770536276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="20">
+        <f>AVERAGE('2024_wise_eur'!$K3:$K55)</f>
+        <v>6.3236406892689214E-4</v>
+      </c>
+      <c r="C16" s="22">
+        <f>AVERAGE('2024_wise_eur'!$K3:$K55)</f>
+        <v>6.3236406892689214E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="20">
+        <f>_xlfn.STDEV.S('2024_wise_eur'!$K3:$K55)</f>
+        <v>6.8635144789648992E-3</v>
+      </c>
+      <c r="C17" s="22">
+        <f>_xlfn.STDEV.S('2024_wise_eur'!$K3:$K55)</f>
+        <v>6.8635144789648992E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="20">
+        <f>AVERAGE('2024_wise_eur'!$J3:$J55)</f>
+        <v>6.5568103256931224E-4</v>
+      </c>
+      <c r="C18" s="22">
+        <f>AVERAGE('2024_wise_eur'!$J3:$J55)</f>
+        <v>6.5568103256931224E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="20">
+        <f>_xlfn.STDEV.S('2024_wise_eur'!$J3:$J55)</f>
+        <v>6.8648466384192567E-3</v>
+      </c>
+      <c r="C19" s="22">
+        <f>_xlfn.STDEV.S('2024_wise_eur'!$J3:$J55)</f>
+        <v>6.8648466384192567E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="19">
+        <f>B17*SQRT(360)</f>
+        <v>0.13022603104243749</v>
+      </c>
+      <c r="C21" s="23">
+        <f>C17*SQRT(360)</f>
+        <v>0.13022603104243749</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="19">
+        <f>B17*SQRT(252)</f>
+        <v>0.10895491458739311</v>
+      </c>
+      <c r="C22" s="23">
+        <f>C17*SQRT(252)</f>
+        <v>0.10895491458739311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="19">
+        <f>B19*SQRT(360)</f>
+        <v>0.13025130699093126</v>
+      </c>
+      <c r="C23" s="23">
+        <f>C19*SQRT(360)</f>
+        <v>0.13025130699093126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="19">
+        <f>B19*SQRT(252)</f>
+        <v>0.10897606196313057</v>
+      </c>
+      <c r="C24" s="23">
+        <f>C19*SQRT(252)</f>
+        <v>0.10897606196313057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="24">
+        <f>$B$31/(1+B29)</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="24">
+        <f>$B$31/(1+B30)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="C5 B22:B23 C22:C23 B9:C10" formula="1"/>
+  </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6CD8C6-3B97-499D-A1DB-50ECA0E9C173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE8E9D7-4690-4702-982C-718BD6A5BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="59">
   <si>
     <t>date</t>
   </si>
@@ -358,6 +358,15 @@
   <si>
     <t>Multiplier short</t>
   </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
 </sst>
 </file>
 
@@ -369,11 +378,11 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="[$-409]dddd"/>
     <numFmt numFmtId="168" formatCode="[$-409]h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="178" formatCode="0.0000%"/>
-    <numFmt numFmtId="179" formatCode="0.00000%"/>
-    <numFmt numFmtId="185" formatCode="0.0000"/>
-    <numFmt numFmtId="187" formatCode="0.0000000"/>
-    <numFmt numFmtId="188" formatCode="0.00000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.00000%"/>
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000"/>
+    <numFmt numFmtId="173" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -452,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,13 +481,11 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +502,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -702,10 +705,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170:E172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4961,7 +4964,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C130" s="11">
-        <f t="shared" ref="C130:C163" si="4">A130</f>
+        <f t="shared" ref="C130:C175" si="4">A130</f>
         <v>45532</v>
       </c>
       <c r="D130">
@@ -5114,7 +5117,7 @@
         <v>45534</v>
       </c>
       <c r="B135" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C135" s="11">
         <f t="shared" si="4"/>
@@ -5144,7 +5147,7 @@
         <v>45534</v>
       </c>
       <c r="B136" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C136" s="11">
         <f t="shared" si="4"/>
@@ -5177,7 +5180,7 @@
         <v>45535</v>
       </c>
       <c r="B137" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C137" s="11">
         <f t="shared" si="4"/>
@@ -5210,7 +5213,7 @@
         <v>45535</v>
       </c>
       <c r="B138" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C138" s="11">
         <f t="shared" si="4"/>
@@ -5243,7 +5246,7 @@
         <v>45535</v>
       </c>
       <c r="B139" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C139" s="11">
         <f t="shared" si="4"/>
@@ -5276,7 +5279,7 @@
         <v>45536</v>
       </c>
       <c r="B140" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C140" s="11">
         <f t="shared" si="4"/>
@@ -5309,7 +5312,7 @@
         <v>45536</v>
       </c>
       <c r="B141" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C141" s="11">
         <f t="shared" si="4"/>
@@ -5342,7 +5345,7 @@
         <v>45536</v>
       </c>
       <c r="B142" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C142" s="11">
         <f t="shared" si="4"/>
@@ -5375,7 +5378,7 @@
         <v>45537</v>
       </c>
       <c r="B143" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C143" s="11">
         <f t="shared" si="4"/>
@@ -5408,7 +5411,7 @@
         <v>45537</v>
       </c>
       <c r="B144" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C144" s="11">
         <f t="shared" si="4"/>
@@ -5441,7 +5444,7 @@
         <v>45537</v>
       </c>
       <c r="B145" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C145" s="11">
         <f t="shared" si="4"/>
@@ -5474,7 +5477,7 @@
         <v>45538</v>
       </c>
       <c r="B146" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C146" s="11">
         <f t="shared" si="4"/>
@@ -5507,7 +5510,7 @@
         <v>45538</v>
       </c>
       <c r="B147" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C147" s="11">
         <f t="shared" si="4"/>
@@ -5540,7 +5543,7 @@
         <v>45538</v>
       </c>
       <c r="B148" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C148" s="11">
         <f t="shared" si="4"/>
@@ -5573,7 +5576,7 @@
         <v>45539</v>
       </c>
       <c r="B149" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C149" s="11">
         <f t="shared" si="4"/>
@@ -5606,7 +5609,7 @@
         <v>45539</v>
       </c>
       <c r="B150" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C150" s="11">
         <f t="shared" si="4"/>
@@ -5639,7 +5642,7 @@
         <v>45539</v>
       </c>
       <c r="B151" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C151" s="11">
         <f t="shared" si="4"/>
@@ -5672,7 +5675,7 @@
         <v>45540</v>
       </c>
       <c r="B152" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C152" s="11">
         <f t="shared" si="4"/>
@@ -5705,7 +5708,7 @@
         <v>45540</v>
       </c>
       <c r="B153" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C153" s="11">
         <f t="shared" si="4"/>
@@ -5738,7 +5741,7 @@
         <v>45540</v>
       </c>
       <c r="B154" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C154" s="11">
         <f t="shared" si="4"/>
@@ -5771,7 +5774,7 @@
         <v>45541</v>
       </c>
       <c r="B155" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C155" s="11">
         <f t="shared" si="4"/>
@@ -5804,7 +5807,7 @@
         <v>45541</v>
       </c>
       <c r="B156" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C156" s="11">
         <f t="shared" si="4"/>
@@ -5837,7 +5840,7 @@
         <v>45541</v>
       </c>
       <c r="B157" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C157" s="11">
         <f t="shared" si="4"/>
@@ -5870,7 +5873,7 @@
         <v>45542</v>
       </c>
       <c r="B158" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C158" s="11">
         <f t="shared" si="4"/>
@@ -5903,7 +5906,7 @@
         <v>45542</v>
       </c>
       <c r="B159" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C159" s="11">
         <f t="shared" si="4"/>
@@ -5936,7 +5939,7 @@
         <v>45542</v>
       </c>
       <c r="B160" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="C160" s="11">
         <f t="shared" si="4"/>
@@ -5969,7 +5972,7 @@
         <v>45543</v>
       </c>
       <c r="B161" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C161" s="11">
         <f t="shared" si="4"/>
@@ -6002,7 +6005,7 @@
         <v>45543</v>
       </c>
       <c r="B162" s="14">
-        <v>0.95833333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C162" s="11">
         <f t="shared" si="4"/>
@@ -6035,13 +6038,373 @@
         <v>45543</v>
       </c>
       <c r="B163" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C163" s="11">
+        <f t="shared" si="4"/>
+        <v>45543</v>
+      </c>
+      <c r="D163">
+        <v>6.2043600000000003</v>
+      </c>
+      <c r="E163">
+        <v>5.5987099999999996</v>
+      </c>
+      <c r="F163">
+        <v>6.3251099999999996</v>
+      </c>
+      <c r="G163">
+        <v>5.7142799999999996</v>
+      </c>
+      <c r="H163">
+        <v>6.2</v>
+      </c>
+      <c r="I163">
+        <v>5.6</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="5">
+        <v>45544</v>
+      </c>
+      <c r="B164" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C163" s="11">
-        <f t="shared" si="4"/>
-        <v>45543</v>
-      </c>
-      <c r="J163" s="3" t="s">
+      <c r="C164" s="11">
+        <f t="shared" si="4"/>
+        <v>45544</v>
+      </c>
+      <c r="D164">
+        <v>6.1954399999999996</v>
+      </c>
+      <c r="E164">
+        <v>5.6100399999999997</v>
+      </c>
+      <c r="F164">
+        <v>6.3251099999999996</v>
+      </c>
+      <c r="G164">
+        <v>5.7240900000000003</v>
+      </c>
+      <c r="H164">
+        <v>6.2</v>
+      </c>
+      <c r="I164">
+        <v>5.61</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="5">
+        <v>45544</v>
+      </c>
+      <c r="B165" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C165" s="11">
+        <f t="shared" si="4"/>
+        <v>45544</v>
+      </c>
+      <c r="D165">
+        <v>6.1645099999999999</v>
+      </c>
+      <c r="E165">
+        <v>5.5858100000000004</v>
+      </c>
+      <c r="F165">
+        <v>6.3331200000000001</v>
+      </c>
+      <c r="G165">
+        <v>5.6980000000000004</v>
+      </c>
+      <c r="H165">
+        <v>6.18</v>
+      </c>
+      <c r="I165">
+        <v>5.59</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="5">
+        <v>45544</v>
+      </c>
+      <c r="B166" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C166" s="11">
+        <f t="shared" si="4"/>
+        <v>45544</v>
+      </c>
+      <c r="D166">
+        <v>6.1646200000000002</v>
+      </c>
+      <c r="E166">
+        <v>5.5851600000000001</v>
+      </c>
+      <c r="F166">
+        <v>6.3331200000000001</v>
+      </c>
+      <c r="G166">
+        <v>5.6947599999999996</v>
+      </c>
+      <c r="H166">
+        <v>6.18</v>
+      </c>
+      <c r="I166">
+        <v>5.59</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="5">
+        <v>45545</v>
+      </c>
+      <c r="B167" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C167" s="11">
+        <f t="shared" si="4"/>
+        <v>45545</v>
+      </c>
+      <c r="D167">
+        <v>6.1889099999999999</v>
+      </c>
+      <c r="E167">
+        <v>5.6162900000000002</v>
+      </c>
+      <c r="F167">
+        <v>6.3491999999999997</v>
+      </c>
+      <c r="G167">
+        <v>5.75373</v>
+      </c>
+      <c r="H167">
+        <v>6.22</v>
+      </c>
+      <c r="I167">
+        <v>5.64</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="5">
+        <v>45545</v>
+      </c>
+      <c r="B168" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C168" s="11">
+        <f t="shared" si="4"/>
+        <v>45545</v>
+      </c>
+      <c r="D168">
+        <v>6.2345699999999997</v>
+      </c>
+      <c r="E168">
+        <v>5.6537199999999999</v>
+      </c>
+      <c r="F168">
+        <v>6.3331200000000001</v>
+      </c>
+      <c r="G168">
+        <v>5.76701</v>
+      </c>
+      <c r="H168">
+        <v>6.2</v>
+      </c>
+      <c r="I168">
+        <v>5.65</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5">
+        <v>45545</v>
+      </c>
+      <c r="B169" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C169" s="11">
+        <f t="shared" si="4"/>
+        <v>45545</v>
+      </c>
+      <c r="D169">
+        <v>6.2496900000000002</v>
+      </c>
+      <c r="E169">
+        <v>5.6643100000000004</v>
+      </c>
+      <c r="F169">
+        <v>6.3171200000000001</v>
+      </c>
+      <c r="G169">
+        <v>5.7770000000000001</v>
+      </c>
+      <c r="H169">
+        <v>6.17</v>
+      </c>
+      <c r="I169">
+        <v>5.66</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B170" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C170" s="11">
+        <f t="shared" si="4"/>
+        <v>45546</v>
+      </c>
+      <c r="D170">
+        <v>6.2134999999999998</v>
+      </c>
+      <c r="E170">
+        <v>5.6434600000000001</v>
+      </c>
+      <c r="F170">
+        <v>6.3351800000000003</v>
+      </c>
+      <c r="G170">
+        <v>5.7803399999999998</v>
+      </c>
+      <c r="H170">
+        <v>6.22</v>
+      </c>
+      <c r="I170">
+        <v>5.68</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B171" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C171" s="11">
+        <f t="shared" si="4"/>
+        <v>45546</v>
+      </c>
+      <c r="D171">
+        <v>6.2330899999999998</v>
+      </c>
+      <c r="E171">
+        <v>5.6589900000000002</v>
+      </c>
+      <c r="F171">
+        <v>6.3532400000000004</v>
+      </c>
+      <c r="G171">
+        <v>5.7736700000000001</v>
+      </c>
+      <c r="H171">
+        <v>6.22</v>
+      </c>
+      <c r="I171">
+        <v>5.66</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5">
+        <v>45546</v>
+      </c>
+      <c r="B172" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C172" s="11">
+        <f t="shared" si="4"/>
+        <v>45546</v>
+      </c>
+      <c r="D172">
+        <v>6.2430500000000002</v>
+      </c>
+      <c r="E172">
+        <v>5.66906</v>
+      </c>
+      <c r="F172">
+        <v>6.4102499999999996</v>
+      </c>
+      <c r="G172">
+        <v>5.7836800000000004</v>
+      </c>
+      <c r="H172">
+        <v>6.26</v>
+      </c>
+      <c r="I172">
+        <v>5.67</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5">
+        <v>45547</v>
+      </c>
+      <c r="B173" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C173" s="11">
+        <f t="shared" si="4"/>
+        <v>45547</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="5">
+        <v>45547</v>
+      </c>
+      <c r="B174" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C174" s="11">
+        <f t="shared" si="4"/>
+        <v>45547</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="5">
+        <v>45547</v>
+      </c>
+      <c r="B175" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C175" s="11">
+        <f t="shared" si="4"/>
+        <v>45547</v>
+      </c>
+      <c r="J175" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6054,8 +6417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6161,7 +6524,7 @@
       <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -6213,7 +6576,7 @@
       <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -6265,7 +6628,7 @@
       <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -6317,7 +6680,7 @@
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -6369,7 +6732,7 @@
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -7183,7 +7546,7 @@
         <v>5.7160518395534954</v>
       </c>
       <c r="N21" s="6">
-        <f>AVERAGE(F2:F21)</f>
+        <f t="shared" ref="N21:N55" si="6">AVERAGE(F2:F21)</f>
         <v>5.6375375000000005</v>
       </c>
       <c r="O21" s="6">
@@ -7239,7 +7602,7 @@
         <v>5.6964212263689973</v>
       </c>
       <c r="N22" s="6">
-        <f>AVERAGE(F3:F22)</f>
+        <f t="shared" si="6"/>
         <v>5.6459010000000003</v>
       </c>
       <c r="O22" s="6">
@@ -7295,7 +7658,7 @@
         <v>5.6767441509126648</v>
       </c>
       <c r="N23" s="6">
-        <f>AVERAGE(F4:F23)</f>
+        <f t="shared" si="6"/>
         <v>5.6505349999999996</v>
       </c>
       <c r="O23" s="6">
@@ -7351,7 +7714,7 @@
         <v>5.6336661006084441</v>
       </c>
       <c r="N24" s="6">
-        <f>AVERAGE(F5:F24)</f>
+        <f t="shared" si="6"/>
         <v>5.6480024999999996</v>
       </c>
       <c r="O24" s="6">
@@ -7407,7 +7770,7 @@
         <v>5.5920107337389631</v>
       </c>
       <c r="N25" s="6">
-        <f>AVERAGE(F6:F25)</f>
+        <f t="shared" si="6"/>
         <v>5.6435295000000014</v>
       </c>
       <c r="O25" s="6">
@@ -7463,7 +7826,7 @@
         <v>5.5642404891593094</v>
       </c>
       <c r="N26" s="6">
-        <f>AVERAGE(F7:F26)</f>
+        <f t="shared" si="6"/>
         <v>5.6416995000000014</v>
       </c>
       <c r="O26" s="6">
@@ -7519,7 +7882,7 @@
         <v>5.54077365943954</v>
       </c>
       <c r="N27" s="6">
-        <f>AVERAGE(F8:F27)</f>
+        <f t="shared" si="6"/>
         <v>5.6377870000000012</v>
       </c>
       <c r="O27" s="6">
@@ -7575,7 +7938,7 @@
         <v>5.5251291062930266</v>
       </c>
       <c r="N28" s="6">
-        <f>AVERAGE(F9:F28)</f>
+        <f t="shared" si="6"/>
         <v>5.6331510000000007</v>
       </c>
       <c r="O28" s="6">
@@ -7631,7 +7994,7 @@
         <v>5.5025160708620184</v>
       </c>
       <c r="N29" s="6">
-        <f>AVERAGE(F10:F29)</f>
+        <f t="shared" si="6"/>
         <v>5.6232630000000015</v>
       </c>
       <c r="O29" s="6">
@@ -7687,7 +8050,7 @@
         <v>5.4918807139080128</v>
       </c>
       <c r="N30" s="6">
-        <f>AVERAGE(F11:F30)</f>
+        <f t="shared" si="6"/>
         <v>5.6145310000000013</v>
       </c>
       <c r="O30" s="6">
@@ -7743,7 +8106,7 @@
         <v>5.4900338092720089</v>
       </c>
       <c r="N31" s="6">
-        <f>AVERAGE(F12:F31)</f>
+        <f t="shared" si="6"/>
         <v>5.6060330000000009</v>
       </c>
       <c r="O31" s="6">
@@ -7799,7 +8162,7 @@
         <v>5.4838692061813399</v>
       </c>
       <c r="N32" s="6">
-        <f>AVERAGE(F13:F32)</f>
+        <f t="shared" si="6"/>
         <v>5.5967950000000011</v>
       </c>
       <c r="O32" s="6">
@@ -7855,7 +8218,7 @@
         <v>5.4797594707875605</v>
       </c>
       <c r="N33" s="6">
-        <f>AVERAGE(F14:F33)</f>
+        <f t="shared" si="6"/>
         <v>5.5875315000000008</v>
       </c>
       <c r="O33" s="6">
@@ -7911,7 +8274,7 @@
         <v>5.4763063138583741</v>
       </c>
       <c r="N34" s="6">
-        <f>AVERAGE(F15:F34)</f>
+        <f t="shared" si="6"/>
         <v>5.5801974999999997</v>
       </c>
       <c r="O34" s="6">
@@ -7967,7 +8330,7 @@
         <v>5.4530042092389159</v>
       </c>
       <c r="N35" s="6">
-        <f>AVERAGE(F16:F35)</f>
+        <f t="shared" si="6"/>
         <v>5.56989</v>
       </c>
       <c r="O35" s="6">
@@ -8023,7 +8386,7 @@
         <v>5.4618694728259438</v>
       </c>
       <c r="N36" s="6">
-        <f>AVERAGE(F17:F36)</f>
+        <f t="shared" si="6"/>
         <v>5.560975</v>
       </c>
       <c r="O36" s="6">
@@ -8079,7 +8442,7 @@
         <v>5.4691463152172961</v>
       </c>
       <c r="N37" s="6">
-        <f>AVERAGE(F18:F37)</f>
+        <f t="shared" si="6"/>
         <v>5.5475389999999996</v>
       </c>
       <c r="O37" s="6">
@@ -8135,7 +8498,7 @@
         <v>5.5101308768115311</v>
       </c>
       <c r="N38" s="6">
-        <f>AVERAGE(F19:F38)</f>
+        <f t="shared" si="6"/>
         <v>5.540740500000001</v>
       </c>
       <c r="O38" s="6">
@@ -8191,7 +8554,7 @@
         <v>5.5020705845410207</v>
       </c>
       <c r="N39" s="6">
-        <f>AVERAGE(F20:F39)</f>
+        <f t="shared" si="6"/>
         <v>5.5286345000000008</v>
       </c>
       <c r="O39" s="6">
@@ -8247,7 +8610,7 @@
         <v>5.4966970563606807</v>
       </c>
       <c r="N40" s="6">
-        <f>AVERAGE(F21:F40)</f>
+        <f t="shared" si="6"/>
         <v>5.5165270000000008</v>
       </c>
       <c r="O40" s="6">
@@ -8303,7 +8666,7 @@
         <v>5.4931147042404538</v>
       </c>
       <c r="N41" s="6">
-        <f>AVERAGE(F22:F41)</f>
+        <f t="shared" si="6"/>
         <v>5.5046755000000003</v>
       </c>
       <c r="O41" s="6">
@@ -8359,7 +8722,7 @@
         <v>5.4944764694936366</v>
       </c>
       <c r="N42" s="6">
-        <f>AVERAGE(F23:F42)</f>
+        <f t="shared" si="6"/>
         <v>5.4966775000000005</v>
       </c>
       <c r="O42" s="6">
@@ -8415,7 +8778,7 @@
         <v>5.4994509796624245</v>
       </c>
       <c r="N43" s="6">
-        <f>AVERAGE(F24:F43)</f>
+        <f t="shared" si="6"/>
         <v>5.4902780000000009</v>
       </c>
       <c r="O43" s="6">
@@ -8471,7 +8834,7 @@
         <v>5.5207673197749498</v>
       </c>
       <c r="N44" s="6">
-        <f>AVERAGE(F25:F44)</f>
+        <f t="shared" si="6"/>
         <v>5.4910725000000005</v>
       </c>
       <c r="O44" s="6">
@@ -8527,7 +8890,7 @@
         <v>5.5568115465166334</v>
       </c>
       <c r="N45" s="6">
-        <f>AVERAGE(F26:F45)</f>
+        <f t="shared" si="6"/>
         <v>5.4970825000000003</v>
       </c>
       <c r="O45" s="6">
@@ -8583,7 +8946,7 @@
         <v>5.5733343643444222</v>
       </c>
       <c r="N46" s="6">
-        <f>AVERAGE(F27:F46)</f>
+        <f t="shared" si="6"/>
         <v>5.5019665</v>
       </c>
       <c r="O46" s="6">
@@ -8639,7 +9002,7 @@
         <v>5.5843495762296147</v>
       </c>
       <c r="N47" s="6">
-        <f>AVERAGE(F28:F47)</f>
+        <f t="shared" si="6"/>
         <v>5.5075935000000005</v>
       </c>
       <c r="O47" s="6">
@@ -8695,7 +9058,7 @@
         <v>5.5934630508197438</v>
       </c>
       <c r="N48" s="6">
-        <f>AVERAGE(F29:F48)</f>
+        <f t="shared" si="6"/>
         <v>5.5134860000000003</v>
       </c>
       <c r="O48" s="6">
@@ -8751,7 +9114,7 @@
         <v>5.6011620338798291</v>
       </c>
       <c r="N49" s="6">
-        <f>AVERAGE(F30:F49)</f>
+        <f t="shared" si="6"/>
         <v>5.5214495000000001</v>
       </c>
       <c r="O49" s="6">
@@ -8779,15 +9142,15 @@
         <v>5.6492100000000001</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50" si="6">LARGE(D50:F50,1)</f>
+        <f t="shared" ref="G50" si="7">LARGE(D50:F50,1)</f>
         <v>5.6492100000000001</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50" si="7">SMALL(D50:F50,1)</f>
+        <f t="shared" ref="H50" si="8">SMALL(D50:F50,1)</f>
         <v>5.6275700000000004</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I50" si="8">AVERAGE(D50:F50)</f>
+        <f t="shared" ref="I50" si="9">AVERAGE(D50:F50)</f>
         <v>5.6389966666666664</v>
       </c>
       <c r="J50" s="20">
@@ -8807,7 +9170,7 @@
         <v>5.6171780225865531</v>
       </c>
       <c r="N50" s="6">
-        <f>AVERAGE(F31:F50)</f>
+        <f t="shared" si="6"/>
         <v>5.5303795000000004</v>
       </c>
       <c r="O50" s="6">
@@ -8835,15 +9198,15 @@
         <v>5.6435000000000004</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ref="G51" si="9">LARGE(D51:F51,1)</f>
+        <f t="shared" ref="G51" si="10">LARGE(D51:F51,1)</f>
         <v>5.6435000000000004</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" ref="H51" si="10">SMALL(D51:F51,1)</f>
+        <f t="shared" ref="H51" si="11">SMALL(D51:F51,1)</f>
         <v>5.6345700000000001</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" ref="I51" si="11">AVERAGE(D51:F51)</f>
+        <f t="shared" ref="I51" si="12">AVERAGE(D51:F51)</f>
         <v>5.6391233333333339</v>
       </c>
       <c r="J51" s="20">
@@ -8863,7 +9226,7 @@
         <v>5.6259520150577025</v>
       </c>
       <c r="N51" s="6">
-        <f>AVERAGE(F32:F51)</f>
+        <f t="shared" si="6"/>
         <v>5.538237500000001</v>
       </c>
       <c r="O51" s="6">
@@ -8891,15 +9254,15 @@
         <v>5.5689000000000002</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G55" si="12">LARGE(D52:F52,1)</f>
+        <f t="shared" ref="G52:G55" si="13">LARGE(D52:F52,1)</f>
         <v>5.6099100000000002</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H55" si="13">SMALL(D52:F52,1)</f>
+        <f t="shared" ref="H52:H55" si="14">SMALL(D52:F52,1)</f>
         <v>5.5689000000000002</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" ref="I52:I55" si="14">AVERAGE(D52:F52)</f>
+        <f t="shared" ref="I52:I55" si="15">AVERAGE(D52:F52)</f>
         <v>5.5837700000000003</v>
       </c>
       <c r="J52" s="20">
@@ -8919,7 +9282,7 @@
         <v>5.6069346767051353</v>
       </c>
       <c r="N52" s="6">
-        <f>AVERAGE(F33:F52)</f>
+        <f t="shared" si="6"/>
         <v>5.5431055000000011</v>
       </c>
       <c r="O52" s="6">
@@ -8947,15 +9310,15 @@
         <v>5.5993899999999996</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.5993899999999996</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5615600000000001</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5836466666666666</v>
       </c>
       <c r="J53" s="20">
@@ -8975,7 +9338,7 @@
         <v>5.6044197844700907</v>
       </c>
       <c r="N53" s="6">
-        <f>AVERAGE(F34:F53)</f>
+        <f t="shared" si="6"/>
         <v>5.5494980000000007</v>
       </c>
       <c r="O53" s="6">
@@ -9003,15 +9366,15 @@
         <v>5.5993899999999996</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="12"/>
-        <v>5.5993899999999996</v>
-      </c>
-      <c r="H54" s="6">
         <f t="shared" si="13"/>
         <v>5.5993899999999996</v>
       </c>
+      <c r="H54" s="6">
+        <f t="shared" si="14"/>
+        <v>5.5993899999999996</v>
+      </c>
       <c r="I54" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5993899999999996</v>
       </c>
       <c r="J54" s="20">
@@ -9031,7 +9394,7 @@
         <v>5.602743189646727</v>
       </c>
       <c r="N54" s="6">
-        <f>AVERAGE(F35:F54)</f>
+        <f t="shared" si="6"/>
         <v>5.5559975000000001</v>
       </c>
       <c r="O54" s="6">
@@ -9059,15 +9422,15 @@
         <v>5.5986700000000003</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.5993899999999996</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5.5986700000000003</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.599149999999999</v>
       </c>
       <c r="J55" s="20">
@@ -9087,7 +9450,7 @@
         <v>5.6013854597644848</v>
       </c>
       <c r="N55" s="6">
-        <f>AVERAGE(F36:F55)</f>
+        <f t="shared" si="6"/>
         <v>5.5656109999999988</v>
       </c>
       <c r="O55" s="6">
@@ -9096,14 +9459,172 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="A56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45544</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>5.6100399999999997</v>
+      </c>
+      <c r="E56">
+        <v>5.5858100000000004</v>
+      </c>
+      <c r="F56">
+        <v>5.5851600000000001</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" ref="G56:G58" si="16">LARGE(D56:F56,1)</f>
+        <v>5.6100399999999997</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" ref="H56:H58" si="17">SMALL(D56:F56,1)</f>
+        <v>5.5851600000000001</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" ref="I56:I58" si="18">AVERAGE(D56:F56)</f>
+        <v>5.5936700000000004</v>
+      </c>
+      <c r="J56" s="20">
+        <f t="shared" ref="J56:J58" si="19">(F56/F55-1)</f>
+        <v>-2.4130731048623844E-3</v>
+      </c>
+      <c r="K56" s="20">
+        <f t="shared" ref="K56:K58" si="20">LN(F56/F55)</f>
+        <v>-2.4159892579720941E-3</v>
+      </c>
+      <c r="L56" s="6">
+        <f>('2024_wise_usd'!F56*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L55*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5789940098672357</v>
+      </c>
+      <c r="M56" s="6">
+        <f>('2024_wise_usd'!F56*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M55*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5959769731763238</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" ref="N56:N58" si="21">AVERAGE(F37:F56)</f>
+        <v>5.5708890000000002</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" ref="O56:O58" si="22">AVERAGE(F52:F56)</f>
+        <v>5.5903019999999994</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45545</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>5.6162900000000002</v>
+      </c>
+      <c r="E57">
+        <v>5.6537199999999999</v>
+      </c>
+      <c r="F57">
+        <v>5.6643100000000004</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="16"/>
+        <v>5.6643100000000004</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="17"/>
+        <v>5.6162900000000002</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="18"/>
+        <v>5.6447733333333332</v>
+      </c>
+      <c r="J57" s="20">
+        <f t="shared" si="19"/>
+        <v>1.4171483001382379E-2</v>
+      </c>
+      <c r="K57" s="20">
+        <f t="shared" si="20"/>
+        <v>1.407200625657524E-2</v>
+      </c>
+      <c r="L57" s="6">
+        <f>('2024_wise_usd'!F57*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L56*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5871193422608325</v>
+      </c>
+      <c r="M57" s="6">
+        <f>('2024_wise_usd'!F57*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M56*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6187546487842166</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="21"/>
+        <v>5.5799195000000008</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="22"/>
+        <v>5.6093840000000004</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="G58" s="21"/>
+      <c r="A58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45546</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>5.6434600000000001</v>
+      </c>
+      <c r="E58">
+        <v>5.6589900000000002</v>
+      </c>
+      <c r="F58">
+        <v>5.66906</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="16"/>
+        <v>5.66906</v>
+      </c>
+      <c r="H58" s="6">
+        <f t="shared" si="17"/>
+        <v>5.6434600000000001</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="18"/>
+        <v>5.6571700000000007</v>
+      </c>
+      <c r="J58" s="20">
+        <f t="shared" si="19"/>
+        <v>8.3858404642400686E-4</v>
+      </c>
+      <c r="K58" s="20">
+        <f t="shared" si="20"/>
+        <v>8.382326312695869E-4</v>
+      </c>
+      <c r="L58" s="6">
+        <f>('2024_wise_usd'!F58*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L57*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5949232144264673</v>
+      </c>
+      <c r="M58" s="6">
+        <f>('2024_wise_usd'!F58*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M57*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.635523099189478</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="21"/>
+        <v>5.5837675000000004</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="22"/>
+        <v>5.6233180000000003</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
@@ -9115,7 +9636,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="G2 I2 N21:N55 O17:O55 O6:O16" formulaRange="1"/>
+    <ignoredError sqref="G2 I2 N21:N55 O17:O55 O6:O16 N56:O59" formulaRange="1"/>
     <ignoredError sqref="A49:A55" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
@@ -9126,8 +9647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9232,7 +9753,7 @@
       <c r="L2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -9284,7 +9805,7 @@
       <c r="L3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -9336,7 +9857,7 @@
       <c r="L4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="3" t="s">
@@ -9388,7 +9909,7 @@
       <c r="L5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -9440,7 +9961,7 @@
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="N6" s="3" t="s">
@@ -10254,7 +10775,7 @@
         <v>5.7160518395534954</v>
       </c>
       <c r="N21" s="6">
-        <f>AVERAGE(F2:F21)</f>
+        <f t="shared" ref="N21:N55" si="6">AVERAGE(F2:F21)</f>
         <v>6.1287560000000001</v>
       </c>
       <c r="O21" s="6">
@@ -10310,7 +10831,7 @@
         <v>5.6964212263689973</v>
       </c>
       <c r="N22" s="6">
-        <f>AVERAGE(F3:F22)</f>
+        <f t="shared" si="6"/>
         <v>6.1374765</v>
       </c>
       <c r="O22" s="6">
@@ -10366,7 +10887,7 @@
         <v>5.6767441509126648</v>
       </c>
       <c r="N23" s="6">
-        <f>AVERAGE(F4:F23)</f>
+        <f t="shared" si="6"/>
         <v>6.1436350000000015</v>
       </c>
       <c r="O23" s="6">
@@ -10422,7 +10943,7 @@
         <v>5.6336661006084441</v>
       </c>
       <c r="N24" s="6">
-        <f>AVERAGE(F5:F24)</f>
+        <f t="shared" si="6"/>
         <v>6.1418640000000018</v>
       </c>
       <c r="O24" s="6">
@@ -10478,7 +10999,7 @@
         <v>5.5920107337389631</v>
       </c>
       <c r="N25" s="6">
-        <f>AVERAGE(F6:F25)</f>
+        <f t="shared" si="6"/>
         <v>6.1379180000000009</v>
       </c>
       <c r="O25" s="6">
@@ -10534,7 +11055,7 @@
         <v>5.5642404891593094</v>
       </c>
       <c r="N26" s="6">
-        <f>AVERAGE(F7:F26)</f>
+        <f t="shared" si="6"/>
         <v>6.1367780000000014</v>
       </c>
       <c r="O26" s="6">
@@ -10590,7 +11111,7 @@
         <v>5.54077365943954</v>
       </c>
       <c r="N27" s="6">
-        <f>AVERAGE(F8:F27)</f>
+        <f t="shared" si="6"/>
         <v>6.1337945000000005</v>
       </c>
       <c r="O27" s="6">
@@ -10646,7 +11167,7 @@
         <v>5.5251291062930266</v>
       </c>
       <c r="N28" s="6">
-        <f>AVERAGE(F9:F28)</f>
+        <f t="shared" si="6"/>
         <v>6.1311565000000003</v>
       </c>
       <c r="O28" s="6">
@@ -10702,7 +11223,7 @@
         <v>5.5025160708620184</v>
       </c>
       <c r="N29" s="6">
-        <f>AVERAGE(F10:F29)</f>
+        <f t="shared" si="6"/>
         <v>6.1246419999999997</v>
       </c>
       <c r="O29" s="6">
@@ -10758,7 +11279,7 @@
         <v>5.4918807139080128</v>
       </c>
       <c r="N30" s="6">
-        <f>AVERAGE(F11:F30)</f>
+        <f t="shared" si="6"/>
         <v>6.1192774999999999</v>
       </c>
       <c r="O30" s="6">
@@ -10814,7 +11335,7 @@
         <v>5.4900338092720089</v>
       </c>
       <c r="N31" s="6">
-        <f>AVERAGE(F12:F31)</f>
+        <f t="shared" si="6"/>
         <v>6.1134950000000003</v>
       </c>
       <c r="O31" s="6">
@@ -10870,7 +11391,7 @@
         <v>5.4838692061813399</v>
       </c>
       <c r="N32" s="6">
-        <f>AVERAGE(F13:F32)</f>
+        <f t="shared" si="6"/>
         <v>6.1081595000000002</v>
       </c>
       <c r="O32" s="6">
@@ -10926,7 +11447,7 @@
         <v>5.4797594707875605</v>
       </c>
       <c r="N33" s="6">
-        <f>AVERAGE(F14:F33)</f>
+        <f t="shared" si="6"/>
         <v>6.1027544999999996</v>
       </c>
       <c r="O33" s="6">
@@ -10982,7 +11503,7 @@
         <v>5.4763063138583741</v>
       </c>
       <c r="N34" s="6">
-        <f>AVERAGE(F15:F34)</f>
+        <f t="shared" si="6"/>
         <v>6.1006729999999987</v>
       </c>
       <c r="O34" s="6">
@@ -11038,7 +11559,7 @@
         <v>5.4530042092389159</v>
       </c>
       <c r="N35" s="6">
-        <f>AVERAGE(F16:F35)</f>
+        <f t="shared" si="6"/>
         <v>6.0966010000000006</v>
       </c>
       <c r="O35" s="6">
@@ -11094,7 +11615,7 @@
         <v>5.4618694728259438</v>
       </c>
       <c r="N36" s="6">
-        <f>AVERAGE(F17:F36)</f>
+        <f t="shared" si="6"/>
         <v>6.0950010000000008</v>
       </c>
       <c r="O36" s="6">
@@ -11150,7 +11671,7 @@
         <v>5.4691463152172961</v>
       </c>
       <c r="N37" s="6">
-        <f>AVERAGE(F18:F37)</f>
+        <f t="shared" si="6"/>
         <v>6.0901845000000003</v>
       </c>
       <c r="O37" s="6">
@@ -11206,7 +11727,7 @@
         <v>5.5101308768115311</v>
       </c>
       <c r="N38" s="6">
-        <f>AVERAGE(F19:F38)</f>
+        <f t="shared" si="6"/>
         <v>6.0888360000000006</v>
       </c>
       <c r="O38" s="6">
@@ -11262,7 +11783,7 @@
         <v>5.5020705845410207</v>
       </c>
       <c r="N39" s="6">
-        <f>AVERAGE(F20:F39)</f>
+        <f t="shared" si="6"/>
         <v>6.0833659999999998</v>
       </c>
       <c r="O39" s="6">
@@ -11318,7 +11839,7 @@
         <v>5.4966970563606807</v>
       </c>
       <c r="N40" s="6">
-        <f>AVERAGE(F21:F40)</f>
+        <f t="shared" si="6"/>
         <v>6.0776339999999998</v>
       </c>
       <c r="O40" s="6">
@@ -11374,7 +11895,7 @@
         <v>5.4931147042404538</v>
       </c>
       <c r="N41" s="6">
-        <f>AVERAGE(F22:F41)</f>
+        <f t="shared" si="6"/>
         <v>6.0711364999999997</v>
       </c>
       <c r="O41" s="6">
@@ -11430,7 +11951,7 @@
         <v>5.4944764694936366</v>
       </c>
       <c r="N42" s="6">
-        <f>AVERAGE(F23:F42)</f>
+        <f t="shared" si="6"/>
         <v>6.0693029999999997</v>
       </c>
       <c r="O42" s="6">
@@ -11486,7 +12007,7 @@
         <v>5.4994509796624245</v>
       </c>
       <c r="N43" s="6">
-        <f>AVERAGE(F24:F43)</f>
+        <f t="shared" si="6"/>
         <v>6.0691005000000002</v>
       </c>
       <c r="O43" s="6">
@@ -11542,7 +12063,7 @@
         <v>5.5207673197749498</v>
       </c>
       <c r="N44" s="6">
-        <f>AVERAGE(F25:F44)</f>
+        <f t="shared" si="6"/>
         <v>6.0758079999999994</v>
       </c>
       <c r="O44" s="6">
@@ -11598,7 +12119,7 @@
         <v>5.5568115465166334</v>
       </c>
       <c r="N45" s="6">
-        <f>AVERAGE(F26:F45)</f>
+        <f t="shared" si="6"/>
         <v>6.086705499999999</v>
       </c>
       <c r="O45" s="6">
@@ -11654,7 +12175,7 @@
         <v>5.5733343643444222</v>
       </c>
       <c r="N46" s="6">
-        <f>AVERAGE(F27:F46)</f>
+        <f t="shared" si="6"/>
         <v>6.0956964999999999</v>
       </c>
       <c r="O46" s="6">
@@ -11710,7 +12231,7 @@
         <v>5.5843495762296147</v>
       </c>
       <c r="N47" s="6">
-        <f>AVERAGE(F28:F47)</f>
+        <f t="shared" si="6"/>
         <v>6.1049889999999989</v>
       </c>
       <c r="O47" s="6">
@@ -11766,7 +12287,7 @@
         <v>5.5934630508197438</v>
       </c>
       <c r="N48" s="6">
-        <f>AVERAGE(F29:F48)</f>
+        <f t="shared" si="6"/>
         <v>6.1147849999999995</v>
       </c>
       <c r="O48" s="6">
@@ -11822,7 +12343,7 @@
         <v>5.6011620338798291</v>
       </c>
       <c r="N49" s="6">
-        <f>AVERAGE(F30:F49)</f>
+        <f t="shared" si="6"/>
         <v>6.125629</v>
       </c>
       <c r="O49" s="6">
@@ -11850,15 +12371,15 @@
         <v>6.2437500000000004</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" ref="G50" si="6">LARGE(D50:F50,1)</f>
+        <f t="shared" ref="G50" si="7">LARGE(D50:F50,1)</f>
         <v>6.2437500000000004</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" ref="H50" si="7">SMALL(D50:F50,1)</f>
+        <f t="shared" ref="H50" si="8">SMALL(D50:F50,1)</f>
         <v>6.2251500000000002</v>
       </c>
       <c r="I50" s="6">
-        <f t="shared" ref="I50" si="8">AVERAGE(D50:F50)</f>
+        <f t="shared" ref="I50" si="9">AVERAGE(D50:F50)</f>
         <v>6.2323200000000005</v>
       </c>
       <c r="J50" s="20">
@@ -11878,7 +12399,7 @@
         <v>5.6171780225865531</v>
       </c>
       <c r="N50" s="6">
-        <f>AVERAGE(F31:F50)</f>
+        <f t="shared" si="6"/>
         <v>6.1367424999999995</v>
       </c>
       <c r="O50" s="6">
@@ -11906,15 +12427,15 @@
         <v>6.2532800000000002</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" ref="G51" si="9">LARGE(D51:F51,1)</f>
+        <f t="shared" ref="G51" si="10">LARGE(D51:F51,1)</f>
         <v>6.2532800000000002</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" ref="H51" si="10">SMALL(D51:F51,1)</f>
+        <f t="shared" ref="H51" si="11">SMALL(D51:F51,1)</f>
         <v>6.2382799999999996</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" ref="I51" si="11">AVERAGE(D51:F51)</f>
+        <f t="shared" ref="I51" si="12">AVERAGE(D51:F51)</f>
         <v>6.2471099999999993</v>
       </c>
       <c r="J51" s="20">
@@ -11934,7 +12455,7 @@
         <v>5.6259520150577025</v>
       </c>
       <c r="N51" s="6">
-        <f>AVERAGE(F32:F51)</f>
+        <f t="shared" si="6"/>
         <v>6.1481655000000002</v>
       </c>
       <c r="O51" s="6">
@@ -11962,15 +12483,15 @@
         <v>6.1872999999999996</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" ref="G52:G54" si="12">LARGE(D52:F52,1)</f>
+        <f t="shared" ref="G52:G54" si="13">LARGE(D52:F52,1)</f>
         <v>6.22342</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H54" si="13">SMALL(D52:F52,1)</f>
+        <f t="shared" ref="H52:H54" si="14">SMALL(D52:F52,1)</f>
         <v>6.1868999999999996</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" ref="I52:I54" si="14">AVERAGE(D52:F52)</f>
+        <f t="shared" ref="I52:I54" si="15">AVERAGE(D52:F52)</f>
         <v>6.1992066666666661</v>
       </c>
       <c r="J52" s="20">
@@ -11990,7 +12511,7 @@
         <v>5.6069346767051353</v>
       </c>
       <c r="N52" s="6">
-        <f>AVERAGE(F33:F52)</f>
+        <f t="shared" si="6"/>
         <v>6.1558425000000003</v>
       </c>
       <c r="O52" s="6">
@@ -12018,15 +12539,15 @@
         <v>6.2072099999999999</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.2072099999999999</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.1641300000000001</v>
       </c>
       <c r="I53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.1897166666666665</v>
       </c>
       <c r="J53" s="20">
@@ -12046,7 +12567,7 @@
         <v>5.6044197844700907</v>
       </c>
       <c r="N53" s="6">
-        <f>AVERAGE(F34:F53)</f>
+        <f t="shared" si="6"/>
         <v>6.1645149999999997</v>
       </c>
       <c r="O53" s="6">
@@ -12074,15 +12595,15 @@
         <v>6.2072099999999999</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="12"/>
-        <v>6.2072099999999999</v>
-      </c>
-      <c r="H54" s="6">
         <f t="shared" si="13"/>
         <v>6.2072099999999999</v>
       </c>
+      <c r="H54" s="6">
+        <f t="shared" si="14"/>
+        <v>6.2072099999999999</v>
+      </c>
       <c r="I54" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.2072099999999999</v>
       </c>
       <c r="J54" s="20">
@@ -12102,7 +12623,7 @@
         <v>5.602743189646727</v>
       </c>
       <c r="N54" s="6">
-        <f>AVERAGE(F35:F54)</f>
+        <f t="shared" si="6"/>
         <v>6.1732105000000015</v>
       </c>
       <c r="O54" s="6">
@@ -12130,15 +12651,15 @@
         <v>6.2069400000000003</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" ref="G55" si="15">LARGE(D55:F55,1)</f>
+        <f t="shared" ref="G55" si="16">LARGE(D55:F55,1)</f>
         <v>6.2072099999999999</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" ref="H55" si="16">SMALL(D55:F55,1)</f>
+        <f t="shared" ref="H55" si="17">SMALL(D55:F55,1)</f>
         <v>6.2069400000000003</v>
       </c>
       <c r="I55" s="6">
-        <f t="shared" ref="I55" si="17">AVERAGE(D55:F55)</f>
+        <f t="shared" ref="I55" si="18">AVERAGE(D55:F55)</f>
         <v>6.2071199999999997</v>
       </c>
       <c r="J55" s="20">
@@ -12158,7 +12679,7 @@
         <v>5.6013854597644848</v>
       </c>
       <c r="N55" s="6">
-        <f>AVERAGE(F36:F55)</f>
+        <f t="shared" si="6"/>
         <v>6.1838925000000007</v>
       </c>
       <c r="O55" s="6">
@@ -12167,13 +12688,172 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8"/>
+      <c r="A56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45544</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56">
+        <v>6.1954399999999996</v>
+      </c>
+      <c r="E56">
+        <v>6.1645099999999999</v>
+      </c>
+      <c r="F56">
+        <v>6.1646200000000002</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" ref="G56:G58" si="19">LARGE(D56:F56,1)</f>
+        <v>6.1954399999999996</v>
+      </c>
+      <c r="H56" s="6">
+        <f t="shared" ref="H56:H58" si="20">SMALL(D56:F56,1)</f>
+        <v>6.1645099999999999</v>
+      </c>
+      <c r="I56" s="6">
+        <f t="shared" ref="I56:I58" si="21">AVERAGE(D56:F56)</f>
+        <v>6.1748566666666669</v>
+      </c>
+      <c r="J56" s="20">
+        <f t="shared" ref="J56:J58" si="22">(F56/F55-1)</f>
+        <v>-6.8181744950007728E-3</v>
+      </c>
+      <c r="K56" s="20">
+        <f t="shared" ref="K56:K58" si="23">LN(F56/F55)</f>
+        <v>-6.8415244432621239E-3</v>
+      </c>
+      <c r="L56" s="6">
+        <f>('2024_wise_usd'!F56*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L55*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5789940098672357</v>
+      </c>
+      <c r="M56" s="6">
+        <f>('2024_wise_usd'!F56*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M55*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5959769731763238</v>
+      </c>
+      <c r="N56" s="6">
+        <f t="shared" ref="N56:N58" si="24">AVERAGE(F37:F56)</f>
+        <v>6.1874185000000006</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" ref="O56:O58" si="25">AVERAGE(F52:F56)</f>
+        <v>6.1946560000000002</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45545</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57">
+        <v>6.1889099999999999</v>
+      </c>
+      <c r="E57">
+        <v>6.2345699999999997</v>
+      </c>
+      <c r="F57">
+        <v>6.2496900000000002</v>
+      </c>
+      <c r="G57" s="6">
+        <f t="shared" si="19"/>
+        <v>6.2496900000000002</v>
+      </c>
+      <c r="H57" s="6">
+        <f t="shared" si="20"/>
+        <v>6.1889099999999999</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="21"/>
+        <v>6.2243899999999996</v>
+      </c>
+      <c r="J57" s="20">
+        <f t="shared" si="22"/>
+        <v>1.3799715148703484E-2</v>
+      </c>
+      <c r="K57" s="20">
+        <f t="shared" si="23"/>
+        <v>1.3705366082215174E-2</v>
+      </c>
+      <c r="L57" s="6">
+        <f>('2024_wise_usd'!F57*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L56*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5871193422608325</v>
+      </c>
+      <c r="M57" s="6">
+        <f>('2024_wise_usd'!F57*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M56*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6187546487842166</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="24"/>
+        <v>6.194363000000001</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="25"/>
+        <v>6.2071339999999999</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45546</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D58">
+        <v>6.2134999999999998</v>
+      </c>
+      <c r="E58">
+        <v>6.2330899999999998</v>
+      </c>
+      <c r="F58">
+        <v>6.2430500000000002</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="19"/>
+        <v>6.2430500000000002</v>
+      </c>
+      <c r="H58" s="6">
+        <f t="shared" si="20"/>
+        <v>6.2134999999999998</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="21"/>
+        <v>6.2298800000000005</v>
+      </c>
+      <c r="J58" s="20">
+        <f t="shared" si="22"/>
+        <v>-1.0624526976538151E-3</v>
+      </c>
+      <c r="K58" s="20">
+        <f t="shared" si="23"/>
+        <v>-1.0630175006075787E-3</v>
+      </c>
+      <c r="L58" s="6">
+        <f>('2024_wise_usd'!F58*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L57*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5949232144264673</v>
+      </c>
+      <c r="M58" s="6">
+        <f>('2024_wise_usd'!F58*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M57*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.635523099189478</v>
+      </c>
+      <c r="N58" s="6">
+        <f t="shared" si="24"/>
+        <v>6.1953855000000004</v>
+      </c>
+      <c r="O58" s="6">
+        <f t="shared" si="25"/>
+        <v>6.214302</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
@@ -12217,7 +12897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2342F-700D-4437-99A3-C35FCA707D45}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -12241,7 +12921,7 @@
         <f>AVERAGE('2024_wise_usd'!$K3:$K55)</f>
         <v>3.7020472910712803E-4</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="21">
         <f>AVERAGE('2024_wise_usd'!$K3:$K55)</f>
         <v>3.7020472910712803E-4</v>
       </c>
@@ -12254,7 +12934,7 @@
         <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
         <v>7.5488077308586508E-3</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
         <v>7.5488077308586508E-3</v>
       </c>
@@ -12267,7 +12947,7 @@
         <f>AVERAGE('2024_wise_usd'!$J3:$J55)</f>
         <v>3.9823785028465759E-4</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="21">
         <f>AVERAGE('2024_wise_usd'!$J3:$J55)</f>
         <v>3.9823785028465759E-4</v>
       </c>
@@ -12280,7 +12960,7 @@
         <f>_xlfn.STDEV.S('2024_wise_usd'!$J3:$J55)</f>
         <v>7.5516388261568186E-3</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
         <v>7.5488077308586508E-3</v>
       </c>
@@ -12293,7 +12973,7 @@
         <f>B4*SQRT(360)</f>
         <v>0.143228556289204</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <f>C4*SQRT(360)</f>
         <v>0.143228556289204</v>
       </c>
@@ -12306,7 +12986,7 @@
         <f>B4*SQRT(252)</f>
         <v>0.11983360770536276</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f>C4*SQRT(252)</f>
         <v>0.11983360770536276</v>
       </c>
@@ -12319,7 +12999,7 @@
         <f>B6*SQRT(360)</f>
         <v>0.14328227254569523</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <f>C6*SQRT(360)</f>
         <v>0.143228556289204</v>
       </c>
@@ -12332,7 +13012,7 @@
         <f>B6*SQRT(252)</f>
         <v>0.11987854994994401</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <f>C6*SQRT(252)</f>
         <v>0.11983360770536276</v>
       </c>
@@ -12350,7 +13030,7 @@
         <f>AVERAGE('2024_wise_eur'!$K3:$K55)</f>
         <v>6.3236406892689214E-4</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <f>AVERAGE('2024_wise_eur'!$K3:$K55)</f>
         <v>6.3236406892689214E-4</v>
       </c>
@@ -12363,7 +13043,7 @@
         <f>_xlfn.STDEV.S('2024_wise_eur'!$K3:$K55)</f>
         <v>6.8635144789648992E-3</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <f>_xlfn.STDEV.S('2024_wise_eur'!$K3:$K55)</f>
         <v>6.8635144789648992E-3</v>
       </c>
@@ -12376,7 +13056,7 @@
         <f>AVERAGE('2024_wise_eur'!$J3:$J55)</f>
         <v>6.5568103256931224E-4</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <f>AVERAGE('2024_wise_eur'!$J3:$J55)</f>
         <v>6.5568103256931224E-4</v>
       </c>
@@ -12389,7 +13069,7 @@
         <f>_xlfn.STDEV.S('2024_wise_eur'!$J3:$J55)</f>
         <v>6.8648466384192567E-3</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <f>_xlfn.STDEV.S('2024_wise_eur'!$J3:$J55)</f>
         <v>6.8648466384192567E-3</v>
       </c>
@@ -12402,7 +13082,7 @@
         <f>B17*SQRT(360)</f>
         <v>0.13022603104243749</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <f>C17*SQRT(360)</f>
         <v>0.13022603104243749</v>
       </c>
@@ -12415,7 +13095,7 @@
         <f>B17*SQRT(252)</f>
         <v>0.10895491458739311</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <f>C17*SQRT(252)</f>
         <v>0.10895491458739311</v>
       </c>
@@ -12428,7 +13108,7 @@
         <f>B19*SQRT(360)</f>
         <v>0.13025130699093126</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <f>C19*SQRT(360)</f>
         <v>0.13025130699093126</v>
       </c>
@@ -12441,7 +13121,7 @@
         <f>B19*SQRT(252)</f>
         <v>0.10897606196313057</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="22">
         <f>C19*SQRT(252)</f>
         <v>0.10897606196313057</v>
       </c>
@@ -12479,7 +13159,7 @@
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="23">
         <f>$B$31/(1+B29)</f>
         <v>9.5238095238095233E-2</v>
       </c>
@@ -12488,7 +13168,7 @@
       <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="23">
         <f>$B$31/(1+B30)</f>
         <v>0.33333333333333331</v>
       </c>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE8E9D7-4690-4702-982C-718BD6A5BDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EA117-1BD6-4604-B988-4BCFEFE0153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="64">
   <si>
     <t>date</t>
   </si>
@@ -366,6 +366,21 @@
   </si>
   <si>
     <t>57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
 </sst>
 </file>
@@ -705,10 +720,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J175"/>
+  <dimension ref="A1:J182"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170:E172"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D179" sqref="D179:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4964,7 +4980,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C130" s="11">
-        <f t="shared" ref="C130:C175" si="4">A130</f>
+        <f t="shared" ref="C130:C181" si="4">A130</f>
         <v>45532</v>
       </c>
       <c r="D130">
@@ -6374,6 +6390,24 @@
         <f t="shared" si="4"/>
         <v>45547</v>
       </c>
+      <c r="D173">
+        <v>6.2440899999999999</v>
+      </c>
+      <c r="E173">
+        <v>5.6587300000000003</v>
+      </c>
+      <c r="F173">
+        <v>6.3694199999999999</v>
+      </c>
+      <c r="G173">
+        <v>5.77034</v>
+      </c>
+      <c r="H173">
+        <v>6.24</v>
+      </c>
+      <c r="I173">
+        <v>5.66</v>
+      </c>
       <c r="J173" s="3" t="s">
         <v>9</v>
       </c>
@@ -6389,6 +6423,24 @@
         <f t="shared" si="4"/>
         <v>45547</v>
       </c>
+      <c r="D174">
+        <v>6.2191299999999998</v>
+      </c>
+      <c r="E174">
+        <v>5.6176599999999999</v>
+      </c>
+      <c r="F174">
+        <v>6.3572699999999998</v>
+      </c>
+      <c r="G174">
+        <v>5.7504299999999997</v>
+      </c>
+      <c r="H174">
+        <v>6.23</v>
+      </c>
+      <c r="I174">
+        <v>5.62</v>
+      </c>
       <c r="J174" s="3" t="s">
         <v>10</v>
       </c>
@@ -6404,8 +6456,229 @@
         <f t="shared" si="4"/>
         <v>45547</v>
       </c>
+      <c r="D175">
+        <v>6.2359799999999996</v>
+      </c>
+      <c r="E175">
+        <v>5.6271199999999997</v>
+      </c>
+      <c r="F175">
+        <v>6.3491999999999997</v>
+      </c>
+      <c r="G175">
+        <v>5.7405200000000001</v>
+      </c>
+      <c r="H175">
+        <v>6.22</v>
+      </c>
+      <c r="I175">
+        <v>5.63</v>
+      </c>
       <c r="J175" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="5">
+        <v>45548</v>
+      </c>
+      <c r="B176" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C176" s="12">
+        <f t="shared" si="4"/>
+        <v>45548</v>
+      </c>
+      <c r="D176">
+        <v>6.1826600000000003</v>
+      </c>
+      <c r="E176">
+        <v>5.5726899999999997</v>
+      </c>
+      <c r="F176">
+        <v>6.2774599999999996</v>
+      </c>
+      <c r="G176">
+        <v>5.6625100000000002</v>
+      </c>
+      <c r="H176">
+        <v>6.15</v>
+      </c>
+      <c r="I176">
+        <v>5.55</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="5">
+        <v>45548</v>
+      </c>
+      <c r="B177" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C177" s="12">
+        <f t="shared" si="4"/>
+        <v>45548</v>
+      </c>
+      <c r="D177">
+        <v>6.1648899999999998</v>
+      </c>
+      <c r="E177">
+        <v>5.5674000000000001</v>
+      </c>
+      <c r="F177">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G177">
+        <v>5.6785899999999998</v>
+      </c>
+      <c r="H177">
+        <v>6.17</v>
+      </c>
+      <c r="I177">
+        <v>5.57</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="5">
+        <v>45548</v>
+      </c>
+      <c r="B178" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C178" s="12">
+        <f t="shared" si="4"/>
+        <v>45548</v>
+      </c>
+      <c r="D178">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E178">
+        <v>5.5648</v>
+      </c>
+      <c r="F178">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G178">
+        <v>5.6753600000000004</v>
+      </c>
+      <c r="H178">
+        <v>6.24</v>
+      </c>
+      <c r="I178">
+        <v>5.56</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5">
+        <v>45549</v>
+      </c>
+      <c r="B179" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C179" s="11">
+        <f t="shared" si="4"/>
+        <v>45549</v>
+      </c>
+      <c r="D179">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E179">
+        <v>5.5648</v>
+      </c>
+      <c r="F179">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G179">
+        <v>5.6753600000000004</v>
+      </c>
+      <c r="H179">
+        <v>6.24</v>
+      </c>
+      <c r="I179">
+        <v>5.57</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5">
+        <v>45549</v>
+      </c>
+      <c r="B180" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C180" s="11">
+        <f t="shared" si="4"/>
+        <v>45549</v>
+      </c>
+      <c r="D180">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E180">
+        <v>5.5648</v>
+      </c>
+      <c r="F180">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G180">
+        <v>5.6753600000000004</v>
+      </c>
+      <c r="H180">
+        <v>6.24</v>
+      </c>
+      <c r="I180">
+        <v>5.57</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5">
+        <v>45549</v>
+      </c>
+      <c r="B181" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C181" s="11">
+        <f t="shared" si="4"/>
+        <v>45549</v>
+      </c>
+      <c r="D181">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E181">
+        <v>5.5648</v>
+      </c>
+      <c r="F181">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G181">
+        <v>5.6753600000000004</v>
+      </c>
+      <c r="H181">
+        <v>6.24</v>
+      </c>
+      <c r="I181">
+        <v>5.57</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F182" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -6415,10 +6688,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E47A6-69F4-4AEB-9879-64F1134C7037}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9627,16 +9901,225 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="A59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45547</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>5.6587300000000003</v>
+      </c>
+      <c r="E59">
+        <v>5.6176599999999999</v>
+      </c>
+      <c r="F59">
+        <v>5.6271199999999997</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" ref="G59:G62" si="23">LARGE(D59:F59,1)</f>
+        <v>5.6587300000000003</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" ref="H59:H62" si="24">SMALL(D59:F59,1)</f>
+        <v>5.6176599999999999</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" ref="I59:I62" si="25">AVERAGE(D59:F59)</f>
+        <v>5.6345033333333321</v>
+      </c>
+      <c r="J59" s="20">
+        <f t="shared" ref="J59:J62" si="26">(F59/F58-1)</f>
+        <v>-7.3980518816171292E-3</v>
+      </c>
+      <c r="K59" s="20">
+        <f t="shared" ref="K59:K62" si="27">LN(F59/F58)</f>
+        <v>-7.4255531887894256E-3</v>
+      </c>
+      <c r="L59" s="6">
+        <f>('2024_wise_usd'!F59*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L58*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5979895749572801</v>
+      </c>
+      <c r="M59" s="6">
+        <f>('2024_wise_usd'!F59*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M58*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6327220661263189</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" ref="N59:N62" si="28">AVERAGE(F40:F59)</f>
+        <v>5.5908260000000007</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" ref="O59:O62" si="29">AVERAGE(F55:F59)</f>
+        <v>5.6288640000000001</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45548</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>5.5726899999999997</v>
+      </c>
+      <c r="E60">
+        <v>5.5674000000000001</v>
+      </c>
+      <c r="F60">
+        <v>5.5648</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="23"/>
+        <v>5.5726899999999997</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" si="24"/>
+        <v>5.5648</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="25"/>
+        <v>5.568296666666666</v>
+      </c>
+      <c r="J60" s="20">
+        <f t="shared" si="26"/>
+        <v>-1.1074937090376547E-2</v>
+      </c>
+      <c r="K60" s="20">
+        <f t="shared" si="27"/>
+        <v>-1.1136720796768581E-2</v>
+      </c>
+      <c r="L60" s="6">
+        <f>('2024_wise_usd'!F60*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L59*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5948286630565862</v>
+      </c>
+      <c r="M60" s="6">
+        <f>('2024_wise_usd'!F60*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M59*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6100813774175462</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" si="28"/>
+        <v>5.5947685000000016</v>
+      </c>
+      <c r="O60" s="6">
+        <f>AVERAGE(F56:F60)</f>
+        <v>5.62209</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45549</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>5.5648</v>
+      </c>
+      <c r="E61">
+        <v>5.5648</v>
+      </c>
+      <c r="F61">
+        <v>5.5648</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="23"/>
+        <v>5.5648</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="24"/>
+        <v>5.5648</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="25"/>
+        <v>5.5648000000000009</v>
+      </c>
+      <c r="J61" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="20">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <f>('2024_wise_usd'!F61*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L60*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5919687903845299</v>
+      </c>
+      <c r="M61" s="6">
+        <f>('2024_wise_usd'!F61*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M60*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5949875849450308</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" si="28"/>
+        <v>5.5987110000000015</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="29"/>
+        <v>5.6180179999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45550</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="6" t="e">
+        <f t="shared" si="23"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" s="6" t="e">
+        <f t="shared" si="24"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I62" s="6" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J62" s="20">
+        <f t="shared" si="26"/>
+        <v>-1</v>
+      </c>
+      <c r="K62" s="20" t="e">
+        <f t="shared" si="27"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L62" s="6">
+        <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L61*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.0594003341574316</v>
+      </c>
+      <c r="M62" s="6">
+        <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M61*(1-'2024_wise_desc'!$B$33)</f>
+        <v>3.7299917232966875</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="28"/>
+        <v>5.6040536842105277</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="29"/>
+        <v>5.606444999999999</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="G2 I2 N21:N55 O17:O55 O6:O16 N56:O59" formulaRange="1"/>
+    <ignoredError sqref="G2 I2 N21:N55 O17:O55 O6:O16 N56:O58" formulaRange="1"/>
     <ignoredError sqref="A49:A55" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
@@ -9647,8 +10130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12856,16 +13340,219 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="8"/>
+      <c r="A59" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45547</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59">
+        <v>6.2440899999999999</v>
+      </c>
+      <c r="E59">
+        <v>6.2191299999999998</v>
+      </c>
+      <c r="F59">
+        <v>6.2359799999999996</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" ref="G59:G62" si="26">LARGE(D59:F59,1)</f>
+        <v>6.2440899999999999</v>
+      </c>
+      <c r="H59" s="6">
+        <f t="shared" ref="H59:H62" si="27">SMALL(D59:F59,1)</f>
+        <v>6.2191299999999998</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" ref="I59:I62" si="28">AVERAGE(D59:F59)</f>
+        <v>6.2330666666666659</v>
+      </c>
+      <c r="J59" s="20">
+        <f t="shared" ref="J59:J62" si="29">(F59/F58-1)</f>
+        <v>-1.1324592947358214E-3</v>
+      </c>
+      <c r="K59" s="20">
+        <f t="shared" ref="K59:K62" si="30">LN(F59/F58)</f>
+        <v>-1.1331010112872689E-3</v>
+      </c>
+      <c r="L59" s="6">
+        <f>('2024_wise_usd'!F59*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L58*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5979895749572801</v>
+      </c>
+      <c r="M59" s="6">
+        <f>('2024_wise_usd'!F59*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M58*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6327220661263189</v>
+      </c>
+      <c r="N59" s="6">
+        <f t="shared" ref="N59:N62" si="31">AVERAGE(F40:F59)</f>
+        <v>6.2001760000000008</v>
+      </c>
+      <c r="O59" s="6">
+        <f t="shared" ref="O59:O62" si="32">AVERAGE(F55:F59)</f>
+        <v>6.2200559999999996</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45548</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60">
+        <v>6.1826600000000003</v>
+      </c>
+      <c r="E60">
+        <v>6.1648899999999998</v>
+      </c>
+      <c r="F60">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="26"/>
+        <v>6.1826600000000003</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" si="27"/>
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="28"/>
+        <v>6.170370000000001</v>
+      </c>
+      <c r="J60" s="20">
+        <f t="shared" si="29"/>
+        <v>-1.1613250844293765E-2</v>
+      </c>
+      <c r="K60" s="20">
+        <f t="shared" si="30"/>
+        <v>-1.1681211315595177E-2</v>
+      </c>
+      <c r="L60" s="6">
+        <f>('2024_wise_usd'!F60*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L59*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5948286630565862</v>
+      </c>
+      <c r="M60" s="6">
+        <f>('2024_wise_usd'!F60*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M59*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.6100813774175462</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" si="31"/>
+        <v>6.2013455000000004</v>
+      </c>
+      <c r="O60" s="6">
+        <f t="shared" si="32"/>
+        <v>6.2113800000000001</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8"/>
+      <c r="A61" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45549</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E61">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="F61">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="26"/>
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="27"/>
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="28"/>
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="J61" s="20">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K61" s="20">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L61" s="6">
+        <f>('2024_wise_usd'!F61*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L60*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.5919687903845299</v>
+      </c>
+      <c r="M61" s="6">
+        <f>('2024_wise_usd'!F61*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M60*(1-'2024_wise_desc'!$B$33)</f>
+        <v>5.5949875849450308</v>
+      </c>
+      <c r="N61" s="6">
+        <f t="shared" si="31"/>
+        <v>6.2025435</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="32"/>
+        <v>6.2111680000000007</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45550</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G62" s="6" t="e">
+        <f t="shared" si="26"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H62" s="6" t="e">
+        <f t="shared" si="27"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I62" s="6" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J62" s="20">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K62" s="20" t="e">
+        <f t="shared" si="30"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L62" s="6">
+        <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L61*(1-'2024_wise_desc'!$B$32)</f>
+        <v>5.0594003341574316</v>
+      </c>
+      <c r="M62" s="6">
+        <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M61*(1-'2024_wise_desc'!$B$33)</f>
+        <v>3.7299917232966875</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="31"/>
+        <v>6.2058299999999997</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="32"/>
+        <v>6.2015374999999997</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2EA117-1BD6-4604-B988-4BCFEFE0153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FD79CF-93B8-4B88-AE85-7045A55DC667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
     <sheet name="2024_wise_usd" sheetId="2" r:id="rId2"/>
-    <sheet name="2024_wise_eur" sheetId="3" r:id="rId3"/>
-    <sheet name="2024_wise_desc" sheetId="4" r:id="rId4"/>
+    <sheet name="2024_usd_arima" sheetId="5" r:id="rId3"/>
+    <sheet name="2024_wise_eur" sheetId="3" r:id="rId4"/>
+    <sheet name="2024_eur_arima" sheetId="6" r:id="rId5"/>
+    <sheet name="2024_wise_desc" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2024_wise_eur'!$B$1:$F$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2024_wise_eur'!$B$1:$F$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -189,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="65">
   <si>
     <t>date</t>
   </si>
@@ -308,9 +310,6 @@
     <t>retornoDiscreto</t>
   </si>
   <si>
-    <t>retornoContínuo</t>
-  </si>
-  <si>
     <t>Retorno Contínuo Médio</t>
   </si>
   <si>
@@ -382,12 +381,18 @@
   <si>
     <t>61</t>
   </si>
+  <si>
+    <t>retornoContinuo</t>
+  </si>
+  <si>
+    <t>dayTime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="#,##0.00000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
@@ -398,6 +403,7 @@
     <numFmt numFmtId="171" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss\.&quot;000&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -476,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -501,6 +507,7 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,8 +730,8 @@
   <dimension ref="A1:J182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D179" sqref="D179:D181"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6678,7 +6685,7 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F182" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6691,8 +6698,8 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I70" sqref="I70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6743,7 +6750,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>37</v>
@@ -9734,7 +9741,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>45544</v>
@@ -9790,7 +9797,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5">
         <v>45545</v>
@@ -9846,7 +9853,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5">
         <v>45546</v>
@@ -9902,7 +9909,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="5">
         <v>45547</v>
@@ -9958,7 +9965,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="5">
         <v>45548</v>
@@ -10014,7 +10021,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="5">
         <v>45549</v>
@@ -10070,7 +10077,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="5">
         <v>45550</v>
@@ -10127,12 +10134,1479 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48303F0D-A187-4586-8FC5-1A0B7B975EA0}">
+  <dimension ref="A1:B181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>45490.458333333336</v>
+      </c>
+      <c r="B2">
+        <v>5.4586899999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>45490.708333333336</v>
+      </c>
+      <c r="B3">
+        <v>5.4864600000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>45490.958333333336</v>
+      </c>
+      <c r="B4">
+        <v>5.4898899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>45491.458333333336</v>
+      </c>
+      <c r="B5">
+        <v>5.4920900000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>45491.708333333336</v>
+      </c>
+      <c r="B6">
+        <v>5.5887500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>45491.958333333336</v>
+      </c>
+      <c r="B7">
+        <v>5.5447100000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>45492.458333333336</v>
+      </c>
+      <c r="B8">
+        <v>5.5445000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>45492.708333333336</v>
+      </c>
+      <c r="B9">
+        <v>5.5788599999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>45492.958333333336</v>
+      </c>
+      <c r="B10">
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>45493.458333333336</v>
+      </c>
+      <c r="B11">
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>45493.708333333336</v>
+      </c>
+      <c r="B12">
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>45493.958333333336</v>
+      </c>
+      <c r="B13">
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>45494.458333333336</v>
+      </c>
+      <c r="B14">
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>45494.458333333336</v>
+      </c>
+      <c r="B15">
+        <v>5.59816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>45494.708333333336</v>
+      </c>
+      <c r="B16">
+        <v>5.5453000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>45495.958333333336</v>
+      </c>
+      <c r="B17">
+        <v>5.5717100000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>45495.458333333336</v>
+      </c>
+      <c r="B18">
+        <v>5.5692599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
+        <v>45495.708333333336</v>
+      </c>
+      <c r="B19">
+        <v>5.5720900000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>45496.958333333336</v>
+      </c>
+      <c r="B20">
+        <v>5.5933099999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>45496.458333333336</v>
+      </c>
+      <c r="B21">
+        <v>5.5861900000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>45496.708333333336</v>
+      </c>
+      <c r="B22">
+        <v>5.5865600000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>45497.958333333336</v>
+      </c>
+      <c r="B23">
+        <v>5.6412399999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>45497.458333333336</v>
+      </c>
+      <c r="B24">
+        <v>5.6542899999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>45497.708333333336</v>
+      </c>
+      <c r="B25">
+        <v>5.6550500000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>45498.958333333336</v>
+      </c>
+      <c r="B26">
+        <v>5.6501999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>45498.458333333336</v>
+      </c>
+      <c r="B27">
+        <v>5.64764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>45498.458333333336</v>
+      </c>
+      <c r="B28">
+        <v>5.6452499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>45499.708333333336</v>
+      </c>
+      <c r="B29">
+        <v>5.6402900000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>45499.958333333336</v>
+      </c>
+      <c r="B30">
+        <v>5.6578400000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>45499.458333333336</v>
+      </c>
+      <c r="B31">
+        <v>5.6562999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>45500.708333333336</v>
+      </c>
+      <c r="B32">
+        <v>5.6562999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <v>45500.958333333336</v>
+      </c>
+      <c r="B33">
+        <v>5.6562999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>45500.458333333336</v>
+      </c>
+      <c r="B34">
+        <v>5.6562999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
+        <v>45501.708333333336</v>
+      </c>
+      <c r="B35">
+        <v>5.6562999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
+        <v>45501.958333333336</v>
+      </c>
+      <c r="B36">
+        <v>5.65665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
+        <v>45501.458333333336</v>
+      </c>
+      <c r="B37">
+        <v>5.6568100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
+        <v>45502.708333333336</v>
+      </c>
+      <c r="B38">
+        <v>5.6509</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
+        <v>45502.958333333336</v>
+      </c>
+      <c r="B39">
+        <v>5.6242999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>45502.458333333336</v>
+      </c>
+      <c r="B40">
+        <v>5.6160800000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>45503.708333333336</v>
+      </c>
+      <c r="B41">
+        <v>5.6556600000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>45503.958333333336</v>
+      </c>
+      <c r="B42">
+        <v>5.6123000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="24">
+        <v>45503.458333333336</v>
+      </c>
+      <c r="B43">
+        <v>5.6125499999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <v>45504.458333333336</v>
+      </c>
+      <c r="B44">
+        <v>5.6746600000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <v>45504.708333333336</v>
+      </c>
+      <c r="B45">
+        <v>5.6479900000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>45504.958333333336</v>
+      </c>
+      <c r="B46">
+        <v>5.6578999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
+        <v>45505.458333333336</v>
+      </c>
+      <c r="B47">
+        <v>5.6421900000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
+        <v>45505.708333333336</v>
+      </c>
+      <c r="B48">
+        <v>5.7348699999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="24">
+        <v>45505.958333333336</v>
+      </c>
+      <c r="B49">
+        <v>5.7524199999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="24">
+        <v>45506.458333333336</v>
+      </c>
+      <c r="B50">
+        <v>5.7158499999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="24">
+        <v>45506.708333333336</v>
+      </c>
+      <c r="B51">
+        <v>5.7095900000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
+        <v>45506.958333333336</v>
+      </c>
+      <c r="B52">
+        <v>5.7280699999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="24">
+        <v>45507.458333333336</v>
+      </c>
+      <c r="B53">
+        <v>5.7280699999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="24">
+        <v>45507.458333333336</v>
+      </c>
+      <c r="B54">
+        <v>5.7280699999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="24">
+        <v>45507.708333333336</v>
+      </c>
+      <c r="B55">
+        <v>5.7280699999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="24">
+        <v>45508.958333333336</v>
+      </c>
+      <c r="B56">
+        <v>5.7280699999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="24">
+        <v>45508.458333333336</v>
+      </c>
+      <c r="B57">
+        <v>5.7272100000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="24">
+        <v>45508.708333333336</v>
+      </c>
+      <c r="B58">
+        <v>5.7281000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="24">
+        <v>45509.958333333336</v>
+      </c>
+      <c r="B59">
+        <v>5.8010999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="24">
+        <v>45509.458333333336</v>
+      </c>
+      <c r="B60">
+        <v>5.7407599999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="24">
+        <v>45509.708333333336</v>
+      </c>
+      <c r="B61">
+        <v>5.7229799999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="24">
+        <v>45510.958333333336</v>
+      </c>
+      <c r="B62">
+        <v>5.6627099999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="24">
+        <v>45510.458333333336</v>
+      </c>
+      <c r="B63">
+        <v>5.6586100000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
+        <v>45510.708333333336</v>
+      </c>
+      <c r="B64">
+        <v>5.6571600000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="24">
+        <v>45511.958333333336</v>
+      </c>
+      <c r="B65">
+        <v>5.6033099999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="24">
+        <v>45511.458333333336</v>
+      </c>
+      <c r="B66">
+        <v>5.6236600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="24">
+        <v>45511.458333333336</v>
+      </c>
+      <c r="B67">
+        <v>5.6373899999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="24">
+        <v>45512.708333333336</v>
+      </c>
+      <c r="B68">
+        <v>5.617</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="24">
+        <v>45512.958333333336</v>
+      </c>
+      <c r="B69">
+        <v>5.5742599999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="24">
+        <v>45512.458333333336</v>
+      </c>
+      <c r="B70">
+        <v>5.5475099999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="24">
+        <v>45513.458333333336</v>
+      </c>
+      <c r="B71">
+        <v>5.5172400000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="24">
+        <v>45513.708333333336</v>
+      </c>
+      <c r="B72">
+        <v>5.5146600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="24">
+        <v>45513.958333333336</v>
+      </c>
+      <c r="B73">
+        <v>5.5087000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="24">
+        <v>45514.458333333336</v>
+      </c>
+      <c r="B74">
+        <v>5.5087000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="24">
+        <v>45514.708333333336</v>
+      </c>
+      <c r="B75">
+        <v>5.5087000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="24">
+        <v>45514.958333333336</v>
+      </c>
+      <c r="B76">
+        <v>5.5087000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="24">
+        <v>45515.458333333336</v>
+      </c>
+      <c r="B77">
+        <v>5.4993999999999996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="24">
+        <v>45515.708333333336</v>
+      </c>
+      <c r="B78">
+        <v>5.4977400000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="24">
+        <v>45515.958333333336</v>
+      </c>
+      <c r="B79">
+        <v>5.4938399999999996</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="24">
+        <v>45516.458333333336</v>
+      </c>
+      <c r="B80">
+        <v>5.4993999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="24">
+        <v>45516.708333333336</v>
+      </c>
+      <c r="B81">
+        <v>5.4877399999999996</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="24">
+        <v>45516.958333333336</v>
+      </c>
+      <c r="B82">
+        <v>5.4938399999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="24">
+        <v>45517.458333333336</v>
+      </c>
+      <c r="B83">
+        <v>5.4891100000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="24">
+        <v>45517.458333333336</v>
+      </c>
+      <c r="B84">
+        <v>5.4487899999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="24">
+        <v>45517.708333333336</v>
+      </c>
+      <c r="B85">
+        <v>5.4572900000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="24">
+        <v>45518.958333333336</v>
+      </c>
+      <c r="B86">
+        <v>5.44909</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="24">
+        <v>45518.458333333336</v>
+      </c>
+      <c r="B87">
+        <v>5.46896</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="24">
+        <v>45518.458333333336</v>
+      </c>
+      <c r="B88">
+        <v>5.4706099999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="24">
+        <v>45519.708333333336</v>
+      </c>
+      <c r="B89">
+        <v>5.4555100000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="24">
+        <v>45519.958333333336</v>
+      </c>
+      <c r="B90">
+        <v>5.4836900000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="24">
+        <v>45519.458333333336</v>
+      </c>
+      <c r="B91">
+        <v>5.4863400000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="24">
+        <v>45520.708333333336</v>
+      </c>
+      <c r="B92">
+        <v>5.4542599999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="24">
+        <v>45520.958333333336</v>
+      </c>
+      <c r="B93">
+        <v>5.46624</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="24">
+        <v>45520.458333333336</v>
+      </c>
+      <c r="B94">
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="24">
+        <v>45521.708333333336</v>
+      </c>
+      <c r="B95">
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="24">
+        <v>45521.958333333336</v>
+      </c>
+      <c r="B96">
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="24">
+        <v>45521.458333333336</v>
+      </c>
+      <c r="B97">
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="24">
+        <v>45522.708333333336</v>
+      </c>
+      <c r="B98">
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="24">
+        <v>45522.958333333336</v>
+      </c>
+      <c r="B99">
+        <v>5.4715400000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="24">
+        <v>45522.458333333336</v>
+      </c>
+      <c r="B100">
+        <v>5.4694000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="24">
+        <v>45523.458333333336</v>
+      </c>
+      <c r="B101">
+        <v>5.4292999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="24">
+        <v>45523.708333333336</v>
+      </c>
+      <c r="B102">
+        <v>5.4124999999999996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="24">
+        <v>45523.958333333336</v>
+      </c>
+      <c r="B103">
+        <v>5.4063999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="24">
+        <v>45524.458333333336</v>
+      </c>
+      <c r="B104">
+        <v>5.4397000000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="24">
+        <v>45524.708333333336</v>
+      </c>
+      <c r="B105">
+        <v>5.4852999999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="24">
+        <v>45524.958333333336</v>
+      </c>
+      <c r="B106">
+        <v>5.4795999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="24">
+        <v>45525.458333333336</v>
+      </c>
+      <c r="B107">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="24">
+        <v>45525.708333333336</v>
+      </c>
+      <c r="B108">
+        <v>5.4812000000000003</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="24">
+        <v>45525.958333333336</v>
+      </c>
+      <c r="B109">
+        <v>5.4836999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="24">
+        <v>45526.458333333336</v>
+      </c>
+      <c r="B110">
+        <v>5.5452000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="24">
+        <v>45526.708333333336</v>
+      </c>
+      <c r="B111">
+        <v>5.5896999999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="24">
+        <v>45526.958333333336</v>
+      </c>
+      <c r="B112">
+        <v>5.5921000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="24">
+        <v>45527.458333333336</v>
+      </c>
+      <c r="B113">
+        <v>5.5518000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="24">
+        <v>45527.708333333336</v>
+      </c>
+      <c r="B114">
+        <v>5.4794999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="24">
+        <v>45527.958333333336</v>
+      </c>
+      <c r="B115">
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="24">
+        <v>45528.458333333336</v>
+      </c>
+      <c r="B116">
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="24">
+        <v>45528.458333333336</v>
+      </c>
+      <c r="B117">
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="24">
+        <v>45528.708333333336</v>
+      </c>
+      <c r="B118">
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="24">
+        <v>45529.958333333336</v>
+      </c>
+      <c r="B119">
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="24">
+        <v>45529.458333333336</v>
+      </c>
+      <c r="B120">
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="24">
+        <v>45529.708333333336</v>
+      </c>
+      <c r="B121">
+        <v>5.4859499999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="24">
+        <v>45530.458333333336</v>
+      </c>
+      <c r="B122">
+        <v>5.4848999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="24">
+        <v>45530.708333333336</v>
+      </c>
+      <c r="B123">
+        <v>5.4917999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="24">
+        <v>45530.958333333336</v>
+      </c>
+      <c r="B124">
+        <v>5.4972000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="24">
+        <v>45531.458333333336</v>
+      </c>
+      <c r="B125">
+        <v>5.4927000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="24">
+        <v>45531.708333333336</v>
+      </c>
+      <c r="B126">
+        <v>5.5025000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="24">
+        <v>45531.958333333336</v>
+      </c>
+      <c r="B127">
+        <v>5.5094000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="24">
+        <v>45532.458333333336</v>
+      </c>
+      <c r="B128">
+        <v>5.5304000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="24">
+        <v>45532.708333333336</v>
+      </c>
+      <c r="B129">
+        <v>5.5549799999999996</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="24">
+        <v>45532.958333333336</v>
+      </c>
+      <c r="B130">
+        <v>5.5633999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="24">
+        <v>45533.458333333336</v>
+      </c>
+      <c r="B131">
+        <v>5.6406000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="24">
+        <v>45533.708333333336</v>
+      </c>
+      <c r="B132">
+        <v>5.6227</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="24">
+        <v>45533.958333333336</v>
+      </c>
+      <c r="B133">
+        <v>5.6288999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="24">
+        <v>45534.458333333336</v>
+      </c>
+      <c r="B134">
+        <v>5.6656000000000004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="24">
+        <v>45534.708333333336</v>
+      </c>
+      <c r="B135">
+        <v>5.6341000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="24">
+        <v>45534.958333333336</v>
+      </c>
+      <c r="B136">
+        <v>5.6063799999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="24">
+        <v>45535.458333333336</v>
+      </c>
+      <c r="B137">
+        <v>5.6063799999999997</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="24">
+        <v>45535.708333333336</v>
+      </c>
+      <c r="B138">
+        <v>5.6063799999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="24">
+        <v>45535.958333333336</v>
+      </c>
+      <c r="B139">
+        <v>5.6063799999999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="24">
+        <v>45536.458333333336</v>
+      </c>
+      <c r="B140">
+        <v>5.6063799999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="24">
+        <v>45536.708333333336</v>
+      </c>
+      <c r="B141">
+        <v>5.6063799999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="24">
+        <v>45536.958333333336</v>
+      </c>
+      <c r="B142">
+        <v>5.6116900000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="24">
+        <v>45537.458333333336</v>
+      </c>
+      <c r="B143">
+        <v>5.6504500000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="24">
+        <v>45537.708333333336</v>
+      </c>
+      <c r="B144">
+        <v>5.6259499999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="24">
+        <v>45537.958333333336</v>
+      </c>
+      <c r="B145">
+        <v>5.6165599999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="24">
+        <v>45538.458333333336</v>
+      </c>
+      <c r="B146">
+        <v>5.6275700000000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="24">
+        <v>45538.708333333336</v>
+      </c>
+      <c r="B147">
+        <v>5.6402099999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="24">
+        <v>45538.958333333336</v>
+      </c>
+      <c r="B148">
+        <v>5.6492100000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="24">
+        <v>45539.458333333336</v>
+      </c>
+      <c r="B149">
+        <v>5.6345700000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="24">
+        <v>45539.708333333336</v>
+      </c>
+      <c r="B150">
+        <v>5.6393000000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="24">
+        <v>45539.958333333336</v>
+      </c>
+      <c r="B151">
+        <v>5.6435000000000004</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="24">
+        <v>45540.458333333336</v>
+      </c>
+      <c r="B152">
+        <v>5.6099100000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="24">
+        <v>45540.708333333336</v>
+      </c>
+      <c r="B153">
+        <v>5.5724999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="24">
+        <v>45540.958333333336</v>
+      </c>
+      <c r="B154">
+        <v>5.5689000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="24">
+        <v>45541.458333333336</v>
+      </c>
+      <c r="B155">
+        <v>5.5615600000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="24">
+        <v>45541.708333333336</v>
+      </c>
+      <c r="B156">
+        <v>5.5899900000000002</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="24">
+        <v>45541.958333333336</v>
+      </c>
+      <c r="B157">
+        <v>5.5993899999999996</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="24">
+        <v>45542.458333333336</v>
+      </c>
+      <c r="B158">
+        <v>5.5993899999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="24">
+        <v>45542.708333333336</v>
+      </c>
+      <c r="B159">
+        <v>5.5993899999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="24">
+        <v>45542.958333333336</v>
+      </c>
+      <c r="B160">
+        <v>5.5993899999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="24">
+        <v>45543.458333333336</v>
+      </c>
+      <c r="B161">
+        <v>5.5993899999999996</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="24">
+        <v>45543.708333333336</v>
+      </c>
+      <c r="B162">
+        <v>5.5993899999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="24">
+        <v>45543.958333333336</v>
+      </c>
+      <c r="B163">
+        <v>5.5987099999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="24">
+        <v>45544.458333333336</v>
+      </c>
+      <c r="B164">
+        <v>5.6100399999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="24">
+        <v>45544.708333333336</v>
+      </c>
+      <c r="B165">
+        <v>5.5858100000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="24">
+        <v>45544.958333333336</v>
+      </c>
+      <c r="B166">
+        <v>5.5851600000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="24">
+        <v>45545.458333333336</v>
+      </c>
+      <c r="B167">
+        <v>5.6162900000000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="24">
+        <v>45545.708333333336</v>
+      </c>
+      <c r="B168">
+        <v>5.6537199999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="24">
+        <v>45545.958333333336</v>
+      </c>
+      <c r="B169">
+        <v>5.6643100000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="24">
+        <v>45546.458333333336</v>
+      </c>
+      <c r="B170">
+        <v>5.6434600000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="24">
+        <v>45546.708333333336</v>
+      </c>
+      <c r="B171">
+        <v>5.6589900000000002</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="24">
+        <v>45546.958333333336</v>
+      </c>
+      <c r="B172">
+        <v>5.66906</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="24">
+        <v>45547.458333333336</v>
+      </c>
+      <c r="B173">
+        <v>5.6587300000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="24">
+        <v>45547.708333333336</v>
+      </c>
+      <c r="B174">
+        <v>5.6176599999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="24">
+        <v>45547.958333333336</v>
+      </c>
+      <c r="B175">
+        <v>5.6271199999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="24">
+        <v>45548.458333333336</v>
+      </c>
+      <c r="B176">
+        <v>5.5726899999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="24">
+        <v>45548.708333333336</v>
+      </c>
+      <c r="B177">
+        <v>5.5674000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="24">
+        <v>45548.958333333336</v>
+      </c>
+      <c r="B178">
+        <v>5.5648</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="24">
+        <v>45549.458333333336</v>
+      </c>
+      <c r="B179">
+        <v>5.5648</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="24">
+        <v>45549.708333333336</v>
+      </c>
+      <c r="B180">
+        <v>5.5648</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="24">
+        <v>45549.958333333336</v>
+      </c>
+      <c r="B181">
+        <v>5.5648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599224F4-1114-46B0-AF99-277C0227B676}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10182,7 +11656,7 @@
         <v>38</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>37</v>
@@ -13173,7 +14647,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>45544</v>
@@ -13229,7 +14703,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5">
         <v>45545</v>
@@ -13285,7 +14759,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="5">
         <v>45546</v>
@@ -13341,7 +14815,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="5">
         <v>45547</v>
@@ -13397,7 +14871,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="5">
         <v>45548</v>
@@ -13453,7 +14927,7 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="5">
         <v>45549</v>
@@ -13509,7 +14983,7 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="5">
         <v>45550</v>
@@ -13580,7 +15054,1473 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68288BB6-1299-407F-A20E-500DE3875D7F}">
+  <dimension ref="A1:B181"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" style="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="24">
+        <v>45490.458333333336</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.9731800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>45490.708333333336</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.9967499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>45490.958333333336</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.0023600000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>45491.458333333336</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.00298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>45491.708333333336</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.0900600000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>45491.958333333336</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6.0370799999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>45492.458333333336</v>
+      </c>
+      <c r="B8" s="18">
+        <v>6.0396299999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="24">
+        <v>45492.708333333336</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.0720099999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>45492.958333333336</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="24">
+        <v>45493.458333333336</v>
+      </c>
+      <c r="B11">
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>45493.708333333336</v>
+      </c>
+      <c r="B12">
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="24">
+        <v>45493.958333333336</v>
+      </c>
+      <c r="B13">
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>45494.458333333336</v>
+      </c>
+      <c r="B14">
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="24">
+        <v>45494.458333333336</v>
+      </c>
+      <c r="B15">
+        <v>6.0924699999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>45494.708333333336</v>
+      </c>
+      <c r="B16">
+        <v>6.0363499999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="24">
+        <v>45495.958333333336</v>
+      </c>
+      <c r="B17">
+        <v>6.0609000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>45495.458333333336</v>
+      </c>
+      <c r="B18">
+        <v>6.06351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="24">
+        <v>45495.708333333336</v>
+      </c>
+      <c r="B19">
+        <v>6.0671900000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>45496.958333333336</v>
+      </c>
+      <c r="B20">
+        <v>6.0692899999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="24">
+        <v>45496.458333333336</v>
+      </c>
+      <c r="B21">
+        <v>6.0613000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>45496.708333333336</v>
+      </c>
+      <c r="B22">
+        <v>6.0602799999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>45497.958333333336</v>
+      </c>
+      <c r="B23">
+        <v>6.1232899999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>45497.458333333336</v>
+      </c>
+      <c r="B24">
+        <v>6.1300400000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="24">
+        <v>45497.708333333336</v>
+      </c>
+      <c r="B25">
+        <v>6.1289499999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>45498.958333333336</v>
+      </c>
+      <c r="B26">
+        <v>6.1245200000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="24">
+        <v>45498.458333333336</v>
+      </c>
+      <c r="B27">
+        <v>6.1251600000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>45498.458333333336</v>
+      </c>
+      <c r="B28">
+        <v>6.1287700000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="24">
+        <v>45499.708333333336</v>
+      </c>
+      <c r="B29">
+        <v>6.1281999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>45499.958333333336</v>
+      </c>
+      <c r="B30">
+        <v>6.1429999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="24">
+        <v>45499.458333333336</v>
+      </c>
+      <c r="B31">
+        <v>6.1404699999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>45500.708333333336</v>
+      </c>
+      <c r="B32">
+        <v>6.1404699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="24">
+        <v>45500.958333333336</v>
+      </c>
+      <c r="B33">
+        <v>6.1404699999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>45500.458333333336</v>
+      </c>
+      <c r="B34">
+        <v>6.1404699999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="24">
+        <v>45501.708333333336</v>
+      </c>
+      <c r="B35">
+        <v>6.1404699999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="24">
+        <v>45501.958333333336</v>
+      </c>
+      <c r="B36">
+        <v>6.1428500000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="24">
+        <v>45501.458333333336</v>
+      </c>
+      <c r="B37">
+        <v>6.1418600000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="24">
+        <v>45502.708333333336</v>
+      </c>
+      <c r="B38">
+        <v>6.1089200000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="24">
+        <v>45502.958333333336</v>
+      </c>
+      <c r="B39">
+        <v>6.08887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="24">
+        <v>45502.458333333336</v>
+      </c>
+      <c r="B40">
+        <v>6.0749300000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="24">
+        <v>45503.708333333336</v>
+      </c>
+      <c r="B41">
+        <v>6.1143400000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>45503.958333333336</v>
+      </c>
+      <c r="B42">
+        <v>6.0705400000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="24">
+        <v>45503.458333333336</v>
+      </c>
+      <c r="B43">
+        <v>6.0747400000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <v>45504.458333333336</v>
+      </c>
+      <c r="B44">
+        <v>6.15245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="24">
+        <v>45504.708333333336</v>
+      </c>
+      <c r="B45">
+        <v>6.1144100000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="24">
+        <v>45504.958333333336</v>
+      </c>
+      <c r="B46">
+        <v>6.1261000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="24">
+        <v>45505.458333333336</v>
+      </c>
+      <c r="B47">
+        <v>6.0955500000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="24">
+        <v>45505.708333333336</v>
+      </c>
+      <c r="B48">
+        <v>6.1876199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="24">
+        <v>45505.958333333336</v>
+      </c>
+      <c r="B49">
+        <v>6.2071300000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="24">
+        <v>45506.458333333336</v>
+      </c>
+      <c r="B50">
+        <v>6.2333999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="24">
+        <v>45506.708333333336</v>
+      </c>
+      <c r="B51">
+        <v>6.23088</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="24">
+        <v>45506.958333333336</v>
+      </c>
+      <c r="B52">
+        <v>6.2495700000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="24">
+        <v>45507.458333333336</v>
+      </c>
+      <c r="B53">
+        <v>6.2495700000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="24">
+        <v>45507.458333333336</v>
+      </c>
+      <c r="B54">
+        <v>6.2495700000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="24">
+        <v>45507.708333333336</v>
+      </c>
+      <c r="B55">
+        <v>6.2495700000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="24">
+        <v>45508.958333333336</v>
+      </c>
+      <c r="B56">
+        <v>6.2495700000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="24">
+        <v>45508.458333333336</v>
+      </c>
+      <c r="B57">
+        <v>6.2564099999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="24">
+        <v>45508.708333333336</v>
+      </c>
+      <c r="B58">
+        <v>6.25481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="24">
+        <v>45509.958333333336</v>
+      </c>
+      <c r="B59">
+        <v>6.3701999999999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="24">
+        <v>45509.458333333336</v>
+      </c>
+      <c r="B60">
+        <v>6.2915599999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="24">
+        <v>45509.708333333336</v>
+      </c>
+      <c r="B61">
+        <v>6.2695499999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="24">
+        <v>45510.958333333336</v>
+      </c>
+      <c r="B62">
+        <v>6.1828000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="24">
+        <v>45510.458333333336</v>
+      </c>
+      <c r="B63">
+        <v>6.1848700000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="24">
+        <v>45510.708333333336</v>
+      </c>
+      <c r="B64">
+        <v>6.1767700000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="24">
+        <v>45511.958333333336</v>
+      </c>
+      <c r="B65">
+        <v>6.1179699999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="24">
+        <v>45511.458333333336</v>
+      </c>
+      <c r="B66">
+        <v>6.1429999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="24">
+        <v>45511.458333333336</v>
+      </c>
+      <c r="B67">
+        <v>6.1602499999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="24">
+        <v>45512.708333333336</v>
+      </c>
+      <c r="B68">
+        <v>6.1177400000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="24">
+        <v>45512.958333333336</v>
+      </c>
+      <c r="B69">
+        <v>6.0851300000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="24">
+        <v>45512.458333333336</v>
+      </c>
+      <c r="B70">
+        <v>6.0570500000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="24">
+        <v>45513.458333333336</v>
+      </c>
+      <c r="B71">
+        <v>6.0171000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="24">
+        <v>45513.708333333336</v>
+      </c>
+      <c r="B72">
+        <v>6.0211600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="24">
+        <v>45513.958333333336</v>
+      </c>
+      <c r="B73">
+        <v>6.0135500000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="24">
+        <v>45514.458333333336</v>
+      </c>
+      <c r="B74">
+        <v>6.0135500000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="24">
+        <v>45514.708333333336</v>
+      </c>
+      <c r="B75">
+        <v>6.0135500000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="24">
+        <v>45514.958333333336</v>
+      </c>
+      <c r="B76">
+        <v>6.0135500000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="24">
+        <v>45515.458333333336</v>
+      </c>
+      <c r="B77">
+        <v>6.0078100000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="24">
+        <v>45515.708333333336</v>
+      </c>
+      <c r="B78">
+        <v>6.0093300000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="24">
+        <v>45515.958333333336</v>
+      </c>
+      <c r="B79">
+        <v>6.0075200000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="24">
+        <v>45516.458333333336</v>
+      </c>
+      <c r="B80">
+        <v>6.0078100000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="24">
+        <v>45516.708333333336</v>
+      </c>
+      <c r="B81">
+        <v>6.0093300000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="24">
+        <v>45516.958333333336</v>
+      </c>
+      <c r="B82">
+        <v>6.0075200000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="24">
+        <v>45517.458333333336</v>
+      </c>
+      <c r="B83">
+        <v>6.0146800000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="24">
+        <v>45517.458333333336</v>
+      </c>
+      <c r="B84">
+        <v>5.9917600000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="24">
+        <v>45517.708333333336</v>
+      </c>
+      <c r="B85">
+        <v>5.9986600000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="24">
+        <v>45518.958333333336</v>
+      </c>
+      <c r="B86">
+        <v>6.0144599999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="24">
+        <v>45518.458333333336</v>
+      </c>
+      <c r="B87">
+        <v>6.0229699999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="24">
+        <v>45518.458333333336</v>
+      </c>
+      <c r="B88">
+        <v>6.0214800000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="24">
+        <v>45519.708333333336</v>
+      </c>
+      <c r="B89">
+        <v>5.9838699999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="24">
+        <v>45519.958333333336</v>
+      </c>
+      <c r="B90">
+        <v>6.0173199999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="24">
+        <v>45519.458333333336</v>
+      </c>
+      <c r="B91">
+        <v>6.0248200000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="24">
+        <v>45520.708333333336</v>
+      </c>
+      <c r="B92">
+        <v>6.0010300000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="24">
+        <v>45520.958333333336</v>
+      </c>
+      <c r="B93">
+        <v>6.0262700000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="24">
+        <v>45520.458333333336</v>
+      </c>
+      <c r="B94">
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="24">
+        <v>45521.708333333336</v>
+      </c>
+      <c r="B95">
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="24">
+        <v>45521.958333333336</v>
+      </c>
+      <c r="B96">
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="24">
+        <v>45521.458333333336</v>
+      </c>
+      <c r="B97">
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="24">
+        <v>45522.708333333336</v>
+      </c>
+      <c r="B98">
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="24">
+        <v>45522.958333333336</v>
+      </c>
+      <c r="B99">
+        <v>6.03376</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="24">
+        <v>45522.458333333336</v>
+      </c>
+      <c r="B100">
+        <v>6.0332999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="24">
+        <v>45523.458333333336</v>
+      </c>
+      <c r="B101">
+        <v>5.9958999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="24">
+        <v>45523.708333333336</v>
+      </c>
+      <c r="B102">
+        <v>5.9989999999999997</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="24">
+        <v>45523.958333333336</v>
+      </c>
+      <c r="B103">
+        <v>5.9932999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="24">
+        <v>45524.458333333336</v>
+      </c>
+      <c r="B104">
+        <v>6.0391000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="24">
+        <v>45524.708333333336</v>
+      </c>
+      <c r="B105">
+        <v>6.1021000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="24">
+        <v>45524.958333333336</v>
+      </c>
+      <c r="B106">
+        <v>6.0941000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="24">
+        <v>45525.458333333336</v>
+      </c>
+      <c r="B107">
+        <v>6.0796000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="24">
+        <v>45525.708333333336</v>
+      </c>
+      <c r="B108">
+        <v>6.1125999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="24">
+        <v>45525.958333333336</v>
+      </c>
+      <c r="B109">
+        <v>6.1108000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="24">
+        <v>45526.458333333336</v>
+      </c>
+      <c r="B110">
+        <v>6.1086999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="24">
+        <v>45526.708333333336</v>
+      </c>
+      <c r="B111">
+        <v>6.2092999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="24">
+        <v>45526.958333333336</v>
+      </c>
+      <c r="B112">
+        <v>6.2225999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="24">
+        <v>45527.458333333336</v>
+      </c>
+      <c r="B113">
+        <v>6.1725000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="24">
+        <v>45527.708333333336</v>
+      </c>
+      <c r="B114">
+        <v>6.1323999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="24">
+        <v>45527.958333333336</v>
+      </c>
+      <c r="B115">
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="24">
+        <v>45528.458333333336</v>
+      </c>
+      <c r="B116">
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="24">
+        <v>45528.458333333336</v>
+      </c>
+      <c r="B117">
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="24">
+        <v>45528.708333333336</v>
+      </c>
+      <c r="B118">
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="24">
+        <v>45529.958333333336</v>
+      </c>
+      <c r="B119">
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="24">
+        <v>45529.458333333336</v>
+      </c>
+      <c r="B120">
+        <v>6.1401700000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="24">
+        <v>45529.708333333336</v>
+      </c>
+      <c r="B121">
+        <v>6.1395999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="24">
+        <v>45530.458333333336</v>
+      </c>
+      <c r="B122">
+        <v>6.1208999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="24">
+        <v>45530.708333333336</v>
+      </c>
+      <c r="B123">
+        <v>6.1284999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="24">
+        <v>45530.958333333336</v>
+      </c>
+      <c r="B124">
+        <v>6.1401000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="24">
+        <v>45531.458333333336</v>
+      </c>
+      <c r="B125">
+        <v>6.1345000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="24">
+        <v>45531.708333333336</v>
+      </c>
+      <c r="B126">
+        <v>6.1538000000000004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="24">
+        <v>45531.958333333336</v>
+      </c>
+      <c r="B127">
+        <v>6.1562000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="24">
+        <v>45532.458333333336</v>
+      </c>
+      <c r="B128">
+        <v>6.1444999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="24">
+        <v>45532.708333333336</v>
+      </c>
+      <c r="B129">
+        <v>6.1733000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="24">
+        <v>45532.958333333336</v>
+      </c>
+      <c r="B130">
+        <v>6.1912000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="24">
+        <v>45533.458333333336</v>
+      </c>
+      <c r="B131">
+        <v>6.2511999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="24">
+        <v>45533.708333333336</v>
+      </c>
+      <c r="B132">
+        <v>6.2274000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="24">
+        <v>45533.958333333336</v>
+      </c>
+      <c r="B133">
+        <v>6.2314999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="24">
+        <v>45534.458333333336</v>
+      </c>
+      <c r="B134">
+        <v>6.2614000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="24">
+        <v>45534.708333333336</v>
+      </c>
+      <c r="B135">
+        <v>6.2282000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="24">
+        <v>45534.958333333336</v>
+      </c>
+      <c r="B136">
+        <v>6.1933699999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="24">
+        <v>45535.458333333336</v>
+      </c>
+      <c r="B137">
+        <v>6.1933699999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="24">
+        <v>45535.708333333336</v>
+      </c>
+      <c r="B138">
+        <v>6.1933699999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="24">
+        <v>45535.958333333336</v>
+      </c>
+      <c r="B139">
+        <v>6.1933699999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="24">
+        <v>45536.458333333336</v>
+      </c>
+      <c r="B140">
+        <v>6.1933699999999998</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="24">
+        <v>45536.708333333336</v>
+      </c>
+      <c r="B141">
+        <v>6.1933699999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="24">
+        <v>45536.958333333336</v>
+      </c>
+      <c r="B142">
+        <v>6.2034399999999996</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="24">
+        <v>45537.458333333336</v>
+      </c>
+      <c r="B143">
+        <v>6.2514799999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="24">
+        <v>45537.708333333336</v>
+      </c>
+      <c r="B144">
+        <v>6.2182700000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="24">
+        <v>45537.958333333336</v>
+      </c>
+      <c r="B145">
+        <v>6.2155399999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="24">
+        <v>45538.458333333336</v>
+      </c>
+      <c r="B146">
+        <v>6.2251500000000002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="24">
+        <v>45538.708333333336</v>
+      </c>
+      <c r="B147">
+        <v>6.2280600000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="24">
+        <v>45538.958333333336</v>
+      </c>
+      <c r="B148">
+        <v>6.2437500000000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="24">
+        <v>45539.458333333336</v>
+      </c>
+      <c r="B149">
+        <v>6.2382799999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="24">
+        <v>45539.708333333336</v>
+      </c>
+      <c r="B150">
+        <v>6.2497699999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="24">
+        <v>45539.958333333336</v>
+      </c>
+      <c r="B151">
+        <v>6.2532800000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="24">
+        <v>45540.458333333336</v>
+      </c>
+      <c r="B152">
+        <v>6.22342</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="24">
+        <v>45540.708333333336</v>
+      </c>
+      <c r="B153">
+        <v>6.1868999999999996</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="24">
+        <v>45540.958333333336</v>
+      </c>
+      <c r="B154">
+        <v>6.1872999999999996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="24">
+        <v>45541.458333333336</v>
+      </c>
+      <c r="B155">
+        <v>6.1641300000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="24">
+        <v>45541.708333333336</v>
+      </c>
+      <c r="B156">
+        <v>6.1978099999999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="24">
+        <v>45541.958333333336</v>
+      </c>
+      <c r="B157">
+        <v>6.2072099999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="24">
+        <v>45542.458333333336</v>
+      </c>
+      <c r="B158">
+        <v>6.2072099999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="24">
+        <v>45542.708333333336</v>
+      </c>
+      <c r="B159">
+        <v>6.2072099999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="24">
+        <v>45542.958333333336</v>
+      </c>
+      <c r="B160">
+        <v>6.2072099999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="24">
+        <v>45543.458333333336</v>
+      </c>
+      <c r="B161">
+        <v>6.2072099999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="24">
+        <v>45543.708333333336</v>
+      </c>
+      <c r="B162">
+        <v>6.2072099999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="24">
+        <v>45543.958333333336</v>
+      </c>
+      <c r="B163">
+        <v>6.2043600000000003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="24">
+        <v>45544.458333333336</v>
+      </c>
+      <c r="B164">
+        <v>6.1954399999999996</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="24">
+        <v>45544.708333333336</v>
+      </c>
+      <c r="B165">
+        <v>6.1645099999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="24">
+        <v>45544.958333333336</v>
+      </c>
+      <c r="B166">
+        <v>6.1646200000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="24">
+        <v>45545.458333333336</v>
+      </c>
+      <c r="B167">
+        <v>6.1889099999999999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="24">
+        <v>45545.708333333336</v>
+      </c>
+      <c r="B168">
+        <v>6.2345699999999997</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="24">
+        <v>45545.958333333336</v>
+      </c>
+      <c r="B169">
+        <v>6.2496900000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="24">
+        <v>45546.458333333336</v>
+      </c>
+      <c r="B170">
+        <v>6.2134999999999998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="24">
+        <v>45546.708333333336</v>
+      </c>
+      <c r="B171">
+        <v>6.2330899999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="24">
+        <v>45546.958333333336</v>
+      </c>
+      <c r="B172">
+        <v>6.2430500000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="24">
+        <v>45547.458333333336</v>
+      </c>
+      <c r="B173">
+        <v>6.2440899999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="24">
+        <v>45547.708333333336</v>
+      </c>
+      <c r="B174">
+        <v>6.2191299999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="24">
+        <v>45547.958333333336</v>
+      </c>
+      <c r="B175">
+        <v>6.2359799999999996</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="24">
+        <v>45548.458333333336</v>
+      </c>
+      <c r="B176">
+        <v>6.1826600000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="24">
+        <v>45548.708333333336</v>
+      </c>
+      <c r="B177">
+        <v>6.1648899999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="24">
+        <v>45548.958333333336</v>
+      </c>
+      <c r="B178">
+        <v>6.1635600000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="24">
+        <v>45549.458333333336</v>
+      </c>
+      <c r="B179">
+        <v>6.1635600000000004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="24">
+        <v>45549.708333333336</v>
+      </c>
+      <c r="B180">
+        <v>6.1635600000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="24">
+        <v>45549.958333333336</v>
+      </c>
+      <c r="B181">
+        <v>6.1635600000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E2342F-700D-4437-99A3-C35FCA707D45}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -13597,12 +16537,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="20">
         <f>AVERAGE('2024_wise_usd'!$K3:$K55)</f>
@@ -13615,7 +16555,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="20">
         <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
@@ -13628,7 +16568,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="20">
         <f>AVERAGE('2024_wise_usd'!$J3:$J55)</f>
@@ -13641,7 +16581,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="20">
         <f>_xlfn.STDEV.S('2024_wise_usd'!$J3:$J55)</f>
@@ -13654,7 +16594,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="19">
         <f>B4*SQRT(360)</f>
@@ -13667,7 +16607,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="19">
         <f>B4*SQRT(252)</f>
@@ -13680,7 +16620,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="19">
         <f>B6*SQRT(360)</f>
@@ -13693,7 +16633,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="19">
         <f>B6*SQRT(252)</f>
@@ -13706,12 +16646,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="20">
         <f>AVERAGE('2024_wise_eur'!$K3:$K55)</f>
@@ -13724,7 +16664,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="20">
         <f>_xlfn.STDEV.S('2024_wise_eur'!$K3:$K55)</f>
@@ -13737,7 +16677,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="20">
         <f>AVERAGE('2024_wise_eur'!$J3:$J55)</f>
@@ -13750,7 +16690,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="20">
         <f>_xlfn.STDEV.S('2024_wise_eur'!$J3:$J55)</f>
@@ -13763,7 +16703,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="19">
         <f>B17*SQRT(360)</f>
@@ -13776,7 +16716,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="19">
         <f>B17*SQRT(252)</f>
@@ -13789,7 +16729,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="19">
         <f>B19*SQRT(360)</f>
@@ -13802,7 +16742,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="19">
         <f>B19*SQRT(252)</f>
@@ -13815,12 +16755,12 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -13828,7 +16768,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -13836,7 +16776,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -13844,7 +16784,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="23">
         <f>$B$31/(1+B29)</f>
@@ -13853,7 +16793,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" s="23">
         <f>$B$31/(1+B30)</f>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FD79CF-93B8-4B88-AE85-7045A55DC667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F4AAD-601F-403A-9EE7-96BC8CF956A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -247,31 +247,10 @@
     <t>dailyAvg</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>weekDay</t>
   </si>
   <si>
     <t>time</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
   </si>
   <si>
     <t>Wednesday</t>
@@ -358,30 +337,6 @@
     <t>Multiplier short</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
     <t>retornoContinuo</t>
   </si>
   <si>
@@ -403,7 +358,7 @@
     <numFmt numFmtId="171" formatCode="0.0000"/>
     <numFmt numFmtId="172" formatCode="0.0000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss\.&quot;000&quot;"/>
+    <numFmt numFmtId="174" formatCode="yyyy\-mm\-dd\ hh:mm:ss\.&quot;000&quot;"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -482,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -507,7 +462,12 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,11 +687,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J182"/>
+  <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L185" sqref="L185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4987,7 +4947,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C130" s="11">
-        <f t="shared" ref="C130:C181" si="4">A130</f>
+        <f t="shared" ref="C130:C184" si="4">A130</f>
         <v>45532</v>
       </c>
       <c r="D130">
@@ -6518,7 +6478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>45548</v>
       </c>
@@ -6551,7 +6511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>45548</v>
       </c>
@@ -6584,7 +6544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>45549</v>
       </c>
@@ -6617,7 +6577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>45549</v>
       </c>
@@ -6650,7 +6610,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>45549</v>
       </c>
@@ -6683,10 +6643,90 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F182" s="3" t="s">
-        <v>58</v>
-      </c>
+    <row r="182" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5">
+        <v>45550</v>
+      </c>
+      <c r="B182" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C182" s="11">
+        <f t="shared" si="4"/>
+        <v>45550</v>
+      </c>
+      <c r="D182">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E182">
+        <v>5.5648</v>
+      </c>
+      <c r="F182">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G182">
+        <v>5.6753600000000004</v>
+      </c>
+      <c r="H182">
+        <v>6.24</v>
+      </c>
+      <c r="I182">
+        <v>5.57</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5">
+        <v>45550</v>
+      </c>
+      <c r="B183" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C183" s="11">
+        <f t="shared" si="4"/>
+        <v>45550</v>
+      </c>
+      <c r="D183">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E183">
+        <v>5.5648</v>
+      </c>
+      <c r="F183">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G183">
+        <v>5.6753600000000004</v>
+      </c>
+      <c r="H183">
+        <v>6.24</v>
+      </c>
+      <c r="I183">
+        <v>5.57</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5">
+        <v>45550</v>
+      </c>
+      <c r="B184" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C184" s="11">
+        <f t="shared" si="4"/>
+        <v>45550</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L185" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -6698,13 +6738,13 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K40" sqref="K40"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="26" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
@@ -6719,14 +6759,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>15</v>
@@ -6747,33 +6787,33 @@
         <v>17</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>45490</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6">
         <v>5.4586899999999998</v>
@@ -6816,14 +6856,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>45491</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6">
         <v>5.4920900000000001</v>
@@ -6868,14 +6908,14 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>45492</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6">
         <v>5.5445000000000002</v>
@@ -6920,14 +6960,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="16">
         <v>45493</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6">
         <v>5.59816</v>
@@ -6972,14 +7012,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>45494</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6">
         <v>5.59816</v>
@@ -7025,14 +7065,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>45495</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <v>5.5717100000000004</v>
@@ -7079,14 +7119,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>45496</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6">
         <v>5.5933099999999998</v>
@@ -7133,14 +7173,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>45497</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
         <v>5.6412399999999998</v>
@@ -7187,14 +7227,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>45498</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>5.6501999999999999</v>
@@ -7241,14 +7281,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>45499</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6">
         <v>5.6402900000000002</v>
@@ -7295,14 +7335,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>45500</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6">
         <v>5.6562999999999999</v>
@@ -7349,14 +7389,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>45501</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6">
         <v>5.6562999999999999</v>
@@ -7403,14 +7443,14 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>45502</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6">
         <v>5.6509</v>
@@ -7457,14 +7497,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>45503</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6">
         <v>5.6556600000000001</v>
@@ -7511,14 +7551,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>45504</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6">
         <v>5.6746600000000003</v>
@@ -7565,14 +7605,14 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>45505</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6">
         <v>5.6421900000000003</v>
@@ -7619,14 +7659,14 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>45506</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6">
         <v>5.7158499999999997</v>
@@ -7673,14 +7713,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>45507</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6">
         <v>5.7280699999999998</v>
@@ -7727,14 +7767,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>45508</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D20" s="6">
         <v>5.7280699999999998</v>
@@ -7781,14 +7821,14 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>45509</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6">
         <v>5.8010999999999999</v>
@@ -7836,14 +7876,14 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>45510</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D22" s="6">
         <v>5.6627099999999997</v>
@@ -7892,14 +7932,14 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>45511</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6">
         <v>5.6033099999999996</v>
@@ -7948,14 +7988,14 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>45512</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6">
         <v>5.617</v>
@@ -8004,14 +8044,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>45513</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6">
         <v>5.5172400000000001</v>
@@ -8060,14 +8100,14 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>45514</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D26" s="6">
         <v>5.5087000000000002</v>
@@ -8116,14 +8156,14 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>45515</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6">
         <v>5.4993999999999996</v>
@@ -8172,14 +8212,14 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>45516</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D28" s="6">
         <v>5.4993999999999996</v>
@@ -8228,14 +8268,14 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>45517</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D29" s="6">
         <v>5.4891100000000002</v>
@@ -8284,14 +8324,14 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>45518</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D30" s="6">
         <v>5.44909</v>
@@ -8340,14 +8380,14 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>45519</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6">
         <v>5.4555100000000003</v>
@@ -8396,14 +8436,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>45520</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D32" s="6">
         <v>5.4542599999999997</v>
@@ -8452,14 +8492,14 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>45521</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D33" s="6">
         <v>5.4715400000000001</v>
@@ -8508,14 +8548,14 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="5">
         <v>45522</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6">
         <v>5.4715400000000001</v>
@@ -8564,14 +8604,14 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>45523</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D35" s="6">
         <v>5.4292999999999996</v>
@@ -8620,14 +8660,14 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
       <c r="B36" s="5">
         <v>45524</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6">
         <v>5.4397000000000002</v>
@@ -8676,14 +8716,14 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="5">
         <v>45525</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D37" s="6">
         <v>5.47</v>
@@ -8732,14 +8772,14 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>45526</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D38" s="6">
         <v>5.5452000000000004</v>
@@ -8788,14 +8828,14 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>45527</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D39" s="6">
         <v>5.5518000000000001</v>
@@ -8844,14 +8884,14 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>45528</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D40" s="6">
         <v>5.4859499999999999</v>
@@ -8900,14 +8940,14 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>45529</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D41" s="6">
         <v>5.4859499999999999</v>
@@ -8956,14 +8996,14 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>45530</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D42" s="6">
         <v>5.4848999999999997</v>
@@ -9012,14 +9052,14 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>45531</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D43" s="6">
         <v>5.4927000000000001</v>
@@ -9068,14 +9108,14 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>45532</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D44" s="6">
         <v>5.5304000000000002</v>
@@ -9124,14 +9164,14 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>45533</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D45" s="6">
         <v>5.6406000000000001</v>
@@ -9180,14 +9220,14 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>45534</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D46" s="6">
         <v>5.6656000000000004</v>
@@ -9236,14 +9276,14 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>45535</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D47" s="6">
         <v>5.6063799999999997</v>
@@ -9292,14 +9332,14 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>45536</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D48" s="6">
         <v>5.6063799999999997</v>
@@ -9348,14 +9388,14 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>18</v>
+      <c r="A49" s="26">
+        <v>48</v>
       </c>
       <c r="B49" s="5">
         <v>45537</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D49">
         <v>5.6504500000000002</v>
@@ -9404,14 +9444,14 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>19</v>
+      <c r="A50" s="26">
+        <v>49</v>
       </c>
       <c r="B50" s="5">
         <v>45538</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>5.6275700000000004</v>
@@ -9460,14 +9500,14 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>20</v>
+      <c r="A51" s="26">
+        <v>50</v>
       </c>
       <c r="B51" s="5">
         <v>45539</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>5.6345700000000001</v>
@@ -9516,14 +9556,14 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>23</v>
+      <c r="A52" s="26">
+        <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>45540</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D52">
         <v>5.6099100000000002</v>
@@ -9572,14 +9612,14 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>24</v>
+      <c r="A53" s="26">
+        <v>52</v>
       </c>
       <c r="B53" s="5">
         <v>45541</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D53">
         <v>5.5615600000000001</v>
@@ -9628,14 +9668,14 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>25</v>
+      <c r="A54" s="26">
+        <v>53</v>
       </c>
       <c r="B54" s="5">
         <v>45542</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D54">
         <v>5.5993899999999996</v>
@@ -9684,14 +9724,14 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>26</v>
+      <c r="A55" s="26">
+        <v>54</v>
       </c>
       <c r="B55" s="5">
         <v>45543</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D55">
         <v>5.5993899999999996</v>
@@ -9740,14 +9780,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="26">
         <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>45544</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D56">
         <v>5.6100399999999997</v>
@@ -9796,14 +9836,14 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="26">
         <v>56</v>
       </c>
       <c r="B57" s="5">
         <v>45545</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <v>5.6162900000000002</v>
@@ -9852,14 +9892,14 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="26">
         <v>57</v>
       </c>
       <c r="B58" s="5">
         <v>45546</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>5.6434600000000001</v>
@@ -9908,14 +9948,14 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>59</v>
+      <c r="A59" s="26">
+        <v>58</v>
       </c>
       <c r="B59" s="5">
         <v>45547</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D59">
         <v>5.6587300000000003</v>
@@ -9964,14 +10004,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>60</v>
+      <c r="A60" s="26">
+        <v>59</v>
       </c>
       <c r="B60" s="5">
         <v>45548</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D60">
         <v>5.5726899999999997</v>
@@ -10020,14 +10060,14 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>61</v>
+      <c r="A61" s="26">
+        <v>60</v>
       </c>
       <c r="B61" s="5">
         <v>45549</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>5.5648</v>
@@ -10076,50 +10116,59 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>62</v>
+      <c r="A62" s="26">
+        <v>61</v>
       </c>
       <c r="B62" s="5">
         <v>45550</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="6" t="e">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>5.5648</v>
+      </c>
+      <c r="E62">
+        <v>5.5648</v>
+      </c>
+      <c r="F62">
+        <v>5.5648</v>
+      </c>
+      <c r="G62" s="6">
         <f t="shared" si="23"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H62" s="6" t="e">
+        <v>5.5648</v>
+      </c>
+      <c r="H62" s="6">
         <f t="shared" si="24"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I62" s="6" t="e">
+        <v>5.5648</v>
+      </c>
+      <c r="I62" s="6">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>5.5648000000000009</v>
       </c>
       <c r="J62" s="20">
         <f t="shared" si="26"/>
-        <v>-1</v>
-      </c>
-      <c r="K62" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="K62" s="20">
         <f t="shared" si="27"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="L62" s="6">
         <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L61*(1-'2024_wise_desc'!$B$32)</f>
-        <v>5.0594003341574316</v>
+        <v>5.5893812865383836</v>
       </c>
       <c r="M62" s="6">
         <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M61*(1-'2024_wise_desc'!$B$33)</f>
-        <v>3.7299917232966875</v>
+        <v>5.5849250566300208</v>
       </c>
       <c r="N62" s="6">
         <f t="shared" si="28"/>
-        <v>5.6040536842105277</v>
+        <v>5.6020910000000015</v>
       </c>
       <c r="O62" s="6">
         <f t="shared" si="29"/>
-        <v>5.606444999999999</v>
+        <v>5.5981159999999992</v>
       </c>
     </row>
   </sheetData>
@@ -10127,7 +10176,6 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
     <ignoredError sqref="G2 I2 N21:N55 O17:O55 O6:O16 N56:O58" formulaRange="1"/>
-    <ignoredError sqref="A49:A55" numberStoredAsText="1"/>
   </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10135,23 +10183,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48303F0D-A187-4586-8FC5-1A0B7B975EA0}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="B148" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125"/>
+    <col min="2" max="2" width="12.5703125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
@@ -10159,7 +10207,7 @@
       <c r="A2" s="24">
         <v>45490.458333333336</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>5.4586899999999998</v>
       </c>
     </row>
@@ -10167,7 +10215,7 @@
       <c r="A3" s="24">
         <v>45490.708333333336</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>5.4864600000000001</v>
       </c>
     </row>
@@ -10175,7 +10223,7 @@
       <c r="A4" s="24">
         <v>45490.958333333336</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>5.4898899999999999</v>
       </c>
     </row>
@@ -10183,7 +10231,7 @@
       <c r="A5" s="24">
         <v>45491.458333333336</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>5.4920900000000001</v>
       </c>
     </row>
@@ -10191,7 +10239,7 @@
       <c r="A6" s="24">
         <v>45491.708333333336</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>5.5887500000000001</v>
       </c>
     </row>
@@ -10199,7 +10247,7 @@
       <c r="A7" s="24">
         <v>45491.958333333336</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>5.5447100000000002</v>
       </c>
     </row>
@@ -10207,7 +10255,7 @@
       <c r="A8" s="24">
         <v>45492.458333333336</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="6">
         <v>5.5445000000000002</v>
       </c>
     </row>
@@ -10215,7 +10263,7 @@
       <c r="A9" s="24">
         <v>45492.708333333336</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="6">
         <v>5.5788599999999997</v>
       </c>
     </row>
@@ -10223,7 +10271,7 @@
       <c r="A10" s="24">
         <v>45492.958333333336</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="6">
         <v>5.59816</v>
       </c>
     </row>
@@ -10231,7 +10279,7 @@
       <c r="A11" s="24">
         <v>45493.458333333336</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>5.59816</v>
       </c>
     </row>
@@ -10239,7 +10287,7 @@
       <c r="A12" s="24">
         <v>45493.708333333336</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>5.59816</v>
       </c>
     </row>
@@ -10247,7 +10295,7 @@
       <c r="A13" s="24">
         <v>45493.958333333336</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>5.59816</v>
       </c>
     </row>
@@ -10255,7 +10303,7 @@
       <c r="A14" s="24">
         <v>45494.458333333336</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>5.59816</v>
       </c>
     </row>
@@ -10263,7 +10311,7 @@
       <c r="A15" s="24">
         <v>45494.458333333336</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>5.59816</v>
       </c>
     </row>
@@ -10271,7 +10319,7 @@
       <c r="A16" s="24">
         <v>45494.708333333336</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>5.5453000000000001</v>
       </c>
     </row>
@@ -10279,7 +10327,7 @@
       <c r="A17" s="24">
         <v>45495.958333333336</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>5.5717100000000004</v>
       </c>
     </row>
@@ -10287,7 +10335,7 @@
       <c r="A18" s="24">
         <v>45495.458333333336</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>5.5692599999999999</v>
       </c>
     </row>
@@ -10295,7 +10343,7 @@
       <c r="A19" s="24">
         <v>45495.708333333336</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>5.5720900000000002</v>
       </c>
     </row>
@@ -10303,7 +10351,7 @@
       <c r="A20" s="24">
         <v>45496.958333333336</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>5.5933099999999998</v>
       </c>
     </row>
@@ -10311,7 +10359,7 @@
       <c r="A21" s="24">
         <v>45496.458333333336</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>5.5861900000000002</v>
       </c>
     </row>
@@ -10319,7 +10367,7 @@
       <c r="A22" s="24">
         <v>45496.708333333336</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>5.5865600000000004</v>
       </c>
     </row>
@@ -10327,7 +10375,7 @@
       <c r="A23" s="24">
         <v>45497.958333333336</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>5.6412399999999998</v>
       </c>
     </row>
@@ -10335,7 +10383,7 @@
       <c r="A24" s="24">
         <v>45497.458333333336</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>5.6542899999999996</v>
       </c>
     </row>
@@ -10343,7 +10391,7 @@
       <c r="A25" s="24">
         <v>45497.708333333336</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>5.6550500000000001</v>
       </c>
     </row>
@@ -10351,7 +10399,7 @@
       <c r="A26" s="24">
         <v>45498.958333333336</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>5.6501999999999999</v>
       </c>
     </row>
@@ -10359,7 +10407,7 @@
       <c r="A27" s="24">
         <v>45498.458333333336</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>5.64764</v>
       </c>
     </row>
@@ -10367,7 +10415,7 @@
       <c r="A28" s="24">
         <v>45498.458333333336</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>5.6452499999999999</v>
       </c>
     </row>
@@ -10375,7 +10423,7 @@
       <c r="A29" s="24">
         <v>45499.708333333336</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>5.6402900000000002</v>
       </c>
     </row>
@@ -10383,7 +10431,7 @@
       <c r="A30" s="24">
         <v>45499.958333333336</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>5.6578400000000002</v>
       </c>
     </row>
@@ -10391,7 +10439,7 @@
       <c r="A31" s="24">
         <v>45499.458333333336</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>5.6562999999999999</v>
       </c>
     </row>
@@ -10399,7 +10447,7 @@
       <c r="A32" s="24">
         <v>45500.708333333336</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>5.6562999999999999</v>
       </c>
     </row>
@@ -10407,7 +10455,7 @@
       <c r="A33" s="24">
         <v>45500.958333333336</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>5.6562999999999999</v>
       </c>
     </row>
@@ -10415,7 +10463,7 @@
       <c r="A34" s="24">
         <v>45500.458333333336</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>5.6562999999999999</v>
       </c>
     </row>
@@ -10423,7 +10471,7 @@
       <c r="A35" s="24">
         <v>45501.708333333336</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>5.6562999999999999</v>
       </c>
     </row>
@@ -10431,7 +10479,7 @@
       <c r="A36" s="24">
         <v>45501.958333333336</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>5.65665</v>
       </c>
     </row>
@@ -10439,7 +10487,7 @@
       <c r="A37" s="24">
         <v>45501.458333333336</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>5.6568100000000001</v>
       </c>
     </row>
@@ -10447,7 +10495,7 @@
       <c r="A38" s="24">
         <v>45502.708333333336</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>5.6509</v>
       </c>
     </row>
@@ -10455,7 +10503,7 @@
       <c r="A39" s="24">
         <v>45502.958333333336</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>5.6242999999999999</v>
       </c>
     </row>
@@ -10463,7 +10511,7 @@
       <c r="A40" s="24">
         <v>45502.458333333336</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>5.6160800000000002</v>
       </c>
     </row>
@@ -10471,7 +10519,7 @@
       <c r="A41" s="24">
         <v>45503.708333333336</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>5.6556600000000001</v>
       </c>
     </row>
@@ -10479,7 +10527,7 @@
       <c r="A42" s="24">
         <v>45503.958333333336</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>5.6123000000000003</v>
       </c>
     </row>
@@ -10487,7 +10535,7 @@
       <c r="A43" s="24">
         <v>45503.458333333336</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>5.6125499999999997</v>
       </c>
     </row>
@@ -10495,7 +10543,7 @@
       <c r="A44" s="24">
         <v>45504.458333333336</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>5.6746600000000003</v>
       </c>
     </row>
@@ -10503,7 +10551,7 @@
       <c r="A45" s="24">
         <v>45504.708333333336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>5.6479900000000001</v>
       </c>
     </row>
@@ -10511,7 +10559,7 @@
       <c r="A46" s="24">
         <v>45504.958333333336</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>5.6578999999999997</v>
       </c>
     </row>
@@ -10519,7 +10567,7 @@
       <c r="A47" s="24">
         <v>45505.458333333336</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>5.6421900000000003</v>
       </c>
     </row>
@@ -10527,7 +10575,7 @@
       <c r="A48" s="24">
         <v>45505.708333333336</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>5.7348699999999999</v>
       </c>
     </row>
@@ -10535,7 +10583,7 @@
       <c r="A49" s="24">
         <v>45505.958333333336</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>5.7524199999999999</v>
       </c>
     </row>
@@ -10543,7 +10591,7 @@
       <c r="A50" s="24">
         <v>45506.458333333336</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>5.7158499999999997</v>
       </c>
     </row>
@@ -10551,7 +10599,7 @@
       <c r="A51" s="24">
         <v>45506.708333333336</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>5.7095900000000004</v>
       </c>
     </row>
@@ -10559,7 +10607,7 @@
       <c r="A52" s="24">
         <v>45506.958333333336</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>5.7280699999999998</v>
       </c>
     </row>
@@ -10567,7 +10615,7 @@
       <c r="A53" s="24">
         <v>45507.458333333336</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>5.7280699999999998</v>
       </c>
     </row>
@@ -10575,7 +10623,7 @@
       <c r="A54" s="24">
         <v>45507.458333333336</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
         <v>5.7280699999999998</v>
       </c>
     </row>
@@ -10583,7 +10631,7 @@
       <c r="A55" s="24">
         <v>45507.708333333336</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
         <v>5.7280699999999998</v>
       </c>
     </row>
@@ -10591,7 +10639,7 @@
       <c r="A56" s="24">
         <v>45508.958333333336</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="6">
         <v>5.7280699999999998</v>
       </c>
     </row>
@@ -10599,7 +10647,7 @@
       <c r="A57" s="24">
         <v>45508.458333333336</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="6">
         <v>5.7272100000000004</v>
       </c>
     </row>
@@ -10607,7 +10655,7 @@
       <c r="A58" s="24">
         <v>45508.708333333336</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="6">
         <v>5.7281000000000004</v>
       </c>
     </row>
@@ -10615,7 +10663,7 @@
       <c r="A59" s="24">
         <v>45509.958333333336</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="6">
         <v>5.8010999999999999</v>
       </c>
     </row>
@@ -10623,7 +10671,7 @@
       <c r="A60" s="24">
         <v>45509.458333333336</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="6">
         <v>5.7407599999999999</v>
       </c>
     </row>
@@ -10631,7 +10679,7 @@
       <c r="A61" s="24">
         <v>45509.708333333336</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="6">
         <v>5.7229799999999997</v>
       </c>
     </row>
@@ -10639,7 +10687,7 @@
       <c r="A62" s="24">
         <v>45510.958333333336</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="6">
         <v>5.6627099999999997</v>
       </c>
     </row>
@@ -10647,7 +10695,7 @@
       <c r="A63" s="24">
         <v>45510.458333333336</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="6">
         <v>5.6586100000000004</v>
       </c>
     </row>
@@ -10655,7 +10703,7 @@
       <c r="A64" s="24">
         <v>45510.708333333336</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>5.6571600000000002</v>
       </c>
     </row>
@@ -10663,7 +10711,7 @@
       <c r="A65" s="24">
         <v>45511.958333333336</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>5.6033099999999996</v>
       </c>
     </row>
@@ -10671,7 +10719,7 @@
       <c r="A66" s="24">
         <v>45511.458333333336</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>5.6236600000000001</v>
       </c>
     </row>
@@ -10679,7 +10727,7 @@
       <c r="A67" s="24">
         <v>45511.458333333336</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="6">
         <v>5.6373899999999999</v>
       </c>
     </row>
@@ -10687,7 +10735,7 @@
       <c r="A68" s="24">
         <v>45512.708333333336</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="6">
         <v>5.617</v>
       </c>
     </row>
@@ -10695,7 +10743,7 @@
       <c r="A69" s="24">
         <v>45512.958333333336</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="6">
         <v>5.5742599999999998</v>
       </c>
     </row>
@@ -10703,7 +10751,7 @@
       <c r="A70" s="24">
         <v>45512.458333333336</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="6">
         <v>5.5475099999999999</v>
       </c>
     </row>
@@ -10711,7 +10759,7 @@
       <c r="A71" s="24">
         <v>45513.458333333336</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="6">
         <v>5.5172400000000001</v>
       </c>
     </row>
@@ -10719,7 +10767,7 @@
       <c r="A72" s="24">
         <v>45513.708333333336</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>5.5146600000000001</v>
       </c>
     </row>
@@ -10727,7 +10775,7 @@
       <c r="A73" s="24">
         <v>45513.958333333336</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="6">
         <v>5.5087000000000002</v>
       </c>
     </row>
@@ -10735,7 +10783,7 @@
       <c r="A74" s="24">
         <v>45514.458333333336</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="6">
         <v>5.5087000000000002</v>
       </c>
     </row>
@@ -10743,7 +10791,7 @@
       <c r="A75" s="24">
         <v>45514.708333333336</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="6">
         <v>5.5087000000000002</v>
       </c>
     </row>
@@ -10751,7 +10799,7 @@
       <c r="A76" s="24">
         <v>45514.958333333336</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="6">
         <v>5.5087000000000002</v>
       </c>
     </row>
@@ -10759,7 +10807,7 @@
       <c r="A77" s="24">
         <v>45515.458333333336</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="6">
         <v>5.4993999999999996</v>
       </c>
     </row>
@@ -10767,7 +10815,7 @@
       <c r="A78" s="24">
         <v>45515.708333333336</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>5.4977400000000003</v>
       </c>
     </row>
@@ -10775,7 +10823,7 @@
       <c r="A79" s="24">
         <v>45515.958333333336</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="6">
         <v>5.4938399999999996</v>
       </c>
     </row>
@@ -10783,7 +10831,7 @@
       <c r="A80" s="24">
         <v>45516.458333333336</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="6">
         <v>5.4993999999999996</v>
       </c>
     </row>
@@ -10791,7 +10839,7 @@
       <c r="A81" s="24">
         <v>45516.708333333336</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="6">
         <v>5.4877399999999996</v>
       </c>
     </row>
@@ -10799,7 +10847,7 @@
       <c r="A82" s="24">
         <v>45516.958333333336</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="6">
         <v>5.4938399999999996</v>
       </c>
     </row>
@@ -10807,7 +10855,7 @@
       <c r="A83" s="24">
         <v>45517.458333333336</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="6">
         <v>5.4891100000000002</v>
       </c>
     </row>
@@ -10815,7 +10863,7 @@
       <c r="A84" s="24">
         <v>45517.458333333336</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="6">
         <v>5.4487899999999998</v>
       </c>
     </row>
@@ -10823,7 +10871,7 @@
       <c r="A85" s="24">
         <v>45517.708333333336</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="6">
         <v>5.4572900000000004</v>
       </c>
     </row>
@@ -10831,7 +10879,7 @@
       <c r="A86" s="24">
         <v>45518.958333333336</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="6">
         <v>5.44909</v>
       </c>
     </row>
@@ -10839,7 +10887,7 @@
       <c r="A87" s="24">
         <v>45518.458333333336</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>5.46896</v>
       </c>
     </row>
@@ -10847,7 +10895,7 @@
       <c r="A88" s="24">
         <v>45518.458333333336</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>5.4706099999999998</v>
       </c>
     </row>
@@ -10855,7 +10903,7 @@
       <c r="A89" s="24">
         <v>45519.708333333336</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="6">
         <v>5.4555100000000003</v>
       </c>
     </row>
@@ -10863,7 +10911,7 @@
       <c r="A90" s="24">
         <v>45519.958333333336</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="6">
         <v>5.4836900000000002</v>
       </c>
     </row>
@@ -10871,7 +10919,7 @@
       <c r="A91" s="24">
         <v>45519.458333333336</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>5.4863400000000002</v>
       </c>
     </row>
@@ -10879,7 +10927,7 @@
       <c r="A92" s="24">
         <v>45520.708333333336</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="6">
         <v>5.4542599999999997</v>
       </c>
     </row>
@@ -10887,7 +10935,7 @@
       <c r="A93" s="24">
         <v>45520.958333333336</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="6">
         <v>5.46624</v>
       </c>
     </row>
@@ -10895,7 +10943,7 @@
       <c r="A94" s="24">
         <v>45520.458333333336</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="6">
         <v>5.4715400000000001</v>
       </c>
     </row>
@@ -10903,7 +10951,7 @@
       <c r="A95" s="24">
         <v>45521.708333333336</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="6">
         <v>5.4715400000000001</v>
       </c>
     </row>
@@ -10911,7 +10959,7 @@
       <c r="A96" s="24">
         <v>45521.958333333336</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="6">
         <v>5.4715400000000001</v>
       </c>
     </row>
@@ -10919,7 +10967,7 @@
       <c r="A97" s="24">
         <v>45521.458333333336</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="6">
         <v>5.4715400000000001</v>
       </c>
     </row>
@@ -10927,7 +10975,7 @@
       <c r="A98" s="24">
         <v>45522.708333333336</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="6">
         <v>5.4715400000000001</v>
       </c>
     </row>
@@ -10935,7 +10983,7 @@
       <c r="A99" s="24">
         <v>45522.958333333336</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="6">
         <v>5.4715400000000001</v>
       </c>
     </row>
@@ -10943,7 +10991,7 @@
       <c r="A100" s="24">
         <v>45522.458333333336</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="6">
         <v>5.4694000000000003</v>
       </c>
     </row>
@@ -10951,7 +10999,7 @@
       <c r="A101" s="24">
         <v>45523.458333333336</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="6">
         <v>5.4292999999999996</v>
       </c>
     </row>
@@ -10959,7 +11007,7 @@
       <c r="A102" s="24">
         <v>45523.708333333336</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="6">
         <v>5.4124999999999996</v>
       </c>
     </row>
@@ -10967,7 +11015,7 @@
       <c r="A103" s="24">
         <v>45523.958333333336</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="6">
         <v>5.4063999999999997</v>
       </c>
     </row>
@@ -10975,7 +11023,7 @@
       <c r="A104" s="24">
         <v>45524.458333333336</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="6">
         <v>5.4397000000000002</v>
       </c>
     </row>
@@ -10983,7 +11031,7 @@
       <c r="A105" s="24">
         <v>45524.708333333336</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="6">
         <v>5.4852999999999996</v>
       </c>
     </row>
@@ -10991,7 +11039,7 @@
       <c r="A106" s="24">
         <v>45524.958333333336</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="6">
         <v>5.4795999999999996</v>
       </c>
     </row>
@@ -10999,7 +11047,7 @@
       <c r="A107" s="24">
         <v>45525.458333333336</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="6">
         <v>5.47</v>
       </c>
     </row>
@@ -11007,7 +11055,7 @@
       <c r="A108" s="24">
         <v>45525.708333333336</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="6">
         <v>5.4812000000000003</v>
       </c>
     </row>
@@ -11015,7 +11063,7 @@
       <c r="A109" s="24">
         <v>45525.958333333336</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="6">
         <v>5.4836999999999998</v>
       </c>
     </row>
@@ -11023,7 +11071,7 @@
       <c r="A110" s="24">
         <v>45526.458333333336</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="6">
         <v>5.5452000000000004</v>
       </c>
     </row>
@@ -11031,7 +11079,7 @@
       <c r="A111" s="24">
         <v>45526.708333333336</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="6">
         <v>5.5896999999999997</v>
       </c>
     </row>
@@ -11039,7 +11087,7 @@
       <c r="A112" s="24">
         <v>45526.958333333336</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="6">
         <v>5.5921000000000003</v>
       </c>
     </row>
@@ -11047,7 +11095,7 @@
       <c r="A113" s="24">
         <v>45527.458333333336</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="6">
         <v>5.5518000000000001</v>
       </c>
     </row>
@@ -11055,7 +11103,7 @@
       <c r="A114" s="24">
         <v>45527.708333333336</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="6">
         <v>5.4794999999999998</v>
       </c>
     </row>
@@ -11063,7 +11111,7 @@
       <c r="A115" s="24">
         <v>45527.958333333336</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="6">
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -11071,7 +11119,7 @@
       <c r="A116" s="24">
         <v>45528.458333333336</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="6">
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -11079,7 +11127,7 @@
       <c r="A117" s="24">
         <v>45528.458333333336</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="6">
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -11087,7 +11135,7 @@
       <c r="A118" s="24">
         <v>45528.708333333336</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="6">
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -11095,7 +11143,7 @@
       <c r="A119" s="24">
         <v>45529.958333333336</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="6">
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -11103,7 +11151,7 @@
       <c r="A120" s="24">
         <v>45529.458333333336</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="6">
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -11111,7 +11159,7 @@
       <c r="A121" s="24">
         <v>45529.708333333336</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="6">
         <v>5.4859499999999999</v>
       </c>
     </row>
@@ -11119,7 +11167,7 @@
       <c r="A122" s="24">
         <v>45530.458333333336</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="6">
         <v>5.4848999999999997</v>
       </c>
     </row>
@@ -11127,7 +11175,7 @@
       <c r="A123" s="24">
         <v>45530.708333333336</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="6">
         <v>5.4917999999999996</v>
       </c>
     </row>
@@ -11135,7 +11183,7 @@
       <c r="A124" s="24">
         <v>45530.958333333336</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="6">
         <v>5.4972000000000003</v>
       </c>
     </row>
@@ -11143,7 +11191,7 @@
       <c r="A125" s="24">
         <v>45531.458333333336</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="6">
         <v>5.4927000000000001</v>
       </c>
     </row>
@@ -11151,7 +11199,7 @@
       <c r="A126" s="24">
         <v>45531.708333333336</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="6">
         <v>5.5025000000000004</v>
       </c>
     </row>
@@ -11159,7 +11207,7 @@
       <c r="A127" s="24">
         <v>45531.958333333336</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="6">
         <v>5.5094000000000003</v>
       </c>
     </row>
@@ -11167,7 +11215,7 @@
       <c r="A128" s="24">
         <v>45532.458333333336</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="6">
         <v>5.5304000000000002</v>
       </c>
     </row>
@@ -11175,7 +11223,7 @@
       <c r="A129" s="24">
         <v>45532.708333333336</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="6">
         <v>5.5549799999999996</v>
       </c>
     </row>
@@ -11183,7 +11231,7 @@
       <c r="A130" s="24">
         <v>45532.958333333336</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="6">
         <v>5.5633999999999997</v>
       </c>
     </row>
@@ -11191,7 +11239,7 @@
       <c r="A131" s="24">
         <v>45533.458333333336</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="6">
         <v>5.6406000000000001</v>
       </c>
     </row>
@@ -11199,7 +11247,7 @@
       <c r="A132" s="24">
         <v>45533.708333333336</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="6">
         <v>5.6227</v>
       </c>
     </row>
@@ -11207,7 +11255,7 @@
       <c r="A133" s="24">
         <v>45533.958333333336</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="6">
         <v>5.6288999999999998</v>
       </c>
     </row>
@@ -11215,7 +11263,7 @@
       <c r="A134" s="24">
         <v>45534.458333333336</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="6">
         <v>5.6656000000000004</v>
       </c>
     </row>
@@ -11223,7 +11271,7 @@
       <c r="A135" s="24">
         <v>45534.708333333336</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="6">
         <v>5.6341000000000001</v>
       </c>
     </row>
@@ -11231,7 +11279,7 @@
       <c r="A136" s="24">
         <v>45534.958333333336</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="6">
         <v>5.6063799999999997</v>
       </c>
     </row>
@@ -11239,7 +11287,7 @@
       <c r="A137" s="24">
         <v>45535.458333333336</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="6">
         <v>5.6063799999999997</v>
       </c>
     </row>
@@ -11247,7 +11295,7 @@
       <c r="A138" s="24">
         <v>45535.708333333336</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="6">
         <v>5.6063799999999997</v>
       </c>
     </row>
@@ -11255,7 +11303,7 @@
       <c r="A139" s="24">
         <v>45535.958333333336</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="6">
         <v>5.6063799999999997</v>
       </c>
     </row>
@@ -11263,7 +11311,7 @@
       <c r="A140" s="24">
         <v>45536.458333333336</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="6">
         <v>5.6063799999999997</v>
       </c>
     </row>
@@ -11271,7 +11319,7 @@
       <c r="A141" s="24">
         <v>45536.708333333336</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="6">
         <v>5.6063799999999997</v>
       </c>
     </row>
@@ -11279,7 +11327,7 @@
       <c r="A142" s="24">
         <v>45536.958333333336</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="6">
         <v>5.6116900000000003</v>
       </c>
     </row>
@@ -11287,7 +11335,7 @@
       <c r="A143" s="24">
         <v>45537.458333333336</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="6">
         <v>5.6504500000000002</v>
       </c>
     </row>
@@ -11295,7 +11343,7 @@
       <c r="A144" s="24">
         <v>45537.708333333336</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="6">
         <v>5.6259499999999996</v>
       </c>
     </row>
@@ -11303,7 +11351,7 @@
       <c r="A145" s="24">
         <v>45537.958333333336</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="6">
         <v>5.6165599999999998</v>
       </c>
     </row>
@@ -11311,7 +11359,7 @@
       <c r="A146" s="24">
         <v>45538.458333333336</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="6">
         <v>5.6275700000000004</v>
       </c>
     </row>
@@ -11319,7 +11367,7 @@
       <c r="A147" s="24">
         <v>45538.708333333336</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="6">
         <v>5.6402099999999997</v>
       </c>
     </row>
@@ -11327,7 +11375,7 @@
       <c r="A148" s="24">
         <v>45538.958333333336</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="6">
         <v>5.6492100000000001</v>
       </c>
     </row>
@@ -11335,7 +11383,7 @@
       <c r="A149" s="24">
         <v>45539.458333333336</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="6">
         <v>5.6345700000000001</v>
       </c>
     </row>
@@ -11343,7 +11391,7 @@
       <c r="A150" s="24">
         <v>45539.708333333336</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="6">
         <v>5.6393000000000004</v>
       </c>
     </row>
@@ -11351,7 +11399,7 @@
       <c r="A151" s="24">
         <v>45539.958333333336</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="6">
         <v>5.6435000000000004</v>
       </c>
     </row>
@@ -11359,7 +11407,7 @@
       <c r="A152" s="24">
         <v>45540.458333333336</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="6">
         <v>5.6099100000000002</v>
       </c>
     </row>
@@ -11367,7 +11415,7 @@
       <c r="A153" s="24">
         <v>45540.708333333336</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="6">
         <v>5.5724999999999998</v>
       </c>
     </row>
@@ -11375,7 +11423,7 @@
       <c r="A154" s="24">
         <v>45540.958333333336</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="6">
         <v>5.5689000000000002</v>
       </c>
     </row>
@@ -11383,7 +11431,7 @@
       <c r="A155" s="24">
         <v>45541.458333333336</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="6">
         <v>5.5615600000000001</v>
       </c>
     </row>
@@ -11391,7 +11439,7 @@
       <c r="A156" s="24">
         <v>45541.708333333336</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="6">
         <v>5.5899900000000002</v>
       </c>
     </row>
@@ -11399,7 +11447,7 @@
       <c r="A157" s="24">
         <v>45541.958333333336</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="6">
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -11407,7 +11455,7 @@
       <c r="A158" s="24">
         <v>45542.458333333336</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="6">
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -11415,7 +11463,7 @@
       <c r="A159" s="24">
         <v>45542.708333333336</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="6">
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -11423,7 +11471,7 @@
       <c r="A160" s="24">
         <v>45542.958333333336</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="6">
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -11431,7 +11479,7 @@
       <c r="A161" s="24">
         <v>45543.458333333336</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="6">
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -11439,7 +11487,7 @@
       <c r="A162" s="24">
         <v>45543.708333333336</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="6">
         <v>5.5993899999999996</v>
       </c>
     </row>
@@ -11447,7 +11495,7 @@
       <c r="A163" s="24">
         <v>45543.958333333336</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="6">
         <v>5.5987099999999996</v>
       </c>
     </row>
@@ -11455,7 +11503,7 @@
       <c r="A164" s="24">
         <v>45544.458333333336</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="6">
         <v>5.6100399999999997</v>
       </c>
     </row>
@@ -11463,7 +11511,7 @@
       <c r="A165" s="24">
         <v>45544.708333333336</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="6">
         <v>5.5858100000000004</v>
       </c>
     </row>
@@ -11471,7 +11519,7 @@
       <c r="A166" s="24">
         <v>45544.958333333336</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="6">
         <v>5.5851600000000001</v>
       </c>
     </row>
@@ -11479,7 +11527,7 @@
       <c r="A167" s="24">
         <v>45545.458333333336</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="6">
         <v>5.6162900000000002</v>
       </c>
     </row>
@@ -11487,7 +11535,7 @@
       <c r="A168" s="24">
         <v>45545.708333333336</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="6">
         <v>5.6537199999999999</v>
       </c>
     </row>
@@ -11495,7 +11543,7 @@
       <c r="A169" s="24">
         <v>45545.958333333336</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="6">
         <v>5.6643100000000004</v>
       </c>
     </row>
@@ -11503,7 +11551,7 @@
       <c r="A170" s="24">
         <v>45546.458333333336</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="6">
         <v>5.6434600000000001</v>
       </c>
     </row>
@@ -11511,7 +11559,7 @@
       <c r="A171" s="24">
         <v>45546.708333333336</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="6">
         <v>5.6589900000000002</v>
       </c>
     </row>
@@ -11519,7 +11567,7 @@
       <c r="A172" s="24">
         <v>45546.958333333336</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="6">
         <v>5.66906</v>
       </c>
     </row>
@@ -11527,7 +11575,7 @@
       <c r="A173" s="24">
         <v>45547.458333333336</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="6">
         <v>5.6587300000000003</v>
       </c>
     </row>
@@ -11535,7 +11583,7 @@
       <c r="A174" s="24">
         <v>45547.708333333336</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="6">
         <v>5.6176599999999999</v>
       </c>
     </row>
@@ -11543,7 +11591,7 @@
       <c r="A175" s="24">
         <v>45547.958333333336</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="6">
         <v>5.6271199999999997</v>
       </c>
     </row>
@@ -11551,7 +11599,7 @@
       <c r="A176" s="24">
         <v>45548.458333333336</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="6">
         <v>5.5726899999999997</v>
       </c>
     </row>
@@ -11559,7 +11607,7 @@
       <c r="A177" s="24">
         <v>45548.708333333336</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="6">
         <v>5.5674000000000001</v>
       </c>
     </row>
@@ -11567,7 +11615,7 @@
       <c r="A178" s="24">
         <v>45548.958333333336</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="6">
         <v>5.5648</v>
       </c>
     </row>
@@ -11575,7 +11623,7 @@
       <c r="A179" s="24">
         <v>45549.458333333336</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="6">
         <v>5.5648</v>
       </c>
     </row>
@@ -11583,7 +11631,7 @@
       <c r="A180" s="24">
         <v>45549.708333333336</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="6">
         <v>5.5648</v>
       </c>
     </row>
@@ -11591,7 +11639,31 @@
       <c r="A181" s="24">
         <v>45549.958333333336</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="6">
+        <v>5.5648</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="24">
+        <v>45548.458333333336</v>
+      </c>
+      <c r="B182" s="6">
+        <v>5.5648</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="24">
+        <v>45548.708333333336</v>
+      </c>
+      <c r="B183" s="6">
+        <v>5.5648</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="24">
+        <v>45548.958333333336</v>
+      </c>
+      <c r="B184" s="6">
         <v>5.5648</v>
       </c>
     </row>
@@ -11605,13 +11677,13 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="26" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="6"/>
@@ -11625,14 +11697,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>15</v>
@@ -11653,33 +11725,33 @@
         <v>17</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>45490</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6">
         <v>5.9731800000000002</v>
@@ -11722,14 +11794,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="5">
         <v>45491</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6">
         <v>6.00298</v>
@@ -11774,14 +11846,14 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>45492</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6">
         <v>6.0396299999999998</v>
@@ -11826,14 +11898,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>45493</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D5" s="6">
         <v>6.0924699999999996</v>
@@ -11878,14 +11950,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>45494</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="6">
         <v>6.0924699999999996</v>
@@ -11931,14 +12003,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="5">
         <v>45495</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6">
         <v>6.0609000000000002</v>
@@ -11985,14 +12057,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>45496</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6">
         <v>6.0692899999999996</v>
@@ -12039,14 +12111,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="5">
         <v>45497</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
         <v>6.1232899999999999</v>
@@ -12093,14 +12165,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>45498</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>6.1245200000000004</v>
@@ -12147,14 +12219,14 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>45499</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D11" s="6">
         <v>6.1281999999999996</v>
@@ -12201,14 +12273,14 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
       <c r="B12" s="5">
         <v>45500</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6">
         <v>6.1404699999999997</v>
@@ -12255,14 +12327,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="9">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>45501</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D13" s="6">
         <v>6.1404699999999997</v>
@@ -12309,14 +12381,14 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A14" s="9">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
       <c r="B14" s="5">
         <v>45502</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6">
         <v>6.1089200000000003</v>
@@ -12363,14 +12435,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="9">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
       <c r="B15" s="5">
         <v>45503</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D15" s="6">
         <v>6.1143400000000003</v>
@@ -12417,14 +12489,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" s="9">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>45504</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16" s="6">
         <v>6.15245</v>
@@ -12471,14 +12543,14 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="9">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>45505</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6">
         <v>6.0955500000000002</v>
@@ -12525,14 +12597,14 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9">
+      <c r="A18" s="26">
         <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>45506</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6">
         <v>6.2333999999999996</v>
@@ -12579,14 +12651,14 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
       <c r="B19" s="5">
         <v>45507</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6">
         <v>6.2495700000000003</v>
@@ -12633,14 +12705,14 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9">
+      <c r="A20" s="26">
         <v>19</v>
       </c>
       <c r="B20" s="5">
         <v>45508</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D20" s="6">
         <v>6.2495700000000003</v>
@@ -12687,14 +12759,14 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="9">
+      <c r="A21" s="26">
         <v>20</v>
       </c>
       <c r="B21" s="5">
         <v>45509</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6">
         <v>6.3701999999999996</v>
@@ -12742,14 +12814,14 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="9">
+      <c r="A22" s="26">
         <v>21</v>
       </c>
       <c r="B22" s="5">
         <v>45510</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D22" s="6">
         <v>6.1828000000000003</v>
@@ -12798,14 +12870,14 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="9">
+      <c r="A23" s="26">
         <v>22</v>
       </c>
       <c r="B23" s="5">
         <v>45511</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6">
         <v>6.1179699999999997</v>
@@ -12854,14 +12926,14 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="9">
+      <c r="A24" s="26">
         <v>23</v>
       </c>
       <c r="B24" s="5">
         <v>45512</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D24" s="6">
         <v>6.1177400000000004</v>
@@ -12910,14 +12982,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="9">
+      <c r="A25" s="26">
         <v>24</v>
       </c>
       <c r="B25" s="5">
         <v>45513</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6">
         <v>6.0171000000000001</v>
@@ -12966,14 +13038,14 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="9">
+      <c r="A26" s="26">
         <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>45514</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D26" s="6">
         <v>6.0135500000000004</v>
@@ -13022,14 +13094,14 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="9">
+      <c r="A27" s="26">
         <v>26</v>
       </c>
       <c r="B27" s="5">
         <v>45515</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D27" s="6">
         <v>6.0078100000000001</v>
@@ -13078,14 +13150,14 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="9">
+      <c r="A28" s="26">
         <v>27</v>
       </c>
       <c r="B28" s="5">
         <v>45516</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D28" s="6">
         <v>6.0078100000000001</v>
@@ -13134,14 +13206,14 @@
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="9">
+      <c r="A29" s="26">
         <v>28</v>
       </c>
       <c r="B29" s="5">
         <v>45517</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D29" s="6">
         <v>6.0146800000000002</v>
@@ -13190,14 +13262,14 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="9">
+      <c r="A30" s="26">
         <v>29</v>
       </c>
       <c r="B30" s="5">
         <v>45518</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D30" s="6">
         <v>6.0144599999999997</v>
@@ -13246,14 +13318,14 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+      <c r="A31" s="26">
         <v>30</v>
       </c>
       <c r="B31" s="5">
         <v>45519</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D31" s="6">
         <v>5.9838699999999996</v>
@@ -13302,14 +13374,14 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="9">
+      <c r="A32" s="26">
         <v>31</v>
       </c>
       <c r="B32" s="5">
         <v>45520</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D32" s="6">
         <v>6.0010300000000001</v>
@@ -13358,14 +13430,14 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="9">
+      <c r="A33" s="26">
         <v>32</v>
       </c>
       <c r="B33" s="5">
         <v>45521</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D33" s="6">
         <v>6.03376</v>
@@ -13414,14 +13486,14 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34" s="26">
         <v>33</v>
       </c>
       <c r="B34" s="5">
         <v>45522</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D34" s="6">
         <v>6.03376</v>
@@ -13470,14 +13542,14 @@
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35" s="26">
         <v>34</v>
       </c>
       <c r="B35" s="5">
         <v>45523</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D35" s="6">
         <v>5.9958999999999998</v>
@@ -13526,14 +13598,14 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
       <c r="B36" s="5">
         <v>45524</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D36" s="6">
         <v>6.0391000000000004</v>
@@ -13582,14 +13654,14 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37" s="26">
         <v>36</v>
       </c>
       <c r="B37" s="5">
         <v>45525</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D37" s="6">
         <v>6.0796000000000001</v>
@@ -13638,14 +13710,14 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38" s="26">
         <v>37</v>
       </c>
       <c r="B38" s="5">
         <v>45526</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D38" s="6">
         <v>6.1086999999999998</v>
@@ -13694,14 +13766,14 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+      <c r="A39" s="26">
         <v>38</v>
       </c>
       <c r="B39" s="5">
         <v>45527</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D39" s="6">
         <v>6.1725000000000003</v>
@@ -13750,14 +13822,14 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="9">
+      <c r="A40" s="26">
         <v>39</v>
       </c>
       <c r="B40" s="5">
         <v>45528</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D40" s="6">
         <v>6.1401700000000003</v>
@@ -13806,14 +13878,14 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" s="9">
+      <c r="A41" s="26">
         <v>40</v>
       </c>
       <c r="B41" s="5">
         <v>45529</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D41" s="6">
         <v>6.1401700000000003</v>
@@ -13862,14 +13934,14 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="5">
         <v>45530</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D42" s="6">
         <v>6.1208999999999998</v>
@@ -13918,14 +13990,14 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43" s="26">
         <v>42</v>
       </c>
       <c r="B43" s="5">
         <v>45531</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D43" s="6">
         <v>6.1345000000000001</v>
@@ -13974,14 +14046,14 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44" s="26">
         <v>43</v>
       </c>
       <c r="B44" s="5">
         <v>45532</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D44" s="6">
         <v>6.1444999999999999</v>
@@ -14030,14 +14102,14 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45" s="26">
         <v>44</v>
       </c>
       <c r="B45" s="5">
         <v>45533</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D45" s="6">
         <v>6.2511999999999999</v>
@@ -14086,14 +14158,14 @@
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="A46" s="26">
         <v>45</v>
       </c>
       <c r="B46" s="5">
         <v>45534</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D46" s="6">
         <v>6.2614000000000001</v>
@@ -14142,14 +14214,14 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+      <c r="A47" s="26">
         <v>46</v>
       </c>
       <c r="B47" s="5">
         <v>45535</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D47" s="6">
         <v>6.1933699999999998</v>
@@ -14198,14 +14270,14 @@
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48" s="26">
         <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>45536</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D48" s="6">
         <v>6.1933699999999998</v>
@@ -14254,14 +14326,14 @@
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>18</v>
+      <c r="A49" s="26">
+        <v>48</v>
       </c>
       <c r="B49" s="5">
         <v>45537</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D49">
         <v>6.2514799999999999</v>
@@ -14310,14 +14382,14 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>19</v>
+      <c r="A50" s="26">
+        <v>49</v>
       </c>
       <c r="B50" s="5">
         <v>45538</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D50">
         <v>6.2251500000000002</v>
@@ -14366,14 +14438,14 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>20</v>
+      <c r="A51" s="26">
+        <v>50</v>
       </c>
       <c r="B51" s="5">
         <v>45539</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>6.2382799999999996</v>
@@ -14422,14 +14494,14 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>23</v>
+      <c r="A52" s="26">
+        <v>51</v>
       </c>
       <c r="B52" s="5">
         <v>45540</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D52">
         <v>6.22342</v>
@@ -14478,14 +14550,14 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>24</v>
+      <c r="A53" s="26">
+        <v>52</v>
       </c>
       <c r="B53" s="5">
         <v>45541</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D53">
         <v>6.1641300000000001</v>
@@ -14534,14 +14606,14 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>25</v>
+      <c r="A54" s="26">
+        <v>53</v>
       </c>
       <c r="B54" s="5">
         <v>45542</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D54">
         <v>6.2072099999999999</v>
@@ -14590,14 +14662,14 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
-        <v>26</v>
+      <c r="A55" s="26">
+        <v>54</v>
       </c>
       <c r="B55" s="5">
         <v>45543</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D55">
         <v>6.2072099999999999</v>
@@ -14646,14 +14718,14 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="26">
         <v>55</v>
       </c>
       <c r="B56" s="5">
         <v>45544</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D56">
         <v>6.1954399999999996</v>
@@ -14702,14 +14774,14 @@
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="26">
         <v>56</v>
       </c>
       <c r="B57" s="5">
         <v>45545</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D57">
         <v>6.1889099999999999</v>
@@ -14758,14 +14830,14 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="26">
         <v>57</v>
       </c>
       <c r="B58" s="5">
         <v>45546</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D58">
         <v>6.2134999999999998</v>
@@ -14814,14 +14886,14 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
-        <v>59</v>
+      <c r="A59" s="26">
+        <v>58</v>
       </c>
       <c r="B59" s="5">
         <v>45547</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D59">
         <v>6.2440899999999999</v>
@@ -14870,14 +14942,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="8" t="s">
-        <v>60</v>
+      <c r="A60" s="26">
+        <v>59</v>
       </c>
       <c r="B60" s="5">
         <v>45548</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D60">
         <v>6.1826600000000003</v>
@@ -14926,14 +14998,14 @@
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>61</v>
+      <c r="A61" s="26">
+        <v>60</v>
       </c>
       <c r="B61" s="5">
         <v>45549</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>6.1635600000000004</v>
@@ -14982,216 +15054,224 @@
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="8" t="s">
-        <v>62</v>
+      <c r="A62" s="26">
+        <v>61</v>
       </c>
       <c r="B62" s="5">
         <v>45550</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" s="6" t="e">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="E62">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="F62">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="G62" s="6">
         <f t="shared" si="26"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H62" s="6" t="e">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="H62" s="6">
         <f t="shared" si="27"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I62" s="6" t="e">
+        <v>6.1635600000000004</v>
+      </c>
+      <c r="I62" s="6">
         <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
+        <v>6.1635600000000004</v>
       </c>
       <c r="J62" s="20">
         <f t="shared" si="29"/>
-        <v>-1</v>
-      </c>
-      <c r="K62" s="20" t="e">
+        <v>0</v>
+      </c>
+      <c r="K62" s="20">
         <f t="shared" si="30"/>
-        <v>#NUM!</v>
+        <v>0</v>
       </c>
       <c r="L62" s="6">
         <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$32)+'2024_wise_usd'!L61*(1-'2024_wise_desc'!$B$32)</f>
-        <v>5.0594003341574316</v>
+        <v>5.5893812865383836</v>
       </c>
       <c r="M62" s="6">
         <f>('2024_wise_usd'!F62*'2024_wise_desc'!$B$33)+'2024_wise_usd'!M61*(1-'2024_wise_desc'!$B$33)</f>
-        <v>3.7299917232966875</v>
+        <v>5.5849250566300208</v>
       </c>
       <c r="N62" s="6">
         <f t="shared" si="31"/>
-        <v>6.2058299999999997</v>
+        <v>6.2037165000000005</v>
       </c>
       <c r="O62" s="6">
         <f t="shared" si="32"/>
-        <v>6.2015374999999997</v>
+        <v>6.1939419999999998</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+      <c r="A63" s="25"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
+      <c r="A64" s="25"/>
+      <c r="C64" s="8"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
+      <c r="A65" s="25"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="25"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8"/>
+      <c r="A67" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="A49:A52 A53:A55" numberStoredAsText="1"/>
-    <ignoredError sqref="O20:O55 O6:O19 N21:N55" formulaRange="1"/>
-  </ignoredErrors>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68288BB6-1299-407F-A20E-500DE3875D7F}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="24">
         <v>45490.458333333336</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>5.9731800000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="24">
         <v>45490.708333333336</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>5.9967499999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>45490.958333333336</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>6.0023600000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>45491.458333333336</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>6.00298</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>45491.708333333336</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>6.0900600000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>45491.958333333336</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>6.0370799999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>45492.458333333336</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="29">
         <v>6.0396299999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>45492.708333333336</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>6.0720099999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>45492.958333333336</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>6.0924699999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>45493.458333333336</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="6">
         <v>6.0924699999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>45493.708333333336</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="6">
         <v>6.0924699999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>45493.958333333336</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="6">
         <v>6.0924699999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>45494.458333333336</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>6.0924699999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>45494.458333333336</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>6.0924699999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>45494.708333333336</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>6.0363499999999997</v>
       </c>
     </row>
@@ -15199,7 +15279,7 @@
       <c r="A17" s="24">
         <v>45495.958333333336</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>6.0609000000000002</v>
       </c>
     </row>
@@ -15207,7 +15287,7 @@
       <c r="A18" s="24">
         <v>45495.458333333336</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>6.06351</v>
       </c>
     </row>
@@ -15215,7 +15295,7 @@
       <c r="A19" s="24">
         <v>45495.708333333336</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>6.0671900000000001</v>
       </c>
     </row>
@@ -15223,7 +15303,7 @@
       <c r="A20" s="24">
         <v>45496.958333333336</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="6">
         <v>6.0692899999999996</v>
       </c>
     </row>
@@ -15231,7 +15311,7 @@
       <c r="A21" s="24">
         <v>45496.458333333336</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>6.0613000000000001</v>
       </c>
     </row>
@@ -15239,7 +15319,7 @@
       <c r="A22" s="24">
         <v>45496.708333333336</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="6">
         <v>6.0602799999999997</v>
       </c>
     </row>
@@ -15247,7 +15327,7 @@
       <c r="A23" s="24">
         <v>45497.958333333336</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="6">
         <v>6.1232899999999999</v>
       </c>
     </row>
@@ -15255,7 +15335,7 @@
       <c r="A24" s="24">
         <v>45497.458333333336</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>6.1300400000000002</v>
       </c>
     </row>
@@ -15263,7 +15343,7 @@
       <c r="A25" s="24">
         <v>45497.708333333336</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>6.1289499999999997</v>
       </c>
     </row>
@@ -15271,7 +15351,7 @@
       <c r="A26" s="24">
         <v>45498.958333333336</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>6.1245200000000004</v>
       </c>
     </row>
@@ -15279,7 +15359,7 @@
       <c r="A27" s="24">
         <v>45498.458333333336</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>6.1251600000000002</v>
       </c>
     </row>
@@ -15287,7 +15367,7 @@
       <c r="A28" s="24">
         <v>45498.458333333336</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>6.1287700000000003</v>
       </c>
     </row>
@@ -15295,7 +15375,7 @@
       <c r="A29" s="24">
         <v>45499.708333333336</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>6.1281999999999996</v>
       </c>
     </row>
@@ -15303,7 +15383,7 @@
       <c r="A30" s="24">
         <v>45499.958333333336</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>6.1429999999999998</v>
       </c>
     </row>
@@ -15311,7 +15391,7 @@
       <c r="A31" s="24">
         <v>45499.458333333336</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>6.1404699999999997</v>
       </c>
     </row>
@@ -15319,7 +15399,7 @@
       <c r="A32" s="24">
         <v>45500.708333333336</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>6.1404699999999997</v>
       </c>
     </row>
@@ -15327,7 +15407,7 @@
       <c r="A33" s="24">
         <v>45500.958333333336</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>6.1404699999999997</v>
       </c>
     </row>
@@ -15335,7 +15415,7 @@
       <c r="A34" s="24">
         <v>45500.458333333336</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>6.1404699999999997</v>
       </c>
     </row>
@@ -15343,7 +15423,7 @@
       <c r="A35" s="24">
         <v>45501.708333333336</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>6.1404699999999997</v>
       </c>
     </row>
@@ -15351,7 +15431,7 @@
       <c r="A36" s="24">
         <v>45501.958333333336</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="6">
         <v>6.1428500000000001</v>
       </c>
     </row>
@@ -15359,7 +15439,7 @@
       <c r="A37" s="24">
         <v>45501.458333333336</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="6">
         <v>6.1418600000000003</v>
       </c>
     </row>
@@ -15367,7 +15447,7 @@
       <c r="A38" s="24">
         <v>45502.708333333336</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>6.1089200000000003</v>
       </c>
     </row>
@@ -15375,7 +15455,7 @@
       <c r="A39" s="24">
         <v>45502.958333333336</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>6.08887</v>
       </c>
     </row>
@@ -15383,7 +15463,7 @@
       <c r="A40" s="24">
         <v>45502.458333333336</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>6.0749300000000002</v>
       </c>
     </row>
@@ -15391,7 +15471,7 @@
       <c r="A41" s="24">
         <v>45503.708333333336</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>6.1143400000000003</v>
       </c>
     </row>
@@ -15399,7 +15479,7 @@
       <c r="A42" s="24">
         <v>45503.958333333336</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>6.0705400000000003</v>
       </c>
     </row>
@@ -15407,7 +15487,7 @@
       <c r="A43" s="24">
         <v>45503.458333333336</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>6.0747400000000003</v>
       </c>
     </row>
@@ -15415,7 +15495,7 @@
       <c r="A44" s="24">
         <v>45504.458333333336</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="6">
         <v>6.15245</v>
       </c>
     </row>
@@ -15423,7 +15503,7 @@
       <c r="A45" s="24">
         <v>45504.708333333336</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
         <v>6.1144100000000003</v>
       </c>
     </row>
@@ -15431,7 +15511,7 @@
       <c r="A46" s="24">
         <v>45504.958333333336</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="6">
         <v>6.1261000000000001</v>
       </c>
     </row>
@@ -15439,7 +15519,7 @@
       <c r="A47" s="24">
         <v>45505.458333333336</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="6">
         <v>6.0955500000000002</v>
       </c>
     </row>
@@ -15447,7 +15527,7 @@
       <c r="A48" s="24">
         <v>45505.708333333336</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
         <v>6.1876199999999999</v>
       </c>
     </row>
@@ -15455,7 +15535,7 @@
       <c r="A49" s="24">
         <v>45505.958333333336</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="6">
         <v>6.2071300000000003</v>
       </c>
     </row>
@@ -15463,7 +15543,7 @@
       <c r="A50" s="24">
         <v>45506.458333333336</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>6.2333999999999996</v>
       </c>
     </row>
@@ -15471,7 +15551,7 @@
       <c r="A51" s="24">
         <v>45506.708333333336</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>6.23088</v>
       </c>
     </row>
@@ -15479,7 +15559,7 @@
       <c r="A52" s="24">
         <v>45506.958333333336</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>6.2495700000000003</v>
       </c>
     </row>
@@ -15487,7 +15567,7 @@
       <c r="A53" s="24">
         <v>45507.458333333336</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>6.2495700000000003</v>
       </c>
     </row>
@@ -15495,7 +15575,7 @@
       <c r="A54" s="24">
         <v>45507.458333333336</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
         <v>6.2495700000000003</v>
       </c>
     </row>
@@ -15503,7 +15583,7 @@
       <c r="A55" s="24">
         <v>45507.708333333336</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
         <v>6.2495700000000003</v>
       </c>
     </row>
@@ -15511,7 +15591,7 @@
       <c r="A56" s="24">
         <v>45508.958333333336</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="6">
         <v>6.2495700000000003</v>
       </c>
     </row>
@@ -15519,7 +15599,7 @@
       <c r="A57" s="24">
         <v>45508.458333333336</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="6">
         <v>6.2564099999999998</v>
       </c>
     </row>
@@ -15527,7 +15607,7 @@
       <c r="A58" s="24">
         <v>45508.708333333336</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="6">
         <v>6.25481</v>
       </c>
     </row>
@@ -15535,7 +15615,7 @@
       <c r="A59" s="24">
         <v>45509.958333333336</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="6">
         <v>6.3701999999999996</v>
       </c>
     </row>
@@ -15543,7 +15623,7 @@
       <c r="A60" s="24">
         <v>45509.458333333336</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="6">
         <v>6.2915599999999996</v>
       </c>
     </row>
@@ -15551,7 +15631,7 @@
       <c r="A61" s="24">
         <v>45509.708333333336</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="6">
         <v>6.2695499999999997</v>
       </c>
     </row>
@@ -15559,7 +15639,7 @@
       <c r="A62" s="24">
         <v>45510.958333333336</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="6">
         <v>6.1828000000000003</v>
       </c>
     </row>
@@ -15567,7 +15647,7 @@
       <c r="A63" s="24">
         <v>45510.458333333336</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="6">
         <v>6.1848700000000001</v>
       </c>
     </row>
@@ -15575,7 +15655,7 @@
       <c r="A64" s="24">
         <v>45510.708333333336</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>6.1767700000000003</v>
       </c>
     </row>
@@ -15583,7 +15663,7 @@
       <c r="A65" s="24">
         <v>45511.958333333336</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>6.1179699999999997</v>
       </c>
     </row>
@@ -15591,7 +15671,7 @@
       <c r="A66" s="24">
         <v>45511.458333333336</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>6.1429999999999998</v>
       </c>
     </row>
@@ -15599,7 +15679,7 @@
       <c r="A67" s="24">
         <v>45511.458333333336</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="6">
         <v>6.1602499999999996</v>
       </c>
     </row>
@@ -15607,7 +15687,7 @@
       <c r="A68" s="24">
         <v>45512.708333333336</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="6">
         <v>6.1177400000000004</v>
       </c>
     </row>
@@ -15615,7 +15695,7 @@
       <c r="A69" s="24">
         <v>45512.958333333336</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="6">
         <v>6.0851300000000004</v>
       </c>
     </row>
@@ -15623,7 +15703,7 @@
       <c r="A70" s="24">
         <v>45512.458333333336</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="6">
         <v>6.0570500000000003</v>
       </c>
     </row>
@@ -15631,7 +15711,7 @@
       <c r="A71" s="24">
         <v>45513.458333333336</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="6">
         <v>6.0171000000000001</v>
       </c>
     </row>
@@ -15639,7 +15719,7 @@
       <c r="A72" s="24">
         <v>45513.708333333336</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="6">
         <v>6.0211600000000001</v>
       </c>
     </row>
@@ -15647,7 +15727,7 @@
       <c r="A73" s="24">
         <v>45513.958333333336</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="6">
         <v>6.0135500000000004</v>
       </c>
     </row>
@@ -15655,7 +15735,7 @@
       <c r="A74" s="24">
         <v>45514.458333333336</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="6">
         <v>6.0135500000000004</v>
       </c>
     </row>
@@ -15663,7 +15743,7 @@
       <c r="A75" s="24">
         <v>45514.708333333336</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="6">
         <v>6.0135500000000004</v>
       </c>
     </row>
@@ -15671,7 +15751,7 @@
       <c r="A76" s="24">
         <v>45514.958333333336</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="6">
         <v>6.0135500000000004</v>
       </c>
     </row>
@@ -15679,7 +15759,7 @@
       <c r="A77" s="24">
         <v>45515.458333333336</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="6">
         <v>6.0078100000000001</v>
       </c>
     </row>
@@ -15687,7 +15767,7 @@
       <c r="A78" s="24">
         <v>45515.708333333336</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>6.0093300000000003</v>
       </c>
     </row>
@@ -15695,7 +15775,7 @@
       <c r="A79" s="24">
         <v>45515.958333333336</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="6">
         <v>6.0075200000000004</v>
       </c>
     </row>
@@ -15703,7 +15783,7 @@
       <c r="A80" s="24">
         <v>45516.458333333336</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="6">
         <v>6.0078100000000001</v>
       </c>
     </row>
@@ -15711,7 +15791,7 @@
       <c r="A81" s="24">
         <v>45516.708333333336</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="6">
         <v>6.0093300000000003</v>
       </c>
     </row>
@@ -15719,7 +15799,7 @@
       <c r="A82" s="24">
         <v>45516.958333333336</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="6">
         <v>6.0075200000000004</v>
       </c>
     </row>
@@ -15727,7 +15807,7 @@
       <c r="A83" s="24">
         <v>45517.458333333336</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="6">
         <v>6.0146800000000002</v>
       </c>
     </row>
@@ -15735,7 +15815,7 @@
       <c r="A84" s="24">
         <v>45517.458333333336</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="6">
         <v>5.9917600000000002</v>
       </c>
     </row>
@@ -15743,7 +15823,7 @@
       <c r="A85" s="24">
         <v>45517.708333333336</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="6">
         <v>5.9986600000000001</v>
       </c>
     </row>
@@ -15751,7 +15831,7 @@
       <c r="A86" s="24">
         <v>45518.958333333336</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="6">
         <v>6.0144599999999997</v>
       </c>
     </row>
@@ -15759,7 +15839,7 @@
       <c r="A87" s="24">
         <v>45518.458333333336</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>6.0229699999999999</v>
       </c>
     </row>
@@ -15767,7 +15847,7 @@
       <c r="A88" s="24">
         <v>45518.458333333336</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>6.0214800000000004</v>
       </c>
     </row>
@@ -15775,7 +15855,7 @@
       <c r="A89" s="24">
         <v>45519.708333333336</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="6">
         <v>5.9838699999999996</v>
       </c>
     </row>
@@ -15783,7 +15863,7 @@
       <c r="A90" s="24">
         <v>45519.958333333336</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="6">
         <v>6.0173199999999998</v>
       </c>
     </row>
@@ -15791,7 +15871,7 @@
       <c r="A91" s="24">
         <v>45519.458333333336</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>6.0248200000000001</v>
       </c>
     </row>
@@ -15799,7 +15879,7 @@
       <c r="A92" s="24">
         <v>45520.708333333336</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="6">
         <v>6.0010300000000001</v>
       </c>
     </row>
@@ -15807,7 +15887,7 @@
       <c r="A93" s="24">
         <v>45520.958333333336</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="6">
         <v>6.0262700000000002</v>
       </c>
     </row>
@@ -15815,7 +15895,7 @@
       <c r="A94" s="24">
         <v>45520.458333333336</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="6">
         <v>6.03376</v>
       </c>
     </row>
@@ -15823,7 +15903,7 @@
       <c r="A95" s="24">
         <v>45521.708333333336</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="6">
         <v>6.03376</v>
       </c>
     </row>
@@ -15831,7 +15911,7 @@
       <c r="A96" s="24">
         <v>45521.958333333336</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="6">
         <v>6.03376</v>
       </c>
     </row>
@@ -15839,7 +15919,7 @@
       <c r="A97" s="24">
         <v>45521.458333333336</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="6">
         <v>6.03376</v>
       </c>
     </row>
@@ -15847,7 +15927,7 @@
       <c r="A98" s="24">
         <v>45522.708333333336</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="6">
         <v>6.03376</v>
       </c>
     </row>
@@ -15855,7 +15935,7 @@
       <c r="A99" s="24">
         <v>45522.958333333336</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="6">
         <v>6.03376</v>
       </c>
     </row>
@@ -15863,7 +15943,7 @@
       <c r="A100" s="24">
         <v>45522.458333333336</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="6">
         <v>6.0332999999999997</v>
       </c>
     </row>
@@ -15871,7 +15951,7 @@
       <c r="A101" s="24">
         <v>45523.458333333336</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="6">
         <v>5.9958999999999998</v>
       </c>
     </row>
@@ -15879,7 +15959,7 @@
       <c r="A102" s="24">
         <v>45523.708333333336</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="6">
         <v>5.9989999999999997</v>
       </c>
     </row>
@@ -15887,7 +15967,7 @@
       <c r="A103" s="24">
         <v>45523.958333333336</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="6">
         <v>5.9932999999999996</v>
       </c>
     </row>
@@ -15895,7 +15975,7 @@
       <c r="A104" s="24">
         <v>45524.458333333336</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="6">
         <v>6.0391000000000004</v>
       </c>
     </row>
@@ -15903,7 +15983,7 @@
       <c r="A105" s="24">
         <v>45524.708333333336</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="6">
         <v>6.1021000000000001</v>
       </c>
     </row>
@@ -15911,7 +15991,7 @@
       <c r="A106" s="24">
         <v>45524.958333333336</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="6">
         <v>6.0941000000000001</v>
       </c>
     </row>
@@ -15919,7 +15999,7 @@
       <c r="A107" s="24">
         <v>45525.458333333336</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="6">
         <v>6.0796000000000001</v>
       </c>
     </row>
@@ -15927,7 +16007,7 @@
       <c r="A108" s="24">
         <v>45525.708333333336</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="6">
         <v>6.1125999999999996</v>
       </c>
     </row>
@@ -15935,7 +16015,7 @@
       <c r="A109" s="24">
         <v>45525.958333333336</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="6">
         <v>6.1108000000000002</v>
       </c>
     </row>
@@ -15943,7 +16023,7 @@
       <c r="A110" s="24">
         <v>45526.458333333336</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="6">
         <v>6.1086999999999998</v>
       </c>
     </row>
@@ -15951,7 +16031,7 @@
       <c r="A111" s="24">
         <v>45526.708333333336</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="6">
         <v>6.2092999999999998</v>
       </c>
     </row>
@@ -15959,7 +16039,7 @@
       <c r="A112" s="24">
         <v>45526.958333333336</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="6">
         <v>6.2225999999999999</v>
       </c>
     </row>
@@ -15967,7 +16047,7 @@
       <c r="A113" s="24">
         <v>45527.458333333336</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="6">
         <v>6.1725000000000003</v>
       </c>
     </row>
@@ -15975,7 +16055,7 @@
       <c r="A114" s="24">
         <v>45527.708333333336</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="6">
         <v>6.1323999999999996</v>
       </c>
     </row>
@@ -15983,7 +16063,7 @@
       <c r="A115" s="24">
         <v>45527.958333333336</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="6">
         <v>6.1401700000000003</v>
       </c>
     </row>
@@ -15991,7 +16071,7 @@
       <c r="A116" s="24">
         <v>45528.458333333336</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="6">
         <v>6.1401700000000003</v>
       </c>
     </row>
@@ -15999,7 +16079,7 @@
       <c r="A117" s="24">
         <v>45528.458333333336</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="6">
         <v>6.1401700000000003</v>
       </c>
     </row>
@@ -16007,7 +16087,7 @@
       <c r="A118" s="24">
         <v>45528.708333333336</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="6">
         <v>6.1401700000000003</v>
       </c>
     </row>
@@ -16015,7 +16095,7 @@
       <c r="A119" s="24">
         <v>45529.958333333336</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="6">
         <v>6.1401700000000003</v>
       </c>
     </row>
@@ -16023,7 +16103,7 @@
       <c r="A120" s="24">
         <v>45529.458333333336</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="6">
         <v>6.1401700000000003</v>
       </c>
     </row>
@@ -16031,7 +16111,7 @@
       <c r="A121" s="24">
         <v>45529.708333333336</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="6">
         <v>6.1395999999999997</v>
       </c>
     </row>
@@ -16039,7 +16119,7 @@
       <c r="A122" s="24">
         <v>45530.458333333336</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="6">
         <v>6.1208999999999998</v>
       </c>
     </row>
@@ -16047,7 +16127,7 @@
       <c r="A123" s="24">
         <v>45530.708333333336</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="6">
         <v>6.1284999999999998</v>
       </c>
     </row>
@@ -16055,7 +16135,7 @@
       <c r="A124" s="24">
         <v>45530.958333333336</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="6">
         <v>6.1401000000000003</v>
       </c>
     </row>
@@ -16063,7 +16143,7 @@
       <c r="A125" s="24">
         <v>45531.458333333336</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="6">
         <v>6.1345000000000001</v>
       </c>
     </row>
@@ -16071,7 +16151,7 @@
       <c r="A126" s="24">
         <v>45531.708333333336</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="6">
         <v>6.1538000000000004</v>
       </c>
     </row>
@@ -16079,7 +16159,7 @@
       <c r="A127" s="24">
         <v>45531.958333333336</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="6">
         <v>6.1562000000000001</v>
       </c>
     </row>
@@ -16087,7 +16167,7 @@
       <c r="A128" s="24">
         <v>45532.458333333336</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="6">
         <v>6.1444999999999999</v>
       </c>
     </row>
@@ -16095,7 +16175,7 @@
       <c r="A129" s="24">
         <v>45532.708333333336</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="6">
         <v>6.1733000000000002</v>
       </c>
     </row>
@@ -16103,7 +16183,7 @@
       <c r="A130" s="24">
         <v>45532.958333333336</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="6">
         <v>6.1912000000000003</v>
       </c>
     </row>
@@ -16111,7 +16191,7 @@
       <c r="A131" s="24">
         <v>45533.458333333336</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="6">
         <v>6.2511999999999999</v>
       </c>
     </row>
@@ -16119,7 +16199,7 @@
       <c r="A132" s="24">
         <v>45533.708333333336</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="6">
         <v>6.2274000000000003</v>
       </c>
     </row>
@@ -16127,7 +16207,7 @@
       <c r="A133" s="24">
         <v>45533.958333333336</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="6">
         <v>6.2314999999999996</v>
       </c>
     </row>
@@ -16135,7 +16215,7 @@
       <c r="A134" s="24">
         <v>45534.458333333336</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="6">
         <v>6.2614000000000001</v>
       </c>
     </row>
@@ -16143,7 +16223,7 @@
       <c r="A135" s="24">
         <v>45534.708333333336</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="6">
         <v>6.2282000000000002</v>
       </c>
     </row>
@@ -16151,7 +16231,7 @@
       <c r="A136" s="24">
         <v>45534.958333333336</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="6">
         <v>6.1933699999999998</v>
       </c>
     </row>
@@ -16159,7 +16239,7 @@
       <c r="A137" s="24">
         <v>45535.458333333336</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="6">
         <v>6.1933699999999998</v>
       </c>
     </row>
@@ -16167,7 +16247,7 @@
       <c r="A138" s="24">
         <v>45535.708333333336</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="6">
         <v>6.1933699999999998</v>
       </c>
     </row>
@@ -16175,7 +16255,7 @@
       <c r="A139" s="24">
         <v>45535.958333333336</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="6">
         <v>6.1933699999999998</v>
       </c>
     </row>
@@ -16183,7 +16263,7 @@
       <c r="A140" s="24">
         <v>45536.458333333336</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="6">
         <v>6.1933699999999998</v>
       </c>
     </row>
@@ -16191,7 +16271,7 @@
       <c r="A141" s="24">
         <v>45536.708333333336</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="6">
         <v>6.1933699999999998</v>
       </c>
     </row>
@@ -16199,7 +16279,7 @@
       <c r="A142" s="24">
         <v>45536.958333333336</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="6">
         <v>6.2034399999999996</v>
       </c>
     </row>
@@ -16207,7 +16287,7 @@
       <c r="A143" s="24">
         <v>45537.458333333336</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="6">
         <v>6.2514799999999999</v>
       </c>
     </row>
@@ -16215,7 +16295,7 @@
       <c r="A144" s="24">
         <v>45537.708333333336</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="6">
         <v>6.2182700000000004</v>
       </c>
     </row>
@@ -16223,7 +16303,7 @@
       <c r="A145" s="24">
         <v>45537.958333333336</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="6">
         <v>6.2155399999999998</v>
       </c>
     </row>
@@ -16231,7 +16311,7 @@
       <c r="A146" s="24">
         <v>45538.458333333336</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="6">
         <v>6.2251500000000002</v>
       </c>
     </row>
@@ -16239,7 +16319,7 @@
       <c r="A147" s="24">
         <v>45538.708333333336</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="6">
         <v>6.2280600000000002</v>
       </c>
     </row>
@@ -16247,7 +16327,7 @@
       <c r="A148" s="24">
         <v>45538.958333333336</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="6">
         <v>6.2437500000000004</v>
       </c>
     </row>
@@ -16255,7 +16335,7 @@
       <c r="A149" s="24">
         <v>45539.458333333336</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="6">
         <v>6.2382799999999996</v>
       </c>
     </row>
@@ -16263,7 +16343,7 @@
       <c r="A150" s="24">
         <v>45539.708333333336</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="6">
         <v>6.2497699999999998</v>
       </c>
     </row>
@@ -16271,7 +16351,7 @@
       <c r="A151" s="24">
         <v>45539.958333333336</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="6">
         <v>6.2532800000000002</v>
       </c>
     </row>
@@ -16279,7 +16359,7 @@
       <c r="A152" s="24">
         <v>45540.458333333336</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="6">
         <v>6.22342</v>
       </c>
     </row>
@@ -16287,7 +16367,7 @@
       <c r="A153" s="24">
         <v>45540.708333333336</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="6">
         <v>6.1868999999999996</v>
       </c>
     </row>
@@ -16295,7 +16375,7 @@
       <c r="A154" s="24">
         <v>45540.958333333336</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="6">
         <v>6.1872999999999996</v>
       </c>
     </row>
@@ -16303,7 +16383,7 @@
       <c r="A155" s="24">
         <v>45541.458333333336</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="6">
         <v>6.1641300000000001</v>
       </c>
     </row>
@@ -16311,7 +16391,7 @@
       <c r="A156" s="24">
         <v>45541.708333333336</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="6">
         <v>6.1978099999999996</v>
       </c>
     </row>
@@ -16319,7 +16399,7 @@
       <c r="A157" s="24">
         <v>45541.958333333336</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="6">
         <v>6.2072099999999999</v>
       </c>
     </row>
@@ -16327,7 +16407,7 @@
       <c r="A158" s="24">
         <v>45542.458333333336</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="6">
         <v>6.2072099999999999</v>
       </c>
     </row>
@@ -16335,7 +16415,7 @@
       <c r="A159" s="24">
         <v>45542.708333333336</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="6">
         <v>6.2072099999999999</v>
       </c>
     </row>
@@ -16343,7 +16423,7 @@
       <c r="A160" s="24">
         <v>45542.958333333336</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="6">
         <v>6.2072099999999999</v>
       </c>
     </row>
@@ -16351,7 +16431,7 @@
       <c r="A161" s="24">
         <v>45543.458333333336</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="6">
         <v>6.2072099999999999</v>
       </c>
     </row>
@@ -16359,7 +16439,7 @@
       <c r="A162" s="24">
         <v>45543.708333333336</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="6">
         <v>6.2072099999999999</v>
       </c>
     </row>
@@ -16367,7 +16447,7 @@
       <c r="A163" s="24">
         <v>45543.958333333336</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="6">
         <v>6.2043600000000003</v>
       </c>
     </row>
@@ -16375,7 +16455,7 @@
       <c r="A164" s="24">
         <v>45544.458333333336</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="6">
         <v>6.1954399999999996</v>
       </c>
     </row>
@@ -16383,7 +16463,7 @@
       <c r="A165" s="24">
         <v>45544.708333333336</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="6">
         <v>6.1645099999999999</v>
       </c>
     </row>
@@ -16391,7 +16471,7 @@
       <c r="A166" s="24">
         <v>45544.958333333336</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="6">
         <v>6.1646200000000002</v>
       </c>
     </row>
@@ -16399,7 +16479,7 @@
       <c r="A167" s="24">
         <v>45545.458333333336</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="6">
         <v>6.1889099999999999</v>
       </c>
     </row>
@@ -16407,7 +16487,7 @@
       <c r="A168" s="24">
         <v>45545.708333333336</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="6">
         <v>6.2345699999999997</v>
       </c>
     </row>
@@ -16415,7 +16495,7 @@
       <c r="A169" s="24">
         <v>45545.958333333336</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="6">
         <v>6.2496900000000002</v>
       </c>
     </row>
@@ -16423,7 +16503,7 @@
       <c r="A170" s="24">
         <v>45546.458333333336</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="6">
         <v>6.2134999999999998</v>
       </c>
     </row>
@@ -16431,7 +16511,7 @@
       <c r="A171" s="24">
         <v>45546.708333333336</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="6">
         <v>6.2330899999999998</v>
       </c>
     </row>
@@ -16439,7 +16519,7 @@
       <c r="A172" s="24">
         <v>45546.958333333336</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="6">
         <v>6.2430500000000002</v>
       </c>
     </row>
@@ -16447,7 +16527,7 @@
       <c r="A173" s="24">
         <v>45547.458333333336</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="6">
         <v>6.2440899999999999</v>
       </c>
     </row>
@@ -16455,7 +16535,7 @@
       <c r="A174" s="24">
         <v>45547.708333333336</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="6">
         <v>6.2191299999999998</v>
       </c>
     </row>
@@ -16463,7 +16543,7 @@
       <c r="A175" s="24">
         <v>45547.958333333336</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="6">
         <v>6.2359799999999996</v>
       </c>
     </row>
@@ -16471,7 +16551,7 @@
       <c r="A176" s="24">
         <v>45548.458333333336</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="6">
         <v>6.1826600000000003</v>
       </c>
     </row>
@@ -16479,7 +16559,7 @@
       <c r="A177" s="24">
         <v>45548.708333333336</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="6">
         <v>6.1648899999999998</v>
       </c>
     </row>
@@ -16487,7 +16567,7 @@
       <c r="A178" s="24">
         <v>45548.958333333336</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="6">
         <v>6.1635600000000004</v>
       </c>
     </row>
@@ -16495,7 +16575,7 @@
       <c r="A179" s="24">
         <v>45549.458333333336</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="6">
         <v>6.1635600000000004</v>
       </c>
     </row>
@@ -16503,7 +16583,7 @@
       <c r="A180" s="24">
         <v>45549.708333333336</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="6">
         <v>6.1635600000000004</v>
       </c>
     </row>
@@ -16511,7 +16591,7 @@
       <c r="A181" s="24">
         <v>45549.958333333336</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="6">
         <v>6.1635600000000004</v>
       </c>
     </row>
@@ -16537,12 +16617,12 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B3" s="20">
         <f>AVERAGE('2024_wise_usd'!$K3:$K55)</f>
@@ -16555,7 +16635,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B4" s="20">
         <f>_xlfn.STDEV.S('2024_wise_usd'!$K3:$K55)</f>
@@ -16568,7 +16648,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B5" s="20">
         <f>AVERAGE('2024_wise_usd'!$J3:$J55)</f>
@@ -16581,7 +16661,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B6" s="20">
         <f>_xlfn.STDEV.S('2024_wise_usd'!$J3:$J55)</f>
@@ -16594,7 +16674,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B8" s="19">
         <f>B4*SQRT(360)</f>
@@ -16607,7 +16687,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B9" s="19">
         <f>B4*SQRT(252)</f>
@@ -16620,7 +16700,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B10" s="19">
         <f>B6*SQRT(360)</f>
@@ -16633,7 +16713,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B11" s="19">
         <f>B6*SQRT(252)</f>
@@ -16646,12 +16726,12 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B16" s="20">
         <f>AVERAGE('2024_wise_eur'!$K3:$K55)</f>
@@ -16664,7 +16744,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" s="20">
         <f>_xlfn.STDEV.S('2024_wise_eur'!$K3:$K55)</f>
@@ -16677,7 +16757,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B18" s="20">
         <f>AVERAGE('2024_wise_eur'!$J3:$J55)</f>
@@ -16690,7 +16770,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B19" s="20">
         <f>_xlfn.STDEV.S('2024_wise_eur'!$J3:$J55)</f>
@@ -16703,7 +16783,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B21" s="19">
         <f>B17*SQRT(360)</f>
@@ -16716,7 +16796,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B22" s="19">
         <f>B17*SQRT(252)</f>
@@ -16729,7 +16809,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B23" s="19">
         <f>B19*SQRT(360)</f>
@@ -16742,7 +16822,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B24" s="19">
         <f>B19*SQRT(252)</f>
@@ -16755,12 +16835,12 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>20</v>
@@ -16768,7 +16848,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>5</v>
@@ -16776,7 +16856,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -16784,7 +16864,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B32" s="23">
         <f>$B$31/(1+B29)</f>
@@ -16793,7 +16873,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B33" s="23">
         <f>$B$31/(1+B30)</f>

--- a/excel/exchanges_historic_series.xlsx
+++ b/excel/exchanges_historic_series.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tassi\Documents\Programming\MBA\xchange\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0F4AAD-601F-403A-9EE7-96BC8CF956A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D91F21-E693-4C5E-816B-FE3A8430BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="50">
   <si>
     <t>date</t>
   </si>
@@ -687,11 +687,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L185" sqref="L185"/>
+      <selection pane="bottomLeft" activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4947,7 +4947,7 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="C130" s="11">
-        <f t="shared" ref="C130:C184" si="4">A130</f>
+        <f t="shared" ref="C130:C187" si="4">A130</f>
         <v>45532</v>
       </c>
       <c r="D130">
@@ -6721,12 +6721,127 @@
         <f t="shared" si="4"/>
         <v>45550</v>
       </c>
+      <c r="D184">
+        <v>6.2081999999999997</v>
+      </c>
+      <c r="E184">
+        <v>5.5989699999999996</v>
+      </c>
+      <c r="F184" s="3">
+        <v>6.2932600000000001</v>
+      </c>
+      <c r="G184">
+        <v>5.6753600000000004</v>
+      </c>
+      <c r="H184">
+        <v>6.24</v>
+      </c>
+      <c r="I184">
+        <v>5.57</v>
+      </c>
       <c r="J184" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5">
+        <v>45551</v>
+      </c>
+      <c r="B185" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C185" s="11">
+        <f t="shared" si="4"/>
+        <v>45551</v>
+      </c>
+      <c r="D185">
+        <v>6.1311799999999996</v>
+      </c>
+      <c r="E185">
+        <v>5.5107499999999998</v>
+      </c>
+      <c r="F185">
+        <v>6.2735200000000004</v>
+      </c>
+      <c r="G185">
+        <v>5.6337999999999999</v>
+      </c>
+      <c r="H185">
+        <v>6.18</v>
+      </c>
+      <c r="I185">
+        <v>5.53</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="L185" s="3"/>
+    </row>
+    <row r="186" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5">
+        <v>45551</v>
+      </c>
+      <c r="B186" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C186" s="11">
+        <f t="shared" si="4"/>
+        <v>45551</v>
+      </c>
+      <c r="D186">
+        <v>6.1312800000000003</v>
+      </c>
+      <c r="E186">
+        <v>5.5081899999999999</v>
+      </c>
+      <c r="F186">
+        <v>6.2617399999999996</v>
+      </c>
+      <c r="G186">
+        <v>5.62113</v>
+      </c>
+      <c r="H186">
+        <v>6.13</v>
+      </c>
+      <c r="I186">
+        <v>5.51</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5">
+        <v>45551</v>
+      </c>
+      <c r="B187" s="14">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C187" s="11">
+        <f t="shared" si="4"/>
+        <v>45551</v>
+      </c>
+      <c r="D187">
+        <v>6.1264500000000002</v>
+      </c>
+      <c r="E187">
+        <v>5.5053700000000001</v>
+      </c>
+      <c r="F187">
+        <v>6.3411499999999998</v>
+      </c>
+      <c r="G187">
+        <v>5.6148199999999999</v>
+      </c>
+      <c r="H187">
+        <v>6.19</v>
+      </c>
+      <c r="I187">
+        <v>5.51</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
